--- a/Mass List and Parameters.xlsx
+++ b/Mass List and Parameters.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Erick\MSI-CE-MS-Data-Preprocessing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\MSI-CE-MS-Data-Preprocessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F5F980-0B44-4645-ADC7-11ED9D3A998D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDC30F8-5E5F-4C47-A024-C17C9759AD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{3F442743-5A66-4E15-9366-B88AC1790E64}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3F442743-5A66-4E15-9366-B88AC1790E64}"/>
   </bookViews>
   <sheets>
     <sheet name="Analyte Mass List" sheetId="1" r:id="rId1"/>
-    <sheet name="IS Mass List" sheetId="2" r:id="rId2"/>
+    <sheet name="Internal Standard Mass List" sheetId="2" r:id="rId2"/>
     <sheet name="Parameters" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="102">
   <si>
     <t>name</t>
   </si>
@@ -250,9 +250,6 @@
     <t>Unknown 1</t>
   </si>
   <si>
-    <t>Unknown 3</t>
-  </si>
-  <si>
     <t>Creatine</t>
   </si>
   <si>
@@ -274,52 +271,89 @@
     <t>minimim.peak.width.seconds</t>
   </si>
   <si>
+    <t>peak.space.tolerance.percent</t>
+  </si>
+  <si>
+    <t>DMG</t>
+  </si>
+  <si>
+    <t>Methyl-Cysteine</t>
+  </si>
+  <si>
+    <t>Methionine</t>
+  </si>
+  <si>
+    <t>min.rt.min</t>
+  </si>
+  <si>
+    <t>max.rt.min</t>
+  </si>
+  <si>
+    <t>peak.fwhm.tolerance.multiplier</t>
+  </si>
+  <si>
+    <t>number.of.injections</t>
+  </si>
+  <si>
+    <t>extraction.window.ppm</t>
+  </si>
+  <si>
+    <t>required.points.for.peak.picking</t>
+  </si>
+  <si>
+    <t>ref.mass.one</t>
+  </si>
+  <si>
+    <t>ref.mass.two</t>
+  </si>
+  <si>
+    <t>ref.mass.window.ppm</t>
+  </si>
+  <si>
+    <t>ref.mass.minimum.counts</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>Unknown 5</t>
   </si>
   <si>
-    <t>peak.space.tolerance.percent</t>
-  </si>
-  <si>
-    <t>number.of.injections</t>
-  </si>
-  <si>
-    <t>extraction.window.ppm</t>
-  </si>
-  <si>
-    <t>required.points.for.peak.picking</t>
-  </si>
-  <si>
-    <t>eie.smoothing.strength</t>
-  </si>
-  <si>
-    <t>ref.mass.one</t>
-  </si>
-  <si>
-    <t>ref.mass.two</t>
-  </si>
-  <si>
-    <t>ref.mass.window.ppm</t>
-  </si>
-  <si>
-    <t>ref.mass.minimum.counts</t>
-  </si>
-  <si>
-    <t>min.rt.min</t>
-  </si>
-  <si>
-    <t>max.rt.min</t>
-  </si>
-  <si>
-    <t>peak.fwhm.tolerance.multiplier</t>
+    <t>Unknown 7</t>
+  </si>
+  <si>
+    <t>Unknown 8</t>
+  </si>
+  <si>
+    <t>smoothing.kernal</t>
+  </si>
+  <si>
+    <t>smoothing.strength</t>
+  </si>
+  <si>
+    <t>Creatine, Leucine, Isoleucine</t>
+  </si>
+  <si>
+    <t>Unknown 1, Choline</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Internal Standard</t>
+  </si>
+  <si>
+    <t>Analyte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -383,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -410,6 +444,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -726,29 +763,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A9B2B3-45F3-4E9C-8863-F19858D470D6}">
-  <dimension ref="A1:Y48"/>
+  <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C48"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="48" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="23" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="25" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -756,70 +795,76 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>79</v>
+      <c r="I1" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -827,13 +872,13 @@
         <v>72.080699999999993</v>
       </c>
       <c r="C2" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" s="6">
         <v>1.25</v>
@@ -844,48 +889,54 @@
       <c r="J2" s="1">
         <v>3</v>
       </c>
-      <c r="K2" s="2">
-        <v>0.8556342795252494</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0.86338725941514316</v>
+      <c r="K2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="1">
+        <v>4</v>
       </c>
       <c r="M2" s="2">
-        <v>0.87006564924546004</v>
+        <v>0.83991993136974552</v>
       </c>
       <c r="N2" s="2">
-        <v>0.87630662020905925</v>
+        <v>0.84943807844865582</v>
       </c>
       <c r="O2" s="2">
-        <v>0.88157363276516687</v>
+        <v>0.85832713359549362</v>
       </c>
       <c r="P2" s="2">
-        <v>0.88838969023409797</v>
+        <v>0.86668034047789977</v>
       </c>
       <c r="Q2" s="2">
-        <v>0.89292447385633489</v>
+        <v>0.87430527987296536</v>
       </c>
       <c r="R2" s="2">
-        <v>0.89738581730769229</v>
+        <v>0.88144800730734107</v>
       </c>
       <c r="S2" s="2">
-        <v>0.90275330396475784</v>
+        <v>0.88882668532773501</v>
       </c>
       <c r="T2" s="2">
-        <v>0.90673463526708775</v>
+        <v>0.89505165851005974</v>
       </c>
       <c r="U2" s="2">
-        <v>0.91102052291256674</v>
+        <v>0.90018060878375394</v>
       </c>
       <c r="V2" s="2">
-        <v>0.91512940528634357</v>
+        <v>0.90575983543327343</v>
       </c>
       <c r="W2" s="2">
-        <v>0.91914936640603928</v>
-      </c>
-      <c r="Y2" s="2"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0.91159020640093591</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0.91515620544987986</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0.91989510072714264</v>
+      </c>
+      <c r="AA2" s="2"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -893,13 +944,13 @@
         <v>76.039900000000003</v>
       </c>
       <c r="C3" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" s="6">
         <v>1.25</v>
@@ -910,48 +961,54 @@
       <c r="J3" s="1">
         <v>3</v>
       </c>
-      <c r="K3" s="2">
-        <v>0.96623563218390807</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0.96797219291167524</v>
+      <c r="K3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" s="1">
+        <v>4</v>
       </c>
       <c r="M3" s="2">
-        <v>0.97046288623179833</v>
+        <v>0.95831175556706361</v>
       </c>
       <c r="N3" s="2">
-        <v>0.9726213372553455</v>
+        <v>0.96237687711932829</v>
       </c>
       <c r="O3" s="2">
-        <v>0.9738593927585647</v>
+        <v>0.96829620618870216</v>
       </c>
       <c r="P3" s="2">
-        <v>0.97492211838006226</v>
+        <v>0.97129735935706085</v>
       </c>
       <c r="Q3" s="2">
-        <v>0.97588135423948863</v>
+        <v>0.97397921054419467</v>
       </c>
       <c r="R3" s="2">
-        <v>0.97677102871158561</v>
+        <v>0.9752935105147722</v>
       </c>
       <c r="S3" s="2">
-        <v>0.9775963634676933</v>
+        <v>0.97642146629006499</v>
       </c>
       <c r="T3" s="2">
-        <v>0.97906674436326135</v>
+        <v>0.97750307575136208</v>
       </c>
       <c r="U3" s="2">
-        <v>0.97979009454419286</v>
+        <v>0.9794785534062237</v>
       </c>
       <c r="V3" s="2">
-        <v>0.97971270161290325</v>
+        <v>0.97941081604128588</v>
       </c>
       <c r="W3" s="2">
-        <v>0.98033227461519667</v>
-      </c>
-      <c r="Y3" s="2"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0.98103555188094249</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0.98174311013829463</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0.98163157642319321</v>
+      </c>
+      <c r="AA3" s="2"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -974,7 +1031,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I4" s="9">
         <v>20</v>
@@ -982,47 +1039,53 @@
       <c r="J4" s="1">
         <v>3</v>
       </c>
-      <c r="K4" s="2">
-        <v>0.99639895242252297</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0.99662731871838117</v>
+      <c r="K4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4</v>
       </c>
       <c r="M4" s="2">
-        <v>0.99845412385195964</v>
+        <v>0.9947784810126582</v>
       </c>
       <c r="N4" s="2">
-        <v>0.9971421366731108</v>
+        <v>0.99528039977790117</v>
       </c>
       <c r="O4" s="2">
-        <v>0.99733959311424114</v>
+        <v>0.99580454096742366</v>
       </c>
       <c r="P4" s="2">
-        <v>0.99751152748298322</v>
+        <v>0.99623768949872737</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.99656262890141623</v>
+        <v>0.99657844419845032</v>
       </c>
       <c r="R4" s="2">
-        <v>0.99779392681027768</v>
+        <v>0.99685767097966727</v>
       </c>
       <c r="S4" s="2">
-        <v>0.99895564565671457</v>
+        <v>0.99863084032175253</v>
       </c>
       <c r="T4" s="2">
-        <v>1.0019832011199254</v>
+        <v>0.99737449279974533</v>
       </c>
       <c r="U4" s="2">
-        <v>0.99629034937157412</v>
+        <v>0.99754080035770165</v>
       </c>
       <c r="V4" s="2">
-        <v>0.99825949367088596</v>
+        <v>1.0011186464378103</v>
       </c>
       <c r="W4" s="2">
-        <v>0.99833836858006053</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0.99782206969376985</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.99794418141041608</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0.99899521248300727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
@@ -1030,7 +1093,7 @@
         <v>84.078999999999994</v>
       </c>
       <c r="C5" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>39</v>
@@ -1047,47 +1110,53 @@
       <c r="J5" s="1">
         <v>3</v>
       </c>
-      <c r="K5" s="2">
-        <v>1.0064753068522276</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1.005957144127323</v>
+      <c r="K5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4</v>
       </c>
       <c r="M5" s="2">
-        <v>1.0054334403556433</v>
+        <v>1.0092159559834939</v>
       </c>
       <c r="N5" s="2">
-        <v>1.0038375930616319</v>
+        <v>1.0082007343941248</v>
       </c>
       <c r="O5" s="2">
-        <v>1.0047495682210708</v>
+        <v>1.007400861592842</v>
       </c>
       <c r="P5" s="2">
-        <v>1.0045386803956105</v>
+        <v>1.0084396664322317</v>
       </c>
       <c r="Q5" s="2">
-        <v>1.0053164232641558</v>
+        <v>1.0061830933923956</v>
       </c>
       <c r="R5" s="2">
-        <v>1.0030343488287412</v>
+        <v>1.005631399317406</v>
       </c>
       <c r="S5" s="2">
-        <v>1.0028855032317636</v>
+        <v>1.0039780412125068</v>
       </c>
       <c r="T5" s="2">
-        <v>1.0036859767838477</v>
+        <v>1.003726060064088</v>
       </c>
       <c r="U5" s="2">
-        <v>1.0035213118200452</v>
+        <v>1.004630604083351</v>
       </c>
       <c r="V5" s="2">
-        <v>1.00337361530715</v>
+        <v>1.0044364984770229</v>
       </c>
       <c r="W5" s="2">
-        <v>1.0032378098874015</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1.0041415662650601</v>
+      </c>
+      <c r="X5" s="2">
+        <v>1.0029816924086112</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1.0038063856379957</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1095,16 +1164,16 @@
         <v>90.055499999999995</v>
       </c>
       <c r="C6" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" s="6">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="I6" s="9">
         <v>20</v>
@@ -1112,47 +1181,53 @@
       <c r="J6" s="1">
         <v>3</v>
       </c>
-      <c r="K6" s="2">
-        <v>1.0837904911180773</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1.0786419216684253</v>
+      <c r="K6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4</v>
       </c>
       <c r="M6" s="2">
-        <v>1.0739907659524091</v>
+        <v>1.0920939064388056</v>
       </c>
       <c r="N6" s="2">
-        <v>1.0696911415318475</v>
+        <v>1.0847731309543034</v>
       </c>
       <c r="O6" s="2">
-        <v>1.0640255452725009</v>
+        <v>1.0798296966471526</v>
       </c>
       <c r="P6" s="2">
-        <v>1.0597092419522325</v>
+        <v>1.0753444316877154</v>
       </c>
       <c r="Q6" s="2">
-        <v>1.0557774892639569</v>
+        <v>1.0701813981928121</v>
       </c>
       <c r="R6" s="2">
-        <v>1.0520848362429664</v>
+        <v>1.0656044381370144</v>
       </c>
       <c r="S6" s="2">
-        <v>1.0487035576789276</v>
+        <v>1.0603585902001718</v>
       </c>
       <c r="T6" s="2">
-        <v>1.0455421578735038</v>
+        <v>1.0556564532192865</v>
       </c>
       <c r="U6" s="2">
-        <v>1.0426316245988378</v>
+        <v>1.0514157555368655</v>
       </c>
       <c r="V6" s="2">
-        <v>1.039188508064516</v>
+        <v>1.0474680141920223</v>
       </c>
       <c r="W6" s="2">
-        <v>1.0366072155713006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1.0456283588259612</v>
+      </c>
+      <c r="X6" s="2">
+        <v>1.040592975823301</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>1.0376001151023933</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>69</v>
       </c>
@@ -1160,13 +1235,19 @@
         <v>104.0712</v>
       </c>
       <c r="C7" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
       <c r="G7" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" s="6">
         <v>1.25</v>
@@ -1177,327 +1258,357 @@
       <c r="J7" s="1">
         <v>3</v>
       </c>
-      <c r="K7" s="2">
-        <v>1.181687565308255</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1.1685804729687792</v>
+      <c r="K7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" s="1">
+        <v>4</v>
       </c>
       <c r="M7" s="2">
-        <v>1.1568012312063456</v>
+        <v>1.201363714828241</v>
       </c>
       <c r="N7" s="2">
-        <v>1.1469623260549835</v>
+        <v>1.1856935249475216</v>
       </c>
       <c r="O7" s="2">
-        <v>1.137035232992369</v>
+        <v>1.1722800881928077</v>
       </c>
       <c r="P7" s="2">
-        <v>1.1280373831775699</v>
+        <v>1.1614523536165327</v>
       </c>
       <c r="Q7" s="2">
-        <v>1.119794267452312</v>
+        <v>1.150553706094164</v>
       </c>
       <c r="R7" s="2">
-        <v>1.1121531284566921</v>
+        <v>1.1386917817055864</v>
       </c>
       <c r="S7" s="2">
-        <v>1.1058954496961824</v>
+        <v>1.1279012648900895</v>
       </c>
       <c r="T7" s="2">
-        <v>1.1000493074543907</v>
+        <v>1.1191048098892731</v>
       </c>
       <c r="U7" s="2">
-        <v>1.0939370283632579</v>
+        <v>1.1065320998037567</v>
       </c>
       <c r="V7" s="2">
-        <v>1.0867775537634408</v>
+        <v>1.1029996774540372</v>
       </c>
       <c r="W7" s="2">
-        <v>1.0827428943725059</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1.0964241422075238</v>
+      </c>
+      <c r="X7" s="2">
+        <v>1.0894935827280867</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>1.0831135197352646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="3">
+        <v>104.0712</v>
+      </c>
+      <c r="C8" s="9">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="I8" s="9">
+        <v>20</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.96854446668573058</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.97245482591449983</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.97613986608566261</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.97948928315044614</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.9793072647876141</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0.98158742368155383</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0.98208537438768373</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0.98336958491934023</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0.98387736223073874</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0.98358618325190716</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0.98608673853096007</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0.98708810231762467</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0.98676838717367976</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B9" s="3">
         <v>104.1075</v>
       </c>
-      <c r="C8" s="9">
-        <v>40</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C9" s="9">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="1">
-        <v>8</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="I8" s="9">
-        <v>20</v>
-      </c>
-      <c r="J8" s="1">
-        <v>3</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0.99503179650238471</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0.9969807868252516</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0.99721048182586647</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0.99740423188861804</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0.99632244777875845</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0.99654266353201504</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0.99784707724425892</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0.99796019285449367</v>
-      </c>
-      <c r="S8" s="2">
-        <v>0.99806383478056782</v>
-      </c>
-      <c r="T8" s="2">
-        <v>0.99815920120488644</v>
-      </c>
-      <c r="U8" s="2">
-        <v>0.99824561403508782</v>
-      </c>
-      <c r="V8" s="2">
-        <v>0.99746102676077786</v>
-      </c>
-      <c r="W8" s="2">
-        <v>0.99834630350194553</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="G9" s="1">
+        <v>10</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9">
+        <v>20</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.99292786421499279</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.99372647427854455</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.99627245001694342</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.99661642571516462</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.99689732982324186</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0.9970486111111112</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0.99595796281325799</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0.99750359331265603</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0.99758058777485226</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0.99778805549969829</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0.99892309641454458</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0.99801825606533745</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0.99714595581939625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B10" s="3">
         <v>106.0504</v>
       </c>
-      <c r="C9" s="9">
-        <v>40</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="1">
-        <v>8</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="C10" s="9">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10</v>
+      </c>
+      <c r="H10" s="6">
         <v>1.25</v>
       </c>
-      <c r="I9" s="9">
-        <v>20</v>
-      </c>
-      <c r="J9" s="1">
-        <v>3</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0.87066203348526561</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0.87728528212547685</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0.88353653337880467</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0.88875062220009948</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0.8936909281848292</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0.89891227240482396</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0.90385133315378408</v>
-      </c>
-      <c r="R9" s="2">
-        <v>0.90737680288461542</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0.91193098384728355</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0.91509908098793791</v>
-      </c>
-      <c r="U9" s="2">
-        <v>0.91920860275513072</v>
-      </c>
-      <c r="V9" s="2">
-        <v>0.92259774229074887</v>
-      </c>
-      <c r="W9" s="2">
-        <v>0.92588972768940414</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="I10" s="9">
+        <v>20</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="1">
+        <v>4</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.85707749499571062</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.86502864698104887</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.87341906685088733</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.87949953850887097</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0.88750496228662168</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0.8934666602567185</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0.89969675763937496</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0.90483958673191944</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0.90969560812299011</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0.91433101911373971</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0.91923623297401191</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0.92261007698260766</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0.92653077442682874</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B11" s="3">
         <v>114.0667</v>
       </c>
-      <c r="C10" s="9">
-        <v>40</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C11" s="9">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="1">
-        <v>8</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="I10" s="9">
-        <v>20</v>
-      </c>
-      <c r="J10" s="1">
-        <v>3</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1</v>
-      </c>
-      <c r="M10" s="2">
-        <v>1</v>
-      </c>
-      <c r="N10" s="2">
-        <v>1</v>
-      </c>
-      <c r="O10" s="2">
-        <v>1</v>
-      </c>
-      <c r="P10" s="2">
-        <v>0.99899547965846314</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2">
-        <v>1</v>
-      </c>
-      <c r="S10" s="2">
-        <v>1</v>
-      </c>
-      <c r="T10" s="2">
-        <v>1</v>
-      </c>
-      <c r="U10" s="2">
-        <v>1</v>
-      </c>
-      <c r="V10" s="2">
-        <v>1</v>
-      </c>
-      <c r="W10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="I11" s="9">
+        <v>20</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" s="1">
+        <v>4</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2">
+        <v>1</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1</v>
+      </c>
+      <c r="T11" s="2">
+        <v>1</v>
+      </c>
+      <c r="U11" s="2">
+        <v>1</v>
+      </c>
+      <c r="V11" s="2">
+        <v>1</v>
+      </c>
+      <c r="W11" s="2">
+        <v>1</v>
+      </c>
+      <c r="X11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="3">
         <v>116.0712</v>
       </c>
-      <c r="C11" s="9">
-        <v>40</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="1">
-        <v>8</v>
-      </c>
-      <c r="H11" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="I11" s="9">
-        <v>20</v>
-      </c>
-      <c r="J11" s="1">
-        <v>3</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0.95338237285076055</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0.95615765706519351</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0.95809531929405756</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0.95993031358885017</v>
-      </c>
-      <c r="O11" s="2">
-        <v>0.96162856450440259</v>
-      </c>
-      <c r="P11" s="2">
-        <v>0.9639000551745881</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0.96537262898695708</v>
-      </c>
-      <c r="R11" s="2">
-        <v>0.96619591346153855</v>
-      </c>
-      <c r="S11" s="2">
-        <v>0.96820851688693099</v>
-      </c>
-      <c r="T11" s="2">
-        <v>0.96952182653647334</v>
-      </c>
-      <c r="U11" s="2">
-        <v>0.97072673601349457</v>
-      </c>
-      <c r="V11" s="2">
-        <v>0.97191629955947123</v>
-      </c>
-      <c r="W11" s="2">
-        <v>0.97361148557562682</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="3">
-        <v>118.0868</v>
-      </c>
       <c r="C12" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="1">
-        <v>5</v>
-      </c>
       <c r="G12" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H12" s="6">
         <v>1.25</v>
@@ -1508,67 +1619,73 @@
       <c r="J12" s="1">
         <v>3</v>
       </c>
-      <c r="K12" s="2">
-        <v>0.85640146215984481</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0.86338725941514316</v>
+      <c r="K12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12" s="1">
+        <v>4</v>
       </c>
       <c r="M12" s="2">
-        <v>0.87006564924546004</v>
+        <v>0.94566771518444381</v>
       </c>
       <c r="N12" s="2">
-        <v>0.87630662020905925</v>
+        <v>0.94860070515645656</v>
       </c>
       <c r="O12" s="2">
-        <v>0.88157363276516687</v>
+        <v>0.95307684132213821</v>
       </c>
       <c r="P12" s="2">
-        <v>0.88771971309214159</v>
+        <v>0.95467131576248587</v>
       </c>
       <c r="Q12" s="2">
-        <v>0.89292447385633489</v>
+        <v>0.95782056371576019</v>
       </c>
       <c r="R12" s="2">
-        <v>0.89738581730769229</v>
+        <v>0.96077111677323213</v>
       </c>
       <c r="S12" s="2">
-        <v>0.90275330396475784</v>
+        <v>0.96267786330767446</v>
       </c>
       <c r="T12" s="2">
-        <v>0.90673463526708775</v>
+        <v>0.96524379191589615</v>
       </c>
       <c r="U12" s="2">
-        <v>0.91102052291256674</v>
+        <v>0.96696180784987451</v>
       </c>
       <c r="V12" s="2">
-        <v>0.91512940528634357</v>
+        <v>0.96858661181109107</v>
       </c>
       <c r="W12" s="2">
-        <v>0.91914936640603928</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0.96728503384306841</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0.97148792309885545</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>0.97353677434735963</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B13" s="3">
         <v>118.0868</v>
       </c>
       <c r="C13" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F13" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G13" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13" s="6">
         <v>1.25</v>
@@ -1579,61 +1696,73 @@
       <c r="J13" s="1">
         <v>3</v>
       </c>
-      <c r="K13" s="2">
-        <v>1.0165169908389367</v>
-      </c>
-      <c r="L13" s="2">
-        <v>1.0174930948309877</v>
+      <c r="K13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="1">
+        <v>4</v>
       </c>
       <c r="M13" s="2">
-        <v>1.0135135135135136</v>
+        <v>0.83991993136974552</v>
       </c>
       <c r="N13" s="2">
-        <v>1.0165920026547204</v>
+        <v>0.84943807844865582</v>
       </c>
       <c r="O13" s="2">
-        <v>1.0114306486792148</v>
+        <v>0.85832713359549362</v>
       </c>
       <c r="P13" s="2">
-        <v>1.0111531488925674</v>
+        <v>0.86580863501179384</v>
       </c>
       <c r="Q13" s="2">
-        <v>1.0108883844407681</v>
+        <v>0.87509924573243358</v>
       </c>
       <c r="R13" s="2">
-        <v>1.0093900240384615</v>
+        <v>0.88144800730734107</v>
       </c>
       <c r="S13" s="2">
-        <v>1.0098017621145376</v>
+        <v>0.88803358992302317</v>
       </c>
       <c r="T13" s="2">
-        <v>1.0089747271682941</v>
+        <v>0.89351096610476699</v>
       </c>
       <c r="U13" s="2">
-        <v>1.0087854933933089</v>
+        <v>0.89943174309501783</v>
       </c>
       <c r="V13" s="2">
-        <v>1.0086040748898679</v>
+        <v>0.90575983543327343</v>
       </c>
       <c r="W13" s="2">
-        <v>1.0084254516042059</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0.91159020640093591</v>
+      </c>
+      <c r="X13" s="2">
+        <v>0.91515620544987986</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>0.91989510072714264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3">
-        <v>120.06610000000001</v>
+        <v>118.0868</v>
       </c>
       <c r="C14" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="1">
+        <v>6</v>
+      </c>
       <c r="G14" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H14" s="6">
         <v>1.25</v>
@@ -1644,61 +1773,67 @@
       <c r="J14" s="1">
         <v>3</v>
       </c>
-      <c r="K14" s="2">
-        <v>0.92630533868856901</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0.93059757113420127</v>
+      <c r="K14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="1">
+        <v>4</v>
       </c>
       <c r="M14" s="2">
-        <v>0.93324239065563985</v>
+        <v>1.0085787818129828</v>
       </c>
       <c r="N14" s="2">
-        <v>0.93641114982578388</v>
+        <v>1.0100815337152931</v>
       </c>
       <c r="O14" s="2">
-        <v>0.93876726714597314</v>
+        <v>1.0115315123817621</v>
       </c>
       <c r="P14" s="2">
-        <v>0.94222432411129509</v>
+        <v>1.0110757870987592</v>
       </c>
       <c r="Q14" s="2">
-        <v>0.94551960293947901</v>
+        <v>1.0099245732433506</v>
       </c>
       <c r="R14" s="2">
-        <v>0.94681490384615385</v>
+        <v>1.0080284601701841</v>
       </c>
       <c r="S14" s="2">
-        <v>0.94922907488986785</v>
+        <v>1.0085374387683694</v>
       </c>
       <c r="T14" s="2">
-        <v>0.95096209075244098</v>
+        <v>1.0082925502990756</v>
       </c>
       <c r="U14" s="2">
-        <v>0.95375316277762168</v>
+        <v>1.0073565041187611</v>
       </c>
       <c r="V14" s="2">
-        <v>0.95584388766519823</v>
+        <v>1.0071569383731893</v>
       </c>
       <c r="W14" s="2">
-        <v>0.95790644378538681</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1.0069775215175063</v>
+      </c>
+      <c r="X14" s="2">
+        <v>1.0067614353794143</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>1.006635673699686</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3">
-        <v>129.066</v>
+        <v>120.06610000000001</v>
       </c>
       <c r="C15" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="G15" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H15" s="6">
         <v>1.25</v>
@@ -1707,69 +1842,69 @@
         <v>20</v>
       </c>
       <c r="J15" s="1">
-        <v>2</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1.0326541274817136</v>
-      </c>
-      <c r="L15" s="2">
-        <v>1.0310346967910125</v>
+        <v>3</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L15" s="1">
+        <v>4</v>
       </c>
       <c r="M15" s="2">
-        <v>1.0306025807979167</v>
+        <v>0.87229648951200944</v>
       </c>
       <c r="N15" s="2">
-        <v>1.0273220952596447</v>
+        <v>0.87927776611379382</v>
       </c>
       <c r="O15" s="2">
-        <v>1.0261406072414354</v>
+        <v>0.88579839610191857</v>
       </c>
       <c r="P15" s="2">
-        <v>1.0242471443406023</v>
+        <v>0.89264814359478728</v>
       </c>
       <c r="Q15" s="2">
-        <v>1.0224707879756316</v>
+        <v>0.89827355971003442</v>
       </c>
       <c r="R15" s="2">
-        <v>1.020824315875535</v>
+        <v>0.90435627980186106</v>
       </c>
       <c r="S15" s="2">
-        <v>1.0193422700496311</v>
+        <v>0.9099590108553669</v>
       </c>
       <c r="T15" s="2">
-        <v>1.0179299834147653</v>
+        <v>0.91390032407812904</v>
       </c>
       <c r="U15" s="2">
-        <v>1.0173475583311649</v>
+        <v>0.91896389860885885</v>
       </c>
       <c r="V15" s="2">
-        <v>1.0154149865591398</v>
+        <v>0.92306732129483227</v>
       </c>
       <c r="W15" s="2">
-        <v>1.0142519749165242</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0.9269302589916375</v>
+      </c>
+      <c r="X15" s="2">
+        <v>0.93064202720387046</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>0.93419064957198739</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="3">
-        <v>132.06610000000001</v>
+        <v>129.066</v>
       </c>
       <c r="C16" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G16" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H16" s="6">
         <v>1.25</v>
@@ -1778,128 +1913,152 @@
         <v>20</v>
       </c>
       <c r="J16" s="1">
-        <v>3</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1.0246772486772486</v>
-      </c>
-      <c r="L16" s="2">
-        <v>1.0247341083353945</v>
+        <v>2</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="1">
+        <v>4</v>
       </c>
       <c r="M16" s="2">
-        <v>1.0227948862265819</v>
+        <v>1.0359917141377524</v>
       </c>
       <c r="N16" s="2">
-        <v>1.0222579885373322</v>
+        <v>1.0309220087195221</v>
       </c>
       <c r="O16" s="2">
-        <v>1.0217074480325228</v>
+        <v>1.0342127271344941</v>
       </c>
       <c r="P16" s="2">
-        <v>1.0212191647296993</v>
+        <v>1.0322904707233065</v>
       </c>
       <c r="Q16" s="2">
-        <v>1.0195431379019544</v>
+        <v>1.029417759358652</v>
       </c>
       <c r="R16" s="2">
-        <v>1.0179385067986941</v>
+        <v>1.027996387562895</v>
       </c>
       <c r="S16" s="2">
-        <v>1.0175604959084044</v>
+        <v>1.0244995701829791</v>
       </c>
       <c r="T16" s="2">
-        <v>1.0172182237680361</v>
+        <v>1.0234342960923313</v>
       </c>
       <c r="U16" s="2">
-        <v>1.0163054486530281</v>
+        <v>1.0215306980656014</v>
       </c>
       <c r="V16" s="2">
-        <v>1.0160238371130608</v>
+        <v>1.020589183958714</v>
       </c>
       <c r="W16" s="2">
-        <v>1.0151352755854364</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+        <v>1.0180859859446052</v>
+      </c>
+      <c r="X16" s="2">
+        <v>1.0174112028653866</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>1.0160184163829074</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="B17" s="3">
+        <v>132.06610000000001</v>
+      </c>
+      <c r="C17" s="9">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="1">
+        <v>7</v>
+      </c>
+      <c r="G17" s="1">
+        <v>10</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="I17" s="9">
+        <v>50</v>
+      </c>
+      <c r="J17" s="1">
+        <v>3</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" s="1">
+        <v>4</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1.0062340153452687</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1.0085558189877333</v>
+      </c>
+      <c r="O17" s="2">
+        <v>1.0116296481157974</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1.012918521385717</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>1.016443504815598</v>
+      </c>
+      <c r="R17" s="2">
+        <v>1.0167442284880008</v>
+      </c>
+      <c r="S17" s="2">
+        <v>1.018474109601208</v>
+      </c>
+      <c r="T17" s="2">
+        <v>1.0201574530668744</v>
+      </c>
+      <c r="U17" s="2">
+        <v>1.0154630487907641</v>
+      </c>
+      <c r="V17" s="2">
+        <v>1.0150505798174192</v>
+      </c>
+      <c r="W17" s="2">
+        <v>1.0153809083972531</v>
+      </c>
+      <c r="X17" s="2">
+        <v>1.0137341076754041</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>1.0134181873945713</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="3">
         <v>132.07730000000001</v>
       </c>
-      <c r="C17" s="9">
-        <v>40</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="C18" s="9">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="1">
-        <v>8</v>
-      </c>
-      <c r="H17" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="I17" s="9">
-        <v>20</v>
-      </c>
-      <c r="J17" s="1">
-        <v>3</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1.054401776384535</v>
-      </c>
-      <c r="L17" s="2">
-        <v>1.0507106945565141</v>
-      </c>
-      <c r="M17" s="2">
-        <v>1.0483603646264947</v>
-      </c>
-      <c r="N17" s="2">
-        <v>1.0451974205226835</v>
-      </c>
-      <c r="O17" s="2">
-        <v>1.0423770092547493</v>
-      </c>
-      <c r="P17" s="2">
-        <v>1.0389408099688473</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>1.0374513132927194</v>
-      </c>
-      <c r="R17" s="2">
-        <v>1.0336170826720532</v>
-      </c>
-      <c r="S17" s="2">
-        <v>1.0316805046616262</v>
-      </c>
-      <c r="T17" s="2">
-        <v>1.0298534223855844</v>
-      </c>
-      <c r="U17" s="2">
-        <v>1.028189782288143</v>
-      </c>
-      <c r="V17" s="2">
-        <v>1.0265877016129032</v>
-      </c>
-      <c r="W17" s="2">
-        <v>1.0244319569997558</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="3">
-        <v>132.10249999999999</v>
-      </c>
-      <c r="C18" s="9">
-        <v>40</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>20</v>
+      <c r="E18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="1">
+        <v>6</v>
       </c>
       <c r="G18" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H18" s="6">
         <v>1.25</v>
@@ -1910,55 +2069,61 @@
       <c r="J18" s="1">
         <v>3</v>
       </c>
-      <c r="K18" s="2">
-        <v>0.87142921611986102</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0.87873207944232534</v>
+      <c r="K18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L18" s="1">
+        <v>4</v>
       </c>
       <c r="M18" s="2">
-        <v>0.8856680023872453</v>
+        <v>1.0604177455549801</v>
       </c>
       <c r="N18" s="2">
-        <v>0.89148830263812839</v>
+        <v>1.0551429032778945</v>
       </c>
       <c r="O18" s="2">
-        <v>0.89704337991760241</v>
+        <v>1.0532197977647684</v>
       </c>
       <c r="P18" s="2">
-        <v>0.90151336013241901</v>
+        <v>1.0490097588978187</v>
       </c>
       <c r="Q18" s="2">
-        <v>0.90639067369474047</v>
+        <v>1.0396086690671922</v>
       </c>
       <c r="R18" s="2">
-        <v>0.90989332932692313</v>
+        <v>1.039801315959231</v>
       </c>
       <c r="S18" s="2">
-        <v>0.91439060205580036</v>
+        <v>1.0398501780670513</v>
       </c>
       <c r="T18" s="2">
-        <v>0.91746840896036752</v>
+        <v>1.0370847735661142</v>
       </c>
       <c r="U18" s="2">
-        <v>0.92212538656170928</v>
+        <v>1.033641715727502</v>
       </c>
       <c r="V18" s="2">
-        <v>0.92545429515418498</v>
+        <v>1.0322545962799701</v>
       </c>
       <c r="W18" s="2">
-        <v>0.9287206794284173</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+        <v>1.0318313352625053</v>
+      </c>
+      <c r="X18" s="2">
+        <v>1.0297980300467615</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>1.0263776317682605</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="3">
         <v>132.10249999999999</v>
       </c>
       <c r="C19" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>20</v>
@@ -1975,67 +2140,67 @@
       <c r="J19" s="1">
         <v>3</v>
       </c>
-      <c r="K19" s="2">
-        <v>0.88645697007987734</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0.89263010215265892</v>
+      <c r="K19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L19" s="1">
+        <v>4</v>
       </c>
       <c r="M19" s="2">
-        <v>0.89845681643788911</v>
+        <v>0.85993708893337151</v>
       </c>
       <c r="N19" s="2">
-        <v>0.90256346441015434</v>
+        <v>0.8677831643895989</v>
       </c>
       <c r="O19" s="2">
-        <v>0.90714112610065434</v>
+        <v>0.87607609735359759</v>
       </c>
       <c r="P19" s="2">
-        <v>0.912035942303145</v>
+        <v>0.88293508358117123</v>
       </c>
       <c r="Q19" s="2">
-        <v>0.91600938786503017</v>
+        <v>0.89082969432314418</v>
       </c>
       <c r="R19" s="2">
-        <v>0.91928335336538469</v>
+        <v>0.89587039084659403</v>
       </c>
       <c r="S19" s="2">
-        <v>0.92356828193832607</v>
+        <v>0.90202939118264525</v>
       </c>
       <c r="T19" s="2">
-        <v>0.92705341757610571</v>
+        <v>0.90787565705999629</v>
       </c>
       <c r="U19" s="2">
-        <v>0.9303486083778465</v>
+        <v>0.91264701995506803</v>
       </c>
       <c r="V19" s="2">
-        <v>0.93347329295154191</v>
+        <v>0.91715950972829352</v>
       </c>
       <c r="W19" s="2">
-        <v>0.93711242922620652</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>37</v>
+        <v>0.92203559789420908</v>
+      </c>
+      <c r="X19" s="2">
+        <v>0.92599079467231493</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>0.92982874399014581</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B20" s="3">
-        <v>133.06129999999999</v>
+        <v>132.10249999999999</v>
       </c>
       <c r="C20" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="1">
-        <v>5</v>
-      </c>
       <c r="G20" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H20" s="6">
         <v>1.25</v>
@@ -2046,198 +2211,216 @@
       <c r="J20" s="1">
         <v>3</v>
       </c>
-      <c r="K20" s="2">
-        <v>0.9232440602711256</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0.92660215446412264</v>
+      <c r="K20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20" s="1">
+        <v>4</v>
       </c>
       <c r="M20" s="2">
-        <v>0.93114725119321196</v>
+        <v>0.87515012868172715</v>
       </c>
       <c r="N20" s="2">
-        <v>0.93536773529915995</v>
+        <v>0.88249228735125596</v>
       </c>
       <c r="O20" s="2">
-        <v>0.93800931315483116</v>
+        <v>0.88930810925709414</v>
       </c>
       <c r="P20" s="2">
-        <v>0.94114320339325386</v>
+        <v>0.89575428161214243</v>
       </c>
       <c r="Q20" s="2">
-        <v>0.94339919085588597</v>
+        <v>0.90239182215164737</v>
       </c>
       <c r="R20" s="2">
-        <v>0.94560813393471455</v>
+        <v>0.90707177539541373</v>
       </c>
       <c r="S20" s="2">
-        <v>0.94879439496142814</v>
+        <v>0.91289946349428519</v>
       </c>
       <c r="T20" s="2">
-        <v>0.95004181362033235</v>
+        <v>0.91843393148450247</v>
       </c>
       <c r="U20" s="2">
-        <v>0.9530667991060342</v>
+        <v>0.92220607021717094</v>
       </c>
       <c r="V20" s="2">
-        <v>0.95527511007870192</v>
+        <v>0.92645924402159929</v>
       </c>
       <c r="W20" s="2">
-        <v>0.9574085996001761</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+        <v>0.93110219771037017</v>
+      </c>
+      <c r="X20" s="2">
+        <v>0.93413710235835623</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>0.93777565860054823</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="3">
+        <v>133.06129999999999</v>
+      </c>
+      <c r="C21" s="9">
+        <v>30</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="1">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1">
+        <v>10</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I21" s="9">
+        <v>20</v>
+      </c>
+      <c r="J21" s="1">
+        <v>3</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L21" s="1">
+        <v>4</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.91518444380897912</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0.92381004847950621</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0.92740992666595812</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.93164803609886171</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0.93549027391822148</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0.9391375414643528</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0.94401679496151158</v>
+      </c>
+      <c r="T21" s="2">
+        <v>0.94639296719231469</v>
+      </c>
+      <c r="U21" s="2">
+        <v>0.95083917008061325</v>
+      </c>
+      <c r="V21" s="2">
+        <v>0.95075854975572127</v>
+      </c>
+      <c r="W21" s="2">
+        <v>0.95754992897133773</v>
+      </c>
+      <c r="X21" s="2">
+        <v>0.95519530772677297</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>0.95764294512655457</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B22" s="3">
         <v>133.0977</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C22" s="9">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="G22" s="1">
+        <v>10</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="I22" s="9">
+        <v>20</v>
+      </c>
+      <c r="J22" s="1">
+        <v>3</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L22" s="1">
+        <v>4</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.99804161566707461</v>
+      </c>
+      <c r="O22" s="2">
+        <v>1</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>1</v>
+      </c>
+      <c r="R22" s="2">
+        <v>1</v>
+      </c>
+      <c r="S22" s="2">
+        <v>1</v>
+      </c>
+      <c r="T22" s="2">
+        <v>1</v>
+      </c>
+      <c r="U22" s="2">
+        <v>1</v>
+      </c>
+      <c r="V22" s="2">
+        <v>1</v>
+      </c>
+      <c r="W22" s="2">
+        <v>1</v>
+      </c>
+      <c r="X22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="G21" s="1">
-        <v>8</v>
-      </c>
-      <c r="H21" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="I21" s="9">
-        <v>20</v>
-      </c>
-      <c r="J21" s="1">
-        <v>3</v>
-      </c>
-      <c r="K21" s="2">
-        <v>1</v>
-      </c>
-      <c r="L21" s="2">
-        <v>1</v>
-      </c>
-      <c r="M21" s="2">
-        <v>1.0013171976619741</v>
-      </c>
-      <c r="N21" s="2">
-        <v>1</v>
-      </c>
-      <c r="O21" s="2">
-        <v>1</v>
-      </c>
-      <c r="P21" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>1</v>
-      </c>
-      <c r="R21" s="2">
-        <v>1</v>
-      </c>
-      <c r="S21" s="2">
-        <v>0.99901892890120036</v>
-      </c>
-      <c r="T21" s="2">
-        <v>1</v>
-      </c>
-      <c r="U21" s="2">
-        <v>1</v>
-      </c>
-      <c r="V21" s="2">
-        <v>1</v>
-      </c>
-      <c r="W21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="3">
+      <c r="B23" s="3">
         <v>134.0453</v>
       </c>
-      <c r="C22" s="9">
-        <v>40</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="1">
-        <v>6</v>
-      </c>
-      <c r="G22" s="1">
-        <v>8</v>
-      </c>
-      <c r="H22" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="I22" s="9">
-        <v>20</v>
-      </c>
-      <c r="J22" s="1">
-        <v>3</v>
-      </c>
-      <c r="K22" s="2">
-        <v>0.98424111948331539</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0.98599110812851276</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0.98569969356486209</v>
-      </c>
-      <c r="N22" s="2">
-        <v>0.98606021985024683</v>
-      </c>
-      <c r="O22" s="2">
-        <v>0.9877157518270876</v>
-      </c>
-      <c r="P22" s="2">
-        <v>0.98795775717975987</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>0.98822611796166993</v>
-      </c>
-      <c r="R22" s="2">
-        <v>0.98967535536408902</v>
-      </c>
-      <c r="S22" s="2">
-        <v>0.990505991537176</v>
-      </c>
-      <c r="T22" s="2">
-        <v>0.99073364453424373</v>
-      </c>
-      <c r="U22" s="2">
-        <v>0.99034327441479553</v>
-      </c>
-      <c r="V22" s="2">
-        <v>0.99106694770651416</v>
-      </c>
-      <c r="W22" s="2">
-        <v>0.99124274328446327</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="3">
-        <v>137.0463</v>
-      </c>
       <c r="C23" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="G23" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H23" s="6">
         <v>1.25</v>
@@ -2248,61 +2431,73 @@
       <c r="J23" s="1">
         <v>3</v>
       </c>
-      <c r="K23" s="2">
-        <v>1.1036613756613758</v>
-      </c>
-      <c r="L23" s="2">
-        <v>1.0968340341330696</v>
+      <c r="K23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L23" s="1">
+        <v>4</v>
       </c>
       <c r="M23" s="2">
-        <v>1.0917825842244915</v>
+        <v>0.98369742419302242</v>
       </c>
       <c r="N23" s="2">
-        <v>1.0876187485279107</v>
+        <v>0.98509342851144244</v>
       </c>
       <c r="O23" s="2">
-        <v>1.0830712587251667</v>
+        <v>0.98644807633742748</v>
       </c>
       <c r="P23" s="2">
-        <v>1.0799280197945567</v>
+        <v>0.98854192279321362</v>
       </c>
       <c r="Q23" s="2">
-        <v>1.0751292487075128</v>
+        <v>0.98807706982067911</v>
       </c>
       <c r="R23" s="2">
-        <v>1.070534208732465</v>
+        <v>0.98921346233970642</v>
       </c>
       <c r="S23" s="2">
-        <v>1.0660977065992343</v>
+        <v>0.9902707085266429</v>
       </c>
       <c r="T23" s="2">
-        <v>1.0625365887255069</v>
+        <v>0.98979591836734693</v>
       </c>
       <c r="U23" s="2">
-        <v>1.0618796840186346</v>
+        <v>0.99078262353844837</v>
       </c>
       <c r="V23" s="2">
-        <v>1.05737460685317</v>
+        <v>0.99238578680203049</v>
       </c>
       <c r="W23" s="2">
-        <v>1.053558088927864</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0.9898514248599497</v>
+      </c>
+      <c r="X23" s="2">
+        <v>0.99274299083951301</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>0.99291164736413995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="B24" s="3">
-        <v>140.0677</v>
+        <v>136.0427</v>
       </c>
       <c r="C24" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="1">
+        <v>7</v>
+      </c>
       <c r="G24" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H24" s="6">
         <v>1.25</v>
@@ -2313,64 +2508,70 @@
       <c r="J24" s="1">
         <v>3</v>
       </c>
-      <c r="K24" s="2">
-        <v>1.0157949365946117</v>
-      </c>
-      <c r="L24" s="2">
-        <v>1.0160462975141391</v>
+      <c r="K24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L24" s="1">
+        <v>4</v>
       </c>
       <c r="M24" s="2">
-        <v>1.0127888140506438</v>
+        <v>1.0295682013154133</v>
       </c>
       <c r="N24" s="2">
-        <v>1.013149162103866</v>
+        <v>1.029363155575143</v>
       </c>
       <c r="O24" s="2">
-        <v>1.0127635511753779</v>
+        <v>1.0265703050271018</v>
       </c>
       <c r="P24" s="2">
-        <v>1.0111531488925674</v>
+        <v>1.0256383960619424</v>
       </c>
       <c r="Q24" s="2">
-        <v>1.0115039821476666</v>
+        <v>1.0239678443826916</v>
       </c>
       <c r="R24" s="2">
-        <v>1.0106295072115385</v>
+        <v>1.0224508437094371</v>
       </c>
       <c r="S24" s="2">
-        <v>1.0098017621145376</v>
+        <v>1.0217401446232797</v>
       </c>
       <c r="T24" s="2">
-        <v>1.0084003446295231</v>
+        <v>1.0211165488490119</v>
       </c>
       <c r="U24" s="2">
-        <v>1.008188079842564</v>
+        <v>1.0190740496013391</v>
       </c>
       <c r="V24" s="2">
-        <v>1.0091547356828192</v>
+        <v>1.0178709179737722</v>
       </c>
       <c r="W24" s="2">
-        <v>1.0084254516042059</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+        <v>1.0174229130107795</v>
+      </c>
+      <c r="X24" s="2">
+        <v>1.0169443199869659</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>1.0152580760519727</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" s="3">
-        <v>144.10249999999999</v>
+        <v>137.0463</v>
       </c>
       <c r="C25" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="G25" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H25" s="6">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="I25" s="9">
         <v>20</v>
@@ -2378,61 +2579,73 @@
       <c r="J25" s="1">
         <v>3</v>
       </c>
-      <c r="K25" s="2">
-        <v>1.0225641951351596</v>
-      </c>
-      <c r="L25" s="2">
-        <v>1.0211758516375116</v>
+      <c r="K25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L25" s="1">
+        <v>6</v>
       </c>
       <c r="M25" s="2">
-        <v>1.0205899906215363</v>
+        <v>1.0985720375106562</v>
       </c>
       <c r="N25" s="2">
-        <v>1.020034843205575</v>
+        <v>1.0910215441707038</v>
       </c>
       <c r="O25" s="2">
-        <v>1.0181759431294934</v>
+        <v>1.0840029947591714</v>
       </c>
       <c r="P25" s="2">
-        <v>1.0184046661937418</v>
+        <v>1.0798335591252177</v>
       </c>
       <c r="Q25" s="2">
-        <v>1.0172752106498404</v>
+        <v>1.0743716232088325</v>
       </c>
       <c r="R25" s="2">
-        <v>1.0162635216346154</v>
+        <v>1.0691668947896706</v>
       </c>
       <c r="S25" s="2">
-        <v>1.0158957415565344</v>
+        <v>1.0658584243716138</v>
       </c>
       <c r="T25" s="2">
-        <v>1.0149698449167144</v>
+        <v>1.0612509732675837</v>
       </c>
       <c r="U25" s="2">
-        <v>1.0146542029800394</v>
+        <v>1.0575966967220021</v>
       </c>
       <c r="V25" s="2">
-        <v>1.0143171806167401</v>
+        <v>1.0534172218110043</v>
       </c>
       <c r="W25" s="2">
-        <v>1.0140536532758155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+        <v>1.0501987871973013</v>
+      </c>
+      <c r="X25" s="2">
+        <v>1.0470883691728143</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>1.0427848489495477</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B26" s="3">
-        <v>146.1181</v>
+        <v>140.0677</v>
       </c>
       <c r="C26" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>46</v>
+        <v>20</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="1">
+        <v>7</v>
       </c>
       <c r="G26" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H26" s="6">
         <v>1.25</v>
@@ -2443,61 +2656,67 @@
       <c r="J26" s="1">
         <v>3</v>
       </c>
-      <c r="K26" s="2">
-        <v>1.0811061331685463</v>
-      </c>
-      <c r="L26" s="2">
-        <v>1.0762029174831265</v>
+      <c r="K26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L26" s="1">
+        <v>4</v>
       </c>
       <c r="M26" s="2">
-        <v>1.0706131656299134</v>
+        <v>1.0085787818129828</v>
       </c>
       <c r="N26" s="2">
-        <v>1.0668824862415023</v>
+        <v>1.0110180696342002</v>
       </c>
       <c r="O26" s="2">
-        <v>1.0604513867535823</v>
+        <v>1.0088744818790518</v>
       </c>
       <c r="P26" s="2">
-        <v>1.0584963110434478</v>
+        <v>1.0102553584247771</v>
       </c>
       <c r="Q26" s="2">
-        <v>1.0548824744570373</v>
+        <v>1.008237395791981</v>
       </c>
       <c r="R26" s="2">
-        <v>1.047151172104448</v>
+        <v>1.0072111917696265</v>
       </c>
       <c r="S26" s="2">
-        <v>1.0468302658486708</v>
+        <v>1.0085374387683694</v>
       </c>
       <c r="T26" s="2">
-        <v>1.0433693516699409</v>
+        <v>1.0067971723762914</v>
       </c>
       <c r="U26" s="2">
-        <v>1.040975471430597</v>
+        <v>1.0073565041187611</v>
       </c>
       <c r="V26" s="2">
-        <v>1.0394371328384717</v>
+        <v>1.0057426930659124</v>
       </c>
       <c r="W26" s="2">
-        <v>1.0358539478887472</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+        <v>1.007687808139049</v>
+      </c>
+      <c r="X26" s="2">
+        <v>1.0081463076860415</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>1.0059601859578018</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B27" s="3">
-        <v>147.077</v>
+        <v>144.10249999999999</v>
       </c>
       <c r="C27" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G27" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H27" s="6">
         <v>1.25</v>
@@ -2508,61 +2727,67 @@
       <c r="J27" s="1">
         <v>3</v>
       </c>
-      <c r="K27" s="2">
-        <v>0.95938444875671292</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0.96128721118856575</v>
+      <c r="K27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L27" s="1">
+        <v>4</v>
       </c>
       <c r="M27" s="2">
-        <v>0.96308295677380851</v>
+        <v>1.0200171575636261</v>
       </c>
       <c r="N27" s="2">
-        <v>0.96474199435871899</v>
+        <v>1.0192816218598499</v>
       </c>
       <c r="O27" s="2">
-        <v>0.96566766297762352</v>
+        <v>1.018599213518971</v>
       </c>
       <c r="P27" s="2">
-        <v>0.96851107432805239</v>
+        <v>1.0162034663111477</v>
       </c>
       <c r="Q27" s="2">
-        <v>0.96922011465507285</v>
+        <v>1.0165244144501786</v>
       </c>
       <c r="R27" s="2">
-        <v>0.96995192307692313</v>
+        <v>1.0160569203403684</v>
       </c>
       <c r="S27" s="2">
-        <v>0.97125550660792959</v>
+        <v>1.0155353393981807</v>
       </c>
       <c r="T27" s="2">
-        <v>0.97250143595634686</v>
+        <v>1.0143646909552293</v>
       </c>
       <c r="U27" s="2">
-        <v>0.97424093337081807</v>
+        <v>1.0146689573146557</v>
       </c>
       <c r="V27" s="2">
-        <v>0.97535792951541844</v>
+        <v>1.013585326133539</v>
       </c>
       <c r="W27" s="2">
-        <v>0.97644243731463998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+        <v>1.0146235480905823</v>
+      </c>
+      <c r="X27" s="2">
+        <v>1.0128711661439453</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>1.012595859657488</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B28" s="3">
-        <v>147.11340000000001</v>
+        <v>146.1181</v>
       </c>
       <c r="C28" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G28" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H28" s="6">
         <v>1.25</v>
@@ -2573,61 +2798,67 @@
       <c r="J28" s="1">
         <v>3</v>
       </c>
-      <c r="K28" s="2">
-        <v>1.0064753068522276</v>
-      </c>
-      <c r="L28" s="2">
-        <v>1.005957144127323</v>
+      <c r="K28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L28" s="1">
+        <v>4</v>
       </c>
       <c r="M28" s="2">
-        <v>1.0054334403556433</v>
+        <v>1.0976656547681356</v>
       </c>
       <c r="N28" s="2">
-        <v>1.0038375930616319</v>
+        <v>1.0883317261330763</v>
       </c>
       <c r="O28" s="2">
-        <v>1.0047495682210708</v>
+        <v>1.0788181737034723</v>
       </c>
       <c r="P28" s="2">
-        <v>1.0056225443706814</v>
+        <v>1.0720338983050848</v>
       </c>
       <c r="Q28" s="2">
-        <v>1.0053164232641558</v>
+        <v>1.0646437994722955</v>
       </c>
       <c r="R28" s="2">
-        <v>1.0030343488287412</v>
+        <v>1.0608651176384627</v>
       </c>
       <c r="S28" s="2">
-        <v>1.0028855032317636</v>
+        <v>1.0563302498964517</v>
       </c>
       <c r="T28" s="2">
-        <v>1.0036859767838477</v>
+        <v>1.0533324629545009</v>
       </c>
       <c r="U28" s="2">
-        <v>1.0035213118200452</v>
+        <v>1.0443728309370353</v>
       </c>
       <c r="V28" s="2">
-        <v>1.00337361530715</v>
+        <v>1.0452453987730062</v>
       </c>
       <c r="W28" s="2">
-        <v>1.0032378098874015</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+        <v>1.0412911221270844</v>
+      </c>
+      <c r="X28" s="2">
+        <v>1.038683571621257</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>1.0370830100853374</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B29" s="3">
-        <v>148.06100000000001</v>
+        <v>147.077</v>
       </c>
       <c r="C29" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H29" s="6">
         <v>1.25</v>
@@ -2638,64 +2869,70 @@
       <c r="J29" s="1">
         <v>3</v>
       </c>
-      <c r="K29" s="2">
-        <v>0.97441220271672913</v>
-      </c>
-      <c r="L29" s="2">
-        <v>0.97663203121574815</v>
+      <c r="K29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L29" s="1">
+        <v>4</v>
       </c>
       <c r="M29" s="2">
-        <v>0.97659647028732199</v>
+        <v>0.95333142693737494</v>
       </c>
       <c r="N29" s="2">
-        <v>0.97859631657541057</v>
+        <v>0.9559277214631996</v>
       </c>
       <c r="O29" s="2">
-        <v>0.97911786089344865</v>
+        <v>0.9592942926984801</v>
       </c>
       <c r="P29" s="2">
-        <v>0.98029478994246078</v>
+        <v>0.96067070044098046</v>
       </c>
       <c r="Q29" s="2">
-        <v>0.98137816936631916</v>
+        <v>0.9635768161969035</v>
       </c>
       <c r="R29" s="2">
-        <v>0.98121995192307687</v>
+        <v>0.96476130955242556</v>
       </c>
       <c r="S29" s="2">
-        <v>0.98289280469897222</v>
+        <v>0.96734313039421504</v>
       </c>
       <c r="T29" s="2">
-        <v>0.98266082711085578</v>
+        <v>0.9690502084466196</v>
       </c>
       <c r="U29" s="2">
-        <v>0.98362384031487204</v>
+        <v>0.97066208537068854</v>
       </c>
       <c r="V29" s="2">
-        <v>0.98451266519823788</v>
+        <v>0.97145795834404725</v>
       </c>
       <c r="W29" s="2">
-        <v>0.98540711782151524</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0.97426255536057493</v>
+      </c>
+      <c r="X29" s="2">
+        <v>0.97421693617367933</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>0.97552350299996016</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="1">
-        <v>156.07730000000001</v>
+        <v>24</v>
+      </c>
+      <c r="B30" s="3">
+        <v>147.11340000000001</v>
       </c>
       <c r="C30" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G30" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H30" s="6">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="I30" s="9">
         <v>20</v>
@@ -2703,61 +2940,67 @@
       <c r="J30" s="1">
         <v>3</v>
       </c>
-      <c r="K30" s="2">
-        <v>1</v>
-      </c>
-      <c r="L30" s="2">
-        <v>1</v>
+      <c r="K30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L30" s="1">
+        <v>4</v>
       </c>
       <c r="M30" s="2">
-        <v>1</v>
+        <v>1.0092159559834939</v>
       </c>
       <c r="N30" s="2">
-        <v>1</v>
+        <v>1.0082007343941248</v>
       </c>
       <c r="O30" s="2">
-        <v>1</v>
+        <v>1.0092786921462498</v>
       </c>
       <c r="P30" s="2">
-        <v>1</v>
+        <v>1.006731638701899</v>
       </c>
       <c r="Q30" s="2">
-        <v>1</v>
+        <v>1.0061830933923956</v>
       </c>
       <c r="R30" s="2">
-        <v>1</v>
+        <v>1.005631399317406</v>
       </c>
       <c r="S30" s="2">
-        <v>1</v>
+        <v>1.0053305752247592</v>
       </c>
       <c r="T30" s="2">
-        <v>1</v>
+        <v>1.0049929204858783</v>
       </c>
       <c r="U30" s="2">
-        <v>1</v>
+        <v>1.004630604083351</v>
       </c>
       <c r="V30" s="2">
-        <v>1</v>
+        <v>1.0044364984770229</v>
       </c>
       <c r="W30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+        <v>1.0041415662650601</v>
+      </c>
+      <c r="X30" s="2">
+        <v>1.0039358339793669</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>1.0038063856379957</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="1">
-        <v>160.13380000000001</v>
+        <v>50</v>
+      </c>
+      <c r="B31" s="3">
+        <v>148.06100000000001</v>
       </c>
       <c r="C31" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G31" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H31" s="6">
         <v>1.25</v>
@@ -2768,61 +3011,67 @@
       <c r="J31" s="1">
         <v>3</v>
       </c>
-      <c r="K31" s="2">
-        <v>0.97714211076280044</v>
-      </c>
-      <c r="L31" s="2">
-        <v>0.97833778163987339</v>
+      <c r="K31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L31" s="1">
+        <v>4</v>
       </c>
       <c r="M31" s="2">
-        <v>0.98028885995027826</v>
+        <v>0.97140406062339146</v>
       </c>
       <c r="N31" s="2">
-        <v>0.98206810725195159</v>
+        <v>0.97427280740414268</v>
       </c>
       <c r="O31" s="2">
-        <v>0.98289765654597616</v>
+        <v>0.97523647571474115</v>
       </c>
       <c r="P31" s="2">
-        <v>0.98182762201453788</v>
+        <v>0.97605373807814588</v>
       </c>
       <c r="Q31" s="2">
-        <v>0.98506940976730251</v>
+        <v>0.9776697102024613</v>
       </c>
       <c r="R31" s="2">
-        <v>0.98475448468234505</v>
+        <v>0.9791836930916783</v>
       </c>
       <c r="S31" s="2">
-        <v>0.98687323159701279</v>
+        <v>0.98054583624912539</v>
       </c>
       <c r="T31" s="2">
-        <v>0.98803173607064421</v>
+        <v>0.98187420699655603</v>
       </c>
       <c r="U31" s="2">
-        <v>0.9884638737097754</v>
+        <v>0.98237963085326629</v>
       </c>
       <c r="V31" s="2">
-        <v>0.98949932795698925</v>
+        <v>0.98285763263906756</v>
       </c>
       <c r="W31" s="2">
-        <v>0.98982001791676844</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0.98261886855519343</v>
+      </c>
+      <c r="X31" s="2">
+        <v>0.98439982078123089</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>0.98478165852107913</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="1">
-        <v>161.12809999999999</v>
+        <v>80</v>
+      </c>
+      <c r="B32" s="3">
+        <v>150.05889999999999</v>
       </c>
       <c r="C32" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G32" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H32" s="6">
         <v>1.25</v>
@@ -2833,126 +3082,138 @@
       <c r="J32" s="1">
         <v>3</v>
       </c>
-      <c r="K32" s="2">
-        <v>0.94702498497467147</v>
-      </c>
-      <c r="L32" s="2">
-        <v>0.95340845520658513</v>
+      <c r="K32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L32" s="1">
+        <v>4</v>
       </c>
       <c r="M32" s="2">
-        <v>0.95642424695418193</v>
+        <v>0.9314269373748929</v>
       </c>
       <c r="N32" s="2">
-        <v>0.96022208166420697</v>
+        <v>0.93482811811370647</v>
       </c>
       <c r="O32" s="2">
-        <v>0.96352543272100266</v>
+        <v>0.93894143904772021</v>
       </c>
       <c r="P32" s="2">
-        <v>0.96546961325966851</v>
+        <v>0.94190339452363869</v>
       </c>
       <c r="Q32" s="2">
-        <v>0.96912511197372353</v>
+        <v>0.9462088130210401</v>
       </c>
       <c r="R32" s="2">
-        <v>0.97155535328251219</v>
+        <v>0.94956973222441232</v>
       </c>
       <c r="S32" s="2">
-        <v>0.9711017132942964</v>
+        <v>0.95255423372988102</v>
       </c>
       <c r="T32" s="2">
-        <v>0.97237339967864</v>
+        <v>0.95545586369403657</v>
       </c>
       <c r="U32" s="2">
-        <v>0.97351684388353366</v>
+        <v>0.95744680851063824</v>
       </c>
       <c r="V32" s="2">
-        <v>0.97531394738098631</v>
+        <v>0.95932973343618766</v>
       </c>
       <c r="W32" s="2">
-        <v>0.97552351212343857</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0.96172808556864708</v>
+      </c>
+      <c r="X32" s="2">
+        <v>0.96334161541281416</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>0.96558985973695699</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="1">
-        <v>162.113</v>
+        <v>51</v>
+      </c>
+      <c r="B33" s="3">
+        <v>156.07730000000001</v>
       </c>
       <c r="C33" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="1">
+        <v>10</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="I33" s="9">
+        <v>20</v>
+      </c>
+      <c r="J33" s="1">
+        <v>3</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L33" s="1">
+        <v>4</v>
+      </c>
+      <c r="M33" s="2">
+        <v>1</v>
+      </c>
+      <c r="N33" s="2">
+        <v>1</v>
+      </c>
+      <c r="O33" s="2">
+        <v>1</v>
+      </c>
+      <c r="P33" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>1</v>
+      </c>
+      <c r="R33" s="2">
+        <v>1</v>
+      </c>
+      <c r="S33" s="2">
+        <v>1</v>
+      </c>
+      <c r="T33" s="2">
+        <v>1</v>
+      </c>
+      <c r="U33" s="2">
+        <v>1</v>
+      </c>
+      <c r="V33" s="2">
+        <v>1</v>
+      </c>
+      <c r="W33" s="2">
+        <v>1</v>
+      </c>
+      <c r="X33" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="3">
+        <v>160.13380000000001</v>
+      </c>
+      <c r="C34" s="9">
+        <v>30</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="1">
-        <v>8</v>
-      </c>
-      <c r="H33" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="I33" s="9">
-        <v>20</v>
-      </c>
-      <c r="J33" s="1">
-        <v>3</v>
-      </c>
-      <c r="K33" s="2">
-        <v>1</v>
-      </c>
-      <c r="L33" s="2">
-        <v>0.99900688970268747</v>
-      </c>
-      <c r="M33" s="2">
-        <v>1</v>
-      </c>
-      <c r="N33" s="2">
-        <v>1</v>
-      </c>
-      <c r="O33" s="2">
-        <v>0.9990799372192456</v>
-      </c>
-      <c r="P33" s="2">
-        <v>0.99911734164070598</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>1</v>
-      </c>
-      <c r="R33" s="2">
-        <v>1</v>
-      </c>
-      <c r="S33" s="2">
-        <v>1</v>
-      </c>
-      <c r="T33" s="2">
-        <v>1</v>
-      </c>
-      <c r="U33" s="2">
-        <v>1</v>
-      </c>
-      <c r="V33" s="2">
-        <v>1</v>
-      </c>
-      <c r="W33" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="1">
-        <v>166.08680000000001</v>
-      </c>
-      <c r="C34" s="9">
-        <v>40</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="G34" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H34" s="6">
         <v>1.25</v>
@@ -2963,61 +3224,67 @@
       <c r="J34" s="1">
         <v>3</v>
       </c>
-      <c r="K34" s="2">
-        <v>0.97369014847240409</v>
-      </c>
-      <c r="L34" s="2">
-        <v>0.9751413915559648</v>
+      <c r="K34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L34" s="1">
+        <v>4</v>
       </c>
       <c r="M34" s="2">
-        <v>0.97659647028732199</v>
+        <v>0.97557396858277234</v>
       </c>
       <c r="N34" s="2">
-        <v>0.97789115646258495</v>
+        <v>0.97577910544162771</v>
       </c>
       <c r="O34" s="2">
-        <v>0.97847160513773335</v>
+        <v>0.97970044856686678</v>
       </c>
       <c r="P34" s="2">
-        <v>0.98029478994246078</v>
+        <v>0.98084098737083814</v>
       </c>
       <c r="Q34" s="2">
-        <v>0.9807625716594206</v>
+        <v>0.98186018071879888</v>
       </c>
       <c r="R34" s="2">
-        <v>0.98121995192307687</v>
+        <v>0.98284092375177401</v>
       </c>
       <c r="S34" s="2">
-        <v>0.98226872246696051</v>
+        <v>0.98360555077981071</v>
       </c>
       <c r="T34" s="2">
-        <v>0.9832711085582998</v>
+        <v>0.98535356494229309</v>
       </c>
       <c r="U34" s="2">
-        <v>0.98418611189204386</v>
+        <v>0.98693580039248663</v>
       </c>
       <c r="V34" s="2">
-        <v>0.98509774229074887</v>
+        <v>0.98833458767874427</v>
       </c>
       <c r="W34" s="2">
-        <v>0.98540711782151524</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0.98878668871434483</v>
+      </c>
+      <c r="X34" s="2">
+        <v>0.98920505422346039</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>0.99040813390245075</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="1">
-        <v>170.09299999999999</v>
+        <v>68</v>
+      </c>
+      <c r="B35" s="3">
+        <v>161.12809999999999</v>
       </c>
       <c r="C35" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="G35" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H35" s="6">
         <v>1.25</v>
@@ -3028,64 +3295,70 @@
       <c r="J35" s="1">
         <v>3</v>
       </c>
-      <c r="K35" s="2">
-        <v>1.0013695319423186</v>
-      </c>
-      <c r="L35" s="2">
-        <v>1</v>
+      <c r="K35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L35" s="1">
+        <v>4</v>
       </c>
       <c r="M35" s="2">
-        <v>1</v>
+        <v>0.93481095176010431</v>
       </c>
       <c r="N35" s="2">
-        <v>1.0011362117363989</v>
+        <v>0.94087928625174666</v>
       </c>
       <c r="O35" s="2">
-        <v>0.99892486718947637</v>
+        <v>0.94750320102432761</v>
       </c>
       <c r="P35" s="2">
-        <v>1.0010223719028144</v>
+        <v>0.95610288103244567</v>
       </c>
       <c r="Q35" s="2">
-        <v>1.0009745471222196</v>
+        <v>0.96065711878685778</v>
       </c>
       <c r="R35" s="2">
-        <v>1.0008761842177318</v>
+        <v>0.96457529717389601</v>
       </c>
       <c r="S35" s="2">
-        <v>1.0008379595684507</v>
+        <v>0.96922849323174787</v>
       </c>
       <c r="T35" s="2">
-        <v>1.000854571959986</v>
+        <v>0.96868258055536227</v>
       </c>
       <c r="U35" s="2">
-        <v>1.0008215338520272</v>
+        <v>0.97142104569998688</v>
       </c>
       <c r="V35" s="2">
-        <v>1.0007450176941703</v>
+        <v>0.97196611014203838</v>
       </c>
       <c r="W35" s="2">
-        <v>1.0007182618064285</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0.97433161420356873</v>
+      </c>
+      <c r="X35" s="2">
+        <v>0.97551597398925649</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>0.97483529538827085</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="1">
-        <v>175.11949999999999</v>
+        <v>54</v>
+      </c>
+      <c r="B36" s="3">
+        <v>162.113</v>
       </c>
       <c r="C36" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G36" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H36" s="6">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="I36" s="9">
         <v>20</v>
@@ -3093,61 +3366,67 @@
       <c r="J36" s="1">
         <v>3</v>
       </c>
-      <c r="K36" s="2">
-        <v>0.96136344122950101</v>
-      </c>
-      <c r="L36" s="2">
-        <v>0.96539598817230077</v>
+      <c r="K36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L36" s="1">
+        <v>4</v>
       </c>
       <c r="M36" s="2">
-        <v>0.96890649525375583</v>
+        <v>1</v>
       </c>
       <c r="N36" s="2">
-        <v>0.9718883969358354</v>
+        <v>0.99870821895688677</v>
       </c>
       <c r="O36" s="2">
-        <v>0.97453412029975461</v>
+        <v>0.99870751919714129</v>
       </c>
       <c r="P36" s="2">
-        <v>0.97488699146157709</v>
+        <v>0.99878013777267516</v>
       </c>
       <c r="Q36" s="2">
-        <v>0.97808300985368757</v>
+        <v>1</v>
       </c>
       <c r="R36" s="2">
-        <v>0.97815451132096942</v>
+        <v>1</v>
       </c>
       <c r="S36" s="2">
-        <v>0.97923443938408161</v>
+        <v>1</v>
       </c>
       <c r="T36" s="2">
-        <v>0.97931892396205877</v>
+        <v>1</v>
       </c>
       <c r="U36" s="2">
-        <v>0.98017489814170722</v>
+        <v>1</v>
       </c>
       <c r="V36" s="2">
-        <v>0.98090053955975731</v>
+        <v>1</v>
       </c>
       <c r="W36" s="2">
-        <v>0.98085047759000743</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="X36" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="1">
-        <v>176.1035</v>
+        <v>55</v>
+      </c>
+      <c r="B37" s="3">
+        <v>166.08680000000001</v>
       </c>
       <c r="C37" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G37" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H37" s="6">
         <v>1.25</v>
@@ -3158,64 +3437,70 @@
       <c r="J37" s="1">
         <v>3</v>
       </c>
-      <c r="K37" s="2">
-        <v>0.99097432194593627</v>
-      </c>
-      <c r="L37" s="2">
-        <v>0.99193300889999558</v>
+      <c r="K37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L37" s="1">
+        <v>4</v>
       </c>
       <c r="M37" s="2">
-        <v>0.99219882342910737</v>
+        <v>0.97140406062339146</v>
       </c>
       <c r="N37" s="2">
-        <v>0.99170399867263981</v>
+        <v>0.9733913618334068</v>
       </c>
       <c r="O37" s="2">
-        <v>0.99192180305355848</v>
+        <v>0.97523647571474115</v>
       </c>
       <c r="P37" s="2">
-        <v>0.99278789311894067</v>
+        <v>0.97605373807814588</v>
       </c>
       <c r="Q37" s="2">
-        <v>0.99230502866376824</v>
+        <v>0.9776697102024613</v>
       </c>
       <c r="R37" s="2">
-        <v>0.9930889423076924</v>
+        <v>0.9791836930916783</v>
       </c>
       <c r="S37" s="2">
-        <v>0.99328193832599121</v>
+        <v>0.98054583624912539</v>
       </c>
       <c r="T37" s="2">
-        <v>0.99343049971280861</v>
+        <v>0.98187420699655603</v>
       </c>
       <c r="U37" s="2">
-        <v>0.99416643238684288</v>
+        <v>0.98237963085326629</v>
       </c>
       <c r="V37" s="2">
-        <v>0.99370181718061679</v>
+        <v>0.98358618325190716</v>
       </c>
       <c r="W37" s="2">
-        <v>0.99440550013480722</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0.9847079468538481</v>
+      </c>
+      <c r="X37" s="2">
+        <v>0.98505152539611429</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>0.98545714626296332</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="1">
-        <v>182.08170000000001</v>
+        <v>56</v>
+      </c>
+      <c r="B38" s="3">
+        <v>170.09299999999999</v>
       </c>
       <c r="C38" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="G38" s="1">
         <v>8</v>
       </c>
       <c r="H38" s="6">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="I38" s="9">
         <v>20</v>
@@ -3223,64 +3508,70 @@
       <c r="J38" s="1">
         <v>3</v>
       </c>
-      <c r="K38" s="2">
-        <v>1.0150277539600163</v>
-      </c>
-      <c r="L38" s="2">
-        <v>1.0145995001972905</v>
+      <c r="K38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L38" s="1">
+        <v>4</v>
       </c>
       <c r="M38" s="2">
-        <v>1.0135135135135136</v>
+        <v>1.0055126791620725</v>
       </c>
       <c r="N38" s="2">
-        <v>1.0138128422100547</v>
+        <v>1.0017137096774194</v>
       </c>
       <c r="O38" s="2">
-        <v>1.0114306486792148</v>
+        <v>1</v>
       </c>
       <c r="P38" s="2">
-        <v>1.0118231260345236</v>
+        <v>1.0028399311531844</v>
       </c>
       <c r="Q38" s="2">
-        <v>1.0115039821476666</v>
+        <v>1.0027230498157935</v>
       </c>
       <c r="R38" s="2">
-        <v>1.0099909855769231</v>
+        <v>1.0063305448790414</v>
       </c>
       <c r="S38" s="2">
-        <v>1.0098017621145376</v>
+        <v>1.0011345103878608</v>
       </c>
       <c r="T38" s="2">
-        <v>1.0089747271682941</v>
+        <v>1.0033514310610629</v>
       </c>
       <c r="U38" s="2">
-        <v>1.0087854933933089</v>
+        <v>1.0031774275546517</v>
       </c>
       <c r="V38" s="2">
-        <v>1.0086040748898679</v>
+        <v>1</v>
       </c>
       <c r="W38" s="2">
-        <v>1.0084254516042059</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+        <v>1.000979714153988</v>
+      </c>
+      <c r="X38" s="2">
+        <v>1.0009365359189071</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="1">
-        <v>203.1508</v>
+        <v>58</v>
+      </c>
+      <c r="B39" s="3">
+        <v>175.11949999999999</v>
       </c>
       <c r="C39" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G39" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H39" s="6">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="I39" s="9">
         <v>20</v>
@@ -3288,61 +3579,73 @@
       <c r="J39" s="1">
         <v>3</v>
       </c>
-      <c r="K39" s="2">
-        <v>0.98455121272980073</v>
-      </c>
-      <c r="L39" s="2">
-        <v>0.99034763045213736</v>
+      <c r="K39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L39" s="1">
+        <v>4</v>
       </c>
       <c r="M39" s="2">
-        <v>0.99090846947843336</v>
+        <v>0.95258978309825781</v>
       </c>
       <c r="N39" s="2">
-        <v>0.99138879896406595</v>
+        <v>0.95700311727399756</v>
       </c>
       <c r="O39" s="2">
-        <v>0.9928663673820799</v>
+        <v>0.96395154141633022</v>
       </c>
       <c r="P39" s="2">
-        <v>0.99215364796814609</v>
+        <v>0.96819049350177233</v>
       </c>
       <c r="Q39" s="2">
-        <v>0.99251856401094296</v>
+        <v>0.97186183656276326</v>
       </c>
       <c r="R39" s="2">
-        <v>0.99199017461419348</v>
+        <v>0.97378571990868301</v>
       </c>
       <c r="S39" s="2">
-        <v>0.99233128834355833</v>
+        <v>0.9778090095421258</v>
       </c>
       <c r="T39" s="2">
-        <v>0.99179764243614943</v>
+        <v>0.97800821212332112</v>
       </c>
       <c r="U39" s="2">
-        <v>0.99215463868802867</v>
+        <v>0.97912551033846962</v>
       </c>
       <c r="V39" s="2">
-        <v>0.99239491780135713</v>
+        <v>0.9792549215051084</v>
       </c>
       <c r="W39" s="2">
-        <v>0.99121226767432669</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0.98120813326219691</v>
+      </c>
+      <c r="X39" s="2">
+        <v>0.98117048346055991</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>0.98115347229722427</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="1">
-        <v>203.1508</v>
+        <v>59</v>
+      </c>
+      <c r="B40" s="3">
+        <v>176.1035</v>
       </c>
       <c r="C40" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>46</v>
+        <v>20</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="1">
+        <v>5</v>
       </c>
       <c r="G40" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H40" s="6">
         <v>1.25</v>
@@ -3353,61 +3656,67 @@
       <c r="J40" s="1">
         <v>3</v>
       </c>
-      <c r="K40" s="2">
-        <v>1.020624131005716</v>
-      </c>
-      <c r="L40" s="2">
-        <v>1.0169097902605415</v>
+      <c r="K40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L40" s="1">
+        <v>4</v>
       </c>
       <c r="M40" s="2">
-        <v>1.0159272677558275</v>
+        <v>0.98953388618816129</v>
       </c>
       <c r="N40" s="2">
-        <v>1.0161864681126578</v>
+        <v>0.99079991185544281</v>
       </c>
       <c r="O40" s="2">
-        <v>1.016419654387799</v>
+        <v>0.99027526836008073</v>
       </c>
       <c r="P40" s="2">
-        <v>1.0146387164773392</v>
+        <v>0.99056507024920537</v>
       </c>
       <c r="Q40" s="2">
-        <v>1.0130087655630617</v>
+        <v>0.99086939261611751</v>
       </c>
       <c r="R40" s="2">
-        <v>1.012441928765953</v>
+        <v>0.99120234604105573</v>
       </c>
       <c r="S40" s="2">
-        <v>1.0110940695296524</v>
+        <v>0.99220900396547707</v>
       </c>
       <c r="T40" s="2">
-        <v>1.0089882121807465</v>
+        <v>0.99243248142106211</v>
       </c>
       <c r="U40" s="2">
-        <v>1.0070891819084078</v>
+        <v>0.99264349588123868</v>
       </c>
       <c r="V40" s="2">
-        <v>1.0060567421102964</v>
+        <v>0.99288591754521294</v>
       </c>
       <c r="W40" s="2">
-        <v>1.0043938661628367</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0.9930642600484666</v>
+      </c>
+      <c r="X40" s="2">
+        <v>0.99319783308215559</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>0.99340406087336586</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="1">
-        <v>204.12360000000001</v>
+        <v>60</v>
+      </c>
+      <c r="B41" s="3">
+        <v>182.08170000000001</v>
       </c>
       <c r="C41" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G41" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H41" s="6">
         <v>1.25</v>
@@ -3418,58 +3727,70 @@
       <c r="J41" s="1">
         <v>3</v>
       </c>
-      <c r="K41" s="2">
-        <v>1.0924764890282133</v>
-      </c>
-      <c r="L41" s="2">
-        <v>1.0848488610266278</v>
+      <c r="K41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L41" s="1">
+        <v>4</v>
       </c>
       <c r="M41" s="2">
-        <v>1.079910027228602</v>
+        <v>1.0162424935659136</v>
       </c>
       <c r="N41" s="2">
-        <v>1.077271184523136</v>
+        <v>1.0147091229616572</v>
       </c>
       <c r="O41" s="2">
-        <v>1.0703577420576933</v>
+        <v>1.0141885428844724</v>
       </c>
       <c r="P41" s="2">
-        <v>1.0657320872274143</v>
+        <v>1.0128191980309711</v>
       </c>
       <c r="Q41" s="2">
-        <v>1.0624188554878657</v>
+        <v>1.0124057165541882</v>
       </c>
       <c r="R41" s="2">
-        <v>1.0584812196412254</v>
+        <v>1.0120186529493775</v>
       </c>
       <c r="S41" s="2">
-        <v>1.0548726749849251</v>
+        <v>1.0108700723116399</v>
       </c>
       <c r="T41" s="2">
-        <v>1.0515038773589134</v>
+        <v>1.0105582744245059</v>
       </c>
       <c r="U41" s="2">
-        <v>1.0491369589730246</v>
+        <v>1.009559050262103</v>
       </c>
       <c r="V41" s="2">
-        <v>1.0454889112903225</v>
+        <v>1.0085711836804663</v>
       </c>
       <c r="W41" s="2">
-        <v>1.0434074436028993</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+        <v>1.0083563131946185</v>
+      </c>
+      <c r="X41" s="2">
+        <v>1.0081463076860415</v>
+      </c>
+      <c r="Y41" s="2">
+        <v>1.0073111614415702</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" s="1">
-        <v>205.0977</v>
+        <v>61</v>
+      </c>
+      <c r="B42" s="3">
+        <v>203.1508</v>
       </c>
       <c r="C42" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>20</v>
+        <v>46</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="1">
+        <v>5</v>
       </c>
       <c r="G42" s="1">
         <v>8</v>
@@ -3483,64 +3804,70 @@
       <c r="J42" s="1">
         <v>3</v>
       </c>
-      <c r="K42" s="2">
-        <v>0.97517938535132465</v>
-      </c>
-      <c r="L42" s="2">
-        <v>0.97663203121574815</v>
+      <c r="K42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L42" s="1">
+        <v>4</v>
       </c>
       <c r="M42" s="2">
-        <v>0.97800323983289295</v>
+        <v>0.98262325970899189</v>
       </c>
       <c r="N42" s="2">
-        <v>0.97859631657541057</v>
+        <v>0.98871745419479273</v>
       </c>
       <c r="O42" s="2">
-        <v>0.97911786089344865</v>
+        <v>0.98812817995179869</v>
       </c>
       <c r="P42" s="2">
-        <v>0.98029478994246078</v>
+        <v>0.99169159189099376</v>
       </c>
       <c r="Q42" s="2">
-        <v>0.98137816936631916</v>
+        <v>0.99223963991929232</v>
       </c>
       <c r="R42" s="2">
-        <v>0.98185847355769229</v>
+        <v>0.9902820400409178</v>
       </c>
       <c r="S42" s="2">
-        <v>0.98289280469897222</v>
+        <v>0.99427032997376774</v>
       </c>
       <c r="T42" s="2">
-        <v>0.98445577254451455</v>
+        <v>0.9923624257458058</v>
       </c>
       <c r="U42" s="2">
-        <v>0.98478352544278891</v>
+        <v>0.99169558750619735</v>
       </c>
       <c r="V42" s="2">
-        <v>0.98509774229074887</v>
+        <v>0.99309815950920244</v>
       </c>
       <c r="W42" s="2">
-        <v>0.98598004853060128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0.99250788643533128</v>
+      </c>
+      <c r="X42" s="2">
+        <v>0.99104397086592932</v>
+      </c>
+      <c r="Y42" s="2">
+        <v>0.98277734678044981</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="1">
-        <v>218.13919999999999</v>
+        <v>62</v>
+      </c>
+      <c r="B43" s="3">
+        <v>203.1508</v>
       </c>
       <c r="C43" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F43" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G43" s="1">
         <v>8</v>
@@ -3554,61 +3881,67 @@
       <c r="J43" s="1">
         <v>3</v>
       </c>
-      <c r="K43" s="2">
-        <v>1.1381922675026124</v>
-      </c>
-      <c r="L43" s="2">
-        <v>1.126187077152256</v>
+      <c r="K43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L43" s="1">
+        <v>4</v>
       </c>
       <c r="M43" s="2">
-        <v>1.1193323073280457</v>
+        <v>1.0192609651418403</v>
       </c>
       <c r="N43" s="2">
-        <v>1.1121167552890598</v>
+        <v>1.0160077145612343</v>
       </c>
       <c r="O43" s="2">
-        <v>1.1054824917464956</v>
+        <v>1.0193698116575918</v>
       </c>
       <c r="P43" s="2">
-        <v>1.0985981308411215</v>
+        <v>1.0180292455965438</v>
       </c>
       <c r="Q43" s="2">
-        <v>1.0923799061220414</v>
+        <v>1.0155207201614156</v>
       </c>
       <c r="R43" s="2">
-        <v>1.0865195017553984</v>
+        <v>1.01461347362268</v>
       </c>
       <c r="S43" s="2">
-        <v>1.0819147455818914</v>
+        <v>1.0138064337981498</v>
       </c>
       <c r="T43" s="2">
-        <v>1.0761576045542156</v>
+        <v>1.0097917618643513</v>
       </c>
       <c r="U43" s="2">
-        <v>1.0722525804493017</v>
+        <v>1.0133862171541894</v>
       </c>
       <c r="V43" s="2">
-        <v>1.0685903897849462</v>
+        <v>1.0078456819254364</v>
       </c>
       <c r="W43" s="2">
-        <v>1.0590031761544101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+        <v>1.0065908066696712</v>
+      </c>
+      <c r="X43" s="2">
+        <v>1.0071756137038035</v>
+      </c>
+      <c r="Y43" s="2">
+        <v>1.0051719679337987</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" s="1">
-        <v>241.0317</v>
+        <v>63</v>
+      </c>
+      <c r="B44" s="3">
+        <v>204.12360000000001</v>
       </c>
       <c r="C44" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G44" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H44" s="6">
         <v>1.25</v>
@@ -3619,61 +3952,67 @@
       <c r="J44" s="1">
         <v>3</v>
       </c>
-      <c r="K44" s="2">
-        <v>0.99020713931134086</v>
-      </c>
-      <c r="L44" s="2">
-        <v>0.99193300889999558</v>
+      <c r="K44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L44" s="1">
+        <v>4</v>
       </c>
       <c r="M44" s="2">
-        <v>0.99147412396623757</v>
+        <v>1.1050405662005869</v>
       </c>
       <c r="N44" s="2">
-        <v>0.99170399867263981</v>
+        <v>1.0942192798320687</v>
       </c>
       <c r="O44" s="2">
-        <v>0.99192180305355848</v>
+        <v>1.0874325248992625</v>
       </c>
       <c r="P44" s="2">
-        <v>0.99211791597698429</v>
+        <v>1.0813002296211252</v>
       </c>
       <c r="Q44" s="2">
-        <v>0.99230502866376824</v>
+        <v>1.0769753379985054</v>
       </c>
       <c r="R44" s="2">
-        <v>0.99184945913461542</v>
+        <v>1.0688298284092375</v>
       </c>
       <c r="S44" s="2">
-        <v>0.99144640234948611</v>
+        <v>1.0664988333538008</v>
       </c>
       <c r="T44" s="2">
-        <v>0.99224583572659386</v>
+        <v>1.0615150272423692</v>
       </c>
       <c r="U44" s="2">
-        <v>0.99297160528535289</v>
+        <v>1.0570227081581161</v>
       </c>
       <c r="V44" s="2">
-        <v>0.9931167400881058</v>
+        <v>1.0537576604666166</v>
       </c>
       <c r="W44" s="2">
-        <v>0.99325963871663525</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+        <v>1.0499173212071105</v>
+      </c>
+      <c r="X44" s="2">
+        <v>1.0464132922097305</v>
+      </c>
+      <c r="Y44" s="2">
+        <v>1.0431633974389718</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" s="1">
-        <v>276.1191</v>
+        <v>64</v>
+      </c>
+      <c r="B45" s="3">
+        <v>205.0977</v>
       </c>
       <c r="C45" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G45" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H45" s="6">
         <v>1.25</v>
@@ -3684,59 +4023,71 @@
       <c r="J45" s="1">
         <v>3</v>
       </c>
-      <c r="K45" s="2">
-        <v>1.1106878306878307</v>
-      </c>
-      <c r="L45" s="2">
-        <v>1.1043779371753648</v>
+      <c r="K45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L45" s="1">
+        <v>4</v>
       </c>
       <c r="M45" s="2">
-        <v>1.0984562193455014</v>
+        <v>0.97334858450100081</v>
       </c>
       <c r="N45" s="2">
-        <v>1.0968045850671273</v>
+        <v>0.97520934332304987</v>
       </c>
       <c r="O45" s="2">
-        <v>1.0913553731686736</v>
+        <v>0.97699011584652995</v>
       </c>
       <c r="P45" s="2">
-        <v>1.0874259578615881</v>
+        <v>0.97692544354425193</v>
       </c>
       <c r="Q45" s="2">
-        <v>1.083709162908371</v>
+        <v>0.9784636760619293</v>
       </c>
       <c r="R45" s="2">
-        <v>1.079503462131812</v>
+        <v>0.9791836930916783</v>
       </c>
       <c r="S45" s="2">
-        <v>1.0772310610051627</v>
+        <v>0.98133893165383723</v>
       </c>
       <c r="T45" s="2">
-        <v>1.0734529425944419</v>
+        <v>0.9826445531992023</v>
       </c>
       <c r="U45" s="2">
-        <v>1.0714333940989804</v>
+        <v>0.98237963085326629</v>
       </c>
       <c r="V45" s="2">
-        <v>1.0678695580201956</v>
+        <v>0.98358618325190716</v>
       </c>
       <c r="W45" s="2">
-        <v>1.0659975965442203</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0.9847079468538481</v>
+      </c>
+      <c r="X45" s="2">
+        <v>0.98505152539611429</v>
+      </c>
+      <c r="Y45" s="2">
+        <v>0.98545714626296332</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" s="1">
-        <v>298.05309999999997</v>
+        <v>65</v>
+      </c>
+      <c r="B46" s="3">
+        <v>218.13919999999999</v>
       </c>
       <c r="C46" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="1">
+        <v>7</v>
+      </c>
       <c r="G46" s="1">
         <v>8</v>
       </c>
@@ -3747,66 +4098,72 @@
         <v>20</v>
       </c>
       <c r="J46" s="1">
-        <v>3</v>
-      </c>
-      <c r="K46" s="2">
-        <v>1.1903735632183909</v>
-      </c>
-      <c r="L46" s="2">
-        <v>1.1778908820060827</v>
+        <v>4</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L46" s="1">
+        <v>4</v>
       </c>
       <c r="M46" s="2">
-        <v>1.1656801231206348</v>
+        <v>1.1538926290350422</v>
       </c>
       <c r="N46" s="2">
-        <v>1.1554474488064259</v>
+        <v>1.1412885515905054</v>
       </c>
       <c r="O46" s="2">
-        <v>1.1451534339990257</v>
+        <v>1.1291720520033453</v>
       </c>
       <c r="P46" s="2">
-        <v>1.1340602284527517</v>
+        <v>1.1219862227324913</v>
       </c>
       <c r="Q46" s="2">
-        <v>1.1264855687606112</v>
+        <v>1.1143420069298187</v>
       </c>
       <c r="R46" s="2">
-        <v>1.1169624392824509</v>
+        <v>1.1064378789833571</v>
       </c>
       <c r="S46" s="2">
-        <v>1.1112760332111877</v>
+        <v>1.1002701706987597</v>
       </c>
       <c r="T46" s="2">
-        <v>1.1045318033080818</v>
+        <v>1.095670513796942</v>
       </c>
       <c r="U46" s="2">
-        <v>1.0975800156128026</v>
+        <v>1.0869077656293804</v>
       </c>
       <c r="V46" s="2">
-        <v>1.0909778225806452</v>
+        <v>1.0779486076765938</v>
       </c>
       <c r="W46" s="2">
-        <v>1.0861633683524716</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+        <v>1.0722922695328649</v>
+      </c>
+      <c r="X46" s="2">
+        <v>1.0679534374689086</v>
+      </c>
+      <c r="Y46" s="2">
+        <v>1.0639777468706537</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" s="1">
-        <v>133.0343</v>
+        <v>66</v>
+      </c>
+      <c r="B47" s="3">
+        <v>241.0317</v>
       </c>
       <c r="C47" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G47" s="1">
         <v>8</v>
       </c>
       <c r="H47" s="6">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="I47" s="9">
         <v>20</v>
@@ -3814,109 +4171,334 @@
       <c r="J47" s="1">
         <v>3</v>
       </c>
-      <c r="K47" s="2">
-        <v>0.70733304233958971</v>
-      </c>
-      <c r="L47" s="2">
-        <v>0.73722844955857558</v>
+      <c r="K47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L47" s="1">
+        <v>4</v>
       </c>
       <c r="M47" s="2">
-        <v>0.76366281713194506</v>
+        <v>0.97426365456105235</v>
       </c>
       <c r="N47" s="2">
-        <v>0.7857443052870472</v>
+        <v>0.9825363596297928</v>
       </c>
       <c r="O47" s="2">
-        <v>0.80571205007824731</v>
+        <v>0.98937187798915915</v>
       </c>
       <c r="P47" s="2">
-        <v>0.82192783429700655</v>
+        <v>0.98800123064301104</v>
       </c>
       <c r="Q47" s="2">
-        <v>0.83734359961501448</v>
+        <v>0.99086939261611751</v>
       </c>
       <c r="R47" s="2">
-        <v>0.8486244484817026</v>
+        <v>0.9903850776404981</v>
       </c>
       <c r="S47" s="2">
-        <v>0.85981078756604012</v>
+        <v>0.98987637042220677</v>
       </c>
       <c r="T47" s="2">
-        <v>0.87080027998133469</v>
+        <v>0.9909371034982779</v>
       </c>
       <c r="U47" s="2">
-        <v>0.87547754830850999</v>
+        <v>0.98973613497202761</v>
       </c>
       <c r="V47" s="2">
-        <v>0.88138185654008427</v>
+        <v>0.99074312162509637</v>
       </c>
       <c r="W47" s="2">
-        <v>0.89259818731117824</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0.99164368680538151</v>
+      </c>
+      <c r="X47" s="2">
+        <v>0.99319783308215559</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>0.99205308538959736</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B48" s="1">
-        <v>134.04419999999999</v>
+        <v>75</v>
+      </c>
+      <c r="B48" s="3">
+        <v>276.1191</v>
       </c>
       <c r="C48" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G48" s="1">
+        <v>10</v>
+      </c>
+      <c r="H48" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="I48" s="9">
+        <v>20</v>
+      </c>
+      <c r="J48" s="1">
+        <v>3</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L48" s="1">
+        <v>4</v>
+      </c>
+      <c r="M48" s="2">
+        <v>1.1198849104859334</v>
+      </c>
+      <c r="N48" s="2">
+        <v>1.1125141737965158</v>
+      </c>
+      <c r="O48" s="2">
+        <v>1.1006239081607188</v>
+      </c>
+      <c r="P48" s="2">
+        <v>1.0999612928198181</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>1.0962649753347427</v>
+      </c>
+      <c r="R48" s="2">
+        <v>1.0904735833561456</v>
+      </c>
+      <c r="S48" s="2">
+        <v>1.0865973887556621</v>
+      </c>
+      <c r="T48" s="2">
+        <v>1.0821437840643655</v>
+      </c>
+      <c r="U48" s="2">
+        <v>1.0765568382910591</v>
+      </c>
+      <c r="V48" s="2">
+        <v>1.0739781232009211</v>
+      </c>
+      <c r="W48" s="2">
+        <v>1.0669049435765632</v>
+      </c>
+      <c r="X48" s="2">
+        <v>1.0647465076126197</v>
+      </c>
+      <c r="Y48" s="2">
+        <v>1.0613402852323264</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="3">
+        <v>298.05309999999997</v>
+      </c>
+      <c r="C49" s="9">
+        <v>30</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="1">
         <v>8</v>
       </c>
-      <c r="H48" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="I48" s="9">
-        <v>20</v>
-      </c>
-      <c r="J48" s="1">
-        <v>3</v>
-      </c>
-      <c r="K48" s="2">
-        <v>1.2735210561497325</v>
-      </c>
-      <c r="L48" s="2">
-        <v>1.2600774403912778</v>
-      </c>
-      <c r="M48" s="2">
-        <v>1.2488874761602033</v>
-      </c>
-      <c r="N48" s="2">
-        <v>1.2387480097860277</v>
-      </c>
-      <c r="O48" s="2">
-        <v>1.2301240939622784</v>
-      </c>
-      <c r="P48" s="2">
-        <v>1.2175800526882119</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>1.209126854572496</v>
-      </c>
-      <c r="R48" s="2">
-        <v>1.2000355239786857</v>
-      </c>
-      <c r="S48" s="2">
-        <v>1.1905308165606423</v>
-      </c>
-      <c r="T48" s="2">
-        <v>1.1828998056796101</v>
-      </c>
-      <c r="U48" s="2">
-        <v>1.1759927797833933</v>
-      </c>
-      <c r="V48" s="2">
-        <v>1.1682678120594119</v>
-      </c>
-      <c r="W48" s="2">
-        <v>1.1612592044760282</v>
+      <c r="H49" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="I49" s="9">
+        <v>20</v>
+      </c>
+      <c r="J49" s="1">
+        <v>3</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L49" s="1">
+        <v>6</v>
+      </c>
+      <c r="M49" s="2">
+        <v>1.2100180062203307</v>
+      </c>
+      <c r="N49" s="2">
+        <v>1.1930187955504412</v>
+      </c>
+      <c r="O49" s="2">
+        <v>1.1806288398988072</v>
+      </c>
+      <c r="P49" s="2">
+        <v>1.1662566625666257</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>1.1576389788778023</v>
+      </c>
+      <c r="R49" s="2">
+        <v>1.1449096626996362</v>
+      </c>
+      <c r="S49" s="2">
+        <v>1.1390961979197274</v>
+      </c>
+      <c r="T49" s="2">
+        <v>1.1246063877642827</v>
+      </c>
+      <c r="U49" s="2">
+        <v>1.1150857882809972</v>
+      </c>
+      <c r="V49" s="2">
+        <v>1.1071354490769552</v>
+      </c>
+      <c r="W49" s="2">
+        <v>1.1007143927661489</v>
+      </c>
+      <c r="X49" s="2">
+        <v>1.0931566265060242</v>
+      </c>
+      <c r="Y49" s="2">
+        <v>1.0869059256156031</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="3">
+        <v>334.68849999999998</v>
+      </c>
+      <c r="C50" s="9">
+        <v>30</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="1">
+        <v>8</v>
+      </c>
+      <c r="H50" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="I50" s="9">
+        <v>20</v>
+      </c>
+      <c r="J50" s="1">
+        <v>3</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L50" s="1">
+        <v>6</v>
+      </c>
+      <c r="M50" s="2">
+        <v>1.2211064287635613</v>
+      </c>
+      <c r="N50" s="2">
+        <v>1.2048858027273488</v>
+      </c>
+      <c r="O50" s="2">
+        <v>1.1816043283933193</v>
+      </c>
+      <c r="P50" s="2">
+        <v>1.1721517119244391</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>1.1568777901785714</v>
+      </c>
+      <c r="R50" s="2">
+        <v>1.1464059196617338</v>
+      </c>
+      <c r="S50" s="2">
+        <v>1.1338562911829306</v>
+      </c>
+      <c r="T50" s="2">
+        <v>1.1257334450963954</v>
+      </c>
+      <c r="U50" s="2">
+        <v>1.1143837575064341</v>
+      </c>
+      <c r="V50" s="2">
+        <v>1.1059062020600483</v>
+      </c>
+      <c r="W50" s="2">
+        <v>1.100799242822589</v>
+      </c>
+      <c r="X50" s="2">
+        <v>1.0936661434864057</v>
+      </c>
+      <c r="Y50" s="2">
+        <v>1.086827367908449</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="3">
+        <v>471.738</v>
+      </c>
+      <c r="C51" s="1">
+        <v>30</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="1">
+        <v>8</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="I51" s="1">
+        <v>20</v>
+      </c>
+      <c r="J51" s="1">
+        <v>3</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L51" s="1">
+        <v>6</v>
+      </c>
+      <c r="M51" s="2">
+        <v>0.9270642472959395</v>
+      </c>
+      <c r="N51" s="2">
+        <v>0.93466651516873089</v>
+      </c>
+      <c r="O51" s="2">
+        <v>0.93704839062842116</v>
+      </c>
+      <c r="P51" s="2">
+        <v>0.94280287040945532</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>0.94138036497094513</v>
+      </c>
+      <c r="R51" s="2">
+        <v>0.94656149864431849</v>
+      </c>
+      <c r="S51" s="2">
+        <v>0.94749653954465174</v>
+      </c>
+      <c r="T51" s="2">
+        <v>0.95449284755335395</v>
+      </c>
+      <c r="U51" s="2">
+        <v>0.9535751202193159</v>
+      </c>
+      <c r="V51" s="2">
+        <v>0.95489279944107242</v>
+      </c>
+      <c r="W51" s="2">
+        <v>0.95963287159003996</v>
+      </c>
+      <c r="X51" s="2">
+        <v>0.95996025009316388</v>
+      </c>
+      <c r="Y51" s="2">
+        <v>0.96300032278889613</v>
       </c>
     </row>
   </sheetData>
@@ -3927,11 +4509,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003F8FD4-18FD-46B0-89C5-E92BB2B9F58E}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A216F2F-1DB9-4E5E-A855-A9314ED5B547}">
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3939,13 +4521,16 @@
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3953,252 +4538,351 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>89</v>
-      </c>
       <c r="F1" s="8" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="7">
         <v>85.1327</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="9">
         <v>40</v>
       </c>
-      <c r="D2" s="7">
-        <v>4</v>
+      <c r="D2" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="E2" s="7">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7">
         <v>26</v>
       </c>
-      <c r="F2" s="7">
+      <c r="G2" s="7">
         <v>1.6</v>
       </c>
-      <c r="G2" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="7">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B3" s="7">
-        <v>110.1088</v>
-      </c>
-      <c r="C3" s="7">
-        <v>40</v>
-      </c>
-      <c r="D3" s="7">
-        <v>5</v>
+        <v>113.164</v>
+      </c>
+      <c r="C3" s="9">
+        <v>30</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="E3" s="7">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7">
         <v>26</v>
       </c>
-      <c r="F3" s="7">
+      <c r="G3" s="7">
         <v>1.6</v>
       </c>
-      <c r="G3" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="7">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B4" s="7">
-        <v>113.164</v>
-      </c>
-      <c r="C4" s="7">
-        <v>40</v>
-      </c>
-      <c r="D4" s="7">
-        <v>4</v>
+        <v>135.09180000000001</v>
+      </c>
+      <c r="C4" s="9">
+        <v>30</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="E4" s="7">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7">
         <v>26</v>
       </c>
-      <c r="F4" s="7">
+      <c r="G4" s="7">
         <v>1.6</v>
       </c>
-      <c r="G4" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="7">
+        <v>20</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="7">
         <v>117.0856</v>
       </c>
-      <c r="C5" s="7">
-        <v>40</v>
-      </c>
-      <c r="D5" s="7">
-        <v>5</v>
+      <c r="C5" s="9">
+        <v>30</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="E5" s="7">
+        <v>3</v>
+      </c>
+      <c r="F5" s="7">
         <v>26</v>
       </c>
-      <c r="F5" s="7">
+      <c r="G5" s="7">
         <v>1.6</v>
       </c>
-      <c r="G5" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="7">
+        <v>20</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B6" s="7">
-        <v>135.09180000000001</v>
-      </c>
-      <c r="C6" s="7">
-        <v>40</v>
-      </c>
-      <c r="D6" s="7">
-        <v>4</v>
+        <v>157.07429999999999</v>
+      </c>
+      <c r="C6" s="9">
+        <v>30</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="E6" s="7">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7">
         <v>26</v>
       </c>
-      <c r="F6" s="7">
+      <c r="G6" s="7">
         <v>1.6</v>
       </c>
-      <c r="G6" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="7">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B7" s="7">
-        <v>157.07429999999999</v>
-      </c>
-      <c r="C7" s="7">
-        <v>40</v>
-      </c>
-      <c r="D7" s="7">
-        <v>5</v>
+        <v>173.11179999999999</v>
+      </c>
+      <c r="C7" s="9">
+        <v>30</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="E7" s="7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="7">
+        <v>30</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="H7" s="7">
+        <v>20</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="7">
+        <v>110.1088</v>
+      </c>
+      <c r="C8" s="9">
+        <v>30</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="7">
+        <v>3</v>
+      </c>
+      <c r="F8" s="7">
         <v>26</v>
       </c>
-      <c r="F7" s="7">
+      <c r="G8" s="7">
         <v>1.6</v>
       </c>
-      <c r="G7" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>20</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B9" s="7">
         <v>165.1318</v>
       </c>
-      <c r="C8" s="7">
-        <v>40</v>
-      </c>
-      <c r="D8" s="7">
-        <v>5</v>
-      </c>
-      <c r="E8" s="7">
-        <v>30</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="C9" s="9">
+        <v>30</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="7">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7">
         <v>1.6</v>
       </c>
-      <c r="G8" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="7">
-        <v>173.11179999999999</v>
-      </c>
-      <c r="C9" s="7">
-        <v>40</v>
-      </c>
-      <c r="D9" s="7">
-        <v>5</v>
-      </c>
-      <c r="E9" s="7">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1.6</v>
-      </c>
-      <c r="G9" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="7">
+        <v>20</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="7">
         <v>184.07740000000001</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="9">
+        <v>30</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="7">
+        <v>8</v>
+      </c>
+      <c r="F10" s="7">
         <v>40</v>
       </c>
-      <c r="D10" s="7">
-        <v>10</v>
-      </c>
-      <c r="E10" s="7">
-        <v>40</v>
-      </c>
-      <c r="F10" s="7">
+      <c r="G10" s="7">
         <v>1.6</v>
       </c>
-      <c r="G10" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="7">
+        <v>20</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="7">
         <v>200.07230000000001</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="9">
+        <v>30</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="7">
+        <v>8</v>
+      </c>
+      <c r="F11" s="7">
         <v>40</v>
       </c>
-      <c r="D11" s="7">
-        <v>10</v>
-      </c>
-      <c r="E11" s="7">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="G11" s="7">
         <v>1.6</v>
       </c>
-      <c r="G11" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="7">
+        <v>20</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>41</v>
       </c>
@@ -4206,95 +4890,123 @@
         <v>216.0427</v>
       </c>
       <c r="C12" s="7">
+        <v>30</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="7">
+        <v>8</v>
+      </c>
+      <c r="F12" s="7">
         <v>40</v>
       </c>
-      <c r="D12" s="7">
-        <v>10</v>
-      </c>
-      <c r="E12" s="7">
-        <v>40</v>
-      </c>
-      <c r="F12" s="7">
+      <c r="G12" s="7">
         <v>1.6</v>
       </c>
-      <c r="G12" s="7">
-        <v>20</v>
+      <c r="H12" s="7">
+        <v>20</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="1">
+        <v>133.0343</v>
+      </c>
+      <c r="C13" s="9">
+        <v>30</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>20</v>
+      </c>
+      <c r="G13" s="10">
+        <v>2</v>
+      </c>
+      <c r="H13" s="7">
+        <v>20</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFFE8E4-84E1-4284-A5B8-07DB42525DFD}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05892D0-CA56-4D94-BF5E-70073D9BBFCD}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>121.0509</v>
       </c>
       <c r="D2" s="1">
-        <v>4</v>
+        <v>922.00980000000004</v>
       </c>
       <c r="E2" s="1">
-        <v>121.0509</v>
+        <v>100</v>
       </c>
       <c r="F2" s="1">
-        <v>922.00980000000004</v>
-      </c>
-      <c r="G2" s="1">
-        <v>100</v>
-      </c>
-      <c r="H2" s="1">
         <v>1000</v>
       </c>
     </row>

--- a/Mass List and Parameters.xlsx
+++ b/Mass List and Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Erick\MSI-CE-MS-Data-Preprocessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F5F980-0B44-4645-ADC7-11ED9D3A998D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B38767-500B-4F22-9463-BC4701FC03BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{3F442743-5A66-4E15-9366-B88AC1790E64}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{3F442743-5A66-4E15-9366-B88AC1790E64}"/>
   </bookViews>
   <sheets>
     <sheet name="Analyte Mass List" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="96">
   <si>
     <t>name</t>
   </si>
@@ -289,9 +289,6 @@
     <t>required.points.for.peak.picking</t>
   </si>
   <si>
-    <t>eie.smoothing.strength</t>
-  </si>
-  <si>
     <t>ref.mass.one</t>
   </si>
   <si>
@@ -311,6 +308,24 @@
   </si>
   <si>
     <t>peak.fwhm.tolerance.multiplier</t>
+  </si>
+  <si>
+    <t>smoothing.kernal</t>
+  </si>
+  <si>
+    <t>smoothing.strength</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>Creatine, Isoleucine, Leucine</t>
+  </si>
+  <si>
+    <t>Internal Standard</t>
+  </si>
+  <si>
+    <t>class</t>
   </si>
 </sst>
 </file>
@@ -726,29 +741,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A9B2B3-45F3-4E9C-8863-F19858D470D6}">
-  <dimension ref="A1:Y48"/>
+  <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="32" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="23" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="25" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -780,46 +797,52 @@
         <v>74</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -844,48 +867,54 @@
       <c r="J2" s="1">
         <v>3</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="1">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2">
         <v>0.8556342795252494</v>
       </c>
-      <c r="L2" s="2">
+      <c r="N2" s="2">
         <v>0.86338725941514316</v>
       </c>
-      <c r="M2" s="2">
+      <c r="O2" s="2">
         <v>0.87006564924546004</v>
       </c>
-      <c r="N2" s="2">
+      <c r="P2" s="2">
         <v>0.87630662020905925</v>
       </c>
-      <c r="O2" s="2">
+      <c r="Q2" s="2">
         <v>0.88157363276516687</v>
       </c>
-      <c r="P2" s="2">
+      <c r="R2" s="2">
         <v>0.88838969023409797</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="S2" s="2">
         <v>0.89292447385633489</v>
       </c>
-      <c r="R2" s="2">
+      <c r="T2" s="2">
         <v>0.89738581730769229</v>
       </c>
-      <c r="S2" s="2">
+      <c r="U2" s="2">
         <v>0.90275330396475784</v>
       </c>
-      <c r="T2" s="2">
+      <c r="V2" s="2">
         <v>0.90673463526708775</v>
       </c>
-      <c r="U2" s="2">
+      <c r="W2" s="2">
         <v>0.91102052291256674</v>
       </c>
-      <c r="V2" s="2">
+      <c r="X2" s="2">
         <v>0.91512940528634357</v>
       </c>
-      <c r="W2" s="2">
+      <c r="Y2" s="2">
         <v>0.91914936640603928</v>
       </c>
-      <c r="Y2" s="2"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA2" s="2"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -910,48 +939,54 @@
       <c r="J3" s="1">
         <v>3</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="1">
+        <v>4</v>
+      </c>
+      <c r="M3" s="2">
         <v>0.96623563218390807</v>
       </c>
-      <c r="L3" s="2">
+      <c r="N3" s="2">
         <v>0.96797219291167524</v>
       </c>
-      <c r="M3" s="2">
+      <c r="O3" s="2">
         <v>0.97046288623179833</v>
       </c>
-      <c r="N3" s="2">
+      <c r="P3" s="2">
         <v>0.9726213372553455</v>
       </c>
-      <c r="O3" s="2">
+      <c r="Q3" s="2">
         <v>0.9738593927585647</v>
       </c>
-      <c r="P3" s="2">
+      <c r="R3" s="2">
         <v>0.97492211838006226</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="S3" s="2">
         <v>0.97588135423948863</v>
       </c>
-      <c r="R3" s="2">
+      <c r="T3" s="2">
         <v>0.97677102871158561</v>
       </c>
-      <c r="S3" s="2">
+      <c r="U3" s="2">
         <v>0.9775963634676933</v>
       </c>
-      <c r="T3" s="2">
+      <c r="V3" s="2">
         <v>0.97906674436326135</v>
       </c>
-      <c r="U3" s="2">
+      <c r="W3" s="2">
         <v>0.97979009454419286</v>
       </c>
-      <c r="V3" s="2">
+      <c r="X3" s="2">
         <v>0.97971270161290325</v>
       </c>
-      <c r="W3" s="2">
+      <c r="Y3" s="2">
         <v>0.98033227461519667</v>
       </c>
-      <c r="Y3" s="2"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA3" s="2"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -982,47 +1017,53 @@
       <c r="J4" s="1">
         <v>3</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4</v>
+      </c>
+      <c r="M4" s="2">
         <v>0.99639895242252297</v>
       </c>
-      <c r="L4" s="2">
+      <c r="N4" s="2">
         <v>0.99662731871838117</v>
       </c>
-      <c r="M4" s="2">
+      <c r="O4" s="2">
         <v>0.99845412385195964</v>
       </c>
-      <c r="N4" s="2">
+      <c r="P4" s="2">
         <v>0.9971421366731108</v>
       </c>
-      <c r="O4" s="2">
+      <c r="Q4" s="2">
         <v>0.99733959311424114</v>
       </c>
-      <c r="P4" s="2">
+      <c r="R4" s="2">
         <v>0.99751152748298322</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="S4" s="2">
         <v>0.99656262890141623</v>
       </c>
-      <c r="R4" s="2">
+      <c r="T4" s="2">
         <v>0.99779392681027768</v>
       </c>
-      <c r="S4" s="2">
+      <c r="U4" s="2">
         <v>0.99895564565671457</v>
       </c>
-      <c r="T4" s="2">
+      <c r="V4" s="2">
         <v>1.0019832011199254</v>
       </c>
-      <c r="U4" s="2">
+      <c r="W4" s="2">
         <v>0.99629034937157412</v>
       </c>
-      <c r="V4" s="2">
+      <c r="X4" s="2">
         <v>0.99825949367088596</v>
       </c>
-      <c r="W4" s="2">
+      <c r="Y4" s="2">
         <v>0.99833836858006053</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
@@ -1047,47 +1088,53 @@
       <c r="J5" s="1">
         <v>3</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4</v>
+      </c>
+      <c r="M5" s="2">
         <v>1.0064753068522276</v>
       </c>
-      <c r="L5" s="2">
+      <c r="N5" s="2">
         <v>1.005957144127323</v>
       </c>
-      <c r="M5" s="2">
+      <c r="O5" s="2">
         <v>1.0054334403556433</v>
       </c>
-      <c r="N5" s="2">
+      <c r="P5" s="2">
         <v>1.0038375930616319</v>
       </c>
-      <c r="O5" s="2">
+      <c r="Q5" s="2">
         <v>1.0047495682210708</v>
       </c>
-      <c r="P5" s="2">
+      <c r="R5" s="2">
         <v>1.0045386803956105</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="S5" s="2">
         <v>1.0053164232641558</v>
       </c>
-      <c r="R5" s="2">
+      <c r="T5" s="2">
         <v>1.0030343488287412</v>
       </c>
-      <c r="S5" s="2">
+      <c r="U5" s="2">
         <v>1.0028855032317636</v>
       </c>
-      <c r="T5" s="2">
+      <c r="V5" s="2">
         <v>1.0036859767838477</v>
       </c>
-      <c r="U5" s="2">
+      <c r="W5" s="2">
         <v>1.0035213118200452</v>
       </c>
-      <c r="V5" s="2">
+      <c r="X5" s="2">
         <v>1.00337361530715</v>
       </c>
-      <c r="W5" s="2">
+      <c r="Y5" s="2">
         <v>1.0032378098874015</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1112,47 +1159,53 @@
       <c r="J6" s="1">
         <v>3</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4</v>
+      </c>
+      <c r="M6" s="2">
         <v>1.0837904911180773</v>
       </c>
-      <c r="L6" s="2">
+      <c r="N6" s="2">
         <v>1.0786419216684253</v>
       </c>
-      <c r="M6" s="2">
+      <c r="O6" s="2">
         <v>1.0739907659524091</v>
       </c>
-      <c r="N6" s="2">
+      <c r="P6" s="2">
         <v>1.0696911415318475</v>
       </c>
-      <c r="O6" s="2">
+      <c r="Q6" s="2">
         <v>1.0640255452725009</v>
       </c>
-      <c r="P6" s="2">
+      <c r="R6" s="2">
         <v>1.0597092419522325</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="S6" s="2">
         <v>1.0557774892639569</v>
       </c>
-      <c r="R6" s="2">
+      <c r="T6" s="2">
         <v>1.0520848362429664</v>
       </c>
-      <c r="S6" s="2">
+      <c r="U6" s="2">
         <v>1.0487035576789276</v>
       </c>
-      <c r="T6" s="2">
+      <c r="V6" s="2">
         <v>1.0455421578735038</v>
       </c>
-      <c r="U6" s="2">
+      <c r="W6" s="2">
         <v>1.0426316245988378</v>
       </c>
-      <c r="V6" s="2">
+      <c r="X6" s="2">
         <v>1.039188508064516</v>
       </c>
-      <c r="W6" s="2">
+      <c r="Y6" s="2">
         <v>1.0366072155713006</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>69</v>
       </c>
@@ -1177,47 +1230,53 @@
       <c r="J7" s="1">
         <v>3</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" s="1">
+        <v>4</v>
+      </c>
+      <c r="M7" s="2">
         <v>1.181687565308255</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>1.1685804729687792</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>1.1568012312063456</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>1.1469623260549835</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>1.137035232992369</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>1.1280373831775699</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>1.119794267452312</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>1.1121531284566921</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>1.1058954496961824</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>1.1000493074543907</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>1.0939370283632579</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>1.0867775537634408</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>1.0827428943725059</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -1242,47 +1301,53 @@
       <c r="J8" s="1">
         <v>3</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4</v>
+      </c>
+      <c r="M8" s="2">
         <v>0.99503179650238471</v>
       </c>
-      <c r="L8" s="2">
+      <c r="N8" s="2">
         <v>0.9969807868252516</v>
       </c>
-      <c r="M8" s="2">
+      <c r="O8" s="2">
         <v>0.99721048182586647</v>
       </c>
-      <c r="N8" s="2">
+      <c r="P8" s="2">
         <v>0.99740423188861804</v>
       </c>
-      <c r="O8" s="2">
+      <c r="Q8" s="2">
         <v>0.99632244777875845</v>
       </c>
-      <c r="P8" s="2">
+      <c r="R8" s="2">
         <v>0.99654266353201504</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="S8" s="2">
         <v>0.99784707724425892</v>
       </c>
-      <c r="R8" s="2">
+      <c r="T8" s="2">
         <v>0.99796019285449367</v>
       </c>
-      <c r="S8" s="2">
+      <c r="U8" s="2">
         <v>0.99806383478056782</v>
       </c>
-      <c r="T8" s="2">
+      <c r="V8" s="2">
         <v>0.99815920120488644</v>
       </c>
-      <c r="U8" s="2">
+      <c r="W8" s="2">
         <v>0.99824561403508782</v>
       </c>
-      <c r="V8" s="2">
+      <c r="X8" s="2">
         <v>0.99746102676077786</v>
       </c>
-      <c r="W8" s="2">
+      <c r="Y8" s="2">
         <v>0.99834630350194553</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1307,47 +1372,53 @@
       <c r="J9" s="1">
         <v>3</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4</v>
+      </c>
+      <c r="M9" s="2">
         <v>0.87066203348526561</v>
       </c>
-      <c r="L9" s="2">
+      <c r="N9" s="2">
         <v>0.87728528212547685</v>
       </c>
-      <c r="M9" s="2">
+      <c r="O9" s="2">
         <v>0.88353653337880467</v>
       </c>
-      <c r="N9" s="2">
+      <c r="P9" s="2">
         <v>0.88875062220009948</v>
       </c>
-      <c r="O9" s="2">
+      <c r="Q9" s="2">
         <v>0.8936909281848292</v>
       </c>
-      <c r="P9" s="2">
+      <c r="R9" s="2">
         <v>0.89891227240482396</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="S9" s="2">
         <v>0.90385133315378408</v>
       </c>
-      <c r="R9" s="2">
+      <c r="T9" s="2">
         <v>0.90737680288461542</v>
       </c>
-      <c r="S9" s="2">
+      <c r="U9" s="2">
         <v>0.91193098384728355</v>
       </c>
-      <c r="T9" s="2">
+      <c r="V9" s="2">
         <v>0.91509908098793791</v>
       </c>
-      <c r="U9" s="2">
+      <c r="W9" s="2">
         <v>0.91920860275513072</v>
       </c>
-      <c r="V9" s="2">
+      <c r="X9" s="2">
         <v>0.92259774229074887</v>
       </c>
-      <c r="W9" s="2">
+      <c r="Y9" s="2">
         <v>0.92588972768940414</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -1372,11 +1443,11 @@
       <c r="J10" s="1">
         <v>3</v>
       </c>
-      <c r="K10" s="2">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1</v>
+      <c r="K10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" s="1">
+        <v>4</v>
       </c>
       <c r="M10" s="2">
         <v>1</v>
@@ -1388,14 +1459,14 @@
         <v>1</v>
       </c>
       <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2">
         <v>0.99899547965846314</v>
       </c>
-      <c r="Q10" s="2">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2">
-        <v>1</v>
-      </c>
       <c r="S10" s="2">
         <v>1</v>
       </c>
@@ -1411,8 +1482,14 @@
       <c r="W10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -1437,47 +1514,53 @@
       <c r="J11" s="1">
         <v>3</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11" s="1">
+        <v>4</v>
+      </c>
+      <c r="M11" s="2">
         <v>0.95338237285076055</v>
       </c>
-      <c r="L11" s="2">
+      <c r="N11" s="2">
         <v>0.95615765706519351</v>
       </c>
-      <c r="M11" s="2">
+      <c r="O11" s="2">
         <v>0.95809531929405756</v>
       </c>
-      <c r="N11" s="2">
+      <c r="P11" s="2">
         <v>0.95993031358885017</v>
       </c>
-      <c r="O11" s="2">
+      <c r="Q11" s="2">
         <v>0.96162856450440259</v>
       </c>
-      <c r="P11" s="2">
+      <c r="R11" s="2">
         <v>0.9639000551745881</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="S11" s="2">
         <v>0.96537262898695708</v>
       </c>
-      <c r="R11" s="2">
+      <c r="T11" s="2">
         <v>0.96619591346153855</v>
       </c>
-      <c r="S11" s="2">
+      <c r="U11" s="2">
         <v>0.96820851688693099</v>
       </c>
-      <c r="T11" s="2">
+      <c r="V11" s="2">
         <v>0.96952182653647334</v>
       </c>
-      <c r="U11" s="2">
+      <c r="W11" s="2">
         <v>0.97072673601349457</v>
       </c>
-      <c r="V11" s="2">
+      <c r="X11" s="2">
         <v>0.97191629955947123</v>
       </c>
-      <c r="W11" s="2">
+      <c r="Y11" s="2">
         <v>0.97361148557562682</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1508,47 +1591,53 @@
       <c r="J12" s="1">
         <v>3</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L12" s="1">
+        <v>4</v>
+      </c>
+      <c r="M12" s="2">
         <v>0.85640146215984481</v>
       </c>
-      <c r="L12" s="2">
+      <c r="N12" s="2">
         <v>0.86338725941514316</v>
       </c>
-      <c r="M12" s="2">
+      <c r="O12" s="2">
         <v>0.87006564924546004</v>
       </c>
-      <c r="N12" s="2">
+      <c r="P12" s="2">
         <v>0.87630662020905925</v>
       </c>
-      <c r="O12" s="2">
+      <c r="Q12" s="2">
         <v>0.88157363276516687</v>
       </c>
-      <c r="P12" s="2">
+      <c r="R12" s="2">
         <v>0.88771971309214159</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="S12" s="2">
         <v>0.89292447385633489</v>
       </c>
-      <c r="R12" s="2">
+      <c r="T12" s="2">
         <v>0.89738581730769229</v>
       </c>
-      <c r="S12" s="2">
+      <c r="U12" s="2">
         <v>0.90275330396475784</v>
       </c>
-      <c r="T12" s="2">
+      <c r="V12" s="2">
         <v>0.90673463526708775</v>
       </c>
-      <c r="U12" s="2">
+      <c r="W12" s="2">
         <v>0.91102052291256674</v>
       </c>
-      <c r="V12" s="2">
+      <c r="X12" s="2">
         <v>0.91512940528634357</v>
       </c>
-      <c r="W12" s="2">
+      <c r="Y12" s="2">
         <v>0.91914936640603928</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -1579,47 +1668,53 @@
       <c r="J13" s="1">
         <v>3</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13" s="1">
+        <v>4</v>
+      </c>
+      <c r="M13" s="2">
         <v>1.0165169908389367</v>
       </c>
-      <c r="L13" s="2">
+      <c r="N13" s="2">
         <v>1.0174930948309877</v>
       </c>
-      <c r="M13" s="2">
+      <c r="O13" s="2">
         <v>1.0135135135135136</v>
       </c>
-      <c r="N13" s="2">
+      <c r="P13" s="2">
         <v>1.0165920026547204</v>
       </c>
-      <c r="O13" s="2">
+      <c r="Q13" s="2">
         <v>1.0114306486792148</v>
       </c>
-      <c r="P13" s="2">
+      <c r="R13" s="2">
         <v>1.0111531488925674</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="S13" s="2">
         <v>1.0108883844407681</v>
       </c>
-      <c r="R13" s="2">
+      <c r="T13" s="2">
         <v>1.0093900240384615</v>
       </c>
-      <c r="S13" s="2">
+      <c r="U13" s="2">
         <v>1.0098017621145376</v>
       </c>
-      <c r="T13" s="2">
+      <c r="V13" s="2">
         <v>1.0089747271682941</v>
       </c>
-      <c r="U13" s="2">
+      <c r="W13" s="2">
         <v>1.0087854933933089</v>
       </c>
-      <c r="V13" s="2">
+      <c r="X13" s="2">
         <v>1.0086040748898679</v>
       </c>
-      <c r="W13" s="2">
+      <c r="Y13" s="2">
         <v>1.0084254516042059</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -1644,47 +1739,53 @@
       <c r="J14" s="1">
         <v>3</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="1">
+        <v>4</v>
+      </c>
+      <c r="M14" s="2">
         <v>0.92630533868856901</v>
       </c>
-      <c r="L14" s="2">
+      <c r="N14" s="2">
         <v>0.93059757113420127</v>
       </c>
-      <c r="M14" s="2">
+      <c r="O14" s="2">
         <v>0.93324239065563985</v>
       </c>
-      <c r="N14" s="2">
+      <c r="P14" s="2">
         <v>0.93641114982578388</v>
       </c>
-      <c r="O14" s="2">
+      <c r="Q14" s="2">
         <v>0.93876726714597314</v>
       </c>
-      <c r="P14" s="2">
+      <c r="R14" s="2">
         <v>0.94222432411129509</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="S14" s="2">
         <v>0.94551960293947901</v>
       </c>
-      <c r="R14" s="2">
+      <c r="T14" s="2">
         <v>0.94681490384615385</v>
       </c>
-      <c r="S14" s="2">
+      <c r="U14" s="2">
         <v>0.94922907488986785</v>
       </c>
-      <c r="T14" s="2">
+      <c r="V14" s="2">
         <v>0.95096209075244098</v>
       </c>
-      <c r="U14" s="2">
+      <c r="W14" s="2">
         <v>0.95375316277762168</v>
       </c>
-      <c r="V14" s="2">
+      <c r="X14" s="2">
         <v>0.95584388766519823</v>
       </c>
-      <c r="W14" s="2">
+      <c r="Y14" s="2">
         <v>0.95790644378538681</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1709,47 +1810,53 @@
       <c r="J15" s="1">
         <v>2</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" s="1">
+        <v>4</v>
+      </c>
+      <c r="M15" s="2">
         <v>1.0326541274817136</v>
       </c>
-      <c r="L15" s="2">
+      <c r="N15" s="2">
         <v>1.0310346967910125</v>
       </c>
-      <c r="M15" s="2">
+      <c r="O15" s="2">
         <v>1.0306025807979167</v>
       </c>
-      <c r="N15" s="2">
+      <c r="P15" s="2">
         <v>1.0273220952596447</v>
       </c>
-      <c r="O15" s="2">
+      <c r="Q15" s="2">
         <v>1.0261406072414354</v>
       </c>
-      <c r="P15" s="2">
+      <c r="R15" s="2">
         <v>1.0242471443406023</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="S15" s="2">
         <v>1.0224707879756316</v>
       </c>
-      <c r="R15" s="2">
+      <c r="T15" s="2">
         <v>1.020824315875535</v>
       </c>
-      <c r="S15" s="2">
+      <c r="U15" s="2">
         <v>1.0193422700496311</v>
       </c>
-      <c r="T15" s="2">
+      <c r="V15" s="2">
         <v>1.0179299834147653</v>
       </c>
-      <c r="U15" s="2">
+      <c r="W15" s="2">
         <v>1.0173475583311649</v>
       </c>
-      <c r="V15" s="2">
+      <c r="X15" s="2">
         <v>1.0154149865591398</v>
       </c>
-      <c r="W15" s="2">
+      <c r="Y15" s="2">
         <v>1.0142519749165242</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -1763,7 +1870,7 @@
         <v>41</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="F16" s="1">
         <v>6</v>
@@ -1780,47 +1887,53 @@
       <c r="J16" s="1">
         <v>3</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="1">
+        <v>4</v>
+      </c>
+      <c r="M16" s="2">
         <v>1.0246772486772486</v>
       </c>
-      <c r="L16" s="2">
+      <c r="N16" s="2">
         <v>1.0247341083353945</v>
       </c>
-      <c r="M16" s="2">
+      <c r="O16" s="2">
         <v>1.0227948862265819</v>
       </c>
-      <c r="N16" s="2">
+      <c r="P16" s="2">
         <v>1.0222579885373322</v>
       </c>
-      <c r="O16" s="2">
+      <c r="Q16" s="2">
         <v>1.0217074480325228</v>
       </c>
-      <c r="P16" s="2">
+      <c r="R16" s="2">
         <v>1.0212191647296993</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="S16" s="2">
         <v>1.0195431379019544</v>
       </c>
-      <c r="R16" s="2">
+      <c r="T16" s="2">
         <v>1.0179385067986941</v>
       </c>
-      <c r="S16" s="2">
+      <c r="U16" s="2">
         <v>1.0175604959084044</v>
       </c>
-      <c r="T16" s="2">
+      <c r="V16" s="2">
         <v>1.0172182237680361</v>
       </c>
-      <c r="U16" s="2">
+      <c r="W16" s="2">
         <v>1.0163054486530281</v>
       </c>
-      <c r="V16" s="2">
+      <c r="X16" s="2">
         <v>1.0160238371130608</v>
       </c>
-      <c r="W16" s="2">
+      <c r="Y16" s="2">
         <v>1.0151352755854364</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -1845,47 +1958,53 @@
       <c r="J17" s="1">
         <v>3</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="1">
+        <v>4</v>
+      </c>
+      <c r="M17" s="2">
         <v>1.054401776384535</v>
       </c>
-      <c r="L17" s="2">
+      <c r="N17" s="2">
         <v>1.0507106945565141</v>
       </c>
-      <c r="M17" s="2">
+      <c r="O17" s="2">
         <v>1.0483603646264947</v>
       </c>
-      <c r="N17" s="2">
+      <c r="P17" s="2">
         <v>1.0451974205226835</v>
       </c>
-      <c r="O17" s="2">
+      <c r="Q17" s="2">
         <v>1.0423770092547493</v>
       </c>
-      <c r="P17" s="2">
+      <c r="R17" s="2">
         <v>1.0389408099688473</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="S17" s="2">
         <v>1.0374513132927194</v>
       </c>
-      <c r="R17" s="2">
+      <c r="T17" s="2">
         <v>1.0336170826720532</v>
       </c>
-      <c r="S17" s="2">
+      <c r="U17" s="2">
         <v>1.0316805046616262</v>
       </c>
-      <c r="T17" s="2">
+      <c r="V17" s="2">
         <v>1.0298534223855844</v>
       </c>
-      <c r="U17" s="2">
+      <c r="W17" s="2">
         <v>1.028189782288143</v>
       </c>
-      <c r="V17" s="2">
+      <c r="X17" s="2">
         <v>1.0265877016129032</v>
       </c>
-      <c r="W17" s="2">
+      <c r="Y17" s="2">
         <v>1.0244319569997558</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -1910,47 +2029,53 @@
       <c r="J18" s="1">
         <v>3</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="1">
+        <v>4</v>
+      </c>
+      <c r="M18" s="2">
         <v>0.87142921611986102</v>
       </c>
-      <c r="L18" s="2">
+      <c r="N18" s="2">
         <v>0.87873207944232534</v>
       </c>
-      <c r="M18" s="2">
+      <c r="O18" s="2">
         <v>0.8856680023872453</v>
       </c>
-      <c r="N18" s="2">
+      <c r="P18" s="2">
         <v>0.89148830263812839</v>
       </c>
-      <c r="O18" s="2">
+      <c r="Q18" s="2">
         <v>0.89704337991760241</v>
       </c>
-      <c r="P18" s="2">
+      <c r="R18" s="2">
         <v>0.90151336013241901</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="S18" s="2">
         <v>0.90639067369474047</v>
       </c>
-      <c r="R18" s="2">
+      <c r="T18" s="2">
         <v>0.90989332932692313</v>
       </c>
-      <c r="S18" s="2">
+      <c r="U18" s="2">
         <v>0.91439060205580036</v>
       </c>
-      <c r="T18" s="2">
+      <c r="V18" s="2">
         <v>0.91746840896036752</v>
       </c>
-      <c r="U18" s="2">
+      <c r="W18" s="2">
         <v>0.92212538656170928</v>
       </c>
-      <c r="V18" s="2">
+      <c r="X18" s="2">
         <v>0.92545429515418498</v>
       </c>
-      <c r="W18" s="2">
+      <c r="Y18" s="2">
         <v>0.9287206794284173</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1975,47 +2100,53 @@
       <c r="J19" s="1">
         <v>3</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" s="1">
+        <v>4</v>
+      </c>
+      <c r="M19" s="2">
         <v>0.88645697007987734</v>
       </c>
-      <c r="L19" s="2">
+      <c r="N19" s="2">
         <v>0.89263010215265892</v>
       </c>
-      <c r="M19" s="2">
+      <c r="O19" s="2">
         <v>0.89845681643788911</v>
       </c>
-      <c r="N19" s="2">
+      <c r="P19" s="2">
         <v>0.90256346441015434</v>
       </c>
-      <c r="O19" s="2">
+      <c r="Q19" s="2">
         <v>0.90714112610065434</v>
       </c>
-      <c r="P19" s="2">
+      <c r="R19" s="2">
         <v>0.912035942303145</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="S19" s="2">
         <v>0.91600938786503017</v>
       </c>
-      <c r="R19" s="2">
+      <c r="T19" s="2">
         <v>0.91928335336538469</v>
       </c>
-      <c r="S19" s="2">
+      <c r="U19" s="2">
         <v>0.92356828193832607</v>
       </c>
-      <c r="T19" s="2">
+      <c r="V19" s="2">
         <v>0.92705341757610571</v>
       </c>
-      <c r="U19" s="2">
+      <c r="W19" s="2">
         <v>0.9303486083778465</v>
       </c>
-      <c r="V19" s="2">
+      <c r="X19" s="2">
         <v>0.93347329295154191</v>
       </c>
-      <c r="W19" s="2">
+      <c r="Y19" s="2">
         <v>0.93711242922620652</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>37</v>
       </c>
@@ -2046,47 +2177,53 @@
       <c r="J20" s="1">
         <v>3</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L20" s="1">
+        <v>4</v>
+      </c>
+      <c r="M20" s="2">
         <v>0.9232440602711256</v>
       </c>
-      <c r="L20" s="2">
+      <c r="N20" s="2">
         <v>0.92660215446412264</v>
       </c>
-      <c r="M20" s="2">
+      <c r="O20" s="2">
         <v>0.93114725119321196</v>
       </c>
-      <c r="N20" s="2">
+      <c r="P20" s="2">
         <v>0.93536773529915995</v>
       </c>
-      <c r="O20" s="2">
+      <c r="Q20" s="2">
         <v>0.93800931315483116</v>
       </c>
-      <c r="P20" s="2">
+      <c r="R20" s="2">
         <v>0.94114320339325386</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="S20" s="2">
         <v>0.94339919085588597</v>
       </c>
-      <c r="R20" s="2">
+      <c r="T20" s="2">
         <v>0.94560813393471455</v>
       </c>
-      <c r="S20" s="2">
+      <c r="U20" s="2">
         <v>0.94879439496142814</v>
       </c>
-      <c r="T20" s="2">
+      <c r="V20" s="2">
         <v>0.95004181362033235</v>
       </c>
-      <c r="U20" s="2">
+      <c r="W20" s="2">
         <v>0.9530667991060342</v>
       </c>
-      <c r="V20" s="2">
+      <c r="X20" s="2">
         <v>0.95527511007870192</v>
       </c>
-      <c r="W20" s="2">
+      <c r="Y20" s="2">
         <v>0.9574085996001761</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -2112,21 +2249,21 @@
       <c r="J21" s="1">
         <v>3</v>
       </c>
-      <c r="K21" s="2">
-        <v>1</v>
-      </c>
-      <c r="L21" s="2">
-        <v>1</v>
+      <c r="K21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L21" s="1">
+        <v>4</v>
       </c>
       <c r="M21" s="2">
+        <v>1</v>
+      </c>
+      <c r="N21" s="2">
+        <v>1</v>
+      </c>
+      <c r="O21" s="2">
         <v>1.0013171976619741</v>
       </c>
-      <c r="N21" s="2">
-        <v>1</v>
-      </c>
-      <c r="O21" s="2">
-        <v>1</v>
-      </c>
       <c r="P21" s="2">
         <v>1</v>
       </c>
@@ -2137,22 +2274,28 @@
         <v>1</v>
       </c>
       <c r="S21" s="2">
+        <v>1</v>
+      </c>
+      <c r="T21" s="2">
+        <v>1</v>
+      </c>
+      <c r="U21" s="2">
         <v>0.99901892890120036</v>
       </c>
-      <c r="T21" s="2">
-        <v>1</v>
-      </c>
-      <c r="U21" s="2">
-        <v>1</v>
-      </c>
       <c r="V21" s="2">
         <v>1</v>
       </c>
       <c r="W21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -2183,47 +2326,53 @@
       <c r="J22" s="1">
         <v>3</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22" s="1">
+        <v>4</v>
+      </c>
+      <c r="M22" s="2">
         <v>0.98424111948331539</v>
       </c>
-      <c r="L22" s="2">
+      <c r="N22" s="2">
         <v>0.98599110812851276</v>
       </c>
-      <c r="M22" s="2">
+      <c r="O22" s="2">
         <v>0.98569969356486209</v>
       </c>
-      <c r="N22" s="2">
+      <c r="P22" s="2">
         <v>0.98606021985024683</v>
       </c>
-      <c r="O22" s="2">
+      <c r="Q22" s="2">
         <v>0.9877157518270876</v>
       </c>
-      <c r="P22" s="2">
+      <c r="R22" s="2">
         <v>0.98795775717975987</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="S22" s="2">
         <v>0.98822611796166993</v>
       </c>
-      <c r="R22" s="2">
+      <c r="T22" s="2">
         <v>0.98967535536408902</v>
       </c>
-      <c r="S22" s="2">
+      <c r="U22" s="2">
         <v>0.990505991537176</v>
       </c>
-      <c r="T22" s="2">
+      <c r="V22" s="2">
         <v>0.99073364453424373</v>
       </c>
-      <c r="U22" s="2">
+      <c r="W22" s="2">
         <v>0.99034327441479553</v>
       </c>
-      <c r="V22" s="2">
+      <c r="X22" s="2">
         <v>0.99106694770651416</v>
       </c>
-      <c r="W22" s="2">
+      <c r="Y22" s="2">
         <v>0.99124274328446327</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -2248,47 +2397,53 @@
       <c r="J23" s="1">
         <v>3</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L23" s="1">
+        <v>4</v>
+      </c>
+      <c r="M23" s="2">
         <v>1.1036613756613758</v>
       </c>
-      <c r="L23" s="2">
+      <c r="N23" s="2">
         <v>1.0968340341330696</v>
       </c>
-      <c r="M23" s="2">
+      <c r="O23" s="2">
         <v>1.0917825842244915</v>
       </c>
-      <c r="N23" s="2">
+      <c r="P23" s="2">
         <v>1.0876187485279107</v>
       </c>
-      <c r="O23" s="2">
+      <c r="Q23" s="2">
         <v>1.0830712587251667</v>
       </c>
-      <c r="P23" s="2">
+      <c r="R23" s="2">
         <v>1.0799280197945567</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="S23" s="2">
         <v>1.0751292487075128</v>
       </c>
-      <c r="R23" s="2">
+      <c r="T23" s="2">
         <v>1.070534208732465</v>
       </c>
-      <c r="S23" s="2">
+      <c r="U23" s="2">
         <v>1.0660977065992343</v>
       </c>
-      <c r="T23" s="2">
+      <c r="V23" s="2">
         <v>1.0625365887255069</v>
       </c>
-      <c r="U23" s="2">
+      <c r="W23" s="2">
         <v>1.0618796840186346</v>
       </c>
-      <c r="V23" s="2">
+      <c r="X23" s="2">
         <v>1.05737460685317</v>
       </c>
-      <c r="W23" s="2">
+      <c r="Y23" s="2">
         <v>1.053558088927864</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -2313,47 +2468,53 @@
       <c r="J24" s="1">
         <v>3</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L24" s="1">
+        <v>4</v>
+      </c>
+      <c r="M24" s="2">
         <v>1.0157949365946117</v>
       </c>
-      <c r="L24" s="2">
+      <c r="N24" s="2">
         <v>1.0160462975141391</v>
       </c>
-      <c r="M24" s="2">
+      <c r="O24" s="2">
         <v>1.0127888140506438</v>
       </c>
-      <c r="N24" s="2">
+      <c r="P24" s="2">
         <v>1.013149162103866</v>
       </c>
-      <c r="O24" s="2">
+      <c r="Q24" s="2">
         <v>1.0127635511753779</v>
       </c>
-      <c r="P24" s="2">
+      <c r="R24" s="2">
         <v>1.0111531488925674</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="S24" s="2">
         <v>1.0115039821476666</v>
       </c>
-      <c r="R24" s="2">
+      <c r="T24" s="2">
         <v>1.0106295072115385</v>
       </c>
-      <c r="S24" s="2">
+      <c r="U24" s="2">
         <v>1.0098017621145376</v>
       </c>
-      <c r="T24" s="2">
+      <c r="V24" s="2">
         <v>1.0084003446295231</v>
       </c>
-      <c r="U24" s="2">
+      <c r="W24" s="2">
         <v>1.008188079842564</v>
       </c>
-      <c r="V24" s="2">
+      <c r="X24" s="2">
         <v>1.0091547356828192</v>
       </c>
-      <c r="W24" s="2">
+      <c r="Y24" s="2">
         <v>1.0084254516042059</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -2378,47 +2539,53 @@
       <c r="J25" s="1">
         <v>3</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L25" s="1">
+        <v>4</v>
+      </c>
+      <c r="M25" s="2">
         <v>1.0225641951351596</v>
       </c>
-      <c r="L25" s="2">
+      <c r="N25" s="2">
         <v>1.0211758516375116</v>
       </c>
-      <c r="M25" s="2">
+      <c r="O25" s="2">
         <v>1.0205899906215363</v>
       </c>
-      <c r="N25" s="2">
+      <c r="P25" s="2">
         <v>1.020034843205575</v>
       </c>
-      <c r="O25" s="2">
+      <c r="Q25" s="2">
         <v>1.0181759431294934</v>
       </c>
-      <c r="P25" s="2">
+      <c r="R25" s="2">
         <v>1.0184046661937418</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="S25" s="2">
         <v>1.0172752106498404</v>
       </c>
-      <c r="R25" s="2">
+      <c r="T25" s="2">
         <v>1.0162635216346154</v>
       </c>
-      <c r="S25" s="2">
+      <c r="U25" s="2">
         <v>1.0158957415565344</v>
       </c>
-      <c r="T25" s="2">
+      <c r="V25" s="2">
         <v>1.0149698449167144</v>
       </c>
-      <c r="U25" s="2">
+      <c r="W25" s="2">
         <v>1.0146542029800394</v>
       </c>
-      <c r="V25" s="2">
+      <c r="X25" s="2">
         <v>1.0143171806167401</v>
       </c>
-      <c r="W25" s="2">
+      <c r="Y25" s="2">
         <v>1.0140536532758155</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
@@ -2443,47 +2610,53 @@
       <c r="J26" s="1">
         <v>3</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L26" s="1">
+        <v>4</v>
+      </c>
+      <c r="M26" s="2">
         <v>1.0811061331685463</v>
       </c>
-      <c r="L26" s="2">
+      <c r="N26" s="2">
         <v>1.0762029174831265</v>
       </c>
-      <c r="M26" s="2">
+      <c r="O26" s="2">
         <v>1.0706131656299134</v>
       </c>
-      <c r="N26" s="2">
+      <c r="P26" s="2">
         <v>1.0668824862415023</v>
       </c>
-      <c r="O26" s="2">
+      <c r="Q26" s="2">
         <v>1.0604513867535823</v>
       </c>
-      <c r="P26" s="2">
+      <c r="R26" s="2">
         <v>1.0584963110434478</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="S26" s="2">
         <v>1.0548824744570373</v>
       </c>
-      <c r="R26" s="2">
+      <c r="T26" s="2">
         <v>1.047151172104448</v>
       </c>
-      <c r="S26" s="2">
+      <c r="U26" s="2">
         <v>1.0468302658486708</v>
       </c>
-      <c r="T26" s="2">
+      <c r="V26" s="2">
         <v>1.0433693516699409</v>
       </c>
-      <c r="U26" s="2">
+      <c r="W26" s="2">
         <v>1.040975471430597</v>
       </c>
-      <c r="V26" s="2">
+      <c r="X26" s="2">
         <v>1.0394371328384717</v>
       </c>
-      <c r="W26" s="2">
+      <c r="Y26" s="2">
         <v>1.0358539478887472</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -2508,47 +2681,53 @@
       <c r="J27" s="1">
         <v>3</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L27" s="1">
+        <v>4</v>
+      </c>
+      <c r="M27" s="2">
         <v>0.95938444875671292</v>
       </c>
-      <c r="L27" s="2">
+      <c r="N27" s="2">
         <v>0.96128721118856575</v>
       </c>
-      <c r="M27" s="2">
+      <c r="O27" s="2">
         <v>0.96308295677380851</v>
       </c>
-      <c r="N27" s="2">
+      <c r="P27" s="2">
         <v>0.96474199435871899</v>
       </c>
-      <c r="O27" s="2">
+      <c r="Q27" s="2">
         <v>0.96566766297762352</v>
       </c>
-      <c r="P27" s="2">
+      <c r="R27" s="2">
         <v>0.96851107432805239</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="S27" s="2">
         <v>0.96922011465507285</v>
       </c>
-      <c r="R27" s="2">
+      <c r="T27" s="2">
         <v>0.96995192307692313</v>
       </c>
-      <c r="S27" s="2">
+      <c r="U27" s="2">
         <v>0.97125550660792959</v>
       </c>
-      <c r="T27" s="2">
+      <c r="V27" s="2">
         <v>0.97250143595634686</v>
       </c>
-      <c r="U27" s="2">
+      <c r="W27" s="2">
         <v>0.97424093337081807</v>
       </c>
-      <c r="V27" s="2">
+      <c r="X27" s="2">
         <v>0.97535792951541844</v>
       </c>
-      <c r="W27" s="2">
+      <c r="Y27" s="2">
         <v>0.97644243731463998</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
@@ -2573,47 +2752,53 @@
       <c r="J28" s="1">
         <v>3</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L28" s="1">
+        <v>4</v>
+      </c>
+      <c r="M28" s="2">
         <v>1.0064753068522276</v>
       </c>
-      <c r="L28" s="2">
+      <c r="N28" s="2">
         <v>1.005957144127323</v>
       </c>
-      <c r="M28" s="2">
+      <c r="O28" s="2">
         <v>1.0054334403556433</v>
       </c>
-      <c r="N28" s="2">
+      <c r="P28" s="2">
         <v>1.0038375930616319</v>
       </c>
-      <c r="O28" s="2">
+      <c r="Q28" s="2">
         <v>1.0047495682210708</v>
       </c>
-      <c r="P28" s="2">
+      <c r="R28" s="2">
         <v>1.0056225443706814</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="S28" s="2">
         <v>1.0053164232641558</v>
       </c>
-      <c r="R28" s="2">
+      <c r="T28" s="2">
         <v>1.0030343488287412</v>
       </c>
-      <c r="S28" s="2">
+      <c r="U28" s="2">
         <v>1.0028855032317636</v>
       </c>
-      <c r="T28" s="2">
+      <c r="V28" s="2">
         <v>1.0036859767838477</v>
       </c>
-      <c r="U28" s="2">
+      <c r="W28" s="2">
         <v>1.0035213118200452</v>
       </c>
-      <c r="V28" s="2">
+      <c r="X28" s="2">
         <v>1.00337361530715</v>
       </c>
-      <c r="W28" s="2">
+      <c r="Y28" s="2">
         <v>1.0032378098874015</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
@@ -2638,47 +2823,53 @@
       <c r="J29" s="1">
         <v>3</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L29" s="1">
+        <v>4</v>
+      </c>
+      <c r="M29" s="2">
         <v>0.97441220271672913</v>
       </c>
-      <c r="L29" s="2">
+      <c r="N29" s="2">
         <v>0.97663203121574815</v>
       </c>
-      <c r="M29" s="2">
+      <c r="O29" s="2">
         <v>0.97659647028732199</v>
       </c>
-      <c r="N29" s="2">
+      <c r="P29" s="2">
         <v>0.97859631657541057</v>
       </c>
-      <c r="O29" s="2">
+      <c r="Q29" s="2">
         <v>0.97911786089344865</v>
       </c>
-      <c r="P29" s="2">
+      <c r="R29" s="2">
         <v>0.98029478994246078</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="S29" s="2">
         <v>0.98137816936631916</v>
       </c>
-      <c r="R29" s="2">
+      <c r="T29" s="2">
         <v>0.98121995192307687</v>
       </c>
-      <c r="S29" s="2">
+      <c r="U29" s="2">
         <v>0.98289280469897222</v>
       </c>
-      <c r="T29" s="2">
+      <c r="V29" s="2">
         <v>0.98266082711085578</v>
       </c>
-      <c r="U29" s="2">
+      <c r="W29" s="2">
         <v>0.98362384031487204</v>
       </c>
-      <c r="V29" s="2">
+      <c r="X29" s="2">
         <v>0.98451266519823788</v>
       </c>
-      <c r="W29" s="2">
+      <c r="Y29" s="2">
         <v>0.98540711782151524</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>51</v>
       </c>
@@ -2703,11 +2894,11 @@
       <c r="J30" s="1">
         <v>3</v>
       </c>
-      <c r="K30" s="2">
-        <v>1</v>
-      </c>
-      <c r="L30" s="2">
-        <v>1</v>
+      <c r="K30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L30" s="1">
+        <v>4</v>
       </c>
       <c r="M30" s="2">
         <v>1</v>
@@ -2742,8 +2933,14 @@
       <c r="W30" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X30" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>53</v>
       </c>
@@ -2768,47 +2965,53 @@
       <c r="J31" s="1">
         <v>3</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L31" s="1">
+        <v>4</v>
+      </c>
+      <c r="M31" s="2">
         <v>0.97714211076280044</v>
       </c>
-      <c r="L31" s="2">
+      <c r="N31" s="2">
         <v>0.97833778163987339</v>
       </c>
-      <c r="M31" s="2">
+      <c r="O31" s="2">
         <v>0.98028885995027826</v>
       </c>
-      <c r="N31" s="2">
+      <c r="P31" s="2">
         <v>0.98206810725195159</v>
       </c>
-      <c r="O31" s="2">
+      <c r="Q31" s="2">
         <v>0.98289765654597616</v>
       </c>
-      <c r="P31" s="2">
+      <c r="R31" s="2">
         <v>0.98182762201453788</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="S31" s="2">
         <v>0.98506940976730251</v>
       </c>
-      <c r="R31" s="2">
+      <c r="T31" s="2">
         <v>0.98475448468234505</v>
       </c>
-      <c r="S31" s="2">
+      <c r="U31" s="2">
         <v>0.98687323159701279</v>
       </c>
-      <c r="T31" s="2">
+      <c r="V31" s="2">
         <v>0.98803173607064421</v>
       </c>
-      <c r="U31" s="2">
+      <c r="W31" s="2">
         <v>0.9884638737097754</v>
       </c>
-      <c r="V31" s="2">
+      <c r="X31" s="2">
         <v>0.98949932795698925</v>
       </c>
-      <c r="W31" s="2">
+      <c r="Y31" s="2">
         <v>0.98982001791676844</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>68</v>
       </c>
@@ -2833,47 +3036,53 @@
       <c r="J32" s="1">
         <v>3</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L32" s="1">
+        <v>4</v>
+      </c>
+      <c r="M32" s="2">
         <v>0.94702498497467147</v>
       </c>
-      <c r="L32" s="2">
+      <c r="N32" s="2">
         <v>0.95340845520658513</v>
       </c>
-      <c r="M32" s="2">
+      <c r="O32" s="2">
         <v>0.95642424695418193</v>
       </c>
-      <c r="N32" s="2">
+      <c r="P32" s="2">
         <v>0.96022208166420697</v>
       </c>
-      <c r="O32" s="2">
+      <c r="Q32" s="2">
         <v>0.96352543272100266</v>
       </c>
-      <c r="P32" s="2">
+      <c r="R32" s="2">
         <v>0.96546961325966851</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="S32" s="2">
         <v>0.96912511197372353</v>
       </c>
-      <c r="R32" s="2">
+      <c r="T32" s="2">
         <v>0.97155535328251219</v>
       </c>
-      <c r="S32" s="2">
+      <c r="U32" s="2">
         <v>0.9711017132942964</v>
       </c>
-      <c r="T32" s="2">
+      <c r="V32" s="2">
         <v>0.97237339967864</v>
       </c>
-      <c r="U32" s="2">
+      <c r="W32" s="2">
         <v>0.97351684388353366</v>
       </c>
-      <c r="V32" s="2">
+      <c r="X32" s="2">
         <v>0.97531394738098631</v>
       </c>
-      <c r="W32" s="2">
+      <c r="Y32" s="2">
         <v>0.97552351212343857</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>54</v>
       </c>
@@ -2898,30 +3107,30 @@
       <c r="J33" s="1">
         <v>3</v>
       </c>
-      <c r="K33" s="2">
-        <v>1</v>
-      </c>
-      <c r="L33" s="2">
+      <c r="K33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L33" s="1">
+        <v>4</v>
+      </c>
+      <c r="M33" s="2">
+        <v>1</v>
+      </c>
+      <c r="N33" s="2">
         <v>0.99900688970268747</v>
       </c>
-      <c r="M33" s="2">
-        <v>1</v>
-      </c>
-      <c r="N33" s="2">
-        <v>1</v>
-      </c>
       <c r="O33" s="2">
+        <v>1</v>
+      </c>
+      <c r="P33" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="2">
         <v>0.9990799372192456</v>
       </c>
-      <c r="P33" s="2">
+      <c r="R33" s="2">
         <v>0.99911734164070598</v>
       </c>
-      <c r="Q33" s="2">
-        <v>1</v>
-      </c>
-      <c r="R33" s="2">
-        <v>1</v>
-      </c>
       <c r="S33" s="2">
         <v>1</v>
       </c>
@@ -2937,8 +3146,14 @@
       <c r="W33" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X33" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>55</v>
       </c>
@@ -2963,47 +3178,53 @@
       <c r="J34" s="1">
         <v>3</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L34" s="1">
+        <v>4</v>
+      </c>
+      <c r="M34" s="2">
         <v>0.97369014847240409</v>
       </c>
-      <c r="L34" s="2">
+      <c r="N34" s="2">
         <v>0.9751413915559648</v>
       </c>
-      <c r="M34" s="2">
+      <c r="O34" s="2">
         <v>0.97659647028732199</v>
       </c>
-      <c r="N34" s="2">
+      <c r="P34" s="2">
         <v>0.97789115646258495</v>
       </c>
-      <c r="O34" s="2">
+      <c r="Q34" s="2">
         <v>0.97847160513773335</v>
       </c>
-      <c r="P34" s="2">
+      <c r="R34" s="2">
         <v>0.98029478994246078</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="S34" s="2">
         <v>0.9807625716594206</v>
       </c>
-      <c r="R34" s="2">
+      <c r="T34" s="2">
         <v>0.98121995192307687</v>
       </c>
-      <c r="S34" s="2">
+      <c r="U34" s="2">
         <v>0.98226872246696051</v>
       </c>
-      <c r="T34" s="2">
+      <c r="V34" s="2">
         <v>0.9832711085582998</v>
       </c>
-      <c r="U34" s="2">
+      <c r="W34" s="2">
         <v>0.98418611189204386</v>
       </c>
-      <c r="V34" s="2">
+      <c r="X34" s="2">
         <v>0.98509774229074887</v>
       </c>
-      <c r="W34" s="2">
+      <c r="Y34" s="2">
         <v>0.98540711782151524</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
@@ -3028,47 +3249,53 @@
       <c r="J35" s="1">
         <v>3</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L35" s="1">
+        <v>4</v>
+      </c>
+      <c r="M35" s="2">
         <v>1.0013695319423186</v>
       </c>
-      <c r="L35" s="2">
-        <v>1</v>
-      </c>
-      <c r="M35" s="2">
-        <v>1</v>
-      </c>
       <c r="N35" s="2">
+        <v>1</v>
+      </c>
+      <c r="O35" s="2">
+        <v>1</v>
+      </c>
+      <c r="P35" s="2">
         <v>1.0011362117363989</v>
       </c>
-      <c r="O35" s="2">
+      <c r="Q35" s="2">
         <v>0.99892486718947637</v>
       </c>
-      <c r="P35" s="2">
+      <c r="R35" s="2">
         <v>1.0010223719028144</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="S35" s="2">
         <v>1.0009745471222196</v>
       </c>
-      <c r="R35" s="2">
+      <c r="T35" s="2">
         <v>1.0008761842177318</v>
       </c>
-      <c r="S35" s="2">
+      <c r="U35" s="2">
         <v>1.0008379595684507</v>
       </c>
-      <c r="T35" s="2">
+      <c r="V35" s="2">
         <v>1.000854571959986</v>
       </c>
-      <c r="U35" s="2">
+      <c r="W35" s="2">
         <v>1.0008215338520272</v>
       </c>
-      <c r="V35" s="2">
+      <c r="X35" s="2">
         <v>1.0007450176941703</v>
       </c>
-      <c r="W35" s="2">
+      <c r="Y35" s="2">
         <v>1.0007182618064285</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>58</v>
       </c>
@@ -3093,47 +3320,53 @@
       <c r="J36" s="1">
         <v>3</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L36" s="1">
+        <v>4</v>
+      </c>
+      <c r="M36" s="2">
         <v>0.96136344122950101</v>
       </c>
-      <c r="L36" s="2">
+      <c r="N36" s="2">
         <v>0.96539598817230077</v>
       </c>
-      <c r="M36" s="2">
+      <c r="O36" s="2">
         <v>0.96890649525375583</v>
       </c>
-      <c r="N36" s="2">
+      <c r="P36" s="2">
         <v>0.9718883969358354</v>
       </c>
-      <c r="O36" s="2">
+      <c r="Q36" s="2">
         <v>0.97453412029975461</v>
       </c>
-      <c r="P36" s="2">
+      <c r="R36" s="2">
         <v>0.97488699146157709</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="S36" s="2">
         <v>0.97808300985368757</v>
       </c>
-      <c r="R36" s="2">
+      <c r="T36" s="2">
         <v>0.97815451132096942</v>
       </c>
-      <c r="S36" s="2">
+      <c r="U36" s="2">
         <v>0.97923443938408161</v>
       </c>
-      <c r="T36" s="2">
+      <c r="V36" s="2">
         <v>0.97931892396205877</v>
       </c>
-      <c r="U36" s="2">
+      <c r="W36" s="2">
         <v>0.98017489814170722</v>
       </c>
-      <c r="V36" s="2">
+      <c r="X36" s="2">
         <v>0.98090053955975731</v>
       </c>
-      <c r="W36" s="2">
+      <c r="Y36" s="2">
         <v>0.98085047759000743</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>59</v>
       </c>
@@ -3158,47 +3391,53 @@
       <c r="J37" s="1">
         <v>3</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L37" s="1">
+        <v>4</v>
+      </c>
+      <c r="M37" s="2">
         <v>0.99097432194593627</v>
       </c>
-      <c r="L37" s="2">
+      <c r="N37" s="2">
         <v>0.99193300889999558</v>
       </c>
-      <c r="M37" s="2">
+      <c r="O37" s="2">
         <v>0.99219882342910737</v>
       </c>
-      <c r="N37" s="2">
+      <c r="P37" s="2">
         <v>0.99170399867263981</v>
       </c>
-      <c r="O37" s="2">
+      <c r="Q37" s="2">
         <v>0.99192180305355848</v>
       </c>
-      <c r="P37" s="2">
+      <c r="R37" s="2">
         <v>0.99278789311894067</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="S37" s="2">
         <v>0.99230502866376824</v>
       </c>
-      <c r="R37" s="2">
+      <c r="T37" s="2">
         <v>0.9930889423076924</v>
       </c>
-      <c r="S37" s="2">
+      <c r="U37" s="2">
         <v>0.99328193832599121</v>
       </c>
-      <c r="T37" s="2">
+      <c r="V37" s="2">
         <v>0.99343049971280861</v>
       </c>
-      <c r="U37" s="2">
+      <c r="W37" s="2">
         <v>0.99416643238684288</v>
       </c>
-      <c r="V37" s="2">
+      <c r="X37" s="2">
         <v>0.99370181718061679</v>
       </c>
-      <c r="W37" s="2">
+      <c r="Y37" s="2">
         <v>0.99440550013480722</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>60</v>
       </c>
@@ -3223,47 +3462,53 @@
       <c r="J38" s="1">
         <v>3</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L38" s="1">
+        <v>4</v>
+      </c>
+      <c r="M38" s="2">
         <v>1.0150277539600163</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>1.0145995001972905</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>1.0135135135135136</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>1.0138128422100547</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>1.0114306486792148</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>1.0118231260345236</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>1.0115039821476666</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>1.0099909855769231</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>1.0098017621145376</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>1.0089747271682941</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>1.0087854933933089</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>1.0086040748898679</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>1.0084254516042059</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>61</v>
       </c>
@@ -3288,47 +3533,53 @@
       <c r="J39" s="1">
         <v>3</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L39" s="1">
+        <v>4</v>
+      </c>
+      <c r="M39" s="2">
         <v>0.98455121272980073</v>
       </c>
-      <c r="L39" s="2">
+      <c r="N39" s="2">
         <v>0.99034763045213736</v>
       </c>
-      <c r="M39" s="2">
+      <c r="O39" s="2">
         <v>0.99090846947843336</v>
       </c>
-      <c r="N39" s="2">
+      <c r="P39" s="2">
         <v>0.99138879896406595</v>
       </c>
-      <c r="O39" s="2">
+      <c r="Q39" s="2">
         <v>0.9928663673820799</v>
       </c>
-      <c r="P39" s="2">
+      <c r="R39" s="2">
         <v>0.99215364796814609</v>
       </c>
-      <c r="Q39" s="2">
+      <c r="S39" s="2">
         <v>0.99251856401094296</v>
       </c>
-      <c r="R39" s="2">
+      <c r="T39" s="2">
         <v>0.99199017461419348</v>
       </c>
-      <c r="S39" s="2">
+      <c r="U39" s="2">
         <v>0.99233128834355833</v>
       </c>
-      <c r="T39" s="2">
+      <c r="V39" s="2">
         <v>0.99179764243614943</v>
       </c>
-      <c r="U39" s="2">
+      <c r="W39" s="2">
         <v>0.99215463868802867</v>
       </c>
-      <c r="V39" s="2">
+      <c r="X39" s="2">
         <v>0.99239491780135713</v>
       </c>
-      <c r="W39" s="2">
+      <c r="Y39" s="2">
         <v>0.99121226767432669</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>62</v>
       </c>
@@ -3353,47 +3604,53 @@
       <c r="J40" s="1">
         <v>3</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L40" s="1">
+        <v>4</v>
+      </c>
+      <c r="M40" s="2">
         <v>1.020624131005716</v>
       </c>
-      <c r="L40" s="2">
+      <c r="N40" s="2">
         <v>1.0169097902605415</v>
       </c>
-      <c r="M40" s="2">
+      <c r="O40" s="2">
         <v>1.0159272677558275</v>
       </c>
-      <c r="N40" s="2">
+      <c r="P40" s="2">
         <v>1.0161864681126578</v>
       </c>
-      <c r="O40" s="2">
+      <c r="Q40" s="2">
         <v>1.016419654387799</v>
       </c>
-      <c r="P40" s="2">
+      <c r="R40" s="2">
         <v>1.0146387164773392</v>
       </c>
-      <c r="Q40" s="2">
+      <c r="S40" s="2">
         <v>1.0130087655630617</v>
       </c>
-      <c r="R40" s="2">
+      <c r="T40" s="2">
         <v>1.012441928765953</v>
       </c>
-      <c r="S40" s="2">
+      <c r="U40" s="2">
         <v>1.0110940695296524</v>
       </c>
-      <c r="T40" s="2">
+      <c r="V40" s="2">
         <v>1.0089882121807465</v>
       </c>
-      <c r="U40" s="2">
+      <c r="W40" s="2">
         <v>1.0070891819084078</v>
       </c>
-      <c r="V40" s="2">
+      <c r="X40" s="2">
         <v>1.0060567421102964</v>
       </c>
-      <c r="W40" s="2">
+      <c r="Y40" s="2">
         <v>1.0043938661628367</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>63</v>
       </c>
@@ -3418,47 +3675,53 @@
       <c r="J41" s="1">
         <v>3</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L41" s="1">
+        <v>4</v>
+      </c>
+      <c r="M41" s="2">
         <v>1.0924764890282133</v>
       </c>
-      <c r="L41" s="2">
+      <c r="N41" s="2">
         <v>1.0848488610266278</v>
       </c>
-      <c r="M41" s="2">
+      <c r="O41" s="2">
         <v>1.079910027228602</v>
       </c>
-      <c r="N41" s="2">
+      <c r="P41" s="2">
         <v>1.077271184523136</v>
       </c>
-      <c r="O41" s="2">
+      <c r="Q41" s="2">
         <v>1.0703577420576933</v>
       </c>
-      <c r="P41" s="2">
+      <c r="R41" s="2">
         <v>1.0657320872274143</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="S41" s="2">
         <v>1.0624188554878657</v>
       </c>
-      <c r="R41" s="2">
+      <c r="T41" s="2">
         <v>1.0584812196412254</v>
       </c>
-      <c r="S41" s="2">
+      <c r="U41" s="2">
         <v>1.0548726749849251</v>
       </c>
-      <c r="T41" s="2">
+      <c r="V41" s="2">
         <v>1.0515038773589134</v>
       </c>
-      <c r="U41" s="2">
+      <c r="W41" s="2">
         <v>1.0491369589730246</v>
       </c>
-      <c r="V41" s="2">
+      <c r="X41" s="2">
         <v>1.0454889112903225</v>
       </c>
-      <c r="W41" s="2">
+      <c r="Y41" s="2">
         <v>1.0434074436028993</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>64</v>
       </c>
@@ -3483,47 +3746,53 @@
       <c r="J42" s="1">
         <v>3</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L42" s="1">
+        <v>4</v>
+      </c>
+      <c r="M42" s="2">
         <v>0.97517938535132465</v>
       </c>
-      <c r="L42" s="2">
+      <c r="N42" s="2">
         <v>0.97663203121574815</v>
       </c>
-      <c r="M42" s="2">
+      <c r="O42" s="2">
         <v>0.97800323983289295</v>
       </c>
-      <c r="N42" s="2">
+      <c r="P42" s="2">
         <v>0.97859631657541057</v>
       </c>
-      <c r="O42" s="2">
+      <c r="Q42" s="2">
         <v>0.97911786089344865</v>
       </c>
-      <c r="P42" s="2">
+      <c r="R42" s="2">
         <v>0.98029478994246078</v>
       </c>
-      <c r="Q42" s="2">
+      <c r="S42" s="2">
         <v>0.98137816936631916</v>
       </c>
-      <c r="R42" s="2">
+      <c r="T42" s="2">
         <v>0.98185847355769229</v>
       </c>
-      <c r="S42" s="2">
+      <c r="U42" s="2">
         <v>0.98289280469897222</v>
       </c>
-      <c r="T42" s="2">
+      <c r="V42" s="2">
         <v>0.98445577254451455</v>
       </c>
-      <c r="U42" s="2">
+      <c r="W42" s="2">
         <v>0.98478352544278891</v>
       </c>
-      <c r="V42" s="2">
+      <c r="X42" s="2">
         <v>0.98509774229074887</v>
       </c>
-      <c r="W42" s="2">
+      <c r="Y42" s="2">
         <v>0.98598004853060128</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>65</v>
       </c>
@@ -3554,47 +3823,53 @@
       <c r="J43" s="1">
         <v>3</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L43" s="1">
+        <v>4</v>
+      </c>
+      <c r="M43" s="2">
         <v>1.1381922675026124</v>
       </c>
-      <c r="L43" s="2">
+      <c r="N43" s="2">
         <v>1.126187077152256</v>
       </c>
-      <c r="M43" s="2">
+      <c r="O43" s="2">
         <v>1.1193323073280457</v>
       </c>
-      <c r="N43" s="2">
+      <c r="P43" s="2">
         <v>1.1121167552890598</v>
       </c>
-      <c r="O43" s="2">
+      <c r="Q43" s="2">
         <v>1.1054824917464956</v>
       </c>
-      <c r="P43" s="2">
+      <c r="R43" s="2">
         <v>1.0985981308411215</v>
       </c>
-      <c r="Q43" s="2">
+      <c r="S43" s="2">
         <v>1.0923799061220414</v>
       </c>
-      <c r="R43" s="2">
+      <c r="T43" s="2">
         <v>1.0865195017553984</v>
       </c>
-      <c r="S43" s="2">
+      <c r="U43" s="2">
         <v>1.0819147455818914</v>
       </c>
-      <c r="T43" s="2">
+      <c r="V43" s="2">
         <v>1.0761576045542156</v>
       </c>
-      <c r="U43" s="2">
+      <c r="W43" s="2">
         <v>1.0722525804493017</v>
       </c>
-      <c r="V43" s="2">
+      <c r="X43" s="2">
         <v>1.0685903897849462</v>
       </c>
-      <c r="W43" s="2">
+      <c r="Y43" s="2">
         <v>1.0590031761544101</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>66</v>
       </c>
@@ -3619,47 +3894,53 @@
       <c r="J44" s="1">
         <v>3</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L44" s="1">
+        <v>4</v>
+      </c>
+      <c r="M44" s="2">
         <v>0.99020713931134086</v>
       </c>
-      <c r="L44" s="2">
+      <c r="N44" s="2">
         <v>0.99193300889999558</v>
       </c>
-      <c r="M44" s="2">
+      <c r="O44" s="2">
         <v>0.99147412396623757</v>
       </c>
-      <c r="N44" s="2">
+      <c r="P44" s="2">
         <v>0.99170399867263981</v>
       </c>
-      <c r="O44" s="2">
+      <c r="Q44" s="2">
         <v>0.99192180305355848</v>
       </c>
-      <c r="P44" s="2">
+      <c r="R44" s="2">
         <v>0.99211791597698429</v>
       </c>
-      <c r="Q44" s="2">
+      <c r="S44" s="2">
         <v>0.99230502866376824</v>
       </c>
-      <c r="R44" s="2">
+      <c r="T44" s="2">
         <v>0.99184945913461542</v>
       </c>
-      <c r="S44" s="2">
+      <c r="U44" s="2">
         <v>0.99144640234948611</v>
       </c>
-      <c r="T44" s="2">
+      <c r="V44" s="2">
         <v>0.99224583572659386</v>
       </c>
-      <c r="U44" s="2">
+      <c r="W44" s="2">
         <v>0.99297160528535289</v>
       </c>
-      <c r="V44" s="2">
+      <c r="X44" s="2">
         <v>0.9931167400881058</v>
       </c>
-      <c r="W44" s="2">
+      <c r="Y44" s="2">
         <v>0.99325963871663525</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>70</v>
       </c>
@@ -3684,47 +3965,53 @@
       <c r="J45" s="1">
         <v>3</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L45" s="1">
+        <v>4</v>
+      </c>
+      <c r="M45" s="2">
         <v>1.1106878306878307</v>
       </c>
-      <c r="L45" s="2">
+      <c r="N45" s="2">
         <v>1.1043779371753648</v>
       </c>
-      <c r="M45" s="2">
+      <c r="O45" s="2">
         <v>1.0984562193455014</v>
       </c>
-      <c r="N45" s="2">
+      <c r="P45" s="2">
         <v>1.0968045850671273</v>
       </c>
-      <c r="O45" s="2">
+      <c r="Q45" s="2">
         <v>1.0913553731686736</v>
       </c>
-      <c r="P45" s="2">
+      <c r="R45" s="2">
         <v>1.0874259578615881</v>
       </c>
-      <c r="Q45" s="2">
+      <c r="S45" s="2">
         <v>1.083709162908371</v>
       </c>
-      <c r="R45" s="2">
+      <c r="T45" s="2">
         <v>1.079503462131812</v>
       </c>
-      <c r="S45" s="2">
+      <c r="U45" s="2">
         <v>1.0772310610051627</v>
       </c>
-      <c r="T45" s="2">
+      <c r="V45" s="2">
         <v>1.0734529425944419</v>
       </c>
-      <c r="U45" s="2">
+      <c r="W45" s="2">
         <v>1.0714333940989804</v>
       </c>
-      <c r="V45" s="2">
+      <c r="X45" s="2">
         <v>1.0678695580201956</v>
       </c>
-      <c r="W45" s="2">
+      <c r="Y45" s="2">
         <v>1.0659975965442203</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>67</v>
       </c>
@@ -3749,47 +4036,53 @@
       <c r="J46" s="1">
         <v>3</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L46" s="1">
+        <v>4</v>
+      </c>
+      <c r="M46" s="2">
         <v>1.1903735632183909</v>
       </c>
-      <c r="L46" s="2">
+      <c r="N46" s="2">
         <v>1.1778908820060827</v>
       </c>
-      <c r="M46" s="2">
+      <c r="O46" s="2">
         <v>1.1656801231206348</v>
       </c>
-      <c r="N46" s="2">
+      <c r="P46" s="2">
         <v>1.1554474488064259</v>
       </c>
-      <c r="O46" s="2">
+      <c r="Q46" s="2">
         <v>1.1451534339990257</v>
       </c>
-      <c r="P46" s="2">
+      <c r="R46" s="2">
         <v>1.1340602284527517</v>
       </c>
-      <c r="Q46" s="2">
+      <c r="S46" s="2">
         <v>1.1264855687606112</v>
       </c>
-      <c r="R46" s="2">
+      <c r="T46" s="2">
         <v>1.1169624392824509</v>
       </c>
-      <c r="S46" s="2">
+      <c r="U46" s="2">
         <v>1.1112760332111877</v>
       </c>
-      <c r="T46" s="2">
+      <c r="V46" s="2">
         <v>1.1045318033080818</v>
       </c>
-      <c r="U46" s="2">
+      <c r="W46" s="2">
         <v>1.0975800156128026</v>
       </c>
-      <c r="V46" s="2">
+      <c r="X46" s="2">
         <v>1.0909778225806452</v>
       </c>
-      <c r="W46" s="2">
+      <c r="Y46" s="2">
         <v>1.0861633683524716</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>76</v>
       </c>
@@ -3814,47 +4107,53 @@
       <c r="J47" s="1">
         <v>3</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L47" s="1">
+        <v>4</v>
+      </c>
+      <c r="M47" s="2">
         <v>0.70733304233958971</v>
       </c>
-      <c r="L47" s="2">
+      <c r="N47" s="2">
         <v>0.73722844955857558</v>
       </c>
-      <c r="M47" s="2">
+      <c r="O47" s="2">
         <v>0.76366281713194506</v>
       </c>
-      <c r="N47" s="2">
+      <c r="P47" s="2">
         <v>0.7857443052870472</v>
       </c>
-      <c r="O47" s="2">
+      <c r="Q47" s="2">
         <v>0.80571205007824731</v>
       </c>
-      <c r="P47" s="2">
+      <c r="R47" s="2">
         <v>0.82192783429700655</v>
       </c>
-      <c r="Q47" s="2">
+      <c r="S47" s="2">
         <v>0.83734359961501448</v>
       </c>
-      <c r="R47" s="2">
+      <c r="T47" s="2">
         <v>0.8486244484817026</v>
       </c>
-      <c r="S47" s="2">
+      <c r="U47" s="2">
         <v>0.85981078756604012</v>
       </c>
-      <c r="T47" s="2">
+      <c r="V47" s="2">
         <v>0.87080027998133469</v>
       </c>
-      <c r="U47" s="2">
+      <c r="W47" s="2">
         <v>0.87547754830850999</v>
       </c>
-      <c r="V47" s="2">
+      <c r="X47" s="2">
         <v>0.88138185654008427</v>
       </c>
-      <c r="W47" s="2">
+      <c r="Y47" s="2">
         <v>0.89259818731117824</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>78</v>
       </c>
@@ -3879,43 +4178,49 @@
       <c r="J48" s="1">
         <v>3</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L48" s="1">
+        <v>4</v>
+      </c>
+      <c r="M48" s="2">
         <v>1.2735210561497325</v>
       </c>
-      <c r="L48" s="2">
+      <c r="N48" s="2">
         <v>1.2600774403912778</v>
       </c>
-      <c r="M48" s="2">
+      <c r="O48" s="2">
         <v>1.2488874761602033</v>
       </c>
-      <c r="N48" s="2">
+      <c r="P48" s="2">
         <v>1.2387480097860277</v>
       </c>
-      <c r="O48" s="2">
+      <c r="Q48" s="2">
         <v>1.2301240939622784</v>
       </c>
-      <c r="P48" s="2">
+      <c r="R48" s="2">
         <v>1.2175800526882119</v>
       </c>
-      <c r="Q48" s="2">
+      <c r="S48" s="2">
         <v>1.209126854572496</v>
       </c>
-      <c r="R48" s="2">
+      <c r="T48" s="2">
         <v>1.2000355239786857</v>
       </c>
-      <c r="S48" s="2">
+      <c r="U48" s="2">
         <v>1.1905308165606423</v>
       </c>
-      <c r="T48" s="2">
+      <c r="V48" s="2">
         <v>1.1828998056796101</v>
       </c>
-      <c r="U48" s="2">
+      <c r="W48" s="2">
         <v>1.1759927797833933</v>
       </c>
-      <c r="V48" s="2">
+      <c r="X48" s="2">
         <v>1.1682678120594119</v>
       </c>
-      <c r="W48" s="2">
+      <c r="Y48" s="2">
         <v>1.1612592044760282</v>
       </c>
     </row>
@@ -3928,297 +4233,408 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003F8FD4-18FD-46B0-89C5-E92BB2B9F58E}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J1" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="7">
         <v>85.1327</v>
       </c>
-      <c r="C2" s="7">
-        <v>40</v>
+      <c r="C2" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="D2" s="7">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E2" s="7">
+        <v>4</v>
+      </c>
+      <c r="F2" s="7">
         <v>26</v>
       </c>
-      <c r="F2" s="7">
+      <c r="G2" s="7">
         <v>1.6</v>
       </c>
-      <c r="G2" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="7">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B3" s="7">
         <v>110.1088</v>
       </c>
-      <c r="C3" s="7">
-        <v>40</v>
+      <c r="C3" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="D3" s="7">
+        <v>40</v>
+      </c>
+      <c r="E3" s="7">
         <v>5</v>
       </c>
-      <c r="E3" s="7">
+      <c r="F3" s="7">
         <v>26</v>
       </c>
-      <c r="F3" s="7">
+      <c r="G3" s="7">
         <v>1.6</v>
       </c>
-      <c r="G3" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="7">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="7">
         <v>113.164</v>
       </c>
-      <c r="C4" s="7">
-        <v>40</v>
+      <c r="C4" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="D4" s="7">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E4" s="7">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7">
         <v>26</v>
       </c>
-      <c r="F4" s="7">
+      <c r="G4" s="7">
         <v>1.6</v>
       </c>
-      <c r="G4" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="7">
+        <v>20</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="7">
         <v>117.0856</v>
       </c>
-      <c r="C5" s="7">
-        <v>40</v>
+      <c r="C5" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="D5" s="7">
+        <v>40</v>
+      </c>
+      <c r="E5" s="7">
         <v>5</v>
       </c>
-      <c r="E5" s="7">
+      <c r="F5" s="7">
         <v>26</v>
       </c>
-      <c r="F5" s="7">
+      <c r="G5" s="7">
         <v>1.6</v>
       </c>
-      <c r="G5" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="7">
+        <v>20</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="7">
         <v>135.09180000000001</v>
       </c>
-      <c r="C6" s="7">
-        <v>40</v>
+      <c r="C6" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="D6" s="7">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E6" s="7">
+        <v>4</v>
+      </c>
+      <c r="F6" s="7">
         <v>26</v>
       </c>
-      <c r="F6" s="7">
+      <c r="G6" s="7">
         <v>1.6</v>
       </c>
-      <c r="G6" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="7">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="7">
         <v>157.07429999999999</v>
       </c>
-      <c r="C7" s="7">
-        <v>40</v>
+      <c r="C7" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="D7" s="7">
+        <v>40</v>
+      </c>
+      <c r="E7" s="7">
         <v>5</v>
       </c>
-      <c r="E7" s="7">
+      <c r="F7" s="7">
         <v>26</v>
       </c>
-      <c r="F7" s="7">
+      <c r="G7" s="7">
         <v>1.6</v>
       </c>
-      <c r="G7" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="7">
+        <v>20</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="7">
         <v>165.1318</v>
       </c>
-      <c r="C8" s="7">
-        <v>40</v>
+      <c r="C8" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="D8" s="7">
+        <v>40</v>
+      </c>
+      <c r="E8" s="7">
         <v>5</v>
       </c>
-      <c r="E8" s="7">
+      <c r="F8" s="7">
         <v>30</v>
       </c>
-      <c r="F8" s="7">
+      <c r="G8" s="7">
         <v>1.6</v>
       </c>
-      <c r="G8" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="7">
+        <v>20</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B9" s="7">
         <v>173.11179999999999</v>
       </c>
-      <c r="C9" s="7">
-        <v>40</v>
+      <c r="C9" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="D9" s="7">
+        <v>40</v>
+      </c>
+      <c r="E9" s="7">
         <v>5</v>
       </c>
-      <c r="E9" s="7">
+      <c r="F9" s="7">
         <v>30</v>
       </c>
-      <c r="F9" s="7">
+      <c r="G9" s="7">
         <v>1.6</v>
       </c>
-      <c r="G9" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="7">
+        <v>20</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="7">
         <v>184.07740000000001</v>
       </c>
-      <c r="C10" s="7">
-        <v>40</v>
+      <c r="C10" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="D10" s="7">
+        <v>40</v>
+      </c>
+      <c r="E10" s="7">
         <v>10</v>
       </c>
-      <c r="E10" s="7">
-        <v>40</v>
-      </c>
       <c r="F10" s="7">
+        <v>40</v>
+      </c>
+      <c r="G10" s="7">
         <v>1.6</v>
       </c>
-      <c r="G10" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="7">
+        <v>20</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B11" s="7">
         <v>200.07230000000001</v>
       </c>
-      <c r="C11" s="7">
-        <v>40</v>
+      <c r="C11" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="D11" s="7">
+        <v>40</v>
+      </c>
+      <c r="E11" s="7">
         <v>10</v>
       </c>
-      <c r="E11" s="7">
-        <v>40</v>
-      </c>
       <c r="F11" s="7">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7">
         <v>1.6</v>
       </c>
-      <c r="G11" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="7">
+        <v>20</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="7">
         <v>216.0427</v>
       </c>
-      <c r="C12" s="7">
-        <v>40</v>
+      <c r="C12" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="D12" s="7">
+        <v>40</v>
+      </c>
+      <c r="E12" s="7">
         <v>10</v>
       </c>
-      <c r="E12" s="7">
-        <v>40</v>
-      </c>
       <c r="F12" s="7">
+        <v>40</v>
+      </c>
+      <c r="G12" s="7">
         <v>1.6</v>
       </c>
-      <c r="G12" s="7">
-        <v>20</v>
+      <c r="H12" s="7">
+        <v>20</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4228,10 +4644,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFFE8E4-84E1-4284-A5B8-07DB42525DFD}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D1" sqref="D1:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4239,14 +4655,13 @@
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>80</v>
       </c>
@@ -4268,11 +4683,8 @@
       <c r="G1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>13</v>
       </c>
@@ -4283,18 +4695,15 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>4</v>
+        <v>121.0509</v>
       </c>
       <c r="E2" s="1">
-        <v>121.0509</v>
+        <v>922.00980000000004</v>
       </c>
       <c r="F2" s="1">
-        <v>922.00980000000004</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1">
-        <v>100</v>
-      </c>
-      <c r="H2" s="1">
         <v>1000</v>
       </c>
     </row>

--- a/Mass List and Parameters.xlsx
+++ b/Mass List and Parameters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\MSI-CE-MS-Data-Preprocessing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Erick\MSI-CE-MS-Data-Preprocessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDC30F8-5E5F-4C47-A024-C17C9759AD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20BA582-74E9-486D-ABAC-F7D38473FF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3F442743-5A66-4E15-9366-B88AC1790E64}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{3F442743-5A66-4E15-9366-B88AC1790E64}"/>
   </bookViews>
   <sheets>
     <sheet name="Analyte Mass List" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="104">
   <si>
     <t>name</t>
   </si>
@@ -325,9 +325,6 @@
     <t>Unknown 8</t>
   </si>
   <si>
-    <t>smoothing.kernal</t>
-  </si>
-  <si>
     <t>smoothing.strength</t>
   </si>
   <si>
@@ -344,6 +341,15 @@
   </si>
   <si>
     <t>Analyte</t>
+  </si>
+  <si>
+    <t>smoothing.kernel</t>
+  </si>
+  <si>
+    <t>apply.mass.calibration</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -417,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -447,6 +453,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -765,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A9B2B3-45F3-4E9C-8863-F19858D470D6}">
   <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI25" sqref="AI25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -819,10 +828,10 @@
         <v>73</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>3</v>
@@ -895,44 +904,44 @@
       <c r="L2" s="1">
         <v>4</v>
       </c>
-      <c r="M2" s="2">
-        <v>0.83991993136974552</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0.84943807844865582</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0.85832713359549362</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0.86668034047789977</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0.87430527987296536</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0.88144800730734107</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0.88882668532773501</v>
-      </c>
-      <c r="T2" s="2">
-        <v>0.89505165851005974</v>
-      </c>
-      <c r="U2" s="2">
-        <v>0.90018060878375394</v>
-      </c>
-      <c r="V2" s="2">
-        <v>0.90575983543327343</v>
-      </c>
-      <c r="W2" s="2">
-        <v>0.91159020640093591</v>
-      </c>
-      <c r="X2" s="2">
-        <v>0.91515620544987986</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>0.91989510072714264</v>
+      <c r="M2" s="3">
+        <v>0.83750692520775627</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.84664893617021275</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0.85583371729892987</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0.86435409059508539</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0.87223201104814518</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0.88022489515645885</v>
+      </c>
+      <c r="S2" s="3">
+        <v>0.88691459440153575</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0.89324213169401268</v>
+      </c>
+      <c r="U2" s="3">
+        <v>0.89848312954325815</v>
+      </c>
+      <c r="V2" s="3">
+        <v>0.90335756882607632</v>
+      </c>
+      <c r="W2" s="3">
+        <v>0.90796741506060008</v>
+      </c>
+      <c r="X2" s="3">
+        <v>0.91289873025704549</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>0.91765416257830767</v>
       </c>
       <c r="AA2" s="2"/>
     </row>
@@ -967,44 +976,44 @@
       <c r="L3" s="1">
         <v>4</v>
       </c>
-      <c r="M3" s="2">
-        <v>0.95831175556706361</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0.96237687711932829</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0.96829620618870216</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0.97129735935706085</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0.97397921054419467</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0.9752935105147722</v>
-      </c>
-      <c r="S3" s="2">
-        <v>0.97642146629006499</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0.97750307575136208</v>
-      </c>
-      <c r="U3" s="2">
-        <v>0.9794785534062237</v>
-      </c>
-      <c r="V3" s="2">
-        <v>0.97941081604128588</v>
-      </c>
-      <c r="W3" s="2">
-        <v>0.98103555188094249</v>
-      </c>
-      <c r="X3" s="2">
-        <v>0.98174311013829463</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>0.98163157642319321</v>
+      <c r="M3" s="3">
+        <v>0.94284997071374776</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.9491551939924906</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0.95357195247176174</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0.95634482758620698</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0.96087126646667542</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0.96393888785798221</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0.9647411412117296</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0.96641853696759383</v>
+      </c>
+      <c r="U3" s="3">
+        <v>0.96967914438502678</v>
+      </c>
+      <c r="V3" s="3">
+        <v>0.97099815535970491</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0.97369458128078801</v>
+      </c>
+      <c r="X3" s="3">
+        <v>0.97467153630887449</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>0.9755974957729745</v>
       </c>
       <c r="AA3" s="2"/>
     </row>
@@ -1016,7 +1025,7 @@
         <v>76.0762</v>
       </c>
       <c r="C4" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>17</v>
@@ -1045,44 +1054,44 @@
       <c r="L4" s="1">
         <v>4</v>
       </c>
-      <c r="M4" s="2">
-        <v>0.9947784810126582</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0.99528039977790117</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0.99580454096742366</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0.99623768949872737</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0.99657844419845032</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0.99685767097966727</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0.99863084032175253</v>
-      </c>
-      <c r="T4" s="2">
-        <v>0.99737449279974533</v>
-      </c>
-      <c r="U4" s="2">
-        <v>0.99754080035770165</v>
-      </c>
-      <c r="V4" s="2">
-        <v>1.0011186464378103</v>
-      </c>
-      <c r="W4" s="2">
-        <v>0.99782206969376985</v>
-      </c>
-      <c r="X4" s="2">
-        <v>0.99794418141041608</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>0.99899521248300727</v>
+      <c r="M4" s="3">
+        <v>0.99226963512677802</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.99555136155297919</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0.99594514013118673</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0.9963577932512051</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0.9967911318553091</v>
+      </c>
+      <c r="R4" s="3">
+        <v>1.0029417008379389</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0.99494910844111117</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0.9976372878928903</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0.99771566783122811</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0.99784591991890514</v>
+      </c>
+      <c r="X4" s="3">
+        <v>0.99802784916034182</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>0.99903775400464123</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
@@ -1116,44 +1125,44 @@
       <c r="L5" s="1">
         <v>4</v>
       </c>
-      <c r="M5" s="2">
-        <v>1.0092159559834939</v>
-      </c>
-      <c r="N5" s="2">
-        <v>1.0082007343941248</v>
-      </c>
-      <c r="O5" s="2">
-        <v>1.007400861592842</v>
-      </c>
-      <c r="P5" s="2">
-        <v>1.0084396664322317</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>1.0061830933923956</v>
-      </c>
-      <c r="R5" s="2">
-        <v>1.005631399317406</v>
-      </c>
-      <c r="S5" s="2">
-        <v>1.0039780412125068</v>
-      </c>
-      <c r="T5" s="2">
-        <v>1.003726060064088</v>
-      </c>
-      <c r="U5" s="2">
-        <v>1.004630604083351</v>
-      </c>
-      <c r="V5" s="2">
-        <v>1.0044364984770229</v>
-      </c>
-      <c r="W5" s="2">
-        <v>1.0041415662650601</v>
-      </c>
-      <c r="X5" s="2">
-        <v>1.0029816924086112</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>1.0038063856379957</v>
+      <c r="M5" s="3">
+        <v>1.0136948781155848</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1.0121197430614473</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1.0091294424519073</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1.0098677718571147</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1.0090350560173473</v>
+      </c>
+      <c r="R5" s="3">
+        <v>1.0069160903258061</v>
+      </c>
+      <c r="S5" s="3">
+        <v>1.0065030579856002</v>
+      </c>
+      <c r="T5" s="3">
+        <v>1.0060140569523948</v>
+      </c>
+      <c r="U5" s="3">
+        <v>1.0068027210884354</v>
+      </c>
+      <c r="V5" s="3">
+        <v>1.0053846153846153</v>
+      </c>
+      <c r="W5" s="3">
+        <v>1.0050303030303029</v>
+      </c>
+      <c r="X5" s="3">
+        <v>1.0047701149425288</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>1.0054695618880927</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
@@ -1187,44 +1196,44 @@
       <c r="L6" s="1">
         <v>4</v>
       </c>
-      <c r="M6" s="2">
-        <v>1.0920939064388056</v>
-      </c>
-      <c r="N6" s="2">
-        <v>1.0847731309543034</v>
-      </c>
-      <c r="O6" s="2">
-        <v>1.0798296966471526</v>
-      </c>
-      <c r="P6" s="2">
-        <v>1.0753444316877154</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>1.0701813981928121</v>
-      </c>
-      <c r="R6" s="2">
-        <v>1.0656044381370144</v>
-      </c>
-      <c r="S6" s="2">
-        <v>1.0603585902001718</v>
-      </c>
-      <c r="T6" s="2">
-        <v>1.0556564532192865</v>
-      </c>
-      <c r="U6" s="2">
-        <v>1.0514157555368655</v>
-      </c>
-      <c r="V6" s="2">
-        <v>1.0474680141920223</v>
-      </c>
-      <c r="W6" s="2">
-        <v>1.0456283588259612</v>
-      </c>
-      <c r="X6" s="2">
-        <v>1.040592975823301</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>1.0376001151023933</v>
+      <c r="M6" s="3">
+        <v>1.0822525311689397</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1.0768929912390488</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1.0708522810620507</v>
+      </c>
+      <c r="P6" s="3">
+        <v>1.0655172413793104</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>1.0608451806443198</v>
+      </c>
+      <c r="R6" s="3">
+        <v>1.0587616750170099</v>
+      </c>
+      <c r="S6" s="3">
+        <v>1.0538285244167598</v>
+      </c>
+      <c r="T6" s="3">
+        <v>1.049420719762691</v>
+      </c>
+      <c r="U6" s="3">
+        <v>1.0454545454545456</v>
+      </c>
+      <c r="V6" s="3">
+        <v>1.0418630866980938</v>
+      </c>
+      <c r="W6" s="3">
+        <v>1.0393596059113299</v>
+      </c>
+      <c r="X6" s="3">
+        <v>1.0371389270976616</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>1.0342274825206783</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -1264,44 +1273,44 @@
       <c r="L7" s="1">
         <v>4</v>
       </c>
-      <c r="M7" s="2">
-        <v>1.201363714828241</v>
-      </c>
-      <c r="N7" s="2">
-        <v>1.1856935249475216</v>
-      </c>
-      <c r="O7" s="2">
-        <v>1.1722800881928077</v>
-      </c>
-      <c r="P7" s="2">
-        <v>1.1614523536165327</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>1.150553706094164</v>
-      </c>
-      <c r="R7" s="2">
-        <v>1.1386917817055864</v>
-      </c>
-      <c r="S7" s="2">
-        <v>1.1279012648900895</v>
-      </c>
-      <c r="T7" s="2">
-        <v>1.1191048098892731</v>
-      </c>
-      <c r="U7" s="2">
-        <v>1.1065320998037567</v>
-      </c>
-      <c r="V7" s="2">
-        <v>1.1029996774540372</v>
-      </c>
-      <c r="W7" s="2">
-        <v>1.0964241422075238</v>
-      </c>
-      <c r="X7" s="2">
-        <v>1.0894935827280867</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>1.0831135197352646</v>
+      <c r="M7" s="3">
+        <v>1.1965525897414442</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1.1811639549436794</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1.1674490244975795</v>
+      </c>
+      <c r="P7" s="3">
+        <v>1.1540000000000001</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1.1445154558497457</v>
+      </c>
+      <c r="R7" s="3">
+        <v>1.1339766190387826</v>
+      </c>
+      <c r="S7" s="3">
+        <v>1.1253452429923019</v>
+      </c>
+      <c r="T7" s="3">
+        <v>1.1156321710415851</v>
+      </c>
+      <c r="U7" s="3">
+        <v>1.1068983957219252</v>
+      </c>
+      <c r="V7" s="3">
+        <v>1.0990469358475099</v>
+      </c>
+      <c r="W7" s="3">
+        <v>1.0935467980295568</v>
+      </c>
+      <c r="X7" s="3">
+        <v>1.0877009913200208</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>1.0822099346524698</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
@@ -1318,7 +1327,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
@@ -1341,44 +1350,44 @@
       <c r="L8" s="1">
         <v>4</v>
       </c>
-      <c r="M8" s="2">
-        <v>0.96854446668573058</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0.97245482591449983</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0.97613986608566261</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0.97948928315044614</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0.9793072647876141</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0.98158742368155383</v>
-      </c>
-      <c r="S8" s="2">
-        <v>0.98208537438768373</v>
-      </c>
-      <c r="T8" s="2">
-        <v>0.98336958491934023</v>
-      </c>
-      <c r="U8" s="2">
-        <v>0.98387736223073874</v>
-      </c>
-      <c r="V8" s="2">
-        <v>0.98358618325190716</v>
-      </c>
-      <c r="W8" s="2">
-        <v>0.98608673853096007</v>
-      </c>
-      <c r="X8" s="2">
-        <v>0.98708810231762467</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>0.98676838717367976</v>
+      <c r="M8" s="3">
+        <v>0.96121883656509699</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.96367021276595743</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.96247376235089332</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0.96960426329813487</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0.9706652697747512</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0.97391584865661995</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0.97473101477744528</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0.97545348283475475</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0.97617546955754442</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0.97822890286741293</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0.97949533081661044</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0.98064416227934348</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0.98116839006717482</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
@@ -1412,44 +1421,44 @@
       <c r="L9" s="1">
         <v>4</v>
       </c>
-      <c r="M9" s="2">
-        <v>0.99292786421499279</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0.99372647427854455</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0.99627245001694342</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0.99661642571516462</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0.99689732982324186</v>
-      </c>
-      <c r="R9" s="2">
-        <v>0.9970486111111112</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0.99595796281325799</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0.99750359331265603</v>
-      </c>
-      <c r="U9" s="2">
-        <v>0.99758058777485226</v>
-      </c>
-      <c r="V9" s="2">
-        <v>0.99778805549969829</v>
-      </c>
-      <c r="W9" s="2">
-        <v>0.99892309641454458</v>
-      </c>
-      <c r="X9" s="2">
-        <v>0.99801825606533745</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>0.99714595581939625</v>
+      <c r="M9" s="3">
+        <v>0.9953116381687811</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.99597610047555163</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.99639383673915427</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0.99672748909163034</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0.99691414049736793</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0.99723872479290421</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0.99743529960363708</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0.99752745254890562</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0.9965909865684871</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0.99787781350482307</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0.9979352644683307</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0.99810159351090155</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0.99814207650273212</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
@@ -1483,44 +1492,44 @@
       <c r="L10" s="1">
         <v>4</v>
       </c>
-      <c r="M10" s="2">
-        <v>0.85707749499571062</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0.86502864698104887</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0.87341906685088733</v>
-      </c>
-      <c r="P10" s="2">
-        <v>0.87949953850887097</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>0.88750496228662168</v>
-      </c>
-      <c r="R10" s="2">
-        <v>0.8934666602567185</v>
-      </c>
-      <c r="S10" s="2">
-        <v>0.89969675763937496</v>
-      </c>
-      <c r="T10" s="2">
-        <v>0.90483958673191944</v>
-      </c>
-      <c r="U10" s="2">
-        <v>0.90969560812299011</v>
-      </c>
-      <c r="V10" s="2">
-        <v>0.91433101911373971</v>
-      </c>
-      <c r="W10" s="2">
-        <v>0.91923623297401191</v>
-      </c>
-      <c r="X10" s="2">
-        <v>0.92261007698260766</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>0.92653077442682874</v>
+      <c r="M10" s="3">
+        <v>0.84858725761772846</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.85728723404255325</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.86520247785798376</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0.87338399289450319</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0.8809943330634793</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0.88787501728190221</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0.89437028438769595</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0.89973591930386598</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0.90478591537459563</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0.90948451923862428</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0.91325253328034972</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0.91742799628367921</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0.92203185146048749</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
@@ -1554,43 +1563,43 @@
       <c r="L11" s="1">
         <v>4</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="3">
         <v>1</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="3">
         <v>1</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="3">
+        <v>0.99847386493704693</v>
+      </c>
+      <c r="P11" s="3">
         <v>1</v>
       </c>
-      <c r="P11" s="2">
+      <c r="Q11" s="3">
+        <v>0.99861799853670441</v>
+      </c>
+      <c r="R11" s="3">
         <v>1</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="S11" s="3">
         <v>1</v>
       </c>
-      <c r="R11" s="2">
+      <c r="T11" s="3">
+        <v>0.99892976588628768</v>
+      </c>
+      <c r="U11" s="3">
         <v>1</v>
       </c>
-      <c r="S11" s="2">
+      <c r="V11" s="3">
         <v>1</v>
       </c>
-      <c r="T11" s="2">
+      <c r="W11" s="3">
         <v>1</v>
       </c>
-      <c r="U11" s="2">
+      <c r="X11" s="3">
         <v>1</v>
       </c>
-      <c r="V11" s="2">
-        <v>1</v>
-      </c>
-      <c r="W11" s="2">
-        <v>1</v>
-      </c>
-      <c r="X11" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="2">
+      <c r="Y11" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1625,44 +1634,44 @@
       <c r="L12" s="1">
         <v>4</v>
       </c>
-      <c r="M12" s="2">
-        <v>0.94566771518444381</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0.94860070515645656</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0.95307684132213821</v>
-      </c>
-      <c r="P12" s="2">
-        <v>0.95467131576248587</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0.95782056371576019</v>
-      </c>
-      <c r="R12" s="2">
-        <v>0.96077111677323213</v>
-      </c>
-      <c r="S12" s="2">
-        <v>0.96267786330767446</v>
-      </c>
-      <c r="T12" s="2">
-        <v>0.96524379191589615</v>
-      </c>
-      <c r="U12" s="2">
-        <v>0.96696180784987451</v>
-      </c>
-      <c r="V12" s="2">
-        <v>0.96858661181109107</v>
-      </c>
-      <c r="W12" s="2">
-        <v>0.96728503384306841</v>
-      </c>
-      <c r="X12" s="2">
-        <v>0.97148792309885545</v>
-      </c>
-      <c r="Y12" s="2">
-        <v>0.97353677434735963</v>
+      <c r="M12" s="3">
+        <v>0.9381163434903047</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.9414893617021276</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.94537449444529764</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0.9490279285502814</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0.95161674365445981</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0.95548181943868371</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0.9583463547479798</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0.95960864106671284</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0.96146896928442382</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0.96393268523813413</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0.96558712497516397</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0.96775317435738606</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0.96984678088912368</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
@@ -1702,44 +1711,44 @@
       <c r="L13" s="1">
         <v>4</v>
       </c>
-      <c r="M13" s="2">
-        <v>0.83991993136974552</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0.84943807844865582</v>
-      </c>
-      <c r="O13" s="2">
-        <v>0.85832713359549362</v>
-      </c>
-      <c r="P13" s="2">
-        <v>0.86580863501179384</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>0.87509924573243358</v>
-      </c>
-      <c r="R13" s="2">
-        <v>0.88144800730734107</v>
-      </c>
-      <c r="S13" s="2">
-        <v>0.88803358992302317</v>
-      </c>
-      <c r="T13" s="2">
-        <v>0.89351096610476699</v>
-      </c>
-      <c r="U13" s="2">
-        <v>0.89943174309501783</v>
-      </c>
-      <c r="V13" s="2">
-        <v>0.90575983543327343</v>
-      </c>
-      <c r="W13" s="2">
-        <v>0.91159020640093591</v>
-      </c>
-      <c r="X13" s="2">
-        <v>0.91515620544987986</v>
-      </c>
-      <c r="Y13" s="2">
-        <v>0.91989510072714264</v>
+      <c r="M13" s="3">
+        <v>0.83750692520775627</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.84664893617021275</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.85583371729892987</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0.86435409059508539</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0.87223201104814518</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0.88022489515645885</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0.88691459440153575</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0.89324213169401268</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0.89848312954325815</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0.90335756882607632</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0.90796741506060008</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0.9122793434499844</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0.91765416257830767</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
@@ -1779,44 +1788,44 @@
       <c r="L14" s="1">
         <v>4</v>
       </c>
-      <c r="M14" s="2">
-        <v>1.0085787818129828</v>
-      </c>
-      <c r="N14" s="2">
-        <v>1.0100815337152931</v>
-      </c>
-      <c r="O14" s="2">
-        <v>1.0115315123817621</v>
-      </c>
-      <c r="P14" s="2">
-        <v>1.0110757870987592</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>1.0099245732433506</v>
-      </c>
-      <c r="R14" s="2">
-        <v>1.0080284601701841</v>
-      </c>
-      <c r="S14" s="2">
-        <v>1.0085374387683694</v>
-      </c>
-      <c r="T14" s="2">
-        <v>1.0082925502990756</v>
-      </c>
-      <c r="U14" s="2">
-        <v>1.0073565041187611</v>
-      </c>
-      <c r="V14" s="2">
-        <v>1.0071569383731893</v>
-      </c>
-      <c r="W14" s="2">
-        <v>1.0069775215175063</v>
-      </c>
-      <c r="X14" s="2">
-        <v>1.0067614353794143</v>
-      </c>
-      <c r="Y14" s="2">
-        <v>1.006635673699686</v>
+      <c r="M14" s="3">
+        <v>1.0009418282548477</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1.0008510638297872</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1.0016894486254031</v>
+      </c>
+      <c r="P14" s="3">
+        <v>1.0016776867660122</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1.0016191247202249</v>
+      </c>
+      <c r="R14" s="3">
+        <v>1.002304253652242</v>
+      </c>
+      <c r="S14" s="3">
+        <v>1.0022322425108263</v>
+      </c>
+      <c r="T14" s="3">
+        <v>1.0021645958699512</v>
+      </c>
+      <c r="U14" s="3">
+        <v>1.0013866128828943</v>
+      </c>
+      <c r="V14" s="3">
+        <v>1.0027367045176048</v>
+      </c>
+      <c r="W14" s="3">
+        <v>1.001986886548778</v>
+      </c>
+      <c r="X14" s="3">
+        <v>1.0019355837720656</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>1.0025284927164315</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
@@ -1850,44 +1859,44 @@
       <c r="L15" s="1">
         <v>4</v>
       </c>
-      <c r="M15" s="2">
-        <v>0.87229648951200944</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0.87927776611379382</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0.88579839610191857</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0.89264814359478728</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0.89827355971003442</v>
-      </c>
-      <c r="R15" s="2">
-        <v>0.90435627980186106</v>
-      </c>
-      <c r="S15" s="2">
-        <v>0.9099590108553669</v>
-      </c>
-      <c r="T15" s="2">
-        <v>0.91390032407812904</v>
-      </c>
-      <c r="U15" s="2">
-        <v>0.91896389860885885</v>
-      </c>
-      <c r="V15" s="2">
-        <v>0.92306732129483227</v>
-      </c>
-      <c r="W15" s="2">
-        <v>0.9269302589916375</v>
-      </c>
-      <c r="X15" s="2">
-        <v>0.93064202720387046</v>
-      </c>
-      <c r="Y15" s="2">
-        <v>0.93419064957198739</v>
+      <c r="M15" s="3">
+        <v>0.86518152682183569</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.87255696202531652</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.88033812176292381</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0.88821695171501469</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0.89408213665050773</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0.90026165240143696</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0.9060347796143251</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0.91010202374979088</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0.91457163778374417</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0.91822679596279444</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0.9222072158981286</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0.92659514398644827</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0.93018555943413561</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
@@ -1921,44 +1930,44 @@
       <c r="L16" s="1">
         <v>4</v>
       </c>
-      <c r="M16" s="2">
-        <v>1.0359917141377524</v>
-      </c>
-      <c r="N16" s="2">
-        <v>1.0309220087195221</v>
-      </c>
-      <c r="O16" s="2">
-        <v>1.0342127271344941</v>
-      </c>
-      <c r="P16" s="2">
-        <v>1.0322904707233065</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>1.029417759358652</v>
-      </c>
-      <c r="R16" s="2">
-        <v>1.027996387562895</v>
-      </c>
-      <c r="S16" s="2">
-        <v>1.0244995701829791</v>
-      </c>
-      <c r="T16" s="2">
-        <v>1.0234342960923313</v>
-      </c>
-      <c r="U16" s="2">
-        <v>1.0215306980656014</v>
-      </c>
-      <c r="V16" s="2">
-        <v>1.020589183958714</v>
-      </c>
-      <c r="W16" s="2">
-        <v>1.0180859859446052</v>
-      </c>
-      <c r="X16" s="2">
-        <v>1.0174112028653866</v>
-      </c>
-      <c r="Y16" s="2">
-        <v>1.0160184163829074</v>
+      <c r="M16" s="3">
+        <v>1.030625052296879</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1.0287077596996244</v>
+      </c>
+      <c r="O16" s="3">
+        <v>1.0280915358662168</v>
+      </c>
+      <c r="P16" s="3">
+        <v>1.0241379310344827</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1.0238685274553281</v>
+      </c>
+      <c r="R16" s="3">
+        <v>1.0236902331910682</v>
+      </c>
+      <c r="S16" s="3">
+        <v>1.0205676676264912</v>
+      </c>
+      <c r="T16" s="3">
+        <v>1.0186377119829853</v>
+      </c>
+      <c r="U16" s="3">
+        <v>1.0178074866310161</v>
+      </c>
+      <c r="V16" s="3">
+        <v>1.0162430825988933</v>
+      </c>
+      <c r="W16" s="3">
+        <v>1.0155665024630542</v>
+      </c>
+      <c r="X16" s="3">
+        <v>1.0149883792629133</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>1.0137092720376548</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -1975,7 +1984,7 @@
         <v>41</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F17" s="1">
         <v>7</v>
@@ -1998,44 +2007,44 @@
       <c r="L17" s="1">
         <v>4</v>
       </c>
-      <c r="M17" s="2">
-        <v>1.0062340153452687</v>
-      </c>
-      <c r="N17" s="2">
-        <v>1.0085558189877333</v>
-      </c>
-      <c r="O17" s="2">
-        <v>1.0116296481157974</v>
-      </c>
-      <c r="P17" s="2">
-        <v>1.012918521385717</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>1.016443504815598</v>
-      </c>
-      <c r="R17" s="2">
-        <v>1.0167442284880008</v>
-      </c>
-      <c r="S17" s="2">
-        <v>1.018474109601208</v>
-      </c>
-      <c r="T17" s="2">
-        <v>1.0201574530668744</v>
-      </c>
-      <c r="U17" s="2">
-        <v>1.0154630487907641</v>
-      </c>
-      <c r="V17" s="2">
-        <v>1.0150505798174192</v>
-      </c>
-      <c r="W17" s="2">
-        <v>1.0153809083972531</v>
-      </c>
-      <c r="X17" s="2">
-        <v>1.0137341076754041</v>
-      </c>
-      <c r="Y17" s="2">
-        <v>1.0134181873945713</v>
+      <c r="M17" s="3">
+        <v>1.0017511330861144</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1.0041225848110069</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1.0024000384006144</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1.0053870802953606</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1.0082763584023031</v>
+      </c>
+      <c r="R17" s="3">
+        <v>1.0116598978121316</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1.0127215672970911</v>
+      </c>
+      <c r="T17" s="3">
+        <v>1.0144335848900987</v>
+      </c>
+      <c r="U17" s="3">
+        <v>1.012040939193257</v>
+      </c>
+      <c r="V17" s="3">
+        <v>1.0117269955437418</v>
+      </c>
+      <c r="W17" s="3">
+        <v>1.0107883501067398</v>
+      </c>
+      <c r="X17" s="3">
+        <v>1.0105341522426949</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>1.0103280238562804</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -2075,44 +2084,44 @@
       <c r="L18" s="1">
         <v>4</v>
       </c>
-      <c r="M18" s="2">
-        <v>1.0604177455549801</v>
-      </c>
-      <c r="N18" s="2">
-        <v>1.0551429032778945</v>
-      </c>
-      <c r="O18" s="2">
-        <v>1.0532197977647684</v>
-      </c>
-      <c r="P18" s="2">
-        <v>1.0490097588978187</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>1.0396086690671922</v>
-      </c>
-      <c r="R18" s="2">
-        <v>1.039801315959231</v>
-      </c>
-      <c r="S18" s="2">
-        <v>1.0398501780670513</v>
-      </c>
-      <c r="T18" s="2">
-        <v>1.0370847735661142</v>
-      </c>
-      <c r="U18" s="2">
-        <v>1.033641715727502</v>
-      </c>
-      <c r="V18" s="2">
-        <v>1.0322545962799701</v>
-      </c>
-      <c r="W18" s="2">
-        <v>1.0318313352625053</v>
-      </c>
-      <c r="X18" s="2">
-        <v>1.0297980300467615</v>
-      </c>
-      <c r="Y18" s="2">
-        <v>1.0263776317682605</v>
+      <c r="M18" s="3">
+        <v>1.0571500292862521</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1.0534261576971213</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1.0500953498606425</v>
+      </c>
+      <c r="P18" s="3">
+        <v>1.0448275862068965</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>1.0412808138776575</v>
+      </c>
+      <c r="R18" s="3">
+        <v>1.0402053565905858</v>
+      </c>
+      <c r="S18" s="3">
+        <v>1.0371980960216254</v>
+      </c>
+      <c r="T18" s="3">
+        <v>1.0335254939273522</v>
+      </c>
+      <c r="U18" s="3">
+        <v>1.0311764705882354</v>
+      </c>
+      <c r="V18" s="3">
+        <v>1.0290530846484935</v>
+      </c>
+      <c r="W18" s="3">
+        <v>1.0278817733990147</v>
+      </c>
+      <c r="X18" s="3">
+        <v>1.0268462742493953</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>1.0243568066535667</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
@@ -2128,6 +2137,12 @@
       <c r="D19" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="1">
+        <v>5</v>
+      </c>
       <c r="G19" s="1">
         <v>8</v>
       </c>
@@ -2146,44 +2161,44 @@
       <c r="L19" s="1">
         <v>4</v>
       </c>
-      <c r="M19" s="2">
-        <v>0.85993708893337151</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0.8677831643895989</v>
-      </c>
-      <c r="O19" s="2">
-        <v>0.87607609735359759</v>
-      </c>
-      <c r="P19" s="2">
-        <v>0.88293508358117123</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>0.89082969432314418</v>
-      </c>
-      <c r="R19" s="2">
-        <v>0.89587039084659403</v>
-      </c>
-      <c r="S19" s="2">
-        <v>0.90202939118264525</v>
-      </c>
-      <c r="T19" s="2">
-        <v>0.90787565705999629</v>
-      </c>
-      <c r="U19" s="2">
-        <v>0.91264701995506803</v>
-      </c>
-      <c r="V19" s="2">
-        <v>0.91715950972829352</v>
-      </c>
-      <c r="W19" s="2">
-        <v>0.92203559789420908</v>
-      </c>
-      <c r="X19" s="2">
-        <v>0.92599079467231493</v>
-      </c>
-      <c r="Y19" s="2">
-        <v>0.92982874399014581</v>
+      <c r="M19" s="3">
+        <v>0.85966759002770077</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.86702127659574468</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0.87544156043618493</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0.88325273857692688</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0.88970903376351262</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0.89635467072215302</v>
+      </c>
+      <c r="S19" s="3">
+        <v>0.90254029197732044</v>
+      </c>
+      <c r="T19" s="3">
+        <v>0.90765834018788694</v>
+      </c>
+      <c r="U19" s="3">
+        <v>0.91176099836127578</v>
+      </c>
+      <c r="V19" s="3">
+        <v>0.91626501102851066</v>
+      </c>
+      <c r="W19" s="3">
+        <v>0.920564275779853</v>
+      </c>
+      <c r="X19" s="3">
+        <v>0.92451223288943951</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>0.92893803305909872</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -2199,6 +2214,12 @@
       <c r="D20" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="1">
+        <v>5</v>
+      </c>
       <c r="G20" s="1">
         <v>10</v>
       </c>
@@ -2217,44 +2238,44 @@
       <c r="L20" s="1">
         <v>4</v>
       </c>
-      <c r="M20" s="2">
-        <v>0.87515012868172715</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0.88249228735125596</v>
-      </c>
-      <c r="O20" s="2">
-        <v>0.88930810925709414</v>
-      </c>
-      <c r="P20" s="2">
-        <v>0.89575428161214243</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>0.90239182215164737</v>
-      </c>
-      <c r="R20" s="2">
-        <v>0.90707177539541373</v>
-      </c>
-      <c r="S20" s="2">
-        <v>0.91289946349428519</v>
-      </c>
-      <c r="T20" s="2">
-        <v>0.91843393148450247</v>
-      </c>
-      <c r="U20" s="2">
-        <v>0.92220607021717094</v>
-      </c>
-      <c r="V20" s="2">
-        <v>0.92645924402159929</v>
-      </c>
-      <c r="W20" s="2">
-        <v>0.93110219771037017</v>
-      </c>
-      <c r="X20" s="2">
-        <v>0.93413710235835623</v>
-      </c>
-      <c r="Y20" s="2">
-        <v>0.93777565860054823</v>
+      <c r="M20" s="3">
+        <v>0.87445983379501391</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.88122340425531909</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0.88911073567808319</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0.89558867067995662</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0.90161436258869476</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0.90787593898336316</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0.91294254207777137</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0.91774535694185899</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0.92159334425816208</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0.92582305367208562</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0.92851182197496529</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0.93291266646020443</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0.93648577251113296</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -2294,44 +2315,44 @@
       <c r="L21" s="1">
         <v>4</v>
       </c>
-      <c r="M21" s="2">
-        <v>0.91518444380897912</v>
-      </c>
-      <c r="N21" s="2">
-        <v>0.92381004847950621</v>
-      </c>
-      <c r="O21" s="2">
-        <v>0.92740992666595812</v>
-      </c>
-      <c r="P21" s="2">
-        <v>0.93164803609886171</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>0.93549027391822148</v>
-      </c>
-      <c r="R21" s="2">
-        <v>0.9391375414643528</v>
-      </c>
-      <c r="S21" s="2">
-        <v>0.94401679496151158</v>
-      </c>
-      <c r="T21" s="2">
-        <v>0.94639296719231469</v>
-      </c>
-      <c r="U21" s="2">
-        <v>0.95083917008061325</v>
-      </c>
-      <c r="V21" s="2">
-        <v>0.95075854975572127</v>
-      </c>
-      <c r="W21" s="2">
-        <v>0.95754992897133773</v>
-      </c>
-      <c r="X21" s="2">
-        <v>0.95519530772677297</v>
-      </c>
-      <c r="Y21" s="2">
-        <v>0.95764294512655457</v>
+      <c r="M21" s="3">
+        <v>0.86797783933518002</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0.91579787234042542</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0.92151743203808933</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0.92682325076482797</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0.93018715176913203</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0.9347435365685054</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0.93901513460422337</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0.94155591151132079</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0.94398924324551459</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0.94689976309125068</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0.94901649115835496</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0.95161040569835864</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>0.95410974413163252</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -2366,43 +2387,43 @@
       <c r="L22" s="1">
         <v>4</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="3">
         <v>1</v>
       </c>
-      <c r="N22" s="2">
-        <v>0.99804161566707461</v>
-      </c>
-      <c r="O22" s="2">
+      <c r="N22" s="3">
         <v>1</v>
       </c>
-      <c r="P22" s="2">
+      <c r="O22" s="3">
+        <v>0.99826105858058911</v>
+      </c>
+      <c r="P22" s="3">
         <v>1</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="Q22" s="3">
         <v>1</v>
       </c>
-      <c r="R22" s="2">
+      <c r="R22" s="3">
         <v>1</v>
       </c>
-      <c r="S22" s="2">
+      <c r="S22" s="3">
+        <v>0.99876132228845704</v>
+      </c>
+      <c r="T22" s="3">
         <v>1</v>
       </c>
-      <c r="T22" s="2">
+      <c r="U22" s="3">
         <v>1</v>
       </c>
-      <c r="U22" s="2">
+      <c r="V22" s="3">
         <v>1</v>
       </c>
-      <c r="V22" s="2">
+      <c r="W22" s="3">
         <v>1</v>
       </c>
-      <c r="W22" s="2">
-        <v>1</v>
-      </c>
-      <c r="X22" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="2">
+      <c r="X22" s="3">
+        <v>0.99902298850574711</v>
+      </c>
+      <c r="Y22" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2437,44 +2458,44 @@
       <c r="L23" s="1">
         <v>4</v>
       </c>
-      <c r="M23" s="2">
-        <v>0.98369742419302242</v>
-      </c>
-      <c r="N23" s="2">
-        <v>0.98509342851144244</v>
-      </c>
-      <c r="O23" s="2">
-        <v>0.98644807633742748</v>
-      </c>
-      <c r="P23" s="2">
-        <v>0.98854192279321362</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>0.98807706982067911</v>
-      </c>
-      <c r="R23" s="2">
-        <v>0.98921346233970642</v>
-      </c>
-      <c r="S23" s="2">
-        <v>0.9902707085266429</v>
-      </c>
-      <c r="T23" s="2">
-        <v>0.98979591836734693</v>
-      </c>
-      <c r="U23" s="2">
-        <v>0.99078262353844837</v>
-      </c>
-      <c r="V23" s="2">
-        <v>0.99238578680203049</v>
-      </c>
-      <c r="W23" s="2">
-        <v>0.9898514248599497</v>
-      </c>
-      <c r="X23" s="2">
-        <v>0.99274299083951301</v>
-      </c>
-      <c r="Y23" s="2">
-        <v>0.99291164736413995</v>
+      <c r="M23" s="3">
+        <v>0.97898387012031718</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0.98055696202531639</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0.98211668132512464</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0.98346404611168847</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0.98477087716088907</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0.98523216107144451</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0.98639807162534443</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0.98674527512962029</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0.98779594825482053</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0.98812586582228379</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0.98842369284198339</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0.9887069452286843</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0.98960132279992652</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
@@ -2514,44 +2535,44 @@
       <c r="L24" s="1">
         <v>4</v>
       </c>
-      <c r="M24" s="2">
-        <v>1.0295682013154133</v>
-      </c>
-      <c r="N24" s="2">
-        <v>1.029363155575143</v>
-      </c>
-      <c r="O24" s="2">
-        <v>1.0265703050271018</v>
-      </c>
-      <c r="P24" s="2">
-        <v>1.0256383960619424</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>1.0239678443826916</v>
-      </c>
-      <c r="R24" s="2">
-        <v>1.0224508437094371</v>
-      </c>
-      <c r="S24" s="2">
-        <v>1.0217401446232797</v>
-      </c>
-      <c r="T24" s="2">
-        <v>1.0211165488490119</v>
-      </c>
-      <c r="U24" s="2">
-        <v>1.0190740496013391</v>
-      </c>
-      <c r="V24" s="2">
-        <v>1.0178709179737722</v>
-      </c>
-      <c r="W24" s="2">
-        <v>1.0174229130107795</v>
-      </c>
-      <c r="X24" s="2">
-        <v>1.0169443199869659</v>
-      </c>
-      <c r="Y24" s="2">
-        <v>1.0152580760519727</v>
+      <c r="M24" s="3">
+        <v>1.026759002770083</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1.024787234042553</v>
+      </c>
+      <c r="O24" s="3">
+        <v>1.0230379358009523</v>
+      </c>
+      <c r="P24" s="3">
+        <v>1.0213658344024477</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>1.0206676508405164</v>
+      </c>
+      <c r="R24" s="3">
+        <v>1.0192174754596985</v>
+      </c>
+      <c r="S24" s="3">
+        <v>1.0186169025402918</v>
+      </c>
+      <c r="T24" s="3">
+        <v>1.0180527295553918</v>
+      </c>
+      <c r="U24" s="3">
+        <v>1.0160931131560149</v>
+      </c>
+      <c r="V24" s="3">
+        <v>1.0156441467200392</v>
+      </c>
+      <c r="W24" s="3">
+        <v>1.0152592886946155</v>
+      </c>
+      <c r="X24" s="3">
+        <v>1.014207184886962</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>1.0144916597479054</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -2585,44 +2606,44 @@
       <c r="L25" s="1">
         <v>6</v>
       </c>
-      <c r="M25" s="2">
-        <v>1.0985720375106562</v>
-      </c>
-      <c r="N25" s="2">
-        <v>1.0910215441707038</v>
-      </c>
-      <c r="O25" s="2">
-        <v>1.0840029947591714</v>
-      </c>
-      <c r="P25" s="2">
-        <v>1.0798335591252177</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>1.0743716232088325</v>
-      </c>
-      <c r="R25" s="2">
-        <v>1.0691668947896706</v>
-      </c>
-      <c r="S25" s="2">
-        <v>1.0658584243716138</v>
-      </c>
-      <c r="T25" s="2">
-        <v>1.0612509732675837</v>
-      </c>
-      <c r="U25" s="2">
-        <v>1.0575966967220021</v>
-      </c>
-      <c r="V25" s="2">
-        <v>1.0534172218110043</v>
-      </c>
-      <c r="W25" s="2">
-        <v>1.0501987871973013</v>
-      </c>
-      <c r="X25" s="2">
-        <v>1.0470883691728143</v>
-      </c>
-      <c r="Y25" s="2">
-        <v>1.0427848489495477</v>
+      <c r="M25" s="3">
+        <v>1.0704058508446643</v>
+      </c>
+      <c r="N25" s="3">
+        <v>1.0653653206178912</v>
+      </c>
+      <c r="O25" s="3">
+        <v>1.0615849853597659</v>
+      </c>
+      <c r="P25" s="3">
+        <v>1.0564714624065388</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>1.0532565671104714</v>
+      </c>
+      <c r="R25" s="3">
+        <v>1.0502205336477575</v>
+      </c>
+      <c r="S25" s="3">
+        <v>1.0466457467560002</v>
+      </c>
+      <c r="T25" s="3">
+        <v>1.0433007546702957</v>
+      </c>
+      <c r="U25" s="3">
+        <v>1.0408187838651415</v>
+      </c>
+      <c r="V25" s="3">
+        <v>1.0377609256508482</v>
+      </c>
+      <c r="W25" s="3">
+        <v>1.0349191826776456</v>
+      </c>
+      <c r="X25" s="3">
+        <v>1.0322724734785036</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>1.0302931122263437</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
@@ -2662,44 +2683,44 @@
       <c r="L26" s="1">
         <v>4</v>
       </c>
-      <c r="M26" s="2">
-        <v>1.0085787818129828</v>
-      </c>
-      <c r="N26" s="2">
-        <v>1.0110180696342002</v>
-      </c>
-      <c r="O26" s="2">
-        <v>1.0088744818790518</v>
-      </c>
-      <c r="P26" s="2">
-        <v>1.0102553584247771</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>1.008237395791981</v>
-      </c>
-      <c r="R26" s="2">
-        <v>1.0072111917696265</v>
-      </c>
-      <c r="S26" s="2">
-        <v>1.0085374387683694</v>
-      </c>
-      <c r="T26" s="2">
-        <v>1.0067971723762914</v>
-      </c>
-      <c r="U26" s="2">
-        <v>1.0073565041187611</v>
-      </c>
-      <c r="V26" s="2">
-        <v>1.0057426930659124</v>
-      </c>
-      <c r="W26" s="2">
-        <v>1.007687808139049</v>
-      </c>
-      <c r="X26" s="2">
-        <v>1.0081463076860415</v>
-      </c>
-      <c r="Y26" s="2">
-        <v>1.0059601859578018</v>
+      <c r="M26" s="3">
+        <v>1.0018282548476454</v>
+      </c>
+      <c r="N26" s="3">
+        <v>1.0008510638297872</v>
+      </c>
+      <c r="O26" s="3">
+        <v>1.0008703220191471</v>
+      </c>
+      <c r="P26" s="3">
+        <v>1.0008388433830062</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>1.0008095623601123</v>
+      </c>
+      <c r="R26" s="3">
+        <v>1.0015668924835246</v>
+      </c>
+      <c r="S26" s="3">
+        <v>1.0022322425108263</v>
+      </c>
+      <c r="T26" s="3">
+        <v>1.0021645958699512</v>
+      </c>
+      <c r="U26" s="3">
+        <v>1.0007143157275515</v>
+      </c>
+      <c r="V26" s="3">
+        <v>1.0033902458949433</v>
+      </c>
+      <c r="W26" s="3">
+        <v>1.0033379694019471</v>
+      </c>
+      <c r="X26" s="3">
+        <v>1.0012774852895632</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>1.0018869348630084</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
@@ -2733,44 +2754,44 @@
       <c r="L27" s="1">
         <v>4</v>
       </c>
-      <c r="M27" s="2">
-        <v>1.0200171575636261</v>
-      </c>
-      <c r="N27" s="2">
-        <v>1.0192816218598499</v>
-      </c>
-      <c r="O27" s="2">
-        <v>1.018599213518971</v>
-      </c>
-      <c r="P27" s="2">
-        <v>1.0162034663111477</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>1.0165244144501786</v>
-      </c>
-      <c r="R27" s="2">
-        <v>1.0160569203403684</v>
-      </c>
-      <c r="S27" s="2">
-        <v>1.0155353393981807</v>
-      </c>
-      <c r="T27" s="2">
-        <v>1.0143646909552293</v>
-      </c>
-      <c r="U27" s="2">
-        <v>1.0146689573146557</v>
-      </c>
-      <c r="V27" s="2">
-        <v>1.013585326133539</v>
-      </c>
-      <c r="W27" s="2">
-        <v>1.0146235480905823</v>
-      </c>
-      <c r="X27" s="2">
-        <v>1.0128711661439453</v>
-      </c>
-      <c r="Y27" s="2">
-        <v>1.012595859657488</v>
+      <c r="M27" s="3">
+        <v>1.0175069252077562</v>
+      </c>
+      <c r="N27" s="3">
+        <v>1.0141489361702127</v>
+      </c>
+      <c r="O27" s="3">
+        <v>1.0136691752418983</v>
+      </c>
+      <c r="P27" s="3">
+        <v>1.0131747754860359</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>1.0119053288251822</v>
+      </c>
+      <c r="R27" s="3">
+        <v>1.0107839070924927</v>
+      </c>
+      <c r="S27" s="3">
+        <v>1.0059377650787982</v>
+      </c>
+      <c r="T27" s="3">
+        <v>1.0115589419455386</v>
+      </c>
+      <c r="U27" s="3">
+        <v>1.0105046430522291</v>
+      </c>
+      <c r="V27" s="3">
+        <v>1.0109059717343354</v>
+      </c>
+      <c r="W27" s="3">
+        <v>1.0099344327438904</v>
+      </c>
+      <c r="X27" s="3">
+        <v>1.009019820377826</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>1.0081892973054569</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
@@ -2804,44 +2825,44 @@
       <c r="L28" s="1">
         <v>4</v>
       </c>
-      <c r="M28" s="2">
-        <v>1.0976656547681356</v>
-      </c>
-      <c r="N28" s="2">
-        <v>1.0883317261330763</v>
-      </c>
-      <c r="O28" s="2">
-        <v>1.0788181737034723</v>
-      </c>
-      <c r="P28" s="2">
-        <v>1.0720338983050848</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>1.0646437994722955</v>
-      </c>
-      <c r="R28" s="2">
-        <v>1.0608651176384627</v>
-      </c>
-      <c r="S28" s="2">
-        <v>1.0563302498964517</v>
-      </c>
-      <c r="T28" s="2">
-        <v>1.0533324629545009</v>
-      </c>
-      <c r="U28" s="2">
-        <v>1.0443728309370353</v>
-      </c>
-      <c r="V28" s="2">
-        <v>1.0452453987730062</v>
-      </c>
-      <c r="W28" s="2">
-        <v>1.0412911221270844</v>
-      </c>
-      <c r="X28" s="2">
-        <v>1.038683571621257</v>
-      </c>
-      <c r="Y28" s="2">
-        <v>1.0370830100853374</v>
+      <c r="M28" s="3">
+        <v>1.1002958881746761</v>
+      </c>
+      <c r="N28" s="3">
+        <v>1.0903653864124847</v>
+      </c>
+      <c r="O28" s="3">
+        <v>1.0820096685082874</v>
+      </c>
+      <c r="P28" s="3">
+        <v>1.07491778294698</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>1.0686090929518388</v>
+      </c>
+      <c r="R28" s="3">
+        <v>1.0633044946191179</v>
+      </c>
+      <c r="S28" s="3">
+        <v>1.0574118271015644</v>
+      </c>
+      <c r="T28" s="3">
+        <v>1.0553605015673981</v>
+      </c>
+      <c r="U28" s="3">
+        <v>1.0525158914037902</v>
+      </c>
+      <c r="V28" s="3">
+        <v>1.0479200767624315</v>
+      </c>
+      <c r="W28" s="3">
+        <v>1.0440051707422169</v>
+      </c>
+      <c r="X28" s="3">
+        <v>1.0403790688092294</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>1.0369876543209875</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
@@ -2875,44 +2896,44 @@
       <c r="L29" s="1">
         <v>4</v>
       </c>
-      <c r="M29" s="2">
-        <v>0.95333142693737494</v>
-      </c>
-      <c r="N29" s="2">
-        <v>0.9559277214631996</v>
-      </c>
-      <c r="O29" s="2">
-        <v>0.9592942926984801</v>
-      </c>
-      <c r="P29" s="2">
-        <v>0.96067070044098046</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>0.9635768161969035</v>
-      </c>
-      <c r="R29" s="2">
-        <v>0.96476130955242556</v>
-      </c>
-      <c r="S29" s="2">
-        <v>0.96734313039421504</v>
-      </c>
-      <c r="T29" s="2">
-        <v>0.9690502084466196</v>
-      </c>
-      <c r="U29" s="2">
-        <v>0.97066208537068854</v>
-      </c>
-      <c r="V29" s="2">
-        <v>0.97145795834404725</v>
-      </c>
-      <c r="W29" s="2">
-        <v>0.97426255536057493</v>
-      </c>
-      <c r="X29" s="2">
-        <v>0.97421693617367933</v>
-      </c>
-      <c r="Y29" s="2">
-        <v>0.97552350299996016</v>
+      <c r="M29" s="3">
+        <v>0.9491966759002769</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0.95212765957446799</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0.95479445041724254</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0.95726833119510513</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0.95956950330968138</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0.96239458039540982</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0.96428411982677797</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0.96610242867656604</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0.96777175511576119</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0.96936524793725998</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0.97019670176832906</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0.97224372870857845</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0.97362065061514069</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
@@ -2946,44 +2967,44 @@
       <c r="L30" s="1">
         <v>4</v>
       </c>
-      <c r="M30" s="2">
-        <v>1.0092159559834939</v>
-      </c>
-      <c r="N30" s="2">
-        <v>1.0082007343941248</v>
-      </c>
-      <c r="O30" s="2">
-        <v>1.0092786921462498</v>
-      </c>
-      <c r="P30" s="2">
-        <v>1.006731638701899</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>1.0061830933923956</v>
-      </c>
-      <c r="R30" s="2">
-        <v>1.005631399317406</v>
-      </c>
-      <c r="S30" s="2">
-        <v>1.0053305752247592</v>
-      </c>
-      <c r="T30" s="2">
-        <v>1.0049929204858783</v>
-      </c>
-      <c r="U30" s="2">
-        <v>1.004630604083351</v>
-      </c>
-      <c r="V30" s="2">
-        <v>1.0044364984770229</v>
-      </c>
-      <c r="W30" s="2">
-        <v>1.0041415662650601</v>
-      </c>
-      <c r="X30" s="2">
-        <v>1.0039358339793669</v>
-      </c>
-      <c r="Y30" s="2">
-        <v>1.0038063856379957</v>
+      <c r="M30" s="3">
+        <v>1.0136948781155848</v>
+      </c>
+      <c r="N30" s="3">
+        <v>1.0121197430614473</v>
+      </c>
+      <c r="O30" s="3">
+        <v>1.0091294424519073</v>
+      </c>
+      <c r="P30" s="3">
+        <v>1.0098677718571147</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>1.0090350560173473</v>
+      </c>
+      <c r="R30" s="3">
+        <v>1.0069160903258061</v>
+      </c>
+      <c r="S30" s="3">
+        <v>1.0065030579856002</v>
+      </c>
+      <c r="T30" s="3">
+        <v>1.0072458517498732</v>
+      </c>
+      <c r="U30" s="3">
+        <v>1.0057142857142858</v>
+      </c>
+      <c r="V30" s="3">
+        <v>1.0053846153846153</v>
+      </c>
+      <c r="W30" s="3">
+        <v>1.0050303030303029</v>
+      </c>
+      <c r="X30" s="3">
+        <v>1.0047701149425288</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>1.0045397363671169</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
@@ -3017,44 +3038,44 @@
       <c r="L31" s="1">
         <v>4</v>
       </c>
-      <c r="M31" s="2">
-        <v>0.97140406062339146</v>
-      </c>
-      <c r="N31" s="2">
-        <v>0.97427280740414268</v>
-      </c>
-      <c r="O31" s="2">
-        <v>0.97523647571474115</v>
-      </c>
-      <c r="P31" s="2">
-        <v>0.97605373807814588</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>0.9776697102024613</v>
-      </c>
-      <c r="R31" s="2">
-        <v>0.9791836930916783</v>
-      </c>
-      <c r="S31" s="2">
-        <v>0.98054583624912539</v>
-      </c>
-      <c r="T31" s="2">
-        <v>0.98187420699655603</v>
-      </c>
-      <c r="U31" s="2">
-        <v>0.98237963085326629</v>
-      </c>
-      <c r="V31" s="2">
-        <v>0.98285763263906756</v>
-      </c>
-      <c r="W31" s="2">
-        <v>0.98261886855519343</v>
-      </c>
-      <c r="X31" s="2">
-        <v>0.98439982078123089</v>
-      </c>
-      <c r="Y31" s="2">
-        <v>0.98478165852107913</v>
+      <c r="M31" s="3">
+        <v>0.96858725761772857</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0.9707446808510638</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0.97271284492909427</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0.97453863613934677</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0.97542740130482408</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0.97695746347757961</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0.97843653734541713</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0.97909000389627254</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0.98037732677843614</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0.98096560738501748</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0.98211802106099744</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0.98257974605140919</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0.98365914408634614</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
@@ -3088,44 +3109,44 @@
       <c r="L32" s="1">
         <v>4</v>
       </c>
-      <c r="M32" s="2">
-        <v>0.9314269373748929</v>
-      </c>
-      <c r="N32" s="2">
-        <v>0.93482811811370647</v>
-      </c>
-      <c r="O32" s="2">
-        <v>0.93894143904772021</v>
-      </c>
-      <c r="P32" s="2">
-        <v>0.94190339452363869</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>0.9462088130210401</v>
-      </c>
-      <c r="R32" s="2">
-        <v>0.94956973222441232</v>
-      </c>
-      <c r="S32" s="2">
-        <v>0.95255423372988102</v>
-      </c>
-      <c r="T32" s="2">
-        <v>0.95545586369403657</v>
-      </c>
-      <c r="U32" s="2">
-        <v>0.95744680851063824</v>
-      </c>
-      <c r="V32" s="2">
-        <v>0.95932973343618766</v>
-      </c>
-      <c r="W32" s="2">
-        <v>0.96172808556864708</v>
-      </c>
-      <c r="X32" s="2">
-        <v>0.96334161541281416</v>
-      </c>
-      <c r="Y32" s="2">
-        <v>0.96558985973695699</v>
+      <c r="M32" s="3">
+        <v>0.92891966759002764</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0.93260638297872345</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0.9368760559053908</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0.94078752590545744</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0.94447354635935044</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0.94778561224019531</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0.95089066476181971</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0.95311485345685953</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0.95588049918063778</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0.95780573482558629</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0.95962646532882978</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0.96194642304118916</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0.96418597630009806</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
@@ -3159,43 +3180,43 @@
       <c r="L33" s="1">
         <v>4</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="3">
         <v>1</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33" s="3">
+        <v>0.99823559937727047</v>
+      </c>
+      <c r="O33" s="3">
         <v>1</v>
       </c>
-      <c r="O33" s="2">
+      <c r="P33" s="3">
         <v>1</v>
       </c>
-      <c r="P33" s="2">
+      <c r="Q33" s="3">
         <v>1</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="R33" s="3">
         <v>1</v>
       </c>
-      <c r="R33" s="2">
+      <c r="S33" s="3">
         <v>1</v>
       </c>
-      <c r="S33" s="2">
+      <c r="T33" s="3">
         <v>1</v>
       </c>
-      <c r="T33" s="2">
+      <c r="U33" s="3">
         <v>1</v>
       </c>
-      <c r="U33" s="2">
+      <c r="V33" s="3">
         <v>1</v>
       </c>
-      <c r="V33" s="2">
+      <c r="W33" s="3">
         <v>1</v>
       </c>
-      <c r="W33" s="2">
+      <c r="X33" s="3">
         <v>1</v>
       </c>
-      <c r="X33" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y33" s="2">
+      <c r="Y33" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3230,44 +3251,44 @@
       <c r="L34" s="1">
         <v>4</v>
       </c>
-      <c r="M34" s="2">
-        <v>0.97557396858277234</v>
-      </c>
-      <c r="N34" s="2">
-        <v>0.97577910544162771</v>
-      </c>
-      <c r="O34" s="2">
-        <v>0.97970044856686678</v>
-      </c>
-      <c r="P34" s="2">
-        <v>0.98084098737083814</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>0.98186018071879888</v>
-      </c>
-      <c r="R34" s="2">
-        <v>0.98284092375177401</v>
-      </c>
-      <c r="S34" s="2">
-        <v>0.98360555077981071</v>
-      </c>
-      <c r="T34" s="2">
-        <v>0.98535356494229309</v>
-      </c>
-      <c r="U34" s="2">
-        <v>0.98693580039248663</v>
-      </c>
-      <c r="V34" s="2">
-        <v>0.98833458767874427</v>
-      </c>
-      <c r="W34" s="2">
-        <v>0.98878668871434483</v>
-      </c>
-      <c r="X34" s="2">
-        <v>0.98920505422346039</v>
-      </c>
-      <c r="Y34" s="2">
-        <v>0.99040813390245075</v>
+      <c r="M34" s="3">
+        <v>0.97631997322399788</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0.97786295369211507</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0.98041660554496113</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0.98048275862068968</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0.98147906612755975</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0.98348487660048234</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0.98530880883822058</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0.98410477416466102</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0.98748663101604284</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0.98718999795039963</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0.98931034482758606</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0.9897073471517337</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0.99008362655942972</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
@@ -3301,44 +3322,44 @@
       <c r="L35" s="1">
         <v>4</v>
       </c>
-      <c r="M35" s="2">
-        <v>0.93481095176010431</v>
-      </c>
-      <c r="N35" s="2">
-        <v>0.94087928625174666</v>
-      </c>
-      <c r="O35" s="2">
-        <v>0.94750320102432761</v>
-      </c>
-      <c r="P35" s="2">
-        <v>0.95610288103244567</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>0.96065711878685778</v>
-      </c>
-      <c r="R35" s="2">
-        <v>0.96457529717389601</v>
-      </c>
-      <c r="S35" s="2">
-        <v>0.96922849323174787</v>
-      </c>
-      <c r="T35" s="2">
-        <v>0.96868258055536227</v>
-      </c>
-      <c r="U35" s="2">
-        <v>0.97142104569998688</v>
-      </c>
-      <c r="V35" s="2">
-        <v>0.97196611014203838</v>
-      </c>
-      <c r="W35" s="2">
-        <v>0.97433161420356873</v>
-      </c>
-      <c r="X35" s="2">
-        <v>0.97551597398925649</v>
-      </c>
-      <c r="Y35" s="2">
-        <v>0.97483529538827085</v>
+      <c r="M35" s="3">
+        <v>0.91920009247485845</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0.93028846153846156</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0.93809614650896611</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0.94588896697118763</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0.94984147630273952</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0.95449029126213591</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0.95855548446719274</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0.9610033444816054</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0.96419098143236071</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0.96617462499252982</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0.96781517852074694</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0.97027027027027024</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>0.97159971083341934</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
@@ -3372,43 +3393,43 @@
       <c r="L36" s="1">
         <v>4</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M36" s="3">
         <v>1</v>
       </c>
-      <c r="N36" s="2">
-        <v>0.99870821895688677</v>
-      </c>
-      <c r="O36" s="2">
-        <v>0.99870751919714129</v>
-      </c>
-      <c r="P36" s="2">
-        <v>0.99878013777267516</v>
-      </c>
-      <c r="Q36" s="2">
+      <c r="N36" s="3">
         <v>1</v>
       </c>
-      <c r="R36" s="2">
+      <c r="O36" s="3">
         <v>1</v>
       </c>
-      <c r="S36" s="2">
+      <c r="P36" s="3">
+        <v>0.99889655172413794</v>
+      </c>
+      <c r="Q36" s="3">
         <v>1</v>
       </c>
-      <c r="T36" s="2">
+      <c r="R36" s="3">
         <v>1</v>
       </c>
-      <c r="U36" s="2">
+      <c r="S36" s="3">
         <v>1</v>
       </c>
-      <c r="V36" s="2">
+      <c r="T36" s="3">
+        <v>0.99904852521408183</v>
+      </c>
+      <c r="U36" s="3">
+        <v>0.99909090909090914</v>
+      </c>
+      <c r="V36" s="3">
         <v>1</v>
       </c>
-      <c r="W36" s="2">
+      <c r="W36" s="3">
         <v>1</v>
       </c>
-      <c r="X36" s="2">
+      <c r="X36" s="3">
         <v>1</v>
       </c>
-      <c r="Y36" s="2">
+      <c r="Y36" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3443,44 +3464,44 @@
       <c r="L37" s="1">
         <v>4</v>
       </c>
-      <c r="M37" s="2">
-        <v>0.97140406062339146</v>
-      </c>
-      <c r="N37" s="2">
-        <v>0.9733913618334068</v>
-      </c>
-      <c r="O37" s="2">
-        <v>0.97523647571474115</v>
-      </c>
-      <c r="P37" s="2">
-        <v>0.97605373807814588</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>0.9776697102024613</v>
-      </c>
-      <c r="R37" s="2">
-        <v>0.9791836930916783</v>
-      </c>
-      <c r="S37" s="2">
-        <v>0.98054583624912539</v>
-      </c>
-      <c r="T37" s="2">
-        <v>0.98187420699655603</v>
-      </c>
-      <c r="U37" s="2">
-        <v>0.98237963085326629</v>
-      </c>
-      <c r="V37" s="2">
-        <v>0.98358618325190716</v>
-      </c>
-      <c r="W37" s="2">
-        <v>0.9847079468538481</v>
-      </c>
-      <c r="X37" s="2">
-        <v>0.98505152539611429</v>
-      </c>
-      <c r="Y37" s="2">
-        <v>0.98545714626296332</v>
+      <c r="M37" s="3">
+        <v>0.9704709141274237</v>
+      </c>
+      <c r="N37" s="3">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0.97440229355449748</v>
+      </c>
+      <c r="P37" s="3">
+        <v>0.97616697917694673</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>0.97699890470974804</v>
+      </c>
+      <c r="R37" s="3">
+        <v>0.97926171712982157</v>
+      </c>
+      <c r="S37" s="3">
+        <v>0.97990981740256267</v>
+      </c>
+      <c r="T37" s="3">
+        <v>0.98125459976622365</v>
+      </c>
+      <c r="U37" s="3">
+        <v>0.98180595823353922</v>
+      </c>
+      <c r="V37" s="3">
+        <v>0.98300792418920024</v>
+      </c>
+      <c r="W37" s="3">
+        <v>0.98346910391416653</v>
+      </c>
+      <c r="X37" s="3">
+        <v>0.98451532982347467</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>0.98554607894935453</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
@@ -3497,7 +3518,7 @@
         <v>57</v>
       </c>
       <c r="G38" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H38" s="6">
         <v>0.75</v>
@@ -3514,44 +3535,44 @@
       <c r="L38" s="1">
         <v>4</v>
       </c>
-      <c r="M38" s="2">
-        <v>1.0055126791620725</v>
-      </c>
-      <c r="N38" s="2">
-        <v>1.0017137096774194</v>
-      </c>
-      <c r="O38" s="2">
+      <c r="M38" s="3">
+        <v>1.0073080279232112</v>
+      </c>
+      <c r="N38" s="3">
+        <v>1.0049583498611663</v>
+      </c>
+      <c r="O38" s="3">
+        <v>1.0045520757465405</v>
+      </c>
+      <c r="P38" s="3">
+        <v>1.0027728762288883</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>1.002581351689612</v>
+      </c>
+      <c r="R38" s="3">
+        <v>1.0024877442013609</v>
+      </c>
+      <c r="S38" s="3">
         <v>1</v>
       </c>
-      <c r="P38" s="2">
-        <v>1.0028399311531844</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>1.0027230498157935</v>
-      </c>
-      <c r="R38" s="2">
-        <v>1.0063305448790414</v>
-      </c>
-      <c r="S38" s="2">
-        <v>1.0011345103878608</v>
-      </c>
-      <c r="T38" s="2">
-        <v>1.0033514310610629</v>
-      </c>
-      <c r="U38" s="2">
-        <v>1.0031774275546517</v>
-      </c>
-      <c r="V38" s="2">
-        <v>1</v>
-      </c>
-      <c r="W38" s="2">
-        <v>1.000979714153988</v>
-      </c>
-      <c r="X38" s="2">
-        <v>1.0009365359189071</v>
-      </c>
-      <c r="Y38" s="2">
-        <v>1</v>
+      <c r="T38" s="3">
+        <v>1.0011026788609976</v>
+      </c>
+      <c r="U38" s="3">
+        <v>1.0020245398773004</v>
+      </c>
+      <c r="V38" s="3">
+        <v>1.0019786998777862</v>
+      </c>
+      <c r="W38" s="3">
+        <v>1.0018282548476454</v>
+      </c>
+      <c r="X38" s="3">
+        <v>1.001747603664672</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>1.0016723255460396</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
@@ -3585,44 +3606,44 @@
       <c r="L39" s="1">
         <v>4</v>
       </c>
-      <c r="M39" s="2">
-        <v>0.95258978309825781</v>
-      </c>
-      <c r="N39" s="2">
-        <v>0.95700311727399756</v>
-      </c>
-      <c r="O39" s="2">
-        <v>0.96395154141633022</v>
-      </c>
-      <c r="P39" s="2">
-        <v>0.96819049350177233</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>0.97186183656276326</v>
-      </c>
-      <c r="R39" s="2">
-        <v>0.97378571990868301</v>
-      </c>
-      <c r="S39" s="2">
-        <v>0.9778090095421258</v>
-      </c>
-      <c r="T39" s="2">
-        <v>0.97800821212332112</v>
-      </c>
-      <c r="U39" s="2">
-        <v>0.97912551033846962</v>
-      </c>
-      <c r="V39" s="2">
-        <v>0.9792549215051084</v>
-      </c>
-      <c r="W39" s="2">
-        <v>0.98120813326219691</v>
-      </c>
-      <c r="X39" s="2">
-        <v>0.98117048346055991</v>
-      </c>
-      <c r="Y39" s="2">
-        <v>0.98115347229722427</v>
+      <c r="M39" s="3">
+        <v>0.93653912842445963</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0.94429347826086962</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0.95078214421976348</v>
+      </c>
+      <c r="P39" s="3">
+        <v>0.95607870695713282</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>0.95935289813836278</v>
+      </c>
+      <c r="R39" s="3">
+        <v>0.96457827669902918</v>
+      </c>
+      <c r="S39" s="3">
+        <v>0.96687282291888821</v>
+      </c>
+      <c r="T39" s="3">
+        <v>0.96882943143812716</v>
+      </c>
+      <c r="U39" s="3">
+        <v>0.97050650498926372</v>
+      </c>
+      <c r="V39" s="3">
+        <v>0.9721508396581604</v>
+      </c>
+      <c r="W39" s="3">
+        <v>0.97445649088948183</v>
+      </c>
+      <c r="X39" s="3">
+        <v>0.9756756756756757</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>0.97676339977279769</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
@@ -3662,44 +3683,44 @@
       <c r="L40" s="1">
         <v>4</v>
       </c>
-      <c r="M40" s="2">
-        <v>0.98953388618816129</v>
-      </c>
-      <c r="N40" s="2">
-        <v>0.99079991185544281</v>
-      </c>
-      <c r="O40" s="2">
-        <v>0.99027526836008073</v>
-      </c>
-      <c r="P40" s="2">
-        <v>0.99056507024920537</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>0.99086939261611751</v>
-      </c>
-      <c r="R40" s="2">
-        <v>0.99120234604105573</v>
-      </c>
-      <c r="S40" s="2">
-        <v>0.99220900396547707</v>
-      </c>
-      <c r="T40" s="2">
-        <v>0.99243248142106211</v>
-      </c>
-      <c r="U40" s="2">
-        <v>0.99264349588123868</v>
-      </c>
-      <c r="V40" s="2">
-        <v>0.99288591754521294</v>
-      </c>
-      <c r="W40" s="2">
-        <v>0.9930642600484666</v>
-      </c>
-      <c r="X40" s="2">
-        <v>0.99319783308215559</v>
-      </c>
-      <c r="Y40" s="2">
-        <v>0.99340406087336586</v>
+      <c r="M40" s="3">
+        <v>0.98797783933517991</v>
+      </c>
+      <c r="N40" s="3">
+        <v>0.98845744680851055</v>
+      </c>
+      <c r="O40" s="3">
+        <v>0.98976091742179884</v>
+      </c>
+      <c r="P40" s="3">
+        <v>0.99013125431757631</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>0.99047573693985436</v>
+      </c>
+      <c r="R40" s="3">
+        <v>0.99078298539103171</v>
+      </c>
+      <c r="S40" s="3">
+        <v>0.99107102995669449</v>
+      </c>
+      <c r="T40" s="3">
+        <v>0.99060565392441235</v>
+      </c>
+      <c r="U40" s="3">
+        <v>0.99159628555821677</v>
+      </c>
+      <c r="V40" s="3">
+        <v>0.9925251204966915</v>
+      </c>
+      <c r="W40" s="3">
+        <v>0.99205245380488782</v>
+      </c>
+      <c r="X40" s="3">
+        <v>0.99225766491173739</v>
+      </c>
+      <c r="Y40" s="3">
+        <v>0.99309381840138877</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
@@ -3733,44 +3754,44 @@
       <c r="L41" s="1">
         <v>4</v>
       </c>
-      <c r="M41" s="2">
-        <v>1.0162424935659136</v>
-      </c>
-      <c r="N41" s="2">
-        <v>1.0147091229616572</v>
-      </c>
-      <c r="O41" s="2">
-        <v>1.0141885428844724</v>
-      </c>
-      <c r="P41" s="2">
-        <v>1.0128191980309711</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>1.0124057165541882</v>
-      </c>
-      <c r="R41" s="2">
-        <v>1.0120186529493775</v>
-      </c>
-      <c r="S41" s="2">
-        <v>1.0108700723116399</v>
-      </c>
-      <c r="T41" s="2">
-        <v>1.0105582744245059</v>
-      </c>
-      <c r="U41" s="2">
-        <v>1.009559050262103</v>
-      </c>
-      <c r="V41" s="2">
-        <v>1.0085711836804663</v>
-      </c>
-      <c r="W41" s="2">
-        <v>1.0083563131946185</v>
-      </c>
-      <c r="X41" s="2">
-        <v>1.0081463076860415</v>
-      </c>
-      <c r="Y41" s="2">
-        <v>1.0073111614415702</v>
+      <c r="M41" s="3">
+        <v>1.0175069252077562</v>
+      </c>
+      <c r="N41" s="3">
+        <v>1.0159574468085106</v>
+      </c>
+      <c r="O41" s="3">
+        <v>1.0144883018481543</v>
+      </c>
+      <c r="P41" s="3">
+        <v>1.0139642751406297</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>1.0127148911852946</v>
+      </c>
+      <c r="R41" s="3">
+        <v>1.0123047145029724</v>
+      </c>
+      <c r="S41" s="3">
+        <v>1.0119201750078128</v>
+      </c>
+      <c r="T41" s="3">
+        <v>1.0108229793497554</v>
+      </c>
+      <c r="U41" s="3">
+        <v>1.0097903273246776</v>
+      </c>
+      <c r="V41" s="3">
+        <v>1.0095171963074911</v>
+      </c>
+      <c r="W41" s="3">
+        <v>1.0086230876216968</v>
+      </c>
+      <c r="X41" s="3">
+        <v>1.0084004335707648</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>1.0081892973054569</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
@@ -3810,44 +3831,44 @@
       <c r="L42" s="1">
         <v>4</v>
       </c>
-      <c r="M42" s="2">
-        <v>0.98262325970899189</v>
-      </c>
-      <c r="N42" s="2">
-        <v>0.98871745419479273</v>
-      </c>
-      <c r="O42" s="2">
-        <v>0.98812817995179869</v>
-      </c>
-      <c r="P42" s="2">
-        <v>0.99169159189099376</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>0.99223963991929232</v>
-      </c>
-      <c r="R42" s="2">
-        <v>0.9902820400409178</v>
-      </c>
-      <c r="S42" s="2">
-        <v>0.99427032997376774</v>
-      </c>
-      <c r="T42" s="2">
-        <v>0.9923624257458058</v>
-      </c>
-      <c r="U42" s="2">
-        <v>0.99169558750619735</v>
-      </c>
-      <c r="V42" s="2">
-        <v>0.99309815950920244</v>
-      </c>
-      <c r="W42" s="2">
-        <v>0.99250788643533128</v>
-      </c>
-      <c r="X42" s="2">
-        <v>0.99104397086592932</v>
-      </c>
-      <c r="Y42" s="2">
-        <v>0.98277734678044981</v>
+      <c r="M42" s="3">
+        <v>0.97449239873482296</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0.9766376974114569</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0.98135359116022103</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0.9813106601427769</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0.98501984870047177</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0.9859323345290848</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0.98674091752850712</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0.98645768025078373</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0.9861581417453813</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0.9877518767285659</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0.98922762038134227</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0.98799958796868559</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0.98844444444444435</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
@@ -3887,44 +3908,44 @@
       <c r="L43" s="1">
         <v>4</v>
       </c>
-      <c r="M43" s="2">
-        <v>1.0192609651418403</v>
-      </c>
-      <c r="N43" s="2">
-        <v>1.0160077145612343</v>
-      </c>
-      <c r="O43" s="2">
-        <v>1.0193698116575918</v>
-      </c>
-      <c r="P43" s="2">
-        <v>1.0180292455965438</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>1.0155207201614156</v>
-      </c>
-      <c r="R43" s="2">
-        <v>1.01461347362268</v>
-      </c>
-      <c r="S43" s="2">
-        <v>1.0138064337981498</v>
-      </c>
-      <c r="T43" s="2">
-        <v>1.0097917618643513</v>
-      </c>
-      <c r="U43" s="2">
-        <v>1.0133862171541894</v>
-      </c>
-      <c r="V43" s="2">
-        <v>1.0078456819254364</v>
-      </c>
-      <c r="W43" s="2">
-        <v>1.0065908066696712</v>
-      </c>
-      <c r="X43" s="2">
-        <v>1.0071756137038035</v>
-      </c>
-      <c r="Y43" s="2">
-        <v>1.0051719679337987</v>
+      <c r="M43" s="3">
+        <v>1.0085705540250995</v>
+      </c>
+      <c r="N43" s="3">
+        <v>1.0077562844593964</v>
+      </c>
+      <c r="O43" s="3">
+        <v>1.0072513812154695</v>
+      </c>
+      <c r="P43" s="3">
+        <v>1.0093847758081333</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>1.0086884877537263</v>
+      </c>
+      <c r="R43" s="3">
+        <v>1.0082295843004854</v>
+      </c>
+      <c r="S43" s="3">
+        <v>1.0055025192256697</v>
+      </c>
+      <c r="T43" s="3">
+        <v>1.0073354231974923</v>
+      </c>
+      <c r="U43" s="3">
+        <v>1.0039802768371651</v>
+      </c>
+      <c r="V43" s="3">
+        <v>1.0037252356493764</v>
+      </c>
+      <c r="W43" s="3">
+        <v>1.0107723796186576</v>
+      </c>
+      <c r="X43" s="3">
+        <v>1.0043263288009889</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>1.0024691358024691</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
@@ -3958,44 +3979,44 @@
       <c r="L44" s="1">
         <v>4</v>
       </c>
-      <c r="M44" s="2">
-        <v>1.1050405662005869</v>
-      </c>
-      <c r="N44" s="2">
-        <v>1.0942192798320687</v>
-      </c>
-      <c r="O44" s="2">
-        <v>1.0874325248992625</v>
-      </c>
-      <c r="P44" s="2">
-        <v>1.0813002296211252</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>1.0769753379985054</v>
-      </c>
-      <c r="R44" s="2">
-        <v>1.0688298284092375</v>
-      </c>
-      <c r="S44" s="2">
-        <v>1.0664988333538008</v>
-      </c>
-      <c r="T44" s="2">
-        <v>1.0615150272423692</v>
-      </c>
-      <c r="U44" s="2">
-        <v>1.0570227081581161</v>
-      </c>
-      <c r="V44" s="2">
-        <v>1.0537576604666166</v>
-      </c>
-      <c r="W44" s="2">
-        <v>1.0499173212071105</v>
-      </c>
-      <c r="X44" s="2">
-        <v>1.0464132922097305</v>
-      </c>
-      <c r="Y44" s="2">
-        <v>1.0431633974389718</v>
+      <c r="M44" s="3">
+        <v>1.1087775081583131</v>
+      </c>
+      <c r="N44" s="3">
+        <v>1.1003598247809763</v>
+      </c>
+      <c r="O44" s="3">
+        <v>1.0916825583101071</v>
+      </c>
+      <c r="P44" s="3">
+        <v>1.0827586206896551</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>1.0793008999608713</v>
+      </c>
+      <c r="R44" s="3">
+        <v>1.0721222242840351</v>
+      </c>
+      <c r="S44" s="3">
+        <v>1.0685197155785391</v>
+      </c>
+      <c r="T44" s="3">
+        <v>1.0634129960261935</v>
+      </c>
+      <c r="U44" s="3">
+        <v>1.057914438502674</v>
+      </c>
+      <c r="V44" s="3">
+        <v>1.0538020086083215</v>
+      </c>
+      <c r="W44" s="3">
+        <v>1.0508866995073891</v>
+      </c>
+      <c r="X44" s="3">
+        <v>1.0474315799459279</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>1.044920714710049</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
@@ -4029,44 +4050,44 @@
       <c r="L45" s="1">
         <v>4</v>
       </c>
-      <c r="M45" s="2">
-        <v>0.97334858450100081</v>
-      </c>
-      <c r="N45" s="2">
-        <v>0.97520934332304987</v>
-      </c>
-      <c r="O45" s="2">
-        <v>0.97699011584652995</v>
-      </c>
-      <c r="P45" s="2">
-        <v>0.97692544354425193</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>0.9784636760619293</v>
-      </c>
-      <c r="R45" s="2">
-        <v>0.9791836930916783</v>
-      </c>
-      <c r="S45" s="2">
-        <v>0.98133893165383723</v>
-      </c>
-      <c r="T45" s="2">
-        <v>0.9826445531992023</v>
-      </c>
-      <c r="U45" s="2">
-        <v>0.98237963085326629</v>
-      </c>
-      <c r="V45" s="2">
-        <v>0.98358618325190716</v>
-      </c>
-      <c r="W45" s="2">
-        <v>0.9847079468538481</v>
-      </c>
-      <c r="X45" s="2">
-        <v>0.98505152539611429</v>
-      </c>
-      <c r="Y45" s="2">
-        <v>0.98545714626296332</v>
+      <c r="M45" s="3">
+        <v>0.97412742382271456</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0.97515957446808499</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0.97696206419904763</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0.97779532221454657</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0.98018953283489685</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0.98082860961334617</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0.98214205991338888</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0.98194727044460794</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0.982478255388882</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0.98366146556653877</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0.98478044903636008</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0.98517342830597709</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0.98682919465620045</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
@@ -4106,44 +4127,44 @@
       <c r="L46" s="1">
         <v>4</v>
       </c>
-      <c r="M46" s="2">
-        <v>1.1538926290350422</v>
-      </c>
-      <c r="N46" s="2">
-        <v>1.1412885515905054</v>
-      </c>
-      <c r="O46" s="2">
-        <v>1.1291720520033453</v>
-      </c>
-      <c r="P46" s="2">
-        <v>1.1219862227324913</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>1.1143420069298187</v>
-      </c>
-      <c r="R46" s="2">
-        <v>1.1064378789833571</v>
-      </c>
-      <c r="S46" s="2">
-        <v>1.1002701706987597</v>
-      </c>
-      <c r="T46" s="2">
-        <v>1.095670513796942</v>
-      </c>
-      <c r="U46" s="2">
-        <v>1.0869077656293804</v>
-      </c>
-      <c r="V46" s="2">
-        <v>1.0779486076765938</v>
-      </c>
-      <c r="W46" s="2">
-        <v>1.0722922695328649</v>
-      </c>
-      <c r="X46" s="2">
-        <v>1.0679534374689086</v>
-      </c>
-      <c r="Y46" s="2">
-        <v>1.0639777468706537</v>
+      <c r="M46" s="3">
+        <v>1.1603213120240985</v>
+      </c>
+      <c r="N46" s="3">
+        <v>1.1486232790988735</v>
+      </c>
+      <c r="O46" s="3">
+        <v>1.1368637230453278</v>
+      </c>
+      <c r="P46" s="3">
+        <v>1.1241379310344828</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>1.1173209860440849</v>
+      </c>
+      <c r="R46" s="3">
+        <v>1.111337910558545</v>
+      </c>
+      <c r="S46" s="3">
+        <v>1.1018393371334547</v>
+      </c>
+      <c r="T46" s="3">
+        <v>1.0922930542340628</v>
+      </c>
+      <c r="U46" s="3">
+        <v>1.0881818181818181</v>
+      </c>
+      <c r="V46" s="3">
+        <v>1.0802930928468948</v>
+      </c>
+      <c r="W46" s="3">
+        <v>1.074679802955665</v>
+      </c>
+      <c r="X46" s="3">
+        <v>1.0710999383389461</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>1.0669926426906733</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
@@ -4177,44 +4198,44 @@
       <c r="L47" s="1">
         <v>4</v>
       </c>
-      <c r="M47" s="2">
-        <v>0.97426365456105235</v>
-      </c>
-      <c r="N47" s="2">
-        <v>0.9825363596297928</v>
-      </c>
-      <c r="O47" s="2">
-        <v>0.98937187798915915</v>
-      </c>
-      <c r="P47" s="2">
-        <v>0.98800123064301104</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>0.99086939261611751</v>
-      </c>
-      <c r="R47" s="2">
-        <v>0.9903850776404981</v>
-      </c>
-      <c r="S47" s="2">
-        <v>0.98987637042220677</v>
-      </c>
-      <c r="T47" s="2">
-        <v>0.9909371034982779</v>
-      </c>
-      <c r="U47" s="2">
-        <v>0.98973613497202761</v>
-      </c>
-      <c r="V47" s="2">
-        <v>0.99074312162509637</v>
-      </c>
-      <c r="W47" s="2">
-        <v>0.99164368680538151</v>
-      </c>
-      <c r="X47" s="2">
-        <v>0.99319783308215559</v>
-      </c>
-      <c r="Y47" s="2">
-        <v>0.99205308538959736</v>
+      <c r="M47" s="3">
+        <v>0.97601108033241002</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0.97691489361702122</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0.97865151282445084</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0.98026250863515252</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0.9809514738797086</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0.98313286326558813</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0.9836599848207509</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0.98411186631455905</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0.98390688684398508</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0.98570378237072143</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0.98609179415855364</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0.98710901207804269</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0.98871612951920906</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
@@ -4248,44 +4269,44 @@
       <c r="L48" s="1">
         <v>4</v>
       </c>
-      <c r="M48" s="2">
-        <v>1.1198849104859334</v>
-      </c>
-      <c r="N48" s="2">
-        <v>1.1125141737965158</v>
-      </c>
-      <c r="O48" s="2">
-        <v>1.1006239081607188</v>
-      </c>
-      <c r="P48" s="2">
-        <v>1.0999612928198181</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>1.0962649753347427</v>
-      </c>
-      <c r="R48" s="2">
-        <v>1.0904735833561456</v>
-      </c>
-      <c r="S48" s="2">
-        <v>1.0865973887556621</v>
-      </c>
-      <c r="T48" s="2">
-        <v>1.0821437840643655</v>
-      </c>
-      <c r="U48" s="2">
-        <v>1.0765568382910591</v>
-      </c>
-      <c r="V48" s="2">
-        <v>1.0739781232009211</v>
-      </c>
-      <c r="W48" s="2">
-        <v>1.0669049435765632</v>
-      </c>
-      <c r="X48" s="2">
-        <v>1.0647465076126197</v>
-      </c>
-      <c r="Y48" s="2">
-        <v>1.0613402852323264</v>
+      <c r="M48" s="3">
+        <v>1.1210341985990935</v>
+      </c>
+      <c r="N48" s="3">
+        <v>1.1141906322952366</v>
+      </c>
+      <c r="O48" s="3">
+        <v>1.1055536888590218</v>
+      </c>
+      <c r="P48" s="3">
+        <v>1.102911809780337</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>1.0952231018351926</v>
+      </c>
+      <c r="R48" s="3">
+        <v>1.0924057819118738</v>
+      </c>
+      <c r="S48" s="3">
+        <v>1.0869307098634553</v>
+      </c>
+      <c r="T48" s="3">
+        <v>1.0817765681059013</v>
+      </c>
+      <c r="U48" s="3">
+        <v>1.0769416014449127</v>
+      </c>
+      <c r="V48" s="3">
+        <v>1.0736064420295519</v>
+      </c>
+      <c r="W48" s="3">
+        <v>1.0711344922232389</v>
+      </c>
+      <c r="X48" s="3">
+        <v>1.065140517401824</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>1.0624409047930758</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
@@ -4319,44 +4340,44 @@
       <c r="L49" s="1">
         <v>6</v>
       </c>
-      <c r="M49" s="2">
-        <v>1.2100180062203307</v>
-      </c>
-      <c r="N49" s="2">
-        <v>1.1930187955504412</v>
-      </c>
-      <c r="O49" s="2">
-        <v>1.1806288398988072</v>
-      </c>
-      <c r="P49" s="2">
-        <v>1.1662566625666257</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>1.1576389788778023</v>
-      </c>
-      <c r="R49" s="2">
-        <v>1.1449096626996362</v>
-      </c>
-      <c r="S49" s="2">
-        <v>1.1390961979197274</v>
-      </c>
-      <c r="T49" s="2">
-        <v>1.1246063877642827</v>
-      </c>
-      <c r="U49" s="2">
-        <v>1.1150857882809972</v>
-      </c>
-      <c r="V49" s="2">
-        <v>1.1071354490769552</v>
-      </c>
-      <c r="W49" s="2">
-        <v>1.1007143927661489</v>
-      </c>
-      <c r="X49" s="2">
-        <v>1.0931566265060242</v>
-      </c>
-      <c r="Y49" s="2">
-        <v>1.0869059256156031</v>
+      <c r="M49" s="3">
+        <v>1.1937913145343484</v>
+      </c>
+      <c r="N49" s="3">
+        <v>1.1838235294117647</v>
+      </c>
+      <c r="O49" s="3">
+        <v>1.1735367463693707</v>
+      </c>
+      <c r="P49" s="3">
+        <v>1.1608965517241379</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>1.1488848310943003</v>
+      </c>
+      <c r="R49" s="3">
+        <v>1.1381208634873505</v>
+      </c>
+      <c r="S49" s="3">
+        <v>1.1282834812246576</v>
+      </c>
+      <c r="T49" s="3">
+        <v>1.1174791515083673</v>
+      </c>
+      <c r="U49" s="3">
+        <v>1.1087165775401071</v>
+      </c>
+      <c r="V49" s="3">
+        <v>1.0999180159868827</v>
+      </c>
+      <c r="W49" s="3">
+        <v>1.0943842364532019</v>
+      </c>
+      <c r="X49" s="3">
+        <v>1.0885073281791018</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>1.0822099346524698</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
@@ -4390,44 +4411,44 @@
       <c r="L50" s="1">
         <v>6</v>
       </c>
-      <c r="M50" s="2">
-        <v>1.2211064287635613</v>
-      </c>
-      <c r="N50" s="2">
-        <v>1.2048858027273488</v>
-      </c>
-      <c r="O50" s="2">
-        <v>1.1816043283933193</v>
-      </c>
-      <c r="P50" s="2">
-        <v>1.1721517119244391</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>1.1568777901785714</v>
-      </c>
-      <c r="R50" s="2">
-        <v>1.1464059196617338</v>
-      </c>
-      <c r="S50" s="2">
-        <v>1.1338562911829306</v>
-      </c>
-      <c r="T50" s="2">
-        <v>1.1257334450963954</v>
-      </c>
-      <c r="U50" s="2">
-        <v>1.1143837575064341</v>
-      </c>
-      <c r="V50" s="2">
-        <v>1.1059062020600483</v>
-      </c>
-      <c r="W50" s="2">
-        <v>1.100799242822589</v>
-      </c>
-      <c r="X50" s="2">
-        <v>1.0936661434864057</v>
-      </c>
-      <c r="Y50" s="2">
-        <v>1.086827367908449</v>
+      <c r="M50" s="3">
+        <v>1.2245000418375032</v>
+      </c>
+      <c r="N50" s="3">
+        <v>1.2046307884856069</v>
+      </c>
+      <c r="O50" s="3">
+        <v>1.185785536159601</v>
+      </c>
+      <c r="P50" s="3">
+        <v>1.1735862068965517</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>1.1608190948219643</v>
+      </c>
+      <c r="R50" s="3">
+        <v>1.1494402177274694</v>
+      </c>
+      <c r="S50" s="3">
+        <v>1.1380384321560792</v>
+      </c>
+      <c r="T50" s="3">
+        <v>1.1258745172664688</v>
+      </c>
+      <c r="U50" s="3">
+        <v>1.1194117647058823</v>
+      </c>
+      <c r="V50" s="3">
+        <v>1.1092949374871901</v>
+      </c>
+      <c r="W50" s="3">
+        <v>1.1017733990147782</v>
+      </c>
+      <c r="X50" s="3">
+        <v>1.0948157283119102</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>1.0906182881688982</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
@@ -4437,7 +4458,7 @@
       <c r="B51" s="3">
         <v>471.738</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="9">
         <v>30</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -4461,44 +4482,44 @@
       <c r="L51" s="1">
         <v>6</v>
       </c>
-      <c r="M51" s="2">
-        <v>0.9270642472959395</v>
-      </c>
-      <c r="N51" s="2">
-        <v>0.93466651516873089</v>
-      </c>
-      <c r="O51" s="2">
-        <v>0.93704839062842116</v>
-      </c>
-      <c r="P51" s="2">
-        <v>0.94280287040945532</v>
-      </c>
-      <c r="Q51" s="2">
-        <v>0.94138036497094513</v>
-      </c>
-      <c r="R51" s="2">
-        <v>0.94656149864431849</v>
-      </c>
-      <c r="S51" s="2">
-        <v>0.94749653954465174</v>
-      </c>
-      <c r="T51" s="2">
-        <v>0.95449284755335395</v>
-      </c>
-      <c r="U51" s="2">
-        <v>0.9535751202193159</v>
-      </c>
-      <c r="V51" s="2">
-        <v>0.95489279944107242</v>
-      </c>
-      <c r="W51" s="2">
-        <v>0.95963287159003996</v>
-      </c>
-      <c r="X51" s="2">
-        <v>0.95996025009316388</v>
-      </c>
-      <c r="Y51" s="2">
-        <v>0.96300032278889613</v>
+      <c r="M51" s="3">
+        <v>0.9381163434903047</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0.93792553191489358</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0.94281472380074738</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0.94409355570906939</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0.948426115529311</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0.95239411954467945</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0.95388186972632705</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0.95311485345685953</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0.95588049918063778</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0.95850012253900829</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0.96030200675541433</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0.96256580984825013</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0.96543135330968377</v>
       </c>
     </row>
   </sheetData>
@@ -4513,7 +4534,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4541,7 +4562,7 @@
         <v>85</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>81</v>
@@ -4556,10 +4577,10 @@
         <v>77</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -4570,10 +4591,10 @@
         <v>85.1327</v>
       </c>
       <c r="C2" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E2" s="7">
         <v>2</v>
@@ -4605,7 +4626,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" s="7">
         <v>2</v>
@@ -4637,7 +4658,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E4" s="7">
         <v>2</v>
@@ -4669,7 +4690,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E5" s="7">
         <v>3</v>
@@ -4701,7 +4722,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E6" s="7">
         <v>3</v>
@@ -4733,7 +4754,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="7">
         <v>3</v>
@@ -4765,7 +4786,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E8" s="7">
         <v>3</v>
@@ -4797,7 +4818,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" s="7">
         <v>8</v>
@@ -4829,7 +4850,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="7">
         <v>8</v>
@@ -4861,7 +4882,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11" s="7">
         <v>8</v>
@@ -4893,7 +4914,7 @@
         <v>30</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12" s="7">
         <v>8</v>
@@ -4925,7 +4946,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E13" s="7">
         <v>1</v>
@@ -4954,10 +4975,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05892D0-CA56-4D94-BF5E-70073D9BBFCD}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4968,9 +4989,10 @@
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>84</v>
       </c>
@@ -4989,8 +5011,11 @@
       <c r="F1" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G1" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>13</v>
       </c>
@@ -5009,8 +5034,12 @@
       <c r="F2" s="1">
         <v>1000</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Mass List and Parameters.xlsx
+++ b/Mass List and Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Erick\MSI-CE-MS-Data-Preprocessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20BA582-74E9-486D-ABAC-F7D38473FF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CF64E8-5E20-4F1D-B10D-ADA67D2EC4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{3F442743-5A66-4E15-9366-B88AC1790E64}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{3F442743-5A66-4E15-9366-B88AC1790E64}"/>
   </bookViews>
   <sheets>
     <sheet name="Analyte Mass List" sheetId="1" r:id="rId1"/>
@@ -774,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A9B2B3-45F3-4E9C-8863-F19858D470D6}">
   <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI25" sqref="AI25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1928,7 +1928,7 @@
         <v>91</v>
       </c>
       <c r="L16" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M16" s="3">
         <v>1.030625052296879</v>
@@ -4267,7 +4267,7 @@
         <v>91</v>
       </c>
       <c r="L48" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M48" s="3">
         <v>1.1210341985990935</v>
@@ -4977,7 +4977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05892D0-CA56-4D94-BF5E-70073D9BBFCD}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>

--- a/Mass List and Parameters.xlsx
+++ b/Mass List and Parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Erick\MSI-CE-MS-Data-Preprocessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CF64E8-5E20-4F1D-B10D-ADA67D2EC4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBA0054-C066-48F7-8077-846327165866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{3F442743-5A66-4E15-9366-B88AC1790E64}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{3F442743-5A66-4E15-9366-B88AC1790E64}"/>
   </bookViews>
   <sheets>
     <sheet name="Analyte Mass List" sheetId="1" r:id="rId1"/>
@@ -423,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -453,9 +453,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -774,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A9B2B3-45F3-4E9C-8863-F19858D470D6}">
   <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -881,7 +878,7 @@
         <v>72.080699999999993</v>
       </c>
       <c r="C2" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>20</v>
@@ -953,7 +950,7 @@
         <v>76.039900000000003</v>
       </c>
       <c r="C3" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>18</v>
@@ -1025,7 +1022,7 @@
         <v>76.0762</v>
       </c>
       <c r="C4" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>17</v>
@@ -1102,7 +1099,7 @@
         <v>84.078999999999994</v>
       </c>
       <c r="C5" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>39</v>
@@ -1173,7 +1170,7 @@
         <v>90.055499999999995</v>
       </c>
       <c r="C6" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>18</v>
@@ -2316,7 +2313,7 @@
         <v>4</v>
       </c>
       <c r="M21" s="3">
-        <v>0.86797783933518002</v>
+        <v>0.91320000000000001</v>
       </c>
       <c r="N21" s="3">
         <v>0.91579787234042542</v>
@@ -2589,7 +2586,7 @@
         <v>41</v>
       </c>
       <c r="G25" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H25" s="6">
         <v>1.5</v>
@@ -3536,43 +3533,43 @@
         <v>4</v>
       </c>
       <c r="M38" s="3">
-        <v>1.0073080279232112</v>
+        <v>1</v>
       </c>
       <c r="N38" s="3">
-        <v>1.0049583498611663</v>
+        <v>1</v>
       </c>
       <c r="O38" s="3">
-        <v>1.0045520757465405</v>
+        <v>1</v>
       </c>
       <c r="P38" s="3">
-        <v>1.0027728762288883</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="3">
-        <v>1.002581351689612</v>
+        <v>1</v>
       </c>
       <c r="R38" s="3">
-        <v>1.0024877442013609</v>
+        <v>1</v>
       </c>
       <c r="S38" s="3">
         <v>1</v>
       </c>
       <c r="T38" s="3">
-        <v>1.0011026788609976</v>
+        <v>1</v>
       </c>
       <c r="U38" s="3">
-        <v>1.0020245398773004</v>
+        <v>1</v>
       </c>
       <c r="V38" s="3">
-        <v>1.0019786998777862</v>
+        <v>1</v>
       </c>
       <c r="W38" s="3">
-        <v>1.0018282548476454</v>
+        <v>1</v>
       </c>
       <c r="X38" s="3">
-        <v>1.001747603664672</v>
+        <v>1</v>
       </c>
       <c r="Y38" s="3">
-        <v>1.0016723255460396</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
@@ -4341,7 +4338,7 @@
         <v>6</v>
       </c>
       <c r="M49" s="3">
-        <v>1.1937913145343484</v>
+        <v>1.2021999999999999</v>
       </c>
       <c r="N49" s="3">
         <v>1.1838235294117647</v>
@@ -4391,7 +4388,7 @@
         <v>30</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G50" s="1">
         <v>8</v>
@@ -4412,43 +4409,43 @@
         <v>6</v>
       </c>
       <c r="M50" s="3">
-        <v>1.2245000418375032</v>
+        <v>0.81074792243767313</v>
       </c>
       <c r="N50" s="3">
-        <v>1.2046307884856069</v>
+        <v>0.81914893617021278</v>
       </c>
       <c r="O50" s="3">
-        <v>1.185785536159601</v>
+        <v>0.82767624020887731</v>
       </c>
       <c r="P50" s="3">
-        <v>1.1735862068965517</v>
+        <v>0.83968222638902601</v>
       </c>
       <c r="Q50" s="3">
-        <v>1.1608190948219643</v>
+        <v>0.84765941235296927</v>
       </c>
       <c r="R50" s="3">
-        <v>1.1494402177274694</v>
+        <v>0.85639891239227606</v>
       </c>
       <c r="S50" s="3">
-        <v>1.1380384321560792</v>
+        <v>0.86459216929327198</v>
       </c>
       <c r="T50" s="3">
-        <v>1.1258745172664688</v>
+        <v>0.87086021039871853</v>
       </c>
       <c r="U50" s="3">
-        <v>1.1194117647058823</v>
+        <v>0.87957477204924572</v>
       </c>
       <c r="V50" s="3">
-        <v>1.1092949374871901</v>
+        <v>0.88428232987501032</v>
       </c>
       <c r="W50" s="3">
-        <v>1.1017733990147782</v>
+        <v>0.88877409099940397</v>
       </c>
       <c r="X50" s="3">
-        <v>1.0948157283119102</v>
+        <v>0.89354289253638897</v>
       </c>
       <c r="Y50" s="3">
-        <v>1.0906182881688982</v>
+        <v>0.90067174881123102</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
@@ -4534,7 +4531,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4591,7 +4588,7 @@
         <v>85.1327</v>
       </c>
       <c r="C2" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>99</v>
@@ -5011,7 +5008,7 @@
       <c r="F1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="4" t="s">
         <v>102</v>
       </c>
     </row>

--- a/Mass List and Parameters.xlsx
+++ b/Mass List and Parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Erick\MSI-CE-MS-Data-Preprocessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8FB845-962D-44BE-B2C7-5F4EF957D148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250984CE-255D-416C-A71B-6C5CA9BF0B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{3F442743-5A66-4E15-9366-B88AC1790E64}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{3F442743-5A66-4E15-9366-B88AC1790E64}"/>
   </bookViews>
   <sheets>
     <sheet name="Analyte Mass List" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="99">
   <si>
     <t>name</t>
   </si>
@@ -286,9 +286,6 @@
     <t>smoothing.strength</t>
   </si>
   <si>
-    <t>Creatine, Leucine, Isoleucine</t>
-  </si>
-  <si>
     <t>Unknown 1, Choline</t>
   </si>
   <si>
@@ -337,16 +334,7 @@
     <t>peak.9.mt</t>
   </si>
   <si>
-    <t>peak.10.mt</t>
-  </si>
-  <si>
-    <t>peak.11.mt</t>
-  </si>
-  <si>
-    <t>peak.12.mt</t>
-  </si>
-  <si>
-    <t>peak.13.mt</t>
+    <t>Unknown 8, Orn-15N2</t>
   </si>
 </sst>
 </file>
@@ -766,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A9B2B3-45F3-4E9C-8863-F19858D470D6}">
-  <dimension ref="A1:Z51"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:X51"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -785,11 +773,11 @@
     <col min="9" max="9" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="24" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="20" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -818,52 +806,40 @@
         <v>59</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>81</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="T1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -892,47 +868,35 @@
         <v>4</v>
       </c>
       <c r="L2" s="2">
-        <v>15.117000000000001</v>
+        <v>14.302</v>
       </c>
       <c r="M2" s="2">
-        <v>15.917</v>
+        <v>15.102</v>
       </c>
       <c r="N2" s="2">
-        <v>16.716999999999999</v>
+        <v>15.917999999999999</v>
       </c>
       <c r="O2" s="2">
-        <v>17.516999999999999</v>
+        <v>16.718</v>
       </c>
       <c r="P2" s="2">
-        <v>18.315999999999999</v>
+        <v>17.518000000000001</v>
       </c>
       <c r="Q2" s="2">
-        <v>19.100000000000001</v>
+        <v>18.318000000000001</v>
       </c>
       <c r="R2" s="2">
-        <v>19.866</v>
+        <v>19.100999999999999</v>
       </c>
       <c r="S2" s="2">
-        <v>20.632999999999999</v>
+        <v>19.867999999999999</v>
       </c>
       <c r="T2" s="2">
-        <v>21.382999999999999</v>
-      </c>
-      <c r="U2" s="2">
-        <v>22.116</v>
-      </c>
-      <c r="V2" s="2">
-        <v>22.849</v>
-      </c>
-      <c r="W2" s="2">
-        <v>23.582000000000001</v>
-      </c>
-      <c r="X2" s="2">
-        <v>24.315999999999999</v>
-      </c>
-      <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+        <v>20.634</v>
+      </c>
+      <c r="V2" s="2"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -961,47 +925,35 @@
         <v>4</v>
       </c>
       <c r="L3" s="2">
-        <v>11.268000000000001</v>
+        <v>10.651999999999999</v>
       </c>
       <c r="M3" s="2">
-        <v>12.134</v>
+        <v>11.536</v>
       </c>
       <c r="N3" s="2">
-        <v>13.000999999999999</v>
+        <v>12.419</v>
       </c>
       <c r="O3" s="2">
-        <v>13.867000000000001</v>
+        <v>13.302</v>
       </c>
       <c r="P3" s="2">
-        <v>14.734</v>
+        <v>14.167999999999999</v>
       </c>
       <c r="Q3" s="2">
-        <v>15.584</v>
+        <v>15.035</v>
       </c>
       <c r="R3" s="2">
-        <v>16.417000000000002</v>
+        <v>15.885</v>
       </c>
       <c r="S3" s="2">
-        <v>17.266999999999999</v>
+        <v>16.734999999999999</v>
       </c>
       <c r="T3" s="2">
-        <v>18.132999999999999</v>
-      </c>
-      <c r="U3" s="2">
-        <v>18.95</v>
-      </c>
-      <c r="V3" s="2">
-        <v>19.765999999999998</v>
-      </c>
-      <c r="W3" s="2">
-        <v>20.548999999999999</v>
-      </c>
-      <c r="X3" s="2">
-        <v>21.349</v>
-      </c>
-      <c r="Z3" s="2"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+        <v>17.568000000000001</v>
+      </c>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1036,46 +988,34 @@
         <v>4</v>
       </c>
       <c r="L4" s="2">
-        <v>6.4180000000000001</v>
+        <v>5.77</v>
       </c>
       <c r="M4" s="2">
-        <v>7.3849999999999998</v>
+        <v>6.7530000000000001</v>
       </c>
       <c r="N4" s="2">
-        <v>8.3510000000000009</v>
+        <v>7.7359999999999998</v>
       </c>
       <c r="O4" s="2">
-        <v>9.3010000000000002</v>
+        <v>8.7029999999999994</v>
       </c>
       <c r="P4" s="2">
-        <v>10.250999999999999</v>
+        <v>9.6859999999999999</v>
       </c>
       <c r="Q4" s="2">
-        <v>11.250999999999999</v>
+        <v>10.635999999999999</v>
       </c>
       <c r="R4" s="2">
-        <v>12.134</v>
+        <v>11.536</v>
       </c>
       <c r="S4" s="2">
-        <v>13.000999999999999</v>
+        <v>12.552</v>
       </c>
       <c r="T4" s="2">
-        <v>13.933999999999999</v>
-      </c>
-      <c r="U4" s="2">
-        <v>14.85</v>
-      </c>
-      <c r="V4" s="2">
-        <v>15.75</v>
-      </c>
-      <c r="W4" s="2">
-        <v>16.7</v>
-      </c>
-      <c r="X4" s="2">
-        <v>17.649999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+        <v>13.435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1104,46 +1044,34 @@
         <v>4</v>
       </c>
       <c r="L5" s="2">
-        <v>7.4020000000000001</v>
+        <v>6.8360000000000003</v>
       </c>
       <c r="M5" s="2">
-        <v>8.3510000000000009</v>
+        <v>7.8029999999999999</v>
       </c>
       <c r="N5" s="2">
-        <v>9.2850000000000001</v>
+        <v>8.7690000000000001</v>
       </c>
       <c r="O5" s="2">
-        <v>10.234</v>
+        <v>9.7520000000000007</v>
       </c>
       <c r="P5" s="2">
-        <v>11.167999999999999</v>
+        <v>10.702</v>
       </c>
       <c r="Q5" s="2">
-        <v>12.084</v>
+        <v>11.619</v>
       </c>
       <c r="R5" s="2">
-        <v>13.000999999999999</v>
+        <v>12.552</v>
       </c>
       <c r="S5" s="2">
-        <v>13.884</v>
+        <v>13.468999999999999</v>
       </c>
       <c r="T5" s="2">
-        <v>14.8</v>
-      </c>
-      <c r="U5" s="2">
-        <v>15.683999999999999</v>
-      </c>
-      <c r="V5" s="2">
-        <v>16.582999999999998</v>
-      </c>
-      <c r="W5" s="2">
-        <v>17.483000000000001</v>
-      </c>
-      <c r="X5" s="2">
-        <v>18.382999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+        <v>14.335000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1172,46 +1100,34 @@
         <v>4</v>
       </c>
       <c r="L6" s="2">
-        <v>12.933999999999999</v>
+        <v>12.218999999999999</v>
       </c>
       <c r="M6" s="2">
-        <v>13.766999999999999</v>
+        <v>13.085000000000001</v>
       </c>
       <c r="N6" s="2">
-        <v>14.6</v>
+        <v>13.935</v>
       </c>
       <c r="O6" s="2">
-        <v>15.45</v>
+        <v>14.785</v>
       </c>
       <c r="P6" s="2">
-        <v>16.266999999999999</v>
+        <v>15.618</v>
       </c>
       <c r="Q6" s="2">
-        <v>17.117000000000001</v>
+        <v>16.451000000000001</v>
       </c>
       <c r="R6" s="2">
-        <v>17.933</v>
+        <v>17.285</v>
       </c>
       <c r="S6" s="2">
-        <v>18.75</v>
+        <v>18.084</v>
       </c>
       <c r="T6" s="2">
-        <v>19.55</v>
-      </c>
-      <c r="U6" s="2">
-        <v>20.332999999999998</v>
-      </c>
-      <c r="V6" s="2">
-        <v>21.099</v>
-      </c>
-      <c r="W6" s="2">
-        <v>21.866</v>
-      </c>
-      <c r="X6" s="2">
-        <v>22.632000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+        <v>18.901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
@@ -1246,46 +1162,34 @@
         <v>4</v>
       </c>
       <c r="L7" s="2">
-        <v>14.3</v>
+        <v>13.519</v>
       </c>
       <c r="M7" s="2">
-        <v>15.1</v>
+        <v>14.335000000000001</v>
       </c>
       <c r="N7" s="2">
-        <v>15.917</v>
+        <v>15.167999999999999</v>
       </c>
       <c r="O7" s="2">
-        <v>16.733000000000001</v>
+        <v>15.901</v>
       </c>
       <c r="P7" s="2">
-        <v>17.55</v>
+        <v>16.818000000000001</v>
       </c>
       <c r="Q7" s="2">
-        <v>18.332999999999998</v>
+        <v>17.718</v>
       </c>
       <c r="R7" s="2">
-        <v>19.149999999999999</v>
+        <v>18.417999999999999</v>
       </c>
       <c r="S7" s="2">
-        <v>19.933</v>
+        <v>19.201000000000001</v>
       </c>
       <c r="T7" s="2">
-        <v>20.699000000000002</v>
-      </c>
-      <c r="U7" s="2">
-        <v>21.449000000000002</v>
-      </c>
-      <c r="V7" s="2">
-        <v>22.199000000000002</v>
-      </c>
-      <c r="W7" s="2">
-        <v>22.931999999999999</v>
-      </c>
-      <c r="X7" s="2">
-        <v>23.681999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+        <v>19.984000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>64</v>
       </c>
@@ -1296,7 +1200,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8" s="1">
         <v>7</v>
@@ -1320,46 +1224,34 @@
         <v>4</v>
       </c>
       <c r="L8" s="2">
-        <v>17.350000000000001</v>
+        <v>16.635000000000002</v>
       </c>
       <c r="M8" s="2">
-        <v>18.117000000000001</v>
+        <v>17.434999999999999</v>
       </c>
       <c r="N8" s="2">
-        <v>18.8</v>
+        <v>18.218</v>
       </c>
       <c r="O8" s="2">
-        <v>19.649999999999999</v>
+        <v>18.934000000000001</v>
       </c>
       <c r="P8" s="2">
-        <v>20.382999999999999</v>
+        <v>19.684000000000001</v>
       </c>
       <c r="Q8" s="2">
-        <v>21.132999999999999</v>
+        <v>20.466999999999999</v>
       </c>
       <c r="R8" s="2">
-        <v>21.832999999999998</v>
+        <v>21.167000000000002</v>
       </c>
       <c r="S8" s="2">
-        <v>22.532</v>
+        <v>21.867000000000001</v>
       </c>
       <c r="T8" s="2">
-        <v>23.231999999999999</v>
-      </c>
-      <c r="U8" s="2">
-        <v>23.949000000000002</v>
-      </c>
-      <c r="V8" s="2">
-        <v>24.649000000000001</v>
-      </c>
-      <c r="W8" s="2">
-        <v>25.332000000000001</v>
-      </c>
-      <c r="X8" s="2">
-        <v>25.998999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+        <v>22.584</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1373,7 +1265,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H9" s="9">
         <v>20</v>
@@ -1388,46 +1280,34 @@
         <v>4</v>
       </c>
       <c r="L9" s="2">
-        <v>7.218</v>
+        <v>6.5529999999999999</v>
       </c>
       <c r="M9" s="2">
-        <v>8.1679999999999993</v>
+        <v>7.5359999999999996</v>
       </c>
       <c r="N9" s="2">
-        <v>9.1180000000000003</v>
+        <v>8.4860000000000007</v>
       </c>
       <c r="O9" s="2">
-        <v>10.051</v>
+        <v>9.4359999999999999</v>
       </c>
       <c r="P9" s="2">
-        <v>10.984</v>
+        <v>10.369</v>
       </c>
       <c r="Q9" s="2">
-        <v>11.917999999999999</v>
+        <v>11.302</v>
       </c>
       <c r="R9" s="2">
-        <v>12.834</v>
+        <v>12.252000000000001</v>
       </c>
       <c r="S9" s="2">
-        <v>13.717000000000001</v>
+        <v>13.185</v>
       </c>
       <c r="T9" s="2">
-        <v>14.617000000000001</v>
-      </c>
-      <c r="U9" s="2">
-        <v>15.516999999999999</v>
-      </c>
-      <c r="V9" s="2">
-        <v>16.433</v>
-      </c>
-      <c r="W9" s="2">
-        <v>17.350000000000001</v>
-      </c>
-      <c r="X9" s="2">
-        <v>18.265999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+        <v>14.068</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1437,6 +1317,7 @@
       <c r="C10" s="9">
         <v>30</v>
       </c>
+      <c r="D10" s="3"/>
       <c r="F10" s="1">
         <v>10</v>
       </c>
@@ -1456,46 +1337,34 @@
         <v>4</v>
       </c>
       <c r="L10" s="2">
-        <v>15.317</v>
+        <v>14.602</v>
       </c>
       <c r="M10" s="2">
-        <v>16.117000000000001</v>
+        <v>15.401999999999999</v>
       </c>
       <c r="N10" s="2">
-        <v>16.899999999999999</v>
+        <v>16.201000000000001</v>
       </c>
       <c r="O10" s="2">
-        <v>17.7</v>
+        <v>17.018000000000001</v>
       </c>
       <c r="P10" s="2">
-        <v>18.5</v>
+        <v>17.800999999999998</v>
       </c>
       <c r="Q10" s="2">
-        <v>19.265999999999998</v>
+        <v>18.568000000000001</v>
       </c>
       <c r="R10" s="2">
-        <v>20.033000000000001</v>
+        <v>19.350999999999999</v>
       </c>
       <c r="S10" s="2">
-        <v>20.783000000000001</v>
+        <v>20.117000000000001</v>
       </c>
       <c r="T10" s="2">
-        <v>21.533000000000001</v>
-      </c>
-      <c r="U10" s="2">
-        <v>22.265999999999998</v>
-      </c>
-      <c r="V10" s="2">
-        <v>22.981999999999999</v>
-      </c>
-      <c r="W10" s="2">
-        <v>23.699000000000002</v>
-      </c>
-      <c r="X10" s="2">
-        <v>24.431999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+        <v>20.867000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1524,46 +1393,34 @@
         <v>4</v>
       </c>
       <c r="L11" s="2">
-        <v>8.6509999999999998</v>
+        <v>7.9530000000000003</v>
       </c>
       <c r="M11" s="2">
-        <v>9.5679999999999996</v>
+        <v>8.8859999999999992</v>
       </c>
       <c r="N11" s="2">
-        <v>10.468</v>
+        <v>9.8190000000000008</v>
       </c>
       <c r="O11" s="2">
-        <v>11.384</v>
+        <v>10.752000000000001</v>
       </c>
       <c r="P11" s="2">
-        <v>12.284000000000001</v>
+        <v>11.669</v>
       </c>
       <c r="Q11" s="2">
-        <v>13.183999999999999</v>
+        <v>12.569000000000001</v>
       </c>
       <c r="R11" s="2">
-        <v>14.067</v>
+        <v>13.484999999999999</v>
       </c>
       <c r="S11" s="2">
-        <v>14.933999999999999</v>
+        <v>14.385</v>
       </c>
       <c r="T11" s="2">
-        <v>15.834</v>
-      </c>
-      <c r="U11" s="2">
-        <v>16.733000000000001</v>
-      </c>
-      <c r="V11" s="2">
-        <v>17.617000000000001</v>
-      </c>
-      <c r="W11" s="2">
-        <v>18.5</v>
-      </c>
-      <c r="X11" s="2">
-        <v>19.366</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+        <v>15.252000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1592,46 +1449,34 @@
         <v>4</v>
       </c>
       <c r="L12" s="2">
-        <v>16.933</v>
+        <v>16.167999999999999</v>
       </c>
       <c r="M12" s="2">
-        <v>17.7</v>
+        <v>16.951000000000001</v>
       </c>
       <c r="N12" s="2">
-        <v>18.466000000000001</v>
+        <v>17.718</v>
       </c>
       <c r="O12" s="2">
-        <v>19.233000000000001</v>
+        <v>18.484000000000002</v>
       </c>
       <c r="P12" s="2">
-        <v>19.983000000000001</v>
+        <v>19.234000000000002</v>
       </c>
       <c r="Q12" s="2">
-        <v>20.733000000000001</v>
+        <v>20.001000000000001</v>
       </c>
       <c r="R12" s="2">
-        <v>21.466000000000001</v>
+        <v>20.734000000000002</v>
       </c>
       <c r="S12" s="2">
-        <v>22.166</v>
+        <v>21.466999999999999</v>
       </c>
       <c r="T12" s="2">
-        <v>22.882000000000001</v>
-      </c>
-      <c r="U12" s="2">
-        <v>23.599</v>
-      </c>
-      <c r="V12" s="2">
-        <v>24.298999999999999</v>
-      </c>
-      <c r="W12" s="2">
-        <v>24.998999999999999</v>
-      </c>
-      <c r="X12" s="2">
-        <v>25.699000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1666,46 +1511,34 @@
         <v>4</v>
       </c>
       <c r="L13" s="2">
-        <v>15.117000000000001</v>
+        <v>14.302</v>
       </c>
       <c r="M13" s="2">
-        <v>15.917</v>
+        <v>15.102</v>
       </c>
       <c r="N13" s="2">
-        <v>16.716999999999999</v>
+        <v>15.917999999999999</v>
       </c>
       <c r="O13" s="2">
-        <v>17.516999999999999</v>
+        <v>16.718</v>
       </c>
       <c r="P13" s="2">
-        <v>18.315999999999999</v>
+        <v>17.518000000000001</v>
       </c>
       <c r="Q13" s="2">
-        <v>19.100000000000001</v>
+        <v>18.318000000000001</v>
       </c>
       <c r="R13" s="2">
-        <v>19.866</v>
+        <v>19.100999999999999</v>
       </c>
       <c r="S13" s="2">
-        <v>20.632999999999999</v>
+        <v>19.867999999999999</v>
       </c>
       <c r="T13" s="2">
-        <v>21.382999999999999</v>
-      </c>
-      <c r="U13" s="2">
-        <v>22.116</v>
-      </c>
-      <c r="V13" s="2">
-        <v>22.849</v>
-      </c>
-      <c r="W13" s="2">
-        <v>23.565999999999999</v>
-      </c>
-      <c r="X13" s="2">
-        <v>24.315999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+        <v>20.634</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -1740,46 +1573,34 @@
         <v>4</v>
       </c>
       <c r="L14" s="2">
-        <v>18.067</v>
+        <v>17.300999999999998</v>
       </c>
       <c r="M14" s="2">
-        <v>18.815999999999999</v>
+        <v>18.068000000000001</v>
       </c>
       <c r="N14" s="2">
-        <v>19.565999999999999</v>
+        <v>18.834</v>
       </c>
       <c r="O14" s="2">
-        <v>20.3</v>
+        <v>19.568000000000001</v>
       </c>
       <c r="P14" s="2">
-        <v>21.033000000000001</v>
+        <v>20.266999999999999</v>
       </c>
       <c r="Q14" s="2">
-        <v>21.748999999999999</v>
+        <v>21.016999999999999</v>
       </c>
       <c r="R14" s="2">
-        <v>22.449000000000002</v>
+        <v>21.751000000000001</v>
       </c>
       <c r="S14" s="2">
-        <v>23.149000000000001</v>
+        <v>22.466999999999999</v>
       </c>
       <c r="T14" s="2">
-        <v>23.832000000000001</v>
-      </c>
-      <c r="U14" s="2">
-        <v>24.548999999999999</v>
-      </c>
-      <c r="V14" s="2">
-        <v>25.215</v>
-      </c>
-      <c r="W14" s="2">
-        <v>25.882000000000001</v>
-      </c>
-      <c r="X14" s="2">
-        <v>26.565000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+        <v>23.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -1808,46 +1629,34 @@
         <v>4</v>
       </c>
       <c r="L15" s="2">
-        <v>16.466999999999999</v>
+        <v>15.685</v>
       </c>
       <c r="M15" s="2">
-        <v>17.233000000000001</v>
+        <v>16.468</v>
       </c>
       <c r="N15" s="2">
-        <v>18.016999999999999</v>
+        <v>17.251000000000001</v>
       </c>
       <c r="O15" s="2">
-        <v>18.8</v>
+        <v>18.033999999999999</v>
       </c>
       <c r="P15" s="2">
-        <v>19.55</v>
+        <v>18.800999999999998</v>
       </c>
       <c r="Q15" s="2">
-        <v>20.3</v>
+        <v>19.550999999999998</v>
       </c>
       <c r="R15" s="2">
-        <v>21.048999999999999</v>
+        <v>20.300999999999998</v>
       </c>
       <c r="S15" s="2">
-        <v>21.765999999999998</v>
+        <v>21.050999999999998</v>
       </c>
       <c r="T15" s="2">
-        <v>22.481999999999999</v>
-      </c>
-      <c r="U15" s="2">
-        <v>23.199000000000002</v>
-      </c>
-      <c r="V15" s="2">
-        <v>23.899000000000001</v>
-      </c>
-      <c r="W15" s="2">
-        <v>24.614999999999998</v>
-      </c>
-      <c r="X15" s="2">
-        <v>25.315000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+        <v>21.817</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1876,46 +1685,34 @@
         <v>6</v>
       </c>
       <c r="L16" s="2">
-        <v>12.317</v>
+        <v>11.552</v>
       </c>
       <c r="M16" s="2">
-        <v>13.151</v>
+        <v>12.419</v>
       </c>
       <c r="N16" s="2">
-        <v>14.016999999999999</v>
+        <v>13.285</v>
       </c>
       <c r="O16" s="2">
-        <v>14.85</v>
+        <v>14.202</v>
       </c>
       <c r="P16" s="2">
-        <v>15.7</v>
+        <v>15.002000000000001</v>
       </c>
       <c r="Q16" s="2">
-        <v>16.55</v>
+        <v>15.851000000000001</v>
       </c>
       <c r="R16" s="2">
-        <v>17.367000000000001</v>
+        <v>16.701000000000001</v>
       </c>
       <c r="S16" s="2">
-        <v>18.2</v>
+        <v>17.535</v>
       </c>
       <c r="T16" s="2">
-        <v>19.033000000000001</v>
-      </c>
-      <c r="U16" s="2">
-        <v>19.832999999999998</v>
-      </c>
-      <c r="V16" s="2">
-        <v>20.616</v>
-      </c>
-      <c r="W16" s="2">
-        <v>21.399000000000001</v>
-      </c>
-      <c r="X16" s="2">
-        <v>22.183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+        <v>18.334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1926,7 +1723,7 @@
         <v>30</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E17" s="1">
         <v>7</v>
@@ -1950,46 +1747,34 @@
         <v>4</v>
       </c>
       <c r="L17" s="2">
-        <v>19.45</v>
+        <v>18.600999999999999</v>
       </c>
       <c r="M17" s="2">
-        <v>20.216000000000001</v>
+        <v>19.401</v>
       </c>
       <c r="N17" s="2">
-        <v>20.882999999999999</v>
+        <v>20.184000000000001</v>
       </c>
       <c r="O17" s="2">
-        <v>21.649000000000001</v>
+        <v>20.984000000000002</v>
       </c>
       <c r="P17" s="2">
-        <v>22.416</v>
+        <v>21.783999999999999</v>
       </c>
       <c r="Q17" s="2">
-        <v>23.166</v>
+        <v>22.417000000000002</v>
       </c>
       <c r="R17" s="2">
-        <v>23.882000000000001</v>
+        <v>23.15</v>
       </c>
       <c r="S17" s="2">
-        <v>24.599</v>
+        <v>23.8</v>
       </c>
       <c r="T17" s="2">
-        <v>25.215</v>
-      </c>
-      <c r="U17" s="2">
-        <v>25.882000000000001</v>
-      </c>
-      <c r="V17" s="2">
-        <v>26.515000000000001</v>
-      </c>
-      <c r="W17" s="2">
-        <v>27.148</v>
-      </c>
-      <c r="X17" s="2">
-        <v>27.782</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+        <v>24.45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -2024,46 +1809,34 @@
         <v>4</v>
       </c>
       <c r="L18" s="2">
-        <v>12.634</v>
+        <v>11.852</v>
       </c>
       <c r="M18" s="2">
-        <v>13.467000000000001</v>
+        <v>12.718999999999999</v>
       </c>
       <c r="N18" s="2">
-        <v>14.317</v>
+        <v>13.569000000000001</v>
       </c>
       <c r="O18" s="2">
-        <v>15.15</v>
+        <v>14.417999999999999</v>
       </c>
       <c r="P18" s="2">
-        <v>15.967000000000001</v>
+        <v>15.268000000000001</v>
       </c>
       <c r="Q18" s="2">
-        <v>16.817</v>
+        <v>16.100999999999999</v>
       </c>
       <c r="R18" s="2">
-        <v>17.649999999999999</v>
+        <v>16.951000000000001</v>
       </c>
       <c r="S18" s="2">
-        <v>18.466000000000001</v>
+        <v>17.785</v>
       </c>
       <c r="T18" s="2">
-        <v>19.283000000000001</v>
-      </c>
-      <c r="U18" s="2">
-        <v>20.082999999999998</v>
-      </c>
-      <c r="V18" s="2">
-        <v>20.866</v>
-      </c>
-      <c r="W18" s="2">
-        <v>21.649000000000001</v>
-      </c>
-      <c r="X18" s="2">
-        <v>22.416</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+        <v>18.600999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -2098,46 +1871,34 @@
         <v>4</v>
       </c>
       <c r="L19" s="2">
-        <v>15.516999999999999</v>
+        <v>14.651999999999999</v>
       </c>
       <c r="M19" s="2">
-        <v>16.3</v>
+        <v>15.452</v>
       </c>
       <c r="N19" s="2">
-        <v>17.100000000000001</v>
+        <v>16.251000000000001</v>
       </c>
       <c r="O19" s="2">
-        <v>17.899999999999999</v>
+        <v>17.050999999999998</v>
       </c>
       <c r="P19" s="2">
-        <v>18.683</v>
+        <v>17.834</v>
       </c>
       <c r="Q19" s="2">
-        <v>19.45</v>
+        <v>18.617999999999999</v>
       </c>
       <c r="R19" s="2">
-        <v>20.216000000000001</v>
+        <v>19.401</v>
       </c>
       <c r="S19" s="2">
-        <v>20.966000000000001</v>
+        <v>20.167000000000002</v>
       </c>
       <c r="T19" s="2">
-        <v>21.699000000000002</v>
-      </c>
-      <c r="U19" s="2">
-        <v>22.431999999999999</v>
-      </c>
-      <c r="V19" s="2">
-        <v>23.166</v>
-      </c>
-      <c r="W19" s="2">
-        <v>23.882000000000001</v>
-      </c>
-      <c r="X19" s="2">
-        <v>24.614999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+        <v>20.934000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -2172,46 +1933,34 @@
         <v>4</v>
       </c>
       <c r="L20" s="2">
-        <v>15.784000000000001</v>
+        <v>14.917999999999999</v>
       </c>
       <c r="M20" s="2">
-        <v>16.567</v>
+        <v>15.718</v>
       </c>
       <c r="N20" s="2">
-        <v>17.367000000000001</v>
+        <v>16.518000000000001</v>
       </c>
       <c r="O20" s="2">
-        <v>18.149999999999999</v>
+        <v>17.318000000000001</v>
       </c>
       <c r="P20" s="2">
-        <v>18.933</v>
+        <v>18.100999999999999</v>
       </c>
       <c r="Q20" s="2">
-        <v>19.7</v>
+        <v>18.867999999999999</v>
       </c>
       <c r="R20" s="2">
-        <v>20.449000000000002</v>
+        <v>19.634</v>
       </c>
       <c r="S20" s="2">
-        <v>21.199000000000002</v>
+        <v>20.401</v>
       </c>
       <c r="T20" s="2">
-        <v>21.933</v>
-      </c>
-      <c r="U20" s="2">
-        <v>22.666</v>
-      </c>
-      <c r="V20" s="2">
-        <v>23.366</v>
-      </c>
-      <c r="W20" s="2">
-        <v>24.099</v>
-      </c>
-      <c r="X20" s="2">
-        <v>24.815000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+        <v>21.151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -2222,7 +1971,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="E21" s="1">
         <v>5</v>
@@ -2246,46 +1995,34 @@
         <v>4</v>
       </c>
       <c r="L21" s="2">
-        <v>16.483000000000001</v>
+        <v>15.701000000000001</v>
       </c>
       <c r="M21" s="2">
-        <v>17.216999999999999</v>
+        <v>16.484999999999999</v>
       </c>
       <c r="N21" s="2">
-        <v>18</v>
+        <v>17.268000000000001</v>
       </c>
       <c r="O21" s="2">
-        <v>18.783000000000001</v>
+        <v>18.050999999999998</v>
       </c>
       <c r="P21" s="2">
-        <v>19.533000000000001</v>
+        <v>18.818000000000001</v>
       </c>
       <c r="Q21" s="2">
-        <v>20.283000000000001</v>
+        <v>19.550999999999998</v>
       </c>
       <c r="R21" s="2">
-        <v>21.033000000000001</v>
+        <v>20.317</v>
       </c>
       <c r="S21" s="2">
-        <v>21.748999999999999</v>
+        <v>21.033999999999999</v>
       </c>
       <c r="T21" s="2">
-        <v>22.466000000000001</v>
-      </c>
-      <c r="U21" s="2">
-        <v>23.181999999999999</v>
-      </c>
-      <c r="V21" s="2">
-        <v>23.882000000000001</v>
-      </c>
-      <c r="W21" s="2">
-        <v>24.582000000000001</v>
-      </c>
-      <c r="X21" s="2">
-        <v>25.282</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+        <v>21.783999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -2314,47 +2051,35 @@
       <c r="K22" s="1">
         <v>4</v>
       </c>
-      <c r="L22" s="2">
-        <v>7.3019999999999996</v>
-      </c>
-      <c r="M22" s="2">
-        <v>8.2509999999999994</v>
-      </c>
-      <c r="N22" s="2">
-        <v>9.1850000000000005</v>
-      </c>
-      <c r="O22" s="2">
-        <v>10.134</v>
-      </c>
-      <c r="P22" s="2">
-        <v>11.068</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>12.000999999999999</v>
-      </c>
-      <c r="R22" s="2">
-        <v>12.901</v>
-      </c>
-      <c r="S22" s="2">
-        <v>13.801</v>
-      </c>
-      <c r="T22" s="2">
-        <v>14.7</v>
-      </c>
-      <c r="U22" s="2">
-        <v>15.6</v>
-      </c>
-      <c r="V22" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="W22" s="2">
-        <v>17.382999999999999</v>
-      </c>
-      <c r="X22" s="2">
-        <v>18.283000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L22" s="1">
+        <v>6.77</v>
+      </c>
+      <c r="M22" s="1">
+        <v>7.7359999999999998</v>
+      </c>
+      <c r="N22" s="1">
+        <v>8.7029999999999994</v>
+      </c>
+      <c r="O22" s="1">
+        <v>9.6859999999999999</v>
+      </c>
+      <c r="P22" s="1">
+        <v>10.635999999999999</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>11.552</v>
+      </c>
+      <c r="R22" s="1">
+        <v>12.502000000000001</v>
+      </c>
+      <c r="S22" s="1">
+        <v>13.401999999999999</v>
+      </c>
+      <c r="T22" s="1">
+        <v>14.285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -2383,46 +2108,34 @@
         <v>4</v>
       </c>
       <c r="L23" s="2">
-        <v>18.632999999999999</v>
+        <v>17.818000000000001</v>
       </c>
       <c r="M23" s="2">
-        <v>19.366</v>
+        <v>18.550999999999998</v>
       </c>
       <c r="N23" s="2">
-        <v>20.100000000000001</v>
+        <v>19.268000000000001</v>
       </c>
       <c r="O23" s="2">
-        <v>20.815999999999999</v>
+        <v>20.001000000000001</v>
       </c>
       <c r="P23" s="2">
-        <v>21.533000000000001</v>
+        <v>20.734000000000002</v>
       </c>
       <c r="Q23" s="2">
-        <v>22.216000000000001</v>
+        <v>21.434000000000001</v>
       </c>
       <c r="R23" s="2">
-        <v>22.916</v>
+        <v>22.15</v>
       </c>
       <c r="S23" s="2">
-        <v>23.599</v>
+        <v>22.85</v>
       </c>
       <c r="T23" s="2">
-        <v>24.282</v>
-      </c>
-      <c r="U23" s="2">
-        <v>24.965</v>
-      </c>
-      <c r="V23" s="2">
-        <v>25.614999999999998</v>
-      </c>
-      <c r="W23" s="2">
-        <v>26.265000000000001</v>
-      </c>
-      <c r="X23" s="2">
-        <v>26.931999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+        <v>23.55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>65</v>
       </c>
@@ -2457,46 +2170,34 @@
         <v>4</v>
       </c>
       <c r="L24" s="2">
-        <v>18.533000000000001</v>
+        <v>17.651</v>
       </c>
       <c r="M24" s="2">
-        <v>19.265999999999998</v>
+        <v>18.451000000000001</v>
       </c>
       <c r="N24" s="2">
-        <v>19.983000000000001</v>
+        <v>19.134</v>
       </c>
       <c r="O24" s="2">
-        <v>20.699000000000002</v>
+        <v>19.901</v>
       </c>
       <c r="P24" s="2">
-        <v>21.433</v>
+        <v>20.617000000000001</v>
       </c>
       <c r="Q24" s="2">
-        <v>22.116</v>
+        <v>21.317</v>
       </c>
       <c r="R24" s="2">
-        <v>22.815999999999999</v>
+        <v>22.033999999999999</v>
       </c>
       <c r="S24" s="2">
-        <v>23.515999999999998</v>
+        <v>22.75</v>
       </c>
       <c r="T24" s="2">
-        <v>24.181999999999999</v>
-      </c>
-      <c r="U24" s="2">
-        <v>24.864999999999998</v>
-      </c>
-      <c r="V24" s="2">
-        <v>25.548999999999999</v>
-      </c>
-      <c r="W24" s="2">
-        <v>26.199000000000002</v>
-      </c>
-      <c r="X24" s="2">
-        <v>26.882000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+        <v>23.434000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -2510,7 +2211,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H25" s="9">
         <v>20</v>
@@ -2525,46 +2226,34 @@
         <v>6</v>
       </c>
       <c r="L25" s="2">
-        <v>20.783000000000001</v>
+        <v>20.384</v>
       </c>
       <c r="M25" s="2">
-        <v>21.449000000000002</v>
+        <v>21.033999999999999</v>
       </c>
       <c r="N25" s="2">
-        <v>22.116</v>
+        <v>21.701000000000001</v>
       </c>
       <c r="O25" s="2">
-        <v>22.748999999999999</v>
+        <v>22.35</v>
       </c>
       <c r="P25" s="2">
-        <v>23.416</v>
+        <v>23.016999999999999</v>
       </c>
       <c r="Q25" s="2">
-        <v>24.048999999999999</v>
+        <v>23.65</v>
       </c>
       <c r="R25" s="2">
-        <v>24.681999999999999</v>
+        <v>24.283000000000001</v>
       </c>
       <c r="S25" s="2">
-        <v>25.298999999999999</v>
+        <v>24.933</v>
       </c>
       <c r="T25" s="2">
-        <v>25.931999999999999</v>
-      </c>
-      <c r="U25" s="2">
-        <v>26.547999999999998</v>
-      </c>
-      <c r="V25" s="2">
-        <v>27.148</v>
-      </c>
-      <c r="W25" s="2">
-        <v>27.731999999999999</v>
-      </c>
-      <c r="X25" s="2">
-        <v>28.331</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+        <v>25.55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -2599,46 +2288,34 @@
         <v>4</v>
       </c>
       <c r="L26" s="2">
-        <v>18.082999999999998</v>
+        <v>17.300999999999998</v>
       </c>
       <c r="M26" s="2">
-        <v>18.815999999999999</v>
+        <v>18.068000000000001</v>
       </c>
       <c r="N26" s="2">
-        <v>19.55</v>
+        <v>18.834</v>
       </c>
       <c r="O26" s="2">
-        <v>20.283000000000001</v>
+        <v>19.568000000000001</v>
       </c>
       <c r="P26" s="2">
-        <v>21.015999999999998</v>
+        <v>20.266999999999999</v>
       </c>
       <c r="Q26" s="2">
-        <v>21.733000000000001</v>
+        <v>21.016999999999999</v>
       </c>
       <c r="R26" s="2">
-        <v>22.449000000000002</v>
+        <v>21.751000000000001</v>
       </c>
       <c r="S26" s="2">
-        <v>23.149000000000001</v>
+        <v>22.466999999999999</v>
       </c>
       <c r="T26" s="2">
-        <v>23.815999999999999</v>
-      </c>
-      <c r="U26" s="2">
-        <v>24.565000000000001</v>
-      </c>
-      <c r="V26" s="2">
-        <v>25.248999999999999</v>
-      </c>
-      <c r="W26" s="2">
-        <v>25.864999999999998</v>
-      </c>
-      <c r="X26" s="2">
-        <v>26.547999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+        <v>23.15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -2667,46 +2344,34 @@
         <v>4</v>
       </c>
       <c r="L27" s="2">
-        <v>18.366</v>
+        <v>17.501000000000001</v>
       </c>
       <c r="M27" s="2">
-        <v>19.065999999999999</v>
+        <v>18.251000000000001</v>
       </c>
       <c r="N27" s="2">
-        <v>19.8</v>
+        <v>18.984000000000002</v>
       </c>
       <c r="O27" s="2">
-        <v>20.533000000000001</v>
+        <v>19.734000000000002</v>
       </c>
       <c r="P27" s="2">
-        <v>21.248999999999999</v>
+        <v>20.451000000000001</v>
       </c>
       <c r="Q27" s="2">
-        <v>21.933</v>
+        <v>21.184000000000001</v>
       </c>
       <c r="R27" s="2">
-        <v>22.532</v>
+        <v>21.9</v>
       </c>
       <c r="S27" s="2">
-        <v>23.366</v>
+        <v>22.6</v>
       </c>
       <c r="T27" s="2">
-        <v>24.048999999999999</v>
-      </c>
-      <c r="U27" s="2">
-        <v>24.748999999999999</v>
-      </c>
-      <c r="V27" s="2">
-        <v>25.414999999999999</v>
-      </c>
-      <c r="W27" s="2">
-        <v>26.065000000000001</v>
-      </c>
-      <c r="X27" s="2">
-        <v>26.715</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+        <v>23.317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -2716,6 +2381,12 @@
       <c r="C28" s="9">
         <v>30</v>
       </c>
+      <c r="D28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="1">
+        <v>7</v>
+      </c>
       <c r="F28" s="1">
         <v>10</v>
       </c>
@@ -2735,46 +2406,34 @@
         <v>4</v>
       </c>
       <c r="L28" s="2">
-        <v>10.784000000000001</v>
+        <v>10.019</v>
       </c>
       <c r="M28" s="2">
-        <v>11.667999999999999</v>
+        <v>10.901999999999999</v>
       </c>
       <c r="N28" s="2">
-        <v>12.534000000000001</v>
+        <v>11.802</v>
       </c>
       <c r="O28" s="2">
-        <v>13.401</v>
+        <v>12.685</v>
       </c>
       <c r="P28" s="2">
-        <v>14.266999999999999</v>
+        <v>13.552</v>
       </c>
       <c r="Q28" s="2">
-        <v>15.117000000000001</v>
+        <v>14.435</v>
       </c>
       <c r="R28" s="2">
-        <v>15.95</v>
+        <v>15.302</v>
       </c>
       <c r="S28" s="2">
-        <v>16.832999999999998</v>
+        <v>16.167999999999999</v>
       </c>
       <c r="T28" s="2">
-        <v>17.716999999999999</v>
-      </c>
-      <c r="U28" s="2">
-        <v>18.565999999999999</v>
-      </c>
-      <c r="V28" s="2">
-        <v>19.382999999999999</v>
-      </c>
-      <c r="W28" s="2">
-        <v>20.2</v>
-      </c>
-      <c r="X28" s="2">
-        <v>20.998999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+        <v>17.018000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
@@ -2803,46 +2462,34 @@
         <v>4</v>
       </c>
       <c r="L29" s="2">
-        <v>17.132999999999999</v>
+        <v>16.318000000000001</v>
       </c>
       <c r="M29" s="2">
-        <v>17.899999999999999</v>
+        <v>17.085000000000001</v>
       </c>
       <c r="N29" s="2">
-        <v>18.649999999999999</v>
+        <v>17.867999999999999</v>
       </c>
       <c r="O29" s="2">
-        <v>19.399999999999999</v>
+        <v>18.617999999999999</v>
       </c>
       <c r="P29" s="2">
-        <v>20.149999999999999</v>
+        <v>19.367999999999999</v>
       </c>
       <c r="Q29" s="2">
-        <v>20.882999999999999</v>
+        <v>20.100999999999999</v>
       </c>
       <c r="R29" s="2">
-        <v>21.599</v>
+        <v>20.850999999999999</v>
       </c>
       <c r="S29" s="2">
-        <v>22.315999999999999</v>
+        <v>21.567</v>
       </c>
       <c r="T29" s="2">
-        <v>23.032</v>
-      </c>
-      <c r="U29" s="2">
-        <v>23.731999999999999</v>
-      </c>
-      <c r="V29" s="2">
-        <v>24.414999999999999</v>
-      </c>
-      <c r="W29" s="2">
-        <v>25.114999999999998</v>
-      </c>
-      <c r="X29" s="2">
-        <v>25.798999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+        <v>22.283999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
@@ -2871,46 +2518,34 @@
         <v>4</v>
       </c>
       <c r="L30" s="2">
-        <v>7.4020000000000001</v>
+        <v>6.8360000000000003</v>
       </c>
       <c r="M30" s="2">
-        <v>8.3510000000000009</v>
+        <v>7.8029999999999999</v>
       </c>
       <c r="N30" s="2">
-        <v>9.2850000000000001</v>
+        <v>8.7690000000000001</v>
       </c>
       <c r="O30" s="2">
-        <v>10.234</v>
+        <v>9.7520000000000007</v>
       </c>
       <c r="P30" s="2">
-        <v>11.167999999999999</v>
+        <v>10.686</v>
       </c>
       <c r="Q30" s="2">
-        <v>12.084</v>
+        <v>11.619</v>
       </c>
       <c r="R30" s="2">
-        <v>13.000999999999999</v>
+        <v>12.552</v>
       </c>
       <c r="S30" s="2">
-        <v>13.901</v>
+        <v>13.468999999999999</v>
       </c>
       <c r="T30" s="2">
-        <v>14.784000000000001</v>
-      </c>
-      <c r="U30" s="2">
-        <v>15.683999999999999</v>
-      </c>
-      <c r="V30" s="2">
-        <v>16.582999999999998</v>
-      </c>
-      <c r="W30" s="2">
-        <v>17.483000000000001</v>
-      </c>
-      <c r="X30" s="2">
-        <v>18.366</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+        <v>14.352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
@@ -2939,46 +2574,34 @@
         <v>4</v>
       </c>
       <c r="L31" s="2">
-        <v>17.483000000000001</v>
+        <v>16.651</v>
       </c>
       <c r="M31" s="2">
-        <v>18.25</v>
+        <v>17.417999999999999</v>
       </c>
       <c r="N31" s="2">
-        <v>19</v>
+        <v>18.167999999999999</v>
       </c>
       <c r="O31" s="2">
-        <v>19.75</v>
+        <v>18.917999999999999</v>
       </c>
       <c r="P31" s="2">
-        <v>20.483000000000001</v>
+        <v>19.667999999999999</v>
       </c>
       <c r="Q31" s="2">
-        <v>21.199000000000002</v>
+        <v>20.401</v>
       </c>
       <c r="R31" s="2">
-        <v>21.916</v>
+        <v>21.134</v>
       </c>
       <c r="S31" s="2">
-        <v>22.616</v>
+        <v>21.85</v>
       </c>
       <c r="T31" s="2">
-        <v>23.332000000000001</v>
-      </c>
-      <c r="U31" s="2">
-        <v>24.015999999999998</v>
-      </c>
-      <c r="V31" s="2">
-        <v>24.715</v>
-      </c>
-      <c r="W31" s="2">
-        <v>25.382000000000001</v>
-      </c>
-      <c r="X31" s="2">
-        <v>26.065000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+        <v>22.567</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>66</v>
       </c>
@@ -2988,6 +2611,7 @@
       <c r="C32" s="9">
         <v>30</v>
       </c>
+      <c r="D32" s="3"/>
       <c r="F32" s="1">
         <v>10</v>
       </c>
@@ -3007,46 +2631,34 @@
         <v>4</v>
       </c>
       <c r="L32" s="2">
-        <v>16.766999999999999</v>
+        <v>15.917999999999999</v>
       </c>
       <c r="M32" s="2">
-        <v>17.533000000000001</v>
+        <v>16.701000000000001</v>
       </c>
       <c r="N32" s="2">
-        <v>18.3</v>
+        <v>17.484999999999999</v>
       </c>
       <c r="O32" s="2">
-        <v>19.065999999999999</v>
+        <v>18.251000000000001</v>
       </c>
       <c r="P32" s="2">
-        <v>19.832999999999998</v>
+        <v>19.018000000000001</v>
       </c>
       <c r="Q32" s="2">
-        <v>20.565999999999999</v>
+        <v>19.768000000000001</v>
       </c>
       <c r="R32" s="2">
-        <v>21.298999999999999</v>
+        <v>20.516999999999999</v>
       </c>
       <c r="S32" s="2">
-        <v>22.015999999999998</v>
+        <v>21.251000000000001</v>
       </c>
       <c r="T32" s="2">
-        <v>22.748999999999999</v>
-      </c>
-      <c r="U32" s="2">
-        <v>23.449000000000002</v>
-      </c>
-      <c r="V32" s="2">
-        <v>24.149000000000001</v>
-      </c>
-      <c r="W32" s="2">
-        <v>24.849</v>
-      </c>
-      <c r="X32" s="2">
-        <v>25.548999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+        <v>21.966999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -3075,46 +2687,34 @@
         <v>4</v>
       </c>
       <c r="L33" s="2">
-        <v>8.718</v>
+        <v>8.1530000000000005</v>
       </c>
       <c r="M33" s="2">
-        <v>9.6180000000000003</v>
+        <v>9.0860000000000003</v>
       </c>
       <c r="N33" s="2">
-        <v>10.551</v>
+        <v>10.036</v>
       </c>
       <c r="O33" s="2">
-        <v>11.468</v>
+        <v>10.968999999999999</v>
       </c>
       <c r="P33" s="2">
-        <v>12.367000000000001</v>
+        <v>11.885</v>
       </c>
       <c r="Q33" s="2">
-        <v>13.266999999999999</v>
+        <v>12.785</v>
       </c>
       <c r="R33" s="2">
-        <v>14.15</v>
+        <v>13.685</v>
       </c>
       <c r="S33" s="2">
-        <v>15.016999999999999</v>
+        <v>14.568</v>
       </c>
       <c r="T33" s="2">
-        <v>15.9</v>
-      </c>
-      <c r="U33" s="2">
-        <v>16.8</v>
-      </c>
-      <c r="V33" s="2">
-        <v>17.667000000000002</v>
-      </c>
-      <c r="W33" s="2">
-        <v>18.515999999999998</v>
-      </c>
-      <c r="X33" s="2">
-        <v>19.382999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+        <v>15.452</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -3143,46 +2743,34 @@
         <v>4</v>
       </c>
       <c r="L34" s="2">
-        <v>11.667999999999999</v>
+        <v>10.852</v>
       </c>
       <c r="M34" s="2">
-        <v>12.500999999999999</v>
+        <v>11.718999999999999</v>
       </c>
       <c r="N34" s="2">
-        <v>13.367000000000001</v>
+        <v>12.602</v>
       </c>
       <c r="O34" s="2">
-        <v>14.217000000000001</v>
+        <v>13.435</v>
       </c>
       <c r="P34" s="2">
-        <v>15.05</v>
+        <v>14.318</v>
       </c>
       <c r="Q34" s="2">
-        <v>15.9</v>
+        <v>15.151999999999999</v>
       </c>
       <c r="R34" s="2">
-        <v>16.766999999999999</v>
+        <v>16.035</v>
       </c>
       <c r="S34" s="2">
-        <v>17.582999999999998</v>
+        <v>16.901</v>
       </c>
       <c r="T34" s="2">
-        <v>18.466000000000001</v>
-      </c>
-      <c r="U34" s="2">
-        <v>19.265999999999998</v>
-      </c>
-      <c r="V34" s="2">
-        <v>20.082999999999998</v>
-      </c>
-      <c r="W34" s="2">
-        <v>20.866</v>
-      </c>
-      <c r="X34" s="2">
-        <v>21.666</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+        <v>17.701000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>54</v>
       </c>
@@ -3211,46 +2799,34 @@
         <v>4</v>
       </c>
       <c r="L35" s="2">
-        <v>7.952</v>
+        <v>7.3860000000000001</v>
       </c>
       <c r="M35" s="2">
-        <v>8.9009999999999998</v>
+        <v>8.3360000000000003</v>
       </c>
       <c r="N35" s="2">
-        <v>9.8350000000000009</v>
+        <v>9.2859999999999996</v>
       </c>
       <c r="O35" s="2">
-        <v>10.768000000000001</v>
+        <v>10.252000000000001</v>
       </c>
       <c r="P35" s="2">
-        <v>11.683999999999999</v>
+        <v>11.186</v>
       </c>
       <c r="Q35" s="2">
-        <v>12.584</v>
+        <v>12.102</v>
       </c>
       <c r="R35" s="2">
-        <v>13.484</v>
+        <v>13.035</v>
       </c>
       <c r="S35" s="2">
-        <v>14.367000000000001</v>
+        <v>13.917999999999999</v>
       </c>
       <c r="T35" s="2">
-        <v>15.266999999999999</v>
-      </c>
-      <c r="U35" s="2">
-        <v>16.167000000000002</v>
-      </c>
-      <c r="V35" s="2">
-        <v>17.05</v>
-      </c>
-      <c r="W35" s="2">
-        <v>17.95</v>
-      </c>
-      <c r="X35" s="2">
-        <v>18.815999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+        <v>14.802</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -3279,46 +2855,34 @@
         <v>4</v>
       </c>
       <c r="L36" s="2">
-        <v>11.951000000000001</v>
+        <v>11.135999999999999</v>
       </c>
       <c r="M36" s="2">
-        <v>12.784000000000001</v>
+        <v>12.002000000000001</v>
       </c>
       <c r="N36" s="2">
-        <v>13.634</v>
+        <v>12.869</v>
       </c>
       <c r="O36" s="2">
-        <v>14.484</v>
+        <v>13.718</v>
       </c>
       <c r="P36" s="2">
-        <v>15.334</v>
+        <v>14.568</v>
       </c>
       <c r="Q36" s="2">
-        <v>16.167000000000002</v>
+        <v>15.417999999999999</v>
       </c>
       <c r="R36" s="2">
-        <v>17.016999999999999</v>
+        <v>16.285</v>
       </c>
       <c r="S36" s="2">
-        <v>17.850000000000001</v>
+        <v>17.135000000000002</v>
       </c>
       <c r="T36" s="2">
-        <v>18.683</v>
-      </c>
-      <c r="U36" s="2">
-        <v>19.515999999999998</v>
-      </c>
-      <c r="V36" s="2">
-        <v>20.3</v>
-      </c>
-      <c r="W36" s="2">
-        <v>21.082999999999998</v>
-      </c>
-      <c r="X36" s="2">
-        <v>21.882999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+        <v>17.968</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
@@ -3347,46 +2911,34 @@
         <v>4</v>
       </c>
       <c r="L37" s="2">
-        <v>17.516999999999999</v>
+        <v>16.635000000000002</v>
       </c>
       <c r="M37" s="2">
-        <v>18.283000000000001</v>
+        <v>17.401</v>
       </c>
       <c r="N37" s="2">
-        <v>19.033000000000001</v>
+        <v>18.151</v>
       </c>
       <c r="O37" s="2">
-        <v>19.783000000000001</v>
+        <v>18.917999999999999</v>
       </c>
       <c r="P37" s="2">
-        <v>20.515999999999998</v>
+        <v>19.651</v>
       </c>
       <c r="Q37" s="2">
-        <v>21.248999999999999</v>
+        <v>20.401</v>
       </c>
       <c r="R37" s="2">
-        <v>21.949000000000002</v>
+        <v>21.134</v>
       </c>
       <c r="S37" s="2">
-        <v>22.666</v>
+        <v>21.85</v>
       </c>
       <c r="T37" s="2">
-        <v>23.366</v>
-      </c>
-      <c r="U37" s="2">
-        <v>24.065999999999999</v>
-      </c>
-      <c r="V37" s="2">
-        <v>24.748999999999999</v>
-      </c>
-      <c r="W37" s="2">
-        <v>25.431999999999999</v>
-      </c>
-      <c r="X37" s="2">
-        <v>26.114999999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+        <v>22.567</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
@@ -3415,46 +2967,34 @@
         <v>4</v>
       </c>
       <c r="L38" s="2">
-        <v>9.2349999999999994</v>
+        <v>8.6359999999999992</v>
       </c>
       <c r="M38" s="2">
-        <v>10.134</v>
+        <v>9.5190000000000001</v>
       </c>
       <c r="N38" s="2">
-        <v>11.034000000000001</v>
+        <v>10.452</v>
       </c>
       <c r="O38" s="2">
-        <v>11.933999999999999</v>
+        <v>11.385999999999999</v>
       </c>
       <c r="P38" s="2">
-        <v>12.817</v>
+        <v>12.285</v>
       </c>
       <c r="Q38" s="2">
-        <v>13.701000000000001</v>
+        <v>13.202</v>
       </c>
       <c r="R38" s="2">
-        <v>14.55</v>
+        <v>14.068</v>
       </c>
       <c r="S38" s="2">
-        <v>15.433999999999999</v>
+        <v>14.952</v>
       </c>
       <c r="T38" s="2">
-        <v>16.332999999999998</v>
-      </c>
-      <c r="U38" s="2">
-        <v>17.216999999999999</v>
-      </c>
-      <c r="V38" s="2">
-        <v>18.082999999999998</v>
-      </c>
-      <c r="W38" s="2">
-        <v>18.916</v>
-      </c>
-      <c r="X38" s="2">
-        <v>19.765999999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+        <v>15.818</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
@@ -3483,46 +3023,34 @@
         <v>4</v>
       </c>
       <c r="L39" s="2">
-        <v>8.1020000000000003</v>
+        <v>7.52</v>
       </c>
       <c r="M39" s="2">
-        <v>9.0350000000000001</v>
+        <v>8.4860000000000007</v>
       </c>
       <c r="N39" s="2">
-        <v>9.968</v>
+        <v>9.4190000000000005</v>
       </c>
       <c r="O39" s="2">
-        <v>10.884</v>
+        <v>10.385999999999999</v>
       </c>
       <c r="P39" s="2">
-        <v>11.801</v>
+        <v>11.319000000000001</v>
       </c>
       <c r="Q39" s="2">
-        <v>12.717000000000001</v>
+        <v>12.234999999999999</v>
       </c>
       <c r="R39" s="2">
-        <v>13.601000000000001</v>
+        <v>13.151999999999999</v>
       </c>
       <c r="S39" s="2">
-        <v>14.484</v>
+        <v>14.052</v>
       </c>
       <c r="T39" s="2">
-        <v>15.367000000000001</v>
-      </c>
-      <c r="U39" s="2">
-        <v>16.266999999999999</v>
-      </c>
-      <c r="V39" s="2">
-        <v>17.167000000000002</v>
-      </c>
-      <c r="W39" s="2">
-        <v>18.05</v>
-      </c>
-      <c r="X39" s="2">
-        <v>18.916</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+        <v>14.917999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
@@ -3557,46 +3085,34 @@
         <v>4</v>
       </c>
       <c r="L40" s="2">
-        <v>17.832999999999998</v>
+        <v>16.951000000000001</v>
       </c>
       <c r="M40" s="2">
-        <v>18.582999999999998</v>
+        <v>17.718</v>
       </c>
       <c r="N40" s="2">
-        <v>19.332999999999998</v>
+        <v>18.451000000000001</v>
       </c>
       <c r="O40" s="2">
-        <v>20.065999999999999</v>
+        <v>19.201000000000001</v>
       </c>
       <c r="P40" s="2">
-        <v>20.798999999999999</v>
+        <v>19.934000000000001</v>
       </c>
       <c r="Q40" s="2">
-        <v>21.498999999999999</v>
+        <v>20.667000000000002</v>
       </c>
       <c r="R40" s="2">
-        <v>22.199000000000002</v>
+        <v>21.401</v>
       </c>
       <c r="S40" s="2">
-        <v>22.882000000000001</v>
+        <v>22.1</v>
       </c>
       <c r="T40" s="2">
-        <v>23.599</v>
-      </c>
-      <c r="U40" s="2">
-        <v>24.298999999999999</v>
-      </c>
-      <c r="V40" s="2">
-        <v>24.965</v>
-      </c>
-      <c r="W40" s="2">
-        <v>25.632000000000001</v>
-      </c>
-      <c r="X40" s="2">
-        <v>26.315000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+        <v>22.817</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
@@ -3625,46 +3141,34 @@
         <v>4</v>
       </c>
       <c r="L41" s="2">
-        <v>18.366</v>
+        <v>17.434999999999999</v>
       </c>
       <c r="M41" s="2">
-        <v>19.100000000000001</v>
+        <v>18.184000000000001</v>
       </c>
       <c r="N41" s="2">
-        <v>19.815999999999999</v>
+        <v>18.917999999999999</v>
       </c>
       <c r="O41" s="2">
-        <v>20.548999999999999</v>
+        <v>19.651</v>
       </c>
       <c r="P41" s="2">
-        <v>21.265999999999998</v>
+        <v>20.367000000000001</v>
       </c>
       <c r="Q41" s="2">
-        <v>21.966000000000001</v>
+        <v>21.100999999999999</v>
       </c>
       <c r="R41" s="2">
-        <v>22.666</v>
+        <v>21.817</v>
       </c>
       <c r="S41" s="2">
-        <v>23.349</v>
+        <v>22.516999999999999</v>
       </c>
       <c r="T41" s="2">
-        <v>24.032</v>
-      </c>
-      <c r="U41" s="2">
-        <v>24.715</v>
-      </c>
-      <c r="V41" s="2">
-        <v>25.382000000000001</v>
-      </c>
-      <c r="W41" s="2">
-        <v>26.048999999999999</v>
-      </c>
-      <c r="X41" s="2">
-        <v>26.715</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+        <v>23.216999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
@@ -3699,46 +3203,34 @@
         <v>4</v>
       </c>
       <c r="L42" s="2">
-        <v>9.5510000000000002</v>
+        <v>8.9190000000000005</v>
       </c>
       <c r="M42" s="2">
-        <v>10.451000000000001</v>
+        <v>9.8360000000000003</v>
       </c>
       <c r="N42" s="2">
-        <v>11.368</v>
+        <v>10.752000000000001</v>
       </c>
       <c r="O42" s="2">
-        <v>12.234</v>
+        <v>11.669</v>
       </c>
       <c r="P42" s="2">
-        <v>13.151</v>
+        <v>12.585000000000001</v>
       </c>
       <c r="Q42" s="2">
-        <v>14.016999999999999</v>
+        <v>13.468999999999999</v>
       </c>
       <c r="R42" s="2">
-        <v>14.884</v>
+        <v>14.335000000000001</v>
       </c>
       <c r="S42" s="2">
-        <v>15.734</v>
+        <v>15.218</v>
       </c>
       <c r="T42" s="2">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="U42" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="V42" s="2">
-        <v>18.366</v>
-      </c>
-      <c r="W42" s="2">
-        <v>19.183</v>
-      </c>
-      <c r="X42" s="2">
-        <v>20.015999999999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+        <v>16.085000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
@@ -3773,46 +3265,34 @@
         <v>4</v>
       </c>
       <c r="L43" s="2">
-        <v>9.8849999999999998</v>
+        <v>9.2360000000000007</v>
       </c>
       <c r="M43" s="2">
-        <v>10.784000000000001</v>
+        <v>10.169</v>
       </c>
       <c r="N43" s="2">
-        <v>11.667999999999999</v>
+        <v>11.086</v>
       </c>
       <c r="O43" s="2">
-        <v>12.584</v>
+        <v>12.002000000000001</v>
       </c>
       <c r="P43" s="2">
-        <v>13.467000000000001</v>
+        <v>12.885</v>
       </c>
       <c r="Q43" s="2">
-        <v>14.334</v>
+        <v>13.768000000000001</v>
       </c>
       <c r="R43" s="2">
-        <v>15.167</v>
+        <v>14.667999999999999</v>
       </c>
       <c r="S43" s="2">
-        <v>16.067</v>
+        <v>15.535</v>
       </c>
       <c r="T43" s="2">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="U43" s="2">
-        <v>17.783000000000001</v>
-      </c>
-      <c r="V43" s="2">
-        <v>18.765999999999998</v>
-      </c>
-      <c r="W43" s="2">
-        <v>19.5</v>
-      </c>
-      <c r="X43" s="2">
-        <v>20.3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+        <v>16.367999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
@@ -3822,6 +3302,12 @@
       <c r="C44" s="9">
         <v>30</v>
       </c>
+      <c r="D44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="1">
+        <v>7</v>
+      </c>
       <c r="F44" s="1">
         <v>10</v>
       </c>
@@ -3841,46 +3327,34 @@
         <v>4</v>
       </c>
       <c r="L44" s="2">
-        <v>13.250999999999999</v>
+        <v>12.385</v>
       </c>
       <c r="M44" s="2">
-        <v>14.067</v>
+        <v>13.234999999999999</v>
       </c>
       <c r="N44" s="2">
-        <v>14.884</v>
+        <v>14.018000000000001</v>
       </c>
       <c r="O44" s="2">
-        <v>15.7</v>
+        <v>14.885</v>
       </c>
       <c r="P44" s="2">
-        <v>16.55</v>
+        <v>15.718</v>
       </c>
       <c r="Q44" s="2">
-        <v>17.332999999999998</v>
+        <v>16.535</v>
       </c>
       <c r="R44" s="2">
-        <v>18.183</v>
+        <v>17.385000000000002</v>
       </c>
       <c r="S44" s="2">
-        <v>19</v>
+        <v>18.201000000000001</v>
       </c>
       <c r="T44" s="2">
-        <v>19.783000000000001</v>
-      </c>
-      <c r="U44" s="2">
-        <v>20.565999999999999</v>
-      </c>
-      <c r="V44" s="2">
-        <v>21.332999999999998</v>
-      </c>
-      <c r="W44" s="2">
-        <v>22.082999999999998</v>
-      </c>
-      <c r="X44" s="2">
-        <v>22.866</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+        <v>19.018000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -3909,46 +3383,34 @@
         <v>4</v>
       </c>
       <c r="L45" s="2">
-        <v>17.582999999999998</v>
+        <v>16.684999999999999</v>
       </c>
       <c r="M45" s="2">
-        <v>18.332999999999998</v>
+        <v>17.417999999999999</v>
       </c>
       <c r="N45" s="2">
-        <v>19.082999999999998</v>
+        <v>18.184000000000001</v>
       </c>
       <c r="O45" s="2">
-        <v>19.815999999999999</v>
+        <v>18.951000000000001</v>
       </c>
       <c r="P45" s="2">
-        <v>20.582999999999998</v>
+        <v>19.684000000000001</v>
       </c>
       <c r="Q45" s="2">
-        <v>21.283000000000001</v>
+        <v>20.417000000000002</v>
       </c>
       <c r="R45" s="2">
-        <v>21.998999999999999</v>
+        <v>21.151</v>
       </c>
       <c r="S45" s="2">
-        <v>22.681999999999999</v>
+        <v>21.867000000000001</v>
       </c>
       <c r="T45" s="2">
-        <v>23.382000000000001</v>
-      </c>
-      <c r="U45" s="2">
-        <v>24.082000000000001</v>
-      </c>
-      <c r="V45" s="2">
-        <v>24.782</v>
-      </c>
-      <c r="W45" s="2">
-        <v>25.449000000000002</v>
-      </c>
-      <c r="X45" s="2">
-        <v>26.149000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+        <v>22.584</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
@@ -3982,47 +3444,35 @@
       <c r="K46" s="1">
         <v>4</v>
       </c>
-      <c r="L46" s="2">
-        <v>13.867000000000001</v>
-      </c>
-      <c r="M46" s="2">
-        <v>14.683999999999999</v>
-      </c>
-      <c r="N46" s="2">
-        <v>15.5</v>
-      </c>
-      <c r="O46" s="2">
-        <v>16.3</v>
-      </c>
-      <c r="P46" s="2">
-        <v>17.132999999999999</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>17.966999999999999</v>
-      </c>
-      <c r="R46" s="2">
-        <v>18.75</v>
-      </c>
-      <c r="S46" s="2">
-        <v>19.515999999999998</v>
-      </c>
-      <c r="T46" s="2">
-        <v>20.349</v>
-      </c>
-      <c r="U46" s="2">
-        <v>21.082999999999998</v>
-      </c>
-      <c r="V46" s="2">
-        <v>21.815999999999999</v>
-      </c>
-      <c r="W46" s="2">
-        <v>22.582000000000001</v>
-      </c>
-      <c r="X46" s="2">
-        <v>23.349</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L46" s="1">
+        <v>13.002000000000001</v>
+      </c>
+      <c r="M46" s="1">
+        <v>13.785</v>
+      </c>
+      <c r="N46" s="1">
+        <v>14.635</v>
+      </c>
+      <c r="O46" s="1">
+        <v>15.452</v>
+      </c>
+      <c r="P46" s="1">
+        <v>16.367999999999999</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>17.100999999999999</v>
+      </c>
+      <c r="R46" s="1">
+        <v>17.901</v>
+      </c>
+      <c r="S46" s="1">
+        <v>18.718</v>
+      </c>
+      <c r="T46" s="1">
+        <v>19.518000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -4051,46 +3501,34 @@
         <v>4</v>
       </c>
       <c r="L47" s="2">
-        <v>17.617000000000001</v>
+        <v>16.901</v>
       </c>
       <c r="M47" s="2">
-        <v>18.366</v>
+        <v>17.651</v>
       </c>
       <c r="N47" s="2">
-        <v>19.116</v>
+        <v>18.401</v>
       </c>
       <c r="O47" s="2">
-        <v>19.866</v>
+        <v>19.167999999999999</v>
       </c>
       <c r="P47" s="2">
-        <v>20.599</v>
+        <v>19.884</v>
       </c>
       <c r="Q47" s="2">
-        <v>21.332999999999998</v>
+        <v>20.634</v>
       </c>
       <c r="R47" s="2">
-        <v>22.033000000000001</v>
+        <v>21.367000000000001</v>
       </c>
       <c r="S47" s="2">
-        <v>22.731999999999999</v>
+        <v>22.067</v>
       </c>
       <c r="T47" s="2">
-        <v>23.416</v>
-      </c>
-      <c r="U47" s="2">
-        <v>24.132000000000001</v>
-      </c>
-      <c r="V47" s="2">
-        <v>24.815000000000001</v>
-      </c>
-      <c r="W47" s="2">
-        <v>25.498999999999999</v>
-      </c>
-      <c r="X47" s="2">
-        <v>26.199000000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+        <v>22.783999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>61</v>
       </c>
@@ -4107,7 +3545,7 @@
         <v>1.25</v>
       </c>
       <c r="H48" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I48" s="1">
         <v>3</v>
@@ -4119,46 +3557,34 @@
         <v>6</v>
       </c>
       <c r="L48" s="2">
-        <v>21.765999999999998</v>
+        <v>20.800999999999998</v>
       </c>
       <c r="M48" s="2">
-        <v>22.431999999999999</v>
+        <v>21.384</v>
       </c>
       <c r="N48" s="2">
-        <v>23.032</v>
+        <v>22.15</v>
       </c>
       <c r="O48" s="2">
-        <v>23.748999999999999</v>
+        <v>22.783999999999999</v>
       </c>
       <c r="P48" s="2">
-        <v>24.349</v>
+        <v>23.417000000000002</v>
       </c>
       <c r="Q48" s="2">
-        <v>25.015000000000001</v>
+        <v>24.033000000000001</v>
       </c>
       <c r="R48" s="2">
-        <v>25.632000000000001</v>
+        <v>24.716999999999999</v>
       </c>
       <c r="S48" s="2">
-        <v>26.231999999999999</v>
+        <v>25.35</v>
       </c>
       <c r="T48" s="2">
-        <v>26.832000000000001</v>
-      </c>
-      <c r="U48" s="2">
-        <v>27.465</v>
-      </c>
-      <c r="V48" s="2">
-        <v>28.097999999999999</v>
-      </c>
-      <c r="W48" s="2">
-        <v>28.614999999999998</v>
-      </c>
-      <c r="X48" s="2">
-        <v>29.215</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+        <v>25.983000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
@@ -4187,46 +3613,34 @@
         <v>6</v>
       </c>
       <c r="L49" s="2">
-        <v>14.367000000000001</v>
+        <v>17.468</v>
       </c>
       <c r="M49" s="2">
-        <v>15.134</v>
+        <v>18.134</v>
       </c>
       <c r="N49" s="2">
-        <v>16</v>
+        <v>18.901</v>
       </c>
       <c r="O49" s="2">
-        <v>16.832999999999998</v>
+        <v>19.667999999999999</v>
       </c>
       <c r="P49" s="2">
-        <v>17.617000000000001</v>
+        <v>20.401</v>
       </c>
       <c r="Q49" s="2">
-        <v>18.399999999999999</v>
+        <v>21.084</v>
       </c>
       <c r="R49" s="2">
-        <v>19.2</v>
+        <v>21.783999999999999</v>
       </c>
       <c r="S49" s="2">
-        <v>19.966000000000001</v>
+        <v>22.516999999999999</v>
       </c>
       <c r="T49" s="2">
-        <v>20.733000000000001</v>
-      </c>
-      <c r="U49" s="2">
-        <v>21.466000000000001</v>
-      </c>
-      <c r="V49" s="2">
-        <v>22.216000000000001</v>
-      </c>
-      <c r="W49" s="2">
-        <v>22.949000000000002</v>
-      </c>
-      <c r="X49" s="2">
-        <v>23.681999999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>78</v>
       </c>
@@ -4255,46 +3669,34 @@
         <v>6</v>
       </c>
       <c r="L50" s="2">
-        <v>14.634</v>
+        <v>13.702</v>
       </c>
       <c r="M50" s="2">
-        <v>15.4</v>
+        <v>14.502000000000001</v>
       </c>
       <c r="N50" s="2">
-        <v>16.167000000000002</v>
+        <v>15.318</v>
       </c>
       <c r="O50" s="2">
-        <v>17.016999999999999</v>
+        <v>16.117999999999999</v>
       </c>
       <c r="P50" s="2">
-        <v>17.8</v>
+        <v>16.951000000000001</v>
       </c>
       <c r="Q50" s="2">
-        <v>18.582999999999998</v>
+        <v>17.751000000000001</v>
       </c>
       <c r="R50" s="2">
-        <v>19.366</v>
+        <v>18.550999999999998</v>
       </c>
       <c r="S50" s="2">
-        <v>20.116</v>
+        <v>19.334</v>
       </c>
       <c r="T50" s="2">
-        <v>20.933</v>
-      </c>
-      <c r="U50" s="2">
-        <v>21.649000000000001</v>
-      </c>
-      <c r="V50" s="2">
-        <v>22.366</v>
-      </c>
-      <c r="W50" s="2">
-        <v>23.082000000000001</v>
-      </c>
-      <c r="X50" s="2">
-        <v>23.866</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+        <v>20.134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>79</v>
       </c>
@@ -4323,43 +3725,31 @@
         <v>6</v>
       </c>
       <c r="L51" s="2">
-        <v>16.933</v>
+        <v>15.885</v>
       </c>
       <c r="M51" s="2">
-        <v>17.632999999999999</v>
+        <v>16.667999999999999</v>
       </c>
       <c r="N51" s="2">
-        <v>18.416</v>
+        <v>17.484999999999999</v>
       </c>
       <c r="O51" s="2">
-        <v>19.132999999999999</v>
+        <v>18.251000000000001</v>
       </c>
       <c r="P51" s="2">
-        <v>19.916</v>
+        <v>18.984000000000002</v>
       </c>
       <c r="Q51" s="2">
-        <v>20.666</v>
+        <v>19.701000000000001</v>
       </c>
       <c r="R51" s="2">
-        <v>21.366</v>
+        <v>20.466999999999999</v>
       </c>
       <c r="S51" s="2">
-        <v>22.015999999999998</v>
+        <v>21.184000000000001</v>
       </c>
       <c r="T51" s="2">
-        <v>22.748999999999999</v>
-      </c>
-      <c r="U51" s="2">
-        <v>23.466000000000001</v>
-      </c>
-      <c r="V51" s="2">
-        <v>24.166</v>
-      </c>
-      <c r="W51" s="2">
-        <v>24.864999999999998</v>
-      </c>
-      <c r="X51" s="2">
-        <v>25.582000000000001</v>
+        <v>21.9</v>
       </c>
     </row>
   </sheetData>
@@ -4371,29 +3761,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A216F2F-1DB9-4E5E-A855-A9314ED5B547}">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="33" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="32" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
+    <col min="8" max="8" width="32" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
     <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
     <col min="11" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4404,7 +3793,7 @@
         <v>71</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>67</v>
@@ -4419,52 +3808,40 @@
         <v>63</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>81</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -4475,7 +3852,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E2" s="7">
         <v>2</v>
@@ -4496,46 +3873,34 @@
         <v>4</v>
       </c>
       <c r="K2" s="1">
-        <v>6.468</v>
+        <v>5.8029999999999999</v>
       </c>
       <c r="L2" s="1">
-        <v>7.4180000000000001</v>
+        <v>6.8029999999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>8.3849999999999998</v>
+        <v>7.7690000000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>9.3350000000000009</v>
+        <v>8.7360000000000007</v>
       </c>
       <c r="O2" s="1">
-        <v>10.284000000000001</v>
+        <v>9.702</v>
       </c>
       <c r="P2" s="1">
-        <v>11.218</v>
+        <v>10.651999999999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>12.134</v>
+        <v>11.619</v>
       </c>
       <c r="R2" s="1">
-        <v>13.067</v>
+        <v>12.585000000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>13.967000000000001</v>
-      </c>
-      <c r="T2" s="1">
-        <v>14.884</v>
-      </c>
-      <c r="U2" s="1">
-        <v>15.784000000000001</v>
-      </c>
-      <c r="V2" s="1">
-        <v>16.733000000000001</v>
-      </c>
-      <c r="W2" s="1">
-        <v>17.667000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>13.468999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -4546,7 +3911,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E3" s="7">
         <v>2</v>
@@ -4567,46 +3932,34 @@
         <v>4</v>
       </c>
       <c r="K3" s="1">
-        <v>7.2519999999999998</v>
+        <v>6.5860000000000003</v>
       </c>
       <c r="L3" s="1">
-        <v>8.2010000000000005</v>
+        <v>7.57</v>
       </c>
       <c r="M3" s="1">
-        <v>9.1509999999999998</v>
+        <v>8.5190000000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>10.084</v>
+        <v>9.4689999999999994</v>
       </c>
       <c r="O3" s="1">
-        <v>11.018000000000001</v>
+        <v>10.419</v>
       </c>
       <c r="P3" s="1">
-        <v>11.951000000000001</v>
+        <v>11.336</v>
       </c>
       <c r="Q3" s="1">
-        <v>12.867000000000001</v>
+        <v>12.302</v>
       </c>
       <c r="R3" s="1">
-        <v>13.750999999999999</v>
+        <v>13.234999999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>14.667</v>
-      </c>
-      <c r="T3" s="1">
-        <v>15.55</v>
-      </c>
-      <c r="U3" s="1">
-        <v>16.466999999999999</v>
-      </c>
-      <c r="V3" s="1">
-        <v>17.382999999999999</v>
-      </c>
-      <c r="W3" s="1">
-        <v>18.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>14.102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
@@ -4617,7 +3970,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4" s="7">
         <v>2</v>
@@ -4638,46 +3991,34 @@
         <v>4</v>
       </c>
       <c r="K4" s="1">
-        <v>7.3019999999999996</v>
+        <v>6.77</v>
       </c>
       <c r="L4" s="1">
-        <v>8.2509999999999994</v>
+        <v>7.7359999999999998</v>
       </c>
       <c r="M4" s="1">
-        <v>9.2010000000000005</v>
+        <v>8.7029999999999994</v>
       </c>
       <c r="N4" s="1">
-        <v>10.134</v>
+        <v>9.6859999999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>11.068</v>
+        <v>10.635999999999999</v>
       </c>
       <c r="P4" s="1">
-        <v>12.000999999999999</v>
+        <v>11.552</v>
       </c>
       <c r="Q4" s="1">
-        <v>12.917</v>
+        <v>12.502000000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>13.801</v>
+        <v>13.401999999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>14.7</v>
-      </c>
-      <c r="T4" s="1">
-        <v>15.6</v>
-      </c>
-      <c r="U4" s="1">
-        <v>16.5</v>
-      </c>
-      <c r="V4" s="1">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="W4" s="1">
-        <v>18.283000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>14.285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
@@ -4688,7 +4029,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5" s="7">
         <v>3</v>
@@ -4709,46 +4050,34 @@
         <v>4</v>
       </c>
       <c r="K5" s="1">
-        <v>8.6509999999999998</v>
+        <v>7.9530000000000003</v>
       </c>
       <c r="L5" s="1">
-        <v>9.5679999999999996</v>
+        <v>8.9030000000000005</v>
       </c>
       <c r="M5" s="1">
-        <v>10.484</v>
+        <v>9.8190000000000008</v>
       </c>
       <c r="N5" s="1">
-        <v>11.384</v>
+        <v>10.752000000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>12.301</v>
+        <v>11.669</v>
       </c>
       <c r="P5" s="1">
-        <v>13.183999999999999</v>
+        <v>12.569000000000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>14.067</v>
+        <v>13.484999999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>14.95</v>
+        <v>14.401999999999999</v>
       </c>
       <c r="S5" s="1">
-        <v>15.834</v>
-      </c>
-      <c r="T5" s="1">
-        <v>16.733000000000001</v>
-      </c>
-      <c r="U5" s="1">
-        <v>17.617000000000001</v>
-      </c>
-      <c r="V5" s="1">
-        <v>18.5</v>
-      </c>
-      <c r="W5" s="1">
-        <v>19.366</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15.252000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -4759,7 +4088,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" s="7">
         <v>3</v>
@@ -4780,46 +4109,34 @@
         <v>4</v>
       </c>
       <c r="K6" s="1">
-        <v>8.718</v>
+        <v>8.1530000000000005</v>
       </c>
       <c r="L6" s="1">
-        <v>9.6349999999999998</v>
+        <v>9.0860000000000003</v>
       </c>
       <c r="M6" s="1">
-        <v>10.551</v>
+        <v>10.036</v>
       </c>
       <c r="N6" s="1">
-        <v>11.468</v>
+        <v>10.968999999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>12.367000000000001</v>
+        <v>11.885</v>
       </c>
       <c r="P6" s="1">
-        <v>13.266999999999999</v>
+        <v>12.785</v>
       </c>
       <c r="Q6" s="1">
-        <v>14.15</v>
+        <v>13.685</v>
       </c>
       <c r="R6" s="1">
-        <v>15.016999999999999</v>
+        <v>14.568</v>
       </c>
       <c r="S6" s="1">
-        <v>15.9</v>
-      </c>
-      <c r="T6" s="1">
-        <v>16.8</v>
-      </c>
-      <c r="U6" s="1">
-        <v>17.667000000000002</v>
-      </c>
-      <c r="V6" s="1">
-        <v>18.515999999999998</v>
-      </c>
-      <c r="W6" s="1">
-        <v>19.382999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15.452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>43</v>
       </c>
@@ -4830,7 +4147,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="7">
         <v>3</v>
@@ -4851,46 +4168,34 @@
         <v>4</v>
       </c>
       <c r="K7" s="1">
-        <v>9.1679999999999993</v>
+        <v>8.6029999999999998</v>
       </c>
       <c r="L7" s="1">
-        <v>10.084</v>
+        <v>9.5190000000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>10.984</v>
+        <v>10.436</v>
       </c>
       <c r="N7" s="1">
-        <v>11.901</v>
+        <v>11.369</v>
       </c>
       <c r="O7" s="1">
-        <v>12.784000000000001</v>
+        <v>12.269</v>
       </c>
       <c r="P7" s="1">
-        <v>13.667</v>
+        <v>13.169</v>
       </c>
       <c r="Q7" s="1">
-        <v>14.55</v>
+        <v>14.068</v>
       </c>
       <c r="R7" s="1">
-        <v>15.417</v>
+        <v>14.952</v>
       </c>
       <c r="S7" s="1">
-        <v>16.3</v>
-      </c>
-      <c r="T7" s="1">
-        <v>17.183</v>
-      </c>
-      <c r="U7" s="1">
-        <v>18.05</v>
-      </c>
-      <c r="V7" s="1">
-        <v>18.882999999999999</v>
-      </c>
-      <c r="W7" s="1">
-        <v>19.733000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15.801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>32</v>
       </c>
@@ -4901,7 +4206,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" s="7">
         <v>3</v>
@@ -4922,46 +4227,34 @@
         <v>4</v>
       </c>
       <c r="K8" s="1">
-        <v>9.8010000000000002</v>
+        <v>9.0860000000000003</v>
       </c>
       <c r="L8" s="1">
-        <v>10.701000000000001</v>
+        <v>9.9860000000000007</v>
       </c>
       <c r="M8" s="1">
-        <v>11.584</v>
+        <v>10.885999999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>12.467000000000001</v>
+        <v>11.802</v>
       </c>
       <c r="O8" s="1">
-        <v>13.351000000000001</v>
+        <v>12.702</v>
       </c>
       <c r="P8" s="1">
-        <v>14.217000000000001</v>
+        <v>13.569000000000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>15.084</v>
+        <v>14.468</v>
       </c>
       <c r="R8" s="1">
-        <v>15.95</v>
+        <v>15.352</v>
       </c>
       <c r="S8" s="1">
-        <v>16.832999999999998</v>
-      </c>
-      <c r="T8" s="1">
-        <v>17.716999999999999</v>
-      </c>
-      <c r="U8" s="1">
-        <v>18.565999999999999</v>
-      </c>
-      <c r="V8" s="1">
-        <v>19.416</v>
-      </c>
-      <c r="W8" s="1">
-        <v>20.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>16.218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
@@ -4972,7 +4265,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="7">
         <v>8</v>
@@ -4993,46 +4286,34 @@
         <v>4</v>
       </c>
       <c r="K9" s="1">
-        <v>11.951000000000001</v>
+        <v>11.151999999999999</v>
       </c>
       <c r="L9" s="1">
-        <v>12.784000000000001</v>
+        <v>12.002000000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>13.634</v>
+        <v>12.869</v>
       </c>
       <c r="N9" s="1">
-        <v>14.5</v>
+        <v>13.718</v>
       </c>
       <c r="O9" s="1">
-        <v>15.334</v>
+        <v>14.585000000000001</v>
       </c>
       <c r="P9" s="1">
-        <v>16.167000000000002</v>
+        <v>15.435</v>
       </c>
       <c r="Q9" s="1">
-        <v>17.016999999999999</v>
+        <v>16.300999999999998</v>
       </c>
       <c r="R9" s="1">
-        <v>17.867000000000001</v>
+        <v>17.135000000000002</v>
       </c>
       <c r="S9" s="1">
-        <v>18.7</v>
-      </c>
-      <c r="T9" s="1">
-        <v>19.515999999999998</v>
-      </c>
-      <c r="U9" s="1">
-        <v>20.3</v>
-      </c>
-      <c r="V9" s="1">
-        <v>21.082999999999998</v>
-      </c>
-      <c r="W9" s="1">
-        <v>21.882999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>17.968</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -5043,7 +4324,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E10" s="7">
         <v>8</v>
@@ -5064,46 +4345,34 @@
         <v>4</v>
       </c>
       <c r="K10" s="1">
-        <v>18.05</v>
+        <v>17.151</v>
       </c>
       <c r="L10" s="1">
-        <v>18.8</v>
+        <v>17.901</v>
       </c>
       <c r="M10" s="1">
-        <v>19.533000000000001</v>
+        <v>18.651</v>
       </c>
       <c r="N10" s="1">
-        <v>20.265999999999998</v>
+        <v>19.384</v>
       </c>
       <c r="O10" s="1">
-        <v>20.998999999999999</v>
+        <v>20.117000000000001</v>
       </c>
       <c r="P10" s="1">
-        <v>21.699000000000002</v>
+        <v>20.850999999999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>22.399000000000001</v>
+        <v>21.567</v>
       </c>
       <c r="R10" s="1">
-        <v>23.099</v>
+        <v>22.283999999999999</v>
       </c>
       <c r="S10" s="1">
-        <v>23.798999999999999</v>
-      </c>
-      <c r="T10" s="1">
-        <v>24.481999999999999</v>
-      </c>
-      <c r="U10" s="1">
-        <v>25.164999999999999</v>
-      </c>
-      <c r="V10" s="1">
-        <v>25.832000000000001</v>
-      </c>
-      <c r="W10" s="1">
-        <v>26.498000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>60</v>
       </c>
@@ -5114,7 +4383,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E11" s="7">
         <v>8</v>
@@ -5135,46 +4404,34 @@
         <v>4</v>
       </c>
       <c r="K11" s="1">
-        <v>19.033000000000001</v>
+        <v>18.100999999999999</v>
       </c>
       <c r="L11" s="1">
-        <v>19.75</v>
+        <v>18.818000000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>20.466000000000001</v>
+        <v>19.533999999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>21.166</v>
+        <v>20.266999999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>21.866</v>
+        <v>20.966999999999999</v>
       </c>
       <c r="P11" s="1">
-        <v>22.548999999999999</v>
+        <v>21.684000000000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>23.231999999999999</v>
+        <v>22.384</v>
       </c>
       <c r="R11" s="1">
-        <v>23.916</v>
+        <v>23.084</v>
       </c>
       <c r="S11" s="1">
-        <v>24.582000000000001</v>
-      </c>
-      <c r="T11" s="1">
-        <v>25.265000000000001</v>
-      </c>
-      <c r="U11" s="1">
-        <v>25.914999999999999</v>
-      </c>
-      <c r="V11" s="1">
-        <v>26.565000000000001</v>
-      </c>
-      <c r="W11" s="1">
-        <v>27.215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>23.766999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>27</v>
       </c>
@@ -5185,7 +4442,7 @@
         <v>30</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E12" s="7">
         <v>8</v>
@@ -5206,46 +4463,34 @@
         <v>4</v>
       </c>
       <c r="K12" s="1">
-        <v>19.416</v>
+        <v>18.468</v>
       </c>
       <c r="L12" s="1">
-        <v>20.132999999999999</v>
+        <v>19.184000000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>20.832999999999998</v>
+        <v>19.901</v>
       </c>
       <c r="N12" s="1">
-        <v>21.533000000000001</v>
+        <v>20.600999999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>22.231999999999999</v>
+        <v>21.317</v>
       </c>
       <c r="P12" s="1">
-        <v>22.899000000000001</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="1">
-        <v>23.582000000000001</v>
+        <v>22.716999999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>24.248999999999999</v>
+        <v>23.384</v>
       </c>
       <c r="S12" s="1">
-        <v>24.914999999999999</v>
-      </c>
-      <c r="T12" s="1">
-        <v>25.582000000000001</v>
-      </c>
-      <c r="U12" s="1">
-        <v>26.231999999999999</v>
-      </c>
-      <c r="V12" s="1">
-        <v>26.864999999999998</v>
-      </c>
-      <c r="W12" s="1">
-        <v>27.498000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>24.067</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>80</v>
       </c>
@@ -5256,7 +4501,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="7">
         <v>1</v>
@@ -5276,6 +4521,28 @@
       <c r="J13" s="1">
         <v>4</v>
       </c>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+    </row>
+    <row r="17" spans="11:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5287,8 +4554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05892D0-CA56-4D94-BF5E-70073D9BBFCD}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5322,12 +4589,12 @@
         <v>76</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -5345,7 +4612,7 @@
         <v>1000</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Mass List and Parameters.xlsx
+++ b/Mass List and Parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Erick\MSI-CE-MS-Data-Preprocessing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\MSI-CE-MS-Data-Preprocessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250984CE-255D-416C-A71B-6C5CA9BF0B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B4C9B5-2CFD-49D5-A3CB-ACE101376DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{3F442743-5A66-4E15-9366-B88AC1790E64}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{3F442743-5A66-4E15-9366-B88AC1790E64}"/>
   </bookViews>
   <sheets>
     <sheet name="Analyte Mass List" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>mz</t>
   </si>
   <si>
-    <t>rmt.tolerance.percent</t>
-  </si>
-  <si>
     <t>TMAO-d9</t>
   </si>
   <si>
@@ -335,6 +332,9 @@
   </si>
   <si>
     <t>Unknown 8, Orn-15N2</t>
+  </si>
+  <si>
+    <t>migration.window.seconds</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -423,9 +423,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -756,11 +753,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A9B2B3-45F3-4E9C-8863-F19858D470D6}">
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
@@ -768,7 +765,7 @@
     <col min="4" max="4" width="33.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="49.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -777,7 +774,7 @@
     <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -785,84 +782,84 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="J1" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="T1" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3">
         <v>72.080699999999993</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>35</v>
       </c>
       <c r="F2" s="1">
         <v>10</v>
       </c>
-      <c r="G2" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="H2" s="9">
+      <c r="G2" s="8">
+        <v>10</v>
+      </c>
+      <c r="H2" s="8">
         <v>20</v>
       </c>
       <c r="I2" s="1">
         <v>3</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K2" s="1">
         <v>4</v>
@@ -896,30 +893,30 @@
       </c>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3">
         <v>76.039900000000003</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>35</v>
       </c>
       <c r="F3" s="1">
         <v>10</v>
       </c>
-      <c r="G3" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="H3" s="9">
+      <c r="G3" s="8">
+        <v>10</v>
+      </c>
+      <c r="H3" s="8">
         <v>20</v>
       </c>
       <c r="I3" s="1">
         <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K3" s="1">
         <v>4</v>
@@ -953,18 +950,18 @@
       </c>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3">
         <v>76.0762</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1">
         <v>5</v>
@@ -972,17 +969,17 @@
       <c r="F4" s="1">
         <v>8</v>
       </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9">
+      <c r="G4" s="8">
+        <v>10</v>
+      </c>
+      <c r="H4" s="8">
         <v>20</v>
       </c>
       <c r="I4" s="1">
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K4" s="1">
         <v>4</v>
@@ -1015,30 +1012,30 @@
         <v>13.435</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3">
         <v>84.078999999999994</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>35</v>
       </c>
       <c r="F5" s="1">
         <v>8</v>
       </c>
-      <c r="G5" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="H5" s="9">
+      <c r="G5" s="8">
+        <v>10</v>
+      </c>
+      <c r="H5" s="8">
         <v>20</v>
       </c>
       <c r="I5" s="1">
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K5" s="1">
         <v>4</v>
@@ -1071,30 +1068,30 @@
         <v>14.335000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3">
         <v>90.055499999999995</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>35</v>
       </c>
       <c r="F6" s="1">
         <v>10</v>
       </c>
-      <c r="G6" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H6" s="9">
+      <c r="G6" s="8">
+        <v>10</v>
+      </c>
+      <c r="H6" s="8">
         <v>20</v>
       </c>
       <c r="I6" s="1">
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K6" s="1">
         <v>4</v>
@@ -1127,18 +1124,18 @@
         <v>18.901</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="3">
         <v>104.0712</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
@@ -1146,17 +1143,17 @@
       <c r="F7" s="1">
         <v>10</v>
       </c>
-      <c r="G7" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="H7" s="9">
+      <c r="G7" s="8">
+        <v>10</v>
+      </c>
+      <c r="H7" s="8">
         <v>20</v>
       </c>
       <c r="I7" s="1">
         <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K7" s="1">
         <v>4</v>
@@ -1189,18 +1186,18 @@
         <v>19.984000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="3">
         <v>104.0712</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8" s="1">
         <v>7</v>
@@ -1208,17 +1205,17 @@
       <c r="F8" s="1">
         <v>10</v>
       </c>
-      <c r="G8" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="H8" s="9">
+      <c r="G8" s="8">
+        <v>10</v>
+      </c>
+      <c r="H8" s="8">
         <v>20</v>
       </c>
       <c r="I8" s="1">
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K8" s="1">
         <v>4</v>
@@ -1251,30 +1248,30 @@
         <v>22.584</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3">
         <v>104.1075</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>30</v>
       </c>
       <c r="F9" s="1">
         <v>10</v>
       </c>
-      <c r="G9" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H9" s="9">
+      <c r="G9" s="8">
+        <v>10</v>
+      </c>
+      <c r="H9" s="8">
         <v>20</v>
       </c>
       <c r="I9" s="1">
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K9" s="1">
         <v>4</v>
@@ -1307,31 +1304,31 @@
         <v>14.068</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3">
         <v>106.0504</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>30</v>
       </c>
       <c r="D10" s="3"/>
       <c r="F10" s="1">
         <v>10</v>
       </c>
-      <c r="G10" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="H10" s="9">
+      <c r="G10" s="8">
+        <v>10</v>
+      </c>
+      <c r="H10" s="8">
         <v>20</v>
       </c>
       <c r="I10" s="1">
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K10" s="1">
         <v>4</v>
@@ -1364,30 +1361,30 @@
         <v>20.867000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3">
         <v>114.0667</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>30</v>
       </c>
       <c r="F11" s="1">
         <v>10</v>
       </c>
-      <c r="G11" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H11" s="9">
+      <c r="G11" s="8">
+        <v>10</v>
+      </c>
+      <c r="H11" s="8">
         <v>20</v>
       </c>
       <c r="I11" s="1">
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K11" s="1">
         <v>4</v>
@@ -1420,30 +1417,30 @@
         <v>15.252000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3">
         <v>116.0712</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>30</v>
       </c>
       <c r="F12" s="1">
         <v>10</v>
       </c>
-      <c r="G12" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="H12" s="9">
+      <c r="G12" s="8">
+        <v>10</v>
+      </c>
+      <c r="H12" s="8">
         <v>20</v>
       </c>
       <c r="I12" s="1">
         <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K12" s="1">
         <v>4</v>
@@ -1476,18 +1473,18 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="3">
         <v>118.0868</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="1">
         <v>5</v>
@@ -1495,17 +1492,17 @@
       <c r="F13" s="1">
         <v>10</v>
       </c>
-      <c r="G13" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="H13" s="9">
+      <c r="G13" s="8">
+        <v>10</v>
+      </c>
+      <c r="H13" s="8">
         <v>20</v>
       </c>
       <c r="I13" s="1">
         <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K13" s="1">
         <v>4</v>
@@ -1538,18 +1535,18 @@
         <v>20.634</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="3">
         <v>118.0868</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>30</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" s="1">
         <v>6</v>
@@ -1557,17 +1554,17 @@
       <c r="F14" s="1">
         <v>10</v>
       </c>
-      <c r="G14" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="H14" s="9">
+      <c r="G14" s="8">
+        <v>10</v>
+      </c>
+      <c r="H14" s="8">
         <v>20</v>
       </c>
       <c r="I14" s="1">
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K14" s="1">
         <v>4</v>
@@ -1600,30 +1597,30 @@
         <v>23.15</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="3">
         <v>120.06610000000001</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>30</v>
       </c>
       <c r="F15" s="1">
         <v>10</v>
       </c>
-      <c r="G15" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="H15" s="9">
+      <c r="G15" s="8">
+        <v>10</v>
+      </c>
+      <c r="H15" s="8">
         <v>20</v>
       </c>
       <c r="I15" s="1">
         <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K15" s="1">
         <v>4</v>
@@ -1656,30 +1653,30 @@
         <v>21.817</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="3">
         <v>129.066</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>30</v>
       </c>
       <c r="F16" s="1">
         <v>10</v>
       </c>
-      <c r="G16" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="H16" s="9">
+      <c r="G16" s="8">
+        <v>10</v>
+      </c>
+      <c r="H16" s="8">
         <v>20</v>
       </c>
       <c r="I16" s="1">
         <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K16" s="1">
         <v>6</v>
@@ -1712,18 +1709,18 @@
         <v>18.334</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="3">
         <v>132.06610000000001</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>30</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="1">
         <v>7</v>
@@ -1731,17 +1728,17 @@
       <c r="F17" s="1">
         <v>10</v>
       </c>
-      <c r="G17" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H17" s="9">
+      <c r="G17" s="8">
+        <v>10</v>
+      </c>
+      <c r="H17" s="8">
         <v>50</v>
       </c>
       <c r="I17" s="1">
         <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K17" s="1">
         <v>4</v>
@@ -1774,18 +1771,18 @@
         <v>24.45</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="3">
         <v>132.07730000000001</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>30</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="1">
         <v>6</v>
@@ -1793,17 +1790,17 @@
       <c r="F18" s="1">
         <v>10</v>
       </c>
-      <c r="G18" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="H18" s="9">
+      <c r="G18" s="8">
+        <v>10</v>
+      </c>
+      <c r="H18" s="8">
         <v>20</v>
       </c>
       <c r="I18" s="1">
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K18" s="1">
         <v>4</v>
@@ -1836,18 +1833,18 @@
         <v>18.600999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3">
         <v>132.10249999999999</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="1">
         <v>5</v>
@@ -1855,17 +1852,17 @@
       <c r="F19" s="1">
         <v>8</v>
       </c>
-      <c r="G19" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="H19" s="9">
+      <c r="G19" s="8">
+        <v>10</v>
+      </c>
+      <c r="H19" s="8">
         <v>20</v>
       </c>
       <c r="I19" s="1">
         <v>3</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K19" s="1">
         <v>4</v>
@@ -1898,18 +1895,18 @@
         <v>20.934000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="3">
         <v>132.10249999999999</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>30</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" s="1">
         <v>5</v>
@@ -1917,17 +1914,17 @@
       <c r="F20" s="1">
         <v>10</v>
       </c>
-      <c r="G20" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="H20" s="9">
+      <c r="G20" s="8">
+        <v>10</v>
+      </c>
+      <c r="H20" s="8">
         <v>20</v>
       </c>
       <c r="I20" s="1">
         <v>3</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K20" s="1">
         <v>4</v>
@@ -1960,18 +1957,18 @@
         <v>21.151</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="3">
         <v>133.06129999999999</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>30</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E21" s="1">
         <v>5</v>
@@ -1979,17 +1976,17 @@
       <c r="F21" s="1">
         <v>10</v>
       </c>
-      <c r="G21" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H21" s="9">
+      <c r="G21" s="8">
+        <v>10</v>
+      </c>
+      <c r="H21" s="8">
         <v>20</v>
       </c>
       <c r="I21" s="1">
         <v>3</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K21" s="1">
         <v>4</v>
@@ -2022,31 +2019,31 @@
         <v>21.783999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="3">
         <v>133.0977</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>30</v>
       </c>
       <c r="D22" s="5"/>
       <c r="F22" s="1">
         <v>10</v>
       </c>
-      <c r="G22" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H22" s="9">
+      <c r="G22" s="8">
+        <v>10</v>
+      </c>
+      <c r="H22" s="8">
         <v>20</v>
       </c>
       <c r="I22" s="1">
         <v>3</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K22" s="1">
         <v>4</v>
@@ -2079,30 +2076,30 @@
         <v>14.285</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="3">
         <v>134.0453</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>30</v>
       </c>
       <c r="F23" s="1">
         <v>10</v>
       </c>
-      <c r="G23" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="H23" s="9">
+      <c r="G23" s="8">
+        <v>10</v>
+      </c>
+      <c r="H23" s="8">
         <v>20</v>
       </c>
       <c r="I23" s="1">
         <v>3</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K23" s="1">
         <v>4</v>
@@ -2135,18 +2132,18 @@
         <v>23.55</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="3">
         <v>136.0427</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>30</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" s="1">
         <v>7</v>
@@ -2154,17 +2151,17 @@
       <c r="F24" s="1">
         <v>10</v>
       </c>
-      <c r="G24" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="H24" s="9">
+      <c r="G24" s="8">
+        <v>10</v>
+      </c>
+      <c r="H24" s="8">
         <v>20</v>
       </c>
       <c r="I24" s="1">
         <v>3</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K24" s="1">
         <v>4</v>
@@ -2197,30 +2194,30 @@
         <v>23.434000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="3">
         <v>137.0463</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>30</v>
       </c>
       <c r="F25" s="1">
         <v>10</v>
       </c>
-      <c r="G25" s="6">
-        <v>2</v>
-      </c>
-      <c r="H25" s="9">
+      <c r="G25" s="8">
+        <v>10</v>
+      </c>
+      <c r="H25" s="8">
         <v>20</v>
       </c>
       <c r="I25" s="1">
         <v>3</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K25" s="1">
         <v>6</v>
@@ -2253,18 +2250,18 @@
         <v>25.55</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="3">
         <v>140.0677</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>30</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" s="1">
         <v>7</v>
@@ -2272,17 +2269,17 @@
       <c r="F26" s="1">
         <v>10</v>
       </c>
-      <c r="G26" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="H26" s="9">
+      <c r="G26" s="8">
+        <v>10</v>
+      </c>
+      <c r="H26" s="8">
         <v>20</v>
       </c>
       <c r="I26" s="1">
         <v>3</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K26" s="1">
         <v>4</v>
@@ -2315,30 +2312,30 @@
         <v>23.15</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="3">
         <v>144.10249999999999</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>30</v>
       </c>
       <c r="F27" s="1">
         <v>10</v>
       </c>
-      <c r="G27" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="H27" s="9">
+      <c r="G27" s="8">
+        <v>10</v>
+      </c>
+      <c r="H27" s="8">
         <v>20</v>
       </c>
       <c r="I27" s="1">
         <v>3</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K27" s="1">
         <v>4</v>
@@ -2371,18 +2368,18 @@
         <v>23.317</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="3">
         <v>146.1181</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <v>30</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E28" s="1">
         <v>7</v>
@@ -2390,17 +2387,17 @@
       <c r="F28" s="1">
         <v>10</v>
       </c>
-      <c r="G28" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="H28" s="9">
+      <c r="G28" s="8">
+        <v>10</v>
+      </c>
+      <c r="H28" s="8">
         <v>20</v>
       </c>
       <c r="I28" s="1">
         <v>3</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K28" s="1">
         <v>4</v>
@@ -2433,30 +2430,30 @@
         <v>17.018000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="3">
         <v>147.077</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <v>30</v>
       </c>
       <c r="F29" s="1">
         <v>10</v>
       </c>
-      <c r="G29" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="H29" s="9">
+      <c r="G29" s="8">
+        <v>10</v>
+      </c>
+      <c r="H29" s="8">
         <v>20</v>
       </c>
       <c r="I29" s="1">
         <v>3</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K29" s="1">
         <v>4</v>
@@ -2489,30 +2486,30 @@
         <v>22.283999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" s="3">
         <v>147.11340000000001</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <v>30</v>
       </c>
       <c r="F30" s="1">
         <v>10</v>
       </c>
-      <c r="G30" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="H30" s="9">
+      <c r="G30" s="8">
+        <v>10</v>
+      </c>
+      <c r="H30" s="8">
         <v>20</v>
       </c>
       <c r="I30" s="1">
         <v>3</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K30" s="1">
         <v>4</v>
@@ -2545,30 +2542,30 @@
         <v>14.352</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="3">
         <v>148.06100000000001</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <v>30</v>
       </c>
       <c r="F31" s="1">
         <v>10</v>
       </c>
-      <c r="G31" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="H31" s="9">
+      <c r="G31" s="8">
+        <v>10</v>
+      </c>
+      <c r="H31" s="8">
         <v>20</v>
       </c>
       <c r="I31" s="1">
         <v>3</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K31" s="1">
         <v>4</v>
@@ -2601,31 +2598,31 @@
         <v>22.567</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32" s="3">
         <v>150.05889999999999</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <v>30</v>
       </c>
       <c r="D32" s="3"/>
       <c r="F32" s="1">
         <v>10</v>
       </c>
-      <c r="G32" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="H32" s="9">
+      <c r="G32" s="8">
+        <v>10</v>
+      </c>
+      <c r="H32" s="8">
         <v>20</v>
       </c>
       <c r="I32" s="1">
         <v>3</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K32" s="1">
         <v>4</v>
@@ -2658,30 +2655,30 @@
         <v>21.966999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="3">
         <v>156.07730000000001</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="8">
         <v>30</v>
       </c>
       <c r="F33" s="1">
         <v>10</v>
       </c>
-      <c r="G33" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H33" s="9">
+      <c r="G33" s="8">
+        <v>10</v>
+      </c>
+      <c r="H33" s="8">
         <v>20</v>
       </c>
       <c r="I33" s="1">
         <v>3</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K33" s="1">
         <v>4</v>
@@ -2714,30 +2711,30 @@
         <v>15.452</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="3">
         <v>160.13380000000001</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="8">
         <v>30</v>
       </c>
       <c r="F34" s="1">
         <v>10</v>
       </c>
-      <c r="G34" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="H34" s="9">
+      <c r="G34" s="8">
+        <v>10</v>
+      </c>
+      <c r="H34" s="8">
         <v>20</v>
       </c>
       <c r="I34" s="1">
         <v>3</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K34" s="1">
         <v>4</v>
@@ -2770,30 +2767,30 @@
         <v>17.701000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" s="3">
         <v>161.12809999999999</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="8">
         <v>30</v>
       </c>
       <c r="F35" s="1">
         <v>10</v>
       </c>
-      <c r="G35" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="H35" s="9">
+      <c r="G35" s="8">
+        <v>10</v>
+      </c>
+      <c r="H35" s="8">
         <v>20</v>
       </c>
       <c r="I35" s="1">
         <v>3</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K35" s="1">
         <v>4</v>
@@ -2826,30 +2823,30 @@
         <v>14.802</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" s="3">
         <v>162.113</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="8">
         <v>30</v>
       </c>
       <c r="F36" s="1">
         <v>10</v>
       </c>
-      <c r="G36" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H36" s="9">
+      <c r="G36" s="8">
+        <v>10</v>
+      </c>
+      <c r="H36" s="8">
         <v>20</v>
       </c>
       <c r="I36" s="1">
         <v>3</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K36" s="1">
         <v>4</v>
@@ -2882,30 +2879,30 @@
         <v>17.968</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="3">
         <v>166.08680000000001</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="8">
         <v>30</v>
       </c>
       <c r="F37" s="1">
         <v>10</v>
       </c>
-      <c r="G37" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="H37" s="9">
+      <c r="G37" s="8">
+        <v>10</v>
+      </c>
+      <c r="H37" s="8">
         <v>20</v>
       </c>
       <c r="I37" s="1">
         <v>3</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K37" s="1">
         <v>4</v>
@@ -2938,30 +2935,30 @@
         <v>22.567</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="3">
         <v>170.09299999999999</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="8">
         <v>30</v>
       </c>
       <c r="F38" s="1">
         <v>6</v>
       </c>
-      <c r="G38" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H38" s="9">
+      <c r="G38" s="8">
+        <v>10</v>
+      </c>
+      <c r="H38" s="8">
         <v>20</v>
       </c>
       <c r="I38" s="1">
         <v>3</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K38" s="1">
         <v>4</v>
@@ -2994,30 +2991,30 @@
         <v>15.818</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="3">
         <v>175.11949999999999</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="8">
         <v>30</v>
       </c>
       <c r="F39" s="1">
         <v>10</v>
       </c>
-      <c r="G39" s="6">
-        <v>2</v>
-      </c>
-      <c r="H39" s="9">
+      <c r="G39" s="8">
+        <v>10</v>
+      </c>
+      <c r="H39" s="8">
         <v>20</v>
       </c>
       <c r="I39" s="1">
         <v>3</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K39" s="1">
         <v>4</v>
@@ -3050,18 +3047,18 @@
         <v>14.917999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="3">
         <v>176.1035</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="8">
         <v>30</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E40" s="1">
         <v>5</v>
@@ -3069,17 +3066,17 @@
       <c r="F40" s="1">
         <v>10</v>
       </c>
-      <c r="G40" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="H40" s="9">
+      <c r="G40" s="8">
+        <v>10</v>
+      </c>
+      <c r="H40" s="8">
         <v>20</v>
       </c>
       <c r="I40" s="1">
         <v>3</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K40" s="1">
         <v>4</v>
@@ -3112,30 +3109,30 @@
         <v>22.817</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="3">
         <v>182.08170000000001</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <v>30</v>
       </c>
       <c r="F41" s="1">
         <v>10</v>
       </c>
-      <c r="G41" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="H41" s="9">
+      <c r="G41" s="8">
+        <v>10</v>
+      </c>
+      <c r="H41" s="8">
         <v>20</v>
       </c>
       <c r="I41" s="1">
         <v>3</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K41" s="1">
         <v>4</v>
@@ -3168,18 +3165,18 @@
         <v>23.216999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="3">
         <v>203.1508</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="8">
         <v>30</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E42" s="1">
         <v>5</v>
@@ -3187,17 +3184,17 @@
       <c r="F42" s="1">
         <v>8</v>
       </c>
-      <c r="G42" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="H42" s="9">
+      <c r="G42" s="8">
+        <v>10</v>
+      </c>
+      <c r="H42" s="8">
         <v>20</v>
       </c>
       <c r="I42" s="1">
         <v>3</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K42" s="1">
         <v>4</v>
@@ -3230,18 +3227,18 @@
         <v>16.085000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="3">
         <v>203.1508</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="8">
         <v>30</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E43" s="1">
         <v>5</v>
@@ -3249,17 +3246,17 @@
       <c r="F43" s="1">
         <v>8</v>
       </c>
-      <c r="G43" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="H43" s="9">
+      <c r="G43" s="8">
+        <v>10</v>
+      </c>
+      <c r="H43" s="8">
         <v>20</v>
       </c>
       <c r="I43" s="1">
         <v>3</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K43" s="1">
         <v>4</v>
@@ -3292,18 +3289,18 @@
         <v>16.367999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" s="3">
         <v>204.12360000000001</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="8">
         <v>30</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E44" s="1">
         <v>7</v>
@@ -3311,17 +3308,17 @@
       <c r="F44" s="1">
         <v>10</v>
       </c>
-      <c r="G44" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="H44" s="9">
+      <c r="G44" s="8">
+        <v>10</v>
+      </c>
+      <c r="H44" s="8">
         <v>20</v>
       </c>
       <c r="I44" s="1">
         <v>3</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K44" s="1">
         <v>4</v>
@@ -3354,30 +3351,30 @@
         <v>19.018000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" s="3">
         <v>205.0977</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="8">
         <v>30</v>
       </c>
       <c r="F45" s="1">
         <v>10</v>
       </c>
-      <c r="G45" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="H45" s="9">
+      <c r="G45" s="8">
+        <v>10</v>
+      </c>
+      <c r="H45" s="8">
         <v>20</v>
       </c>
       <c r="I45" s="1">
         <v>3</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K45" s="1">
         <v>4</v>
@@ -3410,18 +3407,18 @@
         <v>22.584</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" s="3">
         <v>218.13919999999999</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="8">
         <v>30</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E46" s="1">
         <v>7</v>
@@ -3429,17 +3426,17 @@
       <c r="F46" s="1">
         <v>8</v>
       </c>
-      <c r="G46" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="H46" s="9">
+      <c r="G46" s="8">
+        <v>10</v>
+      </c>
+      <c r="H46" s="8">
         <v>20</v>
       </c>
       <c r="I46" s="1">
         <v>4</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K46" s="1">
         <v>4</v>
@@ -3472,30 +3469,30 @@
         <v>19.518000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" s="3">
         <v>241.0317</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="8">
         <v>30</v>
       </c>
       <c r="F47" s="1">
         <v>8</v>
       </c>
-      <c r="G47" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="H47" s="9">
+      <c r="G47" s="8">
+        <v>10</v>
+      </c>
+      <c r="H47" s="8">
         <v>20</v>
       </c>
       <c r="I47" s="1">
         <v>3</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K47" s="1">
         <v>4</v>
@@ -3528,30 +3525,30 @@
         <v>22.783999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B48" s="3">
         <v>276.1191</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="8">
         <v>30</v>
       </c>
       <c r="F48" s="1">
         <v>10</v>
       </c>
-      <c r="G48" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="H48" s="9">
+      <c r="G48" s="8">
+        <v>10</v>
+      </c>
+      <c r="H48" s="8">
         <v>30</v>
       </c>
       <c r="I48" s="1">
         <v>3</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K48" s="1">
         <v>6</v>
@@ -3584,30 +3581,30 @@
         <v>25.983000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49" s="3">
         <v>298.05309999999997</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="8">
         <v>30</v>
       </c>
       <c r="F49" s="1">
         <v>8</v>
       </c>
-      <c r="G49" s="6">
-        <v>1.75</v>
-      </c>
-      <c r="H49" s="9">
+      <c r="G49" s="8">
+        <v>10</v>
+      </c>
+      <c r="H49" s="8">
         <v>20</v>
       </c>
       <c r="I49" s="1">
         <v>3</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K49" s="1">
         <v>6</v>
@@ -3640,30 +3637,30 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B50" s="3">
         <v>334.68849999999998</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="8">
         <v>30</v>
       </c>
       <c r="F50" s="1">
         <v>8</v>
       </c>
-      <c r="G50" s="6">
-        <v>1.75</v>
-      </c>
-      <c r="H50" s="9">
+      <c r="G50" s="8">
+        <v>10</v>
+      </c>
+      <c r="H50" s="8">
         <v>20</v>
       </c>
       <c r="I50" s="1">
         <v>3</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K50" s="1">
         <v>6</v>
@@ -3696,21 +3693,21 @@
         <v>20.134</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B51" s="3">
         <v>471.738</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="8">
         <v>30</v>
       </c>
       <c r="F51" s="1">
         <v>8</v>
       </c>
-      <c r="G51" s="1">
-        <v>1.75</v>
+      <c r="G51" s="8">
+        <v>10</v>
       </c>
       <c r="H51" s="1">
         <v>20</v>
@@ -3719,7 +3716,7 @@
         <v>3</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K51" s="1">
         <v>6</v>
@@ -3783,91 +3780,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6">
+        <v>85.1327</v>
+      </c>
+      <c r="C2" s="8">
+        <v>35</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="7">
-        <v>85.1327</v>
-      </c>
-      <c r="C2" s="9">
-        <v>35</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>2</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>26</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>1.6</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J2" s="1">
         <v>4</v>
@@ -3901,32 +3898,32 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6">
         <v>113.164</v>
       </c>
-      <c r="C3" s="9">
-        <v>30</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="C3" s="8">
+        <v>30</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="6">
         <v>2</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>26</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>1.6</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J3" s="1">
         <v>4</v>
@@ -3960,32 +3957,32 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="7">
+      <c r="A4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="6">
         <v>135.09180000000001</v>
       </c>
-      <c r="C4" s="9">
-        <v>30</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="C4" s="8">
+        <v>30</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="6">
         <v>2</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>26</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>1.6</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>20</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J4" s="1">
         <v>4</v>
@@ -4019,32 +4016,32 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="7">
+      <c r="A5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6">
         <v>117.0856</v>
       </c>
-      <c r="C5" s="9">
-        <v>30</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="7">
-        <v>3</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="C5" s="8">
+        <v>30</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6">
         <v>26</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>1.6</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J5" s="1">
         <v>4</v>
@@ -4078,32 +4075,32 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="7">
+      <c r="A6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="6">
         <v>157.07429999999999</v>
       </c>
-      <c r="C6" s="9">
-        <v>30</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="7">
-        <v>3</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="C6" s="8">
+        <v>30</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="6">
         <v>26</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>1.6</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J6" s="1">
         <v>4</v>
@@ -4137,32 +4134,32 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="7">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="6">
         <v>173.11179999999999</v>
       </c>
-      <c r="C7" s="9">
-        <v>30</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="7">
-        <v>3</v>
-      </c>
-      <c r="F7" s="7">
-        <v>30</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="C7" s="8">
+        <v>30</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="6">
+        <v>3</v>
+      </c>
+      <c r="F7" s="6">
+        <v>30</v>
+      </c>
+      <c r="G7" s="6">
         <v>1.6</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>20</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J7" s="1">
         <v>4</v>
@@ -4196,32 +4193,32 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="7">
+      <c r="A8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="6">
         <v>110.1088</v>
       </c>
-      <c r="C8" s="9">
-        <v>30</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="7">
-        <v>3</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="C8" s="8">
+        <v>30</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3</v>
+      </c>
+      <c r="F8" s="6">
         <v>26</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>1.6</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>20</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J8" s="1">
         <v>4</v>
@@ -4255,32 +4252,32 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="7">
+      <c r="A9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6">
         <v>165.1318</v>
       </c>
-      <c r="C9" s="9">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="C9" s="8">
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="6">
         <v>8</v>
       </c>
-      <c r="F9" s="7">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="F9" s="6">
+        <v>30</v>
+      </c>
+      <c r="G9" s="6">
         <v>1.6</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>20</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J9" s="1">
         <v>4</v>
@@ -4314,32 +4311,32 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7">
+      <c r="A10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6">
         <v>184.07740000000001</v>
       </c>
-      <c r="C10" s="9">
-        <v>30</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="C10" s="8">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="6">
         <v>8</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>40</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>1.6</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>20</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J10" s="1">
         <v>4</v>
@@ -4373,32 +4370,32 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="7">
+      <c r="A11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="6">
         <v>200.07230000000001</v>
       </c>
-      <c r="C11" s="9">
-        <v>30</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="C11" s="8">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="6">
         <v>8</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>40</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>1.6</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>20</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J11" s="1">
         <v>4</v>
@@ -4432,32 +4429,32 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="7">
+      <c r="A12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="6">
         <v>216.0427</v>
       </c>
-      <c r="C12" s="7">
-        <v>30</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="C12" s="6">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="6">
         <v>8</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>40</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>1.6</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>20</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J12" s="1">
         <v>4</v>
@@ -4492,31 +4489,31 @@
     </row>
     <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="1">
         <v>133.0343</v>
       </c>
-      <c r="C13" s="9">
-        <v>30</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="C13" s="8">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="6">
         <v>1</v>
       </c>
-      <c r="F13" s="7">
-        <v>20</v>
-      </c>
-      <c r="G13" s="10">
+      <c r="F13" s="6">
+        <v>20</v>
+      </c>
+      <c r="G13" s="9">
         <v>2</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>20</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J13" s="1">
         <v>4</v>
@@ -4554,7 +4551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05892D0-CA56-4D94-BF5E-70073D9BBFCD}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -4571,25 +4568,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4612,7 +4609,7 @@
         <v>1000</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Mass List and Parameters.xlsx
+++ b/Mass List and Parameters.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick\Desktop\PeakSeeker\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick\Desktop\PeakSeeker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FBBCC3-D6B7-4C88-AA89-44B6CF62F180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2FC3F2-6581-4318-88DA-2A7BBEAE2BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3F442743-5A66-4E15-9366-B88AC1790E64}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{3F442743-5A66-4E15-9366-B88AC1790E64}"/>
   </bookViews>
   <sheets>
-    <sheet name="Analyte Mass List" sheetId="1" r:id="rId1"/>
-    <sheet name="Internal Standard Mass List" sheetId="2" r:id="rId2"/>
+    <sheet name="Mass List" sheetId="1" r:id="rId1"/>
+    <sheet name="Reference Mass List" sheetId="2" r:id="rId2"/>
     <sheet name="Parameters" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="97">
   <si>
     <t>name</t>
   </si>
@@ -259,9 +259,6 @@
     <t>class</t>
   </si>
   <si>
-    <t>Internal Standard</t>
-  </si>
-  <si>
     <t>smoothing.kernel</t>
   </si>
   <si>
@@ -320,6 +317,15 @@
   </si>
   <si>
     <t>Unknown E3</t>
+  </si>
+  <si>
+    <t>plot.format</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Reference</t>
   </si>
   <si>
     <t>apply.smoothing</t>
@@ -415,10 +421,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,7 +744,7 @@
   <dimension ref="A1:Z47"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -776,7 +784,7 @@
         <v>57</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>58</v>
@@ -785,49 +793,49 @@
         <v>54</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>70</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
@@ -837,16 +845,16 @@
       <c r="B2" s="3">
         <v>72.080699999999993</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>35</v>
       </c>
       <c r="F2" s="1">
         <v>10</v>
       </c>
-      <c r="G2" s="7">
-        <v>10</v>
-      </c>
-      <c r="H2" s="7">
+      <c r="G2" s="8">
+        <v>10</v>
+      </c>
+      <c r="H2" s="8">
         <v>20</v>
       </c>
       <c r="I2" s="1">
@@ -906,16 +914,16 @@
       <c r="B3" s="3">
         <v>76.039900000000003</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>35</v>
       </c>
       <c r="F3" s="1">
         <v>10</v>
       </c>
-      <c r="G3" s="7">
-        <v>10</v>
-      </c>
-      <c r="H3" s="7">
+      <c r="G3" s="8">
+        <v>10</v>
+      </c>
+      <c r="H3" s="8">
         <v>20</v>
       </c>
       <c r="I3" s="1">
@@ -975,7 +983,7 @@
       <c r="B4" s="3">
         <v>76.0762</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -987,10 +995,10 @@
       <c r="F4" s="1">
         <v>8</v>
       </c>
-      <c r="G4" s="7">
-        <v>10</v>
-      </c>
-      <c r="H4" s="7">
+      <c r="G4" s="8">
+        <v>10</v>
+      </c>
+      <c r="H4" s="8">
         <v>20</v>
       </c>
       <c r="I4" s="1">
@@ -1049,16 +1057,16 @@
       <c r="B5" s="3">
         <v>90.055499999999995</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <v>35</v>
       </c>
       <c r="F5" s="1">
         <v>10</v>
       </c>
-      <c r="G5" s="7">
-        <v>10</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="G5" s="8">
+        <v>10</v>
+      </c>
+      <c r="H5" s="8">
         <v>20</v>
       </c>
       <c r="I5" s="1">
@@ -1117,7 +1125,7 @@
       <c r="B6" s="3">
         <v>104.0712</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1129,10 +1137,10 @@
       <c r="F6" s="1">
         <v>10</v>
       </c>
-      <c r="G6" s="7">
-        <v>10</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="G6" s="8">
+        <v>10</v>
+      </c>
+      <c r="H6" s="8">
         <v>20</v>
       </c>
       <c r="I6" s="1">
@@ -1191,7 +1199,7 @@
       <c r="B7" s="3">
         <v>104.0712</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1203,10 +1211,10 @@
       <c r="F7" s="1">
         <v>10</v>
       </c>
-      <c r="G7" s="7">
-        <v>10</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="G7" s="8">
+        <v>10</v>
+      </c>
+      <c r="H7" s="8">
         <v>20</v>
       </c>
       <c r="I7" s="1">
@@ -1265,16 +1273,16 @@
       <c r="B8" s="3">
         <v>104.1075</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>30</v>
       </c>
       <c r="F8" s="1">
         <v>10</v>
       </c>
-      <c r="G8" s="7">
-        <v>10</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="G8" s="8">
+        <v>10</v>
+      </c>
+      <c r="H8" s="8">
         <v>20</v>
       </c>
       <c r="I8" s="1">
@@ -1333,16 +1341,16 @@
       <c r="B9" s="3">
         <v>106.0504</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
         <v>30</v>
       </c>
       <c r="F9" s="1">
         <v>10</v>
       </c>
-      <c r="G9" s="7">
-        <v>10</v>
-      </c>
-      <c r="H9" s="7">
+      <c r="G9" s="8">
+        <v>10</v>
+      </c>
+      <c r="H9" s="8">
         <v>20</v>
       </c>
       <c r="I9" s="1">
@@ -1401,16 +1409,16 @@
       <c r="B10" s="3">
         <v>114.0667</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="8">
         <v>30</v>
       </c>
       <c r="F10" s="1">
         <v>10</v>
       </c>
-      <c r="G10" s="7">
-        <v>10</v>
-      </c>
-      <c r="H10" s="7">
+      <c r="G10" s="8">
+        <v>10</v>
+      </c>
+      <c r="H10" s="8">
         <v>20</v>
       </c>
       <c r="I10" s="1">
@@ -1469,16 +1477,16 @@
       <c r="B11" s="3">
         <v>116.0712</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="8">
         <v>30</v>
       </c>
       <c r="F11" s="1">
         <v>10</v>
       </c>
-      <c r="G11" s="7">
-        <v>10</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="G11" s="8">
+        <v>10</v>
+      </c>
+      <c r="H11" s="8">
         <v>20</v>
       </c>
       <c r="I11" s="1">
@@ -1537,7 +1545,7 @@
       <c r="B12" s="3">
         <v>118.0868</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="8">
         <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1549,10 +1557,10 @@
       <c r="F12" s="1">
         <v>10</v>
       </c>
-      <c r="G12" s="7">
-        <v>10</v>
-      </c>
-      <c r="H12" s="7">
+      <c r="G12" s="8">
+        <v>10</v>
+      </c>
+      <c r="H12" s="8">
         <v>20</v>
       </c>
       <c r="I12" s="1">
@@ -1611,16 +1619,16 @@
       <c r="B13" s="3">
         <v>120.06610000000001</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="8">
         <v>30</v>
       </c>
       <c r="F13" s="1">
         <v>10</v>
       </c>
-      <c r="G13" s="7">
-        <v>10</v>
-      </c>
-      <c r="H13" s="7">
+      <c r="G13" s="8">
+        <v>10</v>
+      </c>
+      <c r="H13" s="8">
         <v>20</v>
       </c>
       <c r="I13" s="1">
@@ -1679,16 +1687,16 @@
       <c r="B14" s="3">
         <v>129.066</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="8">
         <v>30</v>
       </c>
       <c r="F14" s="1">
         <v>10</v>
       </c>
-      <c r="G14" s="7">
-        <v>10</v>
-      </c>
-      <c r="H14" s="7">
+      <c r="G14" s="8">
+        <v>10</v>
+      </c>
+      <c r="H14" s="8">
         <v>20</v>
       </c>
       <c r="I14" s="1">
@@ -1747,7 +1755,7 @@
       <c r="B15" s="3">
         <v>132.06610000000001</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="8">
         <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1759,10 +1767,10 @@
       <c r="F15" s="1">
         <v>10</v>
       </c>
-      <c r="G15" s="7">
-        <v>10</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="G15" s="8">
+        <v>10</v>
+      </c>
+      <c r="H15" s="8">
         <v>50</v>
       </c>
       <c r="I15" s="1">
@@ -1821,7 +1829,7 @@
       <c r="B16" s="3">
         <v>132.07730000000001</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="8">
         <v>30</v>
       </c>
       <c r="E16" s="1">
@@ -1830,10 +1838,10 @@
       <c r="F16" s="1">
         <v>10</v>
       </c>
-      <c r="G16" s="7">
-        <v>10</v>
-      </c>
-      <c r="H16" s="7">
+      <c r="G16" s="8">
+        <v>10</v>
+      </c>
+      <c r="H16" s="8">
         <v>20</v>
       </c>
       <c r="I16" s="1">
@@ -1892,7 +1900,7 @@
       <c r="B17" s="3">
         <v>132.10249999999999</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="8">
         <v>30</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1904,10 +1912,10 @@
       <c r="F17" s="1">
         <v>8</v>
       </c>
-      <c r="G17" s="7">
-        <v>10</v>
-      </c>
-      <c r="H17" s="7">
+      <c r="G17" s="8">
+        <v>10</v>
+      </c>
+      <c r="H17" s="8">
         <v>20</v>
       </c>
       <c r="I17" s="1">
@@ -1966,7 +1974,7 @@
       <c r="B18" s="3">
         <v>132.10249999999999</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="8">
         <v>30</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1978,10 +1986,10 @@
       <c r="F18" s="1">
         <v>10</v>
       </c>
-      <c r="G18" s="7">
-        <v>10</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="G18" s="8">
+        <v>10</v>
+      </c>
+      <c r="H18" s="8">
         <v>20</v>
       </c>
       <c r="I18" s="1">
@@ -2040,17 +2048,17 @@
       <c r="B19" s="3">
         <v>133.0977</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="8">
         <v>30</v>
       </c>
       <c r="D19" s="5"/>
       <c r="F19" s="1">
         <v>10</v>
       </c>
-      <c r="G19" s="7">
-        <v>10</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="G19" s="8">
+        <v>10</v>
+      </c>
+      <c r="H19" s="8">
         <v>20</v>
       </c>
       <c r="I19" s="1">
@@ -2109,16 +2117,16 @@
       <c r="B20" s="3">
         <v>134.0453</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="8">
         <v>30</v>
       </c>
       <c r="F20" s="1">
         <v>10</v>
       </c>
-      <c r="G20" s="7">
-        <v>10</v>
-      </c>
-      <c r="H20" s="7">
+      <c r="G20" s="8">
+        <v>10</v>
+      </c>
+      <c r="H20" s="8">
         <v>20</v>
       </c>
       <c r="I20" s="1">
@@ -2177,16 +2185,16 @@
       <c r="B21" s="3">
         <v>136.0427</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="8">
         <v>30</v>
       </c>
       <c r="F21" s="1">
         <v>12</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="8">
         <v>12</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="8">
         <v>20</v>
       </c>
       <c r="I21" s="1">
@@ -2245,16 +2253,16 @@
       <c r="B22" s="3">
         <v>137.0463</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="8">
         <v>30</v>
       </c>
       <c r="F22" s="1">
         <v>12</v>
       </c>
-      <c r="G22" s="7">
-        <v>20</v>
-      </c>
-      <c r="H22" s="7">
+      <c r="G22" s="8">
+        <v>20</v>
+      </c>
+      <c r="H22" s="8">
         <v>20</v>
       </c>
       <c r="I22" s="1">
@@ -2313,7 +2321,7 @@
       <c r="B23" s="3">
         <v>140.0677</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="8">
         <v>30</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -2325,10 +2333,10 @@
       <c r="F23" s="1">
         <v>10</v>
       </c>
-      <c r="G23" s="7">
-        <v>10</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="G23" s="8">
+        <v>10</v>
+      </c>
+      <c r="H23" s="8">
         <v>20</v>
       </c>
       <c r="I23" s="1">
@@ -2387,16 +2395,16 @@
       <c r="B24" s="3">
         <v>144.10249999999999</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="8">
         <v>30</v>
       </c>
       <c r="F24" s="1">
         <v>10</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="8">
         <v>12</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="8">
         <v>20</v>
       </c>
       <c r="I24" s="1">
@@ -2455,16 +2463,16 @@
       <c r="B25" s="3">
         <v>146.1181</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="8">
         <v>30</v>
       </c>
       <c r="F25" s="1">
         <v>10</v>
       </c>
-      <c r="G25" s="7">
-        <v>10</v>
-      </c>
-      <c r="H25" s="7">
+      <c r="G25" s="8">
+        <v>10</v>
+      </c>
+      <c r="H25" s="8">
         <v>20</v>
       </c>
       <c r="I25" s="1">
@@ -2523,16 +2531,16 @@
       <c r="B26" s="3">
         <v>147.077</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="8">
         <v>30</v>
       </c>
       <c r="F26" s="1">
         <v>10</v>
       </c>
-      <c r="G26" s="7">
-        <v>10</v>
-      </c>
-      <c r="H26" s="7">
+      <c r="G26" s="8">
+        <v>10</v>
+      </c>
+      <c r="H26" s="8">
         <v>20</v>
       </c>
       <c r="I26" s="1">
@@ -2591,7 +2599,7 @@
       <c r="B27" s="3">
         <v>147.11340000000001</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="8">
         <v>30</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -2603,10 +2611,10 @@
       <c r="F27" s="1">
         <v>10</v>
       </c>
-      <c r="G27" s="7">
-        <v>10</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="G27" s="8">
+        <v>10</v>
+      </c>
+      <c r="H27" s="8">
         <v>20</v>
       </c>
       <c r="I27" s="1">
@@ -2665,16 +2673,16 @@
       <c r="B28" s="3">
         <v>148.06100000000001</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="8">
         <v>30</v>
       </c>
       <c r="F28" s="1">
         <v>10</v>
       </c>
-      <c r="G28" s="7">
-        <v>10</v>
-      </c>
-      <c r="H28" s="7">
+      <c r="G28" s="8">
+        <v>10</v>
+      </c>
+      <c r="H28" s="8">
         <v>20</v>
       </c>
       <c r="I28" s="1">
@@ -2733,16 +2741,16 @@
       <c r="B29" s="3">
         <v>150.05889999999999</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="8">
         <v>30</v>
       </c>
       <c r="F29" s="1">
         <v>10</v>
       </c>
-      <c r="G29" s="7">
-        <v>10</v>
-      </c>
-      <c r="H29" s="7">
+      <c r="G29" s="8">
+        <v>10</v>
+      </c>
+      <c r="H29" s="8">
         <v>20</v>
       </c>
       <c r="I29" s="1">
@@ -2801,16 +2809,16 @@
       <c r="B30" s="3">
         <v>156.07730000000001</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="8">
         <v>30</v>
       </c>
       <c r="F30" s="1">
         <v>10</v>
       </c>
-      <c r="G30" s="7">
-        <v>10</v>
-      </c>
-      <c r="H30" s="7">
+      <c r="G30" s="8">
+        <v>10</v>
+      </c>
+      <c r="H30" s="8">
         <v>20</v>
       </c>
       <c r="I30" s="1">
@@ -2869,16 +2877,16 @@
       <c r="B31" s="3">
         <v>160.13380000000001</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="8">
         <v>30</v>
       </c>
       <c r="F31" s="1">
         <v>10</v>
       </c>
-      <c r="G31" s="7">
-        <v>10</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="G31" s="8">
+        <v>10</v>
+      </c>
+      <c r="H31" s="8">
         <v>20</v>
       </c>
       <c r="I31" s="1">
@@ -2937,16 +2945,16 @@
       <c r="B32" s="3">
         <v>161.12809999999999</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="8">
         <v>30</v>
       </c>
       <c r="F32" s="1">
         <v>10</v>
       </c>
-      <c r="G32" s="7">
-        <v>10</v>
-      </c>
-      <c r="H32" s="7">
+      <c r="G32" s="8">
+        <v>10</v>
+      </c>
+      <c r="H32" s="8">
         <v>20</v>
       </c>
       <c r="I32" s="1">
@@ -3005,16 +3013,16 @@
       <c r="B33" s="3">
         <v>162.113</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="8">
         <v>30</v>
       </c>
       <c r="F33" s="1">
         <v>10</v>
       </c>
-      <c r="G33" s="7">
-        <v>10</v>
-      </c>
-      <c r="H33" s="7">
+      <c r="G33" s="8">
+        <v>10</v>
+      </c>
+      <c r="H33" s="8">
         <v>20</v>
       </c>
       <c r="I33" s="1">
@@ -3073,16 +3081,16 @@
       <c r="B34" s="3">
         <v>166.08680000000001</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="8">
         <v>30</v>
       </c>
       <c r="F34" s="1">
         <v>10</v>
       </c>
-      <c r="G34" s="7">
-        <v>10</v>
-      </c>
-      <c r="H34" s="7">
+      <c r="G34" s="8">
+        <v>10</v>
+      </c>
+      <c r="H34" s="8">
         <v>20</v>
       </c>
       <c r="I34" s="1">
@@ -3141,16 +3149,16 @@
       <c r="B35" s="3">
         <v>170.09299999999999</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="8">
         <v>30</v>
       </c>
       <c r="F35" s="1">
         <v>6</v>
       </c>
-      <c r="G35" s="7">
-        <v>10</v>
-      </c>
-      <c r="H35" s="7">
+      <c r="G35" s="8">
+        <v>10</v>
+      </c>
+      <c r="H35" s="8">
         <v>20</v>
       </c>
       <c r="I35" s="1">
@@ -3209,16 +3217,16 @@
       <c r="B36" s="3">
         <v>175.11949999999999</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="8">
         <v>30</v>
       </c>
       <c r="F36" s="1">
         <v>10</v>
       </c>
-      <c r="G36" s="7">
-        <v>10</v>
-      </c>
-      <c r="H36" s="7">
+      <c r="G36" s="8">
+        <v>10</v>
+      </c>
+      <c r="H36" s="8">
         <v>20</v>
       </c>
       <c r="I36" s="1">
@@ -3277,7 +3285,7 @@
       <c r="B37" s="3">
         <v>176.1035</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="8">
         <v>30</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -3289,10 +3297,10 @@
       <c r="F37" s="1">
         <v>10</v>
       </c>
-      <c r="G37" s="7">
-        <v>10</v>
-      </c>
-      <c r="H37" s="7">
+      <c r="G37" s="8">
+        <v>10</v>
+      </c>
+      <c r="H37" s="8">
         <v>20</v>
       </c>
       <c r="I37" s="1">
@@ -3351,16 +3359,16 @@
       <c r="B38" s="3">
         <v>182.08170000000001</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="8">
         <v>30</v>
       </c>
       <c r="F38" s="1">
         <v>10</v>
       </c>
-      <c r="G38" s="7">
-        <v>10</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="G38" s="8">
+        <v>10</v>
+      </c>
+      <c r="H38" s="8">
         <v>20</v>
       </c>
       <c r="I38" s="1">
@@ -3419,16 +3427,16 @@
       <c r="B39" s="3">
         <v>203.1508</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="8">
         <v>30</v>
       </c>
       <c r="F39" s="1">
         <v>8</v>
       </c>
-      <c r="G39" s="7">
-        <v>10</v>
-      </c>
-      <c r="H39" s="7">
+      <c r="G39" s="8">
+        <v>10</v>
+      </c>
+      <c r="H39" s="8">
         <v>20</v>
       </c>
       <c r="I39" s="1">
@@ -3487,16 +3495,16 @@
       <c r="B40" s="3">
         <v>203.1508</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="8">
         <v>30</v>
       </c>
       <c r="F40" s="1">
         <v>8</v>
       </c>
-      <c r="G40" s="7">
-        <v>10</v>
-      </c>
-      <c r="H40" s="7">
+      <c r="G40" s="8">
+        <v>10</v>
+      </c>
+      <c r="H40" s="8">
         <v>20</v>
       </c>
       <c r="I40" s="1">
@@ -3555,16 +3563,16 @@
       <c r="B41" s="3">
         <v>204.12360000000001</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="8">
         <v>30</v>
       </c>
       <c r="F41" s="1">
         <v>10</v>
       </c>
-      <c r="G41" s="7">
-        <v>10</v>
-      </c>
-      <c r="H41" s="7">
+      <c r="G41" s="8">
+        <v>10</v>
+      </c>
+      <c r="H41" s="8">
         <v>20</v>
       </c>
       <c r="I41" s="1">
@@ -3623,16 +3631,16 @@
       <c r="B42" s="3">
         <v>205.0977</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="8">
         <v>30</v>
       </c>
       <c r="F42" s="1">
         <v>10</v>
       </c>
-      <c r="G42" s="7">
-        <v>10</v>
-      </c>
-      <c r="H42" s="7">
+      <c r="G42" s="8">
+        <v>10</v>
+      </c>
+      <c r="H42" s="8">
         <v>20</v>
       </c>
       <c r="I42" s="1">
@@ -3691,7 +3699,7 @@
       <c r="B43" s="3">
         <v>218.13919999999999</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="8">
         <v>30</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -3703,10 +3711,10 @@
       <c r="F43" s="1">
         <v>8</v>
       </c>
-      <c r="G43" s="7">
-        <v>10</v>
-      </c>
-      <c r="H43" s="7">
+      <c r="G43" s="8">
+        <v>10</v>
+      </c>
+      <c r="H43" s="8">
         <v>20</v>
       </c>
       <c r="I43" s="1">
@@ -3765,16 +3773,16 @@
       <c r="B44" s="3">
         <v>241.0317</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="8">
         <v>30</v>
       </c>
       <c r="F44" s="1">
         <v>8</v>
       </c>
-      <c r="G44" s="7">
-        <v>10</v>
-      </c>
-      <c r="H44" s="7">
+      <c r="G44" s="8">
+        <v>10</v>
+      </c>
+      <c r="H44" s="8">
         <v>20</v>
       </c>
       <c r="I44" s="1">
@@ -3833,16 +3841,16 @@
       <c r="B45" s="3">
         <v>276.1191</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="8">
         <v>30</v>
       </c>
       <c r="F45" s="1">
         <v>10</v>
       </c>
-      <c r="G45" s="7">
-        <v>20</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="G45" s="8">
+        <v>20</v>
+      </c>
+      <c r="H45" s="8">
         <v>20</v>
       </c>
       <c r="I45" s="1">
@@ -3901,16 +3909,16 @@
       <c r="B46" s="3">
         <v>298.05309999999997</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="8">
         <v>30</v>
       </c>
       <c r="F46" s="1">
         <v>8</v>
       </c>
-      <c r="G46" s="7">
-        <v>10</v>
-      </c>
-      <c r="H46" s="7">
+      <c r="G46" s="8">
+        <v>10</v>
+      </c>
+      <c r="H46" s="8">
         <v>20</v>
       </c>
       <c r="I46" s="1">
@@ -3964,12 +3972,12 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B47" s="1">
         <v>238.09899999999999</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="8">
         <v>30</v>
       </c>
       <c r="F47" s="1">
@@ -3978,7 +3986,7 @@
       <c r="G47" s="1">
         <v>10</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="8">
         <v>20</v>
       </c>
       <c r="I47" s="1">
@@ -4042,7 +4050,7 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4051,8 +4059,8 @@
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
@@ -4062,10 +4070,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -4074,87 +4082,87 @@
       <c r="D1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="7" t="s">
         <v>58</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>70</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="6">
         <v>85.1327</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>35</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="6">
         <v>2</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="6">
         <v>26</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="6">
         <v>1.6</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="6">
         <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -4163,69 +4171,69 @@
       <c r="J2" s="1">
         <v>4</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2">
         <v>6.431</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2">
         <v>7.3140000000000001</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2">
         <v>8.1630000000000003</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2">
         <v>9.0129999999999999</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2">
         <v>9.8629999999999995</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2">
         <v>10.679</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2">
         <v>11.512</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2">
         <v>12.327999999999999</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2">
         <v>13.128</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2">
         <v>13.944000000000001</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2">
         <v>14.760999999999999</v>
       </c>
-      <c r="V2" s="1">
+      <c r="V2">
         <v>15.61</v>
       </c>
-      <c r="W2" s="1">
+      <c r="W2">
         <v>16.427</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6">
         <v>113.164</v>
       </c>
-      <c r="C3" s="7">
-        <v>30</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="C3" s="8">
+        <v>30</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="6">
         <v>2</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="6">
         <v>26</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="6">
         <v>1.6</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="6">
         <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -4234,69 +4242,69 @@
       <c r="J3" s="1">
         <v>4</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3">
         <v>7.181</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3">
         <v>8.0139999999999993</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3">
         <v>8.8629999999999995</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3">
         <v>9.6959999999999997</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3">
         <v>10.512</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3">
         <v>11.311999999999999</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3">
         <v>12.112</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3">
         <v>12.911</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3">
         <v>13.711</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3">
         <v>14.510999999999999</v>
       </c>
-      <c r="U3" s="1">
+      <c r="U3">
         <v>15.343999999999999</v>
       </c>
-      <c r="V3" s="1">
+      <c r="V3">
         <v>16.16</v>
       </c>
-      <c r="W3" s="1">
+      <c r="W3">
         <v>16.96</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="6">
         <v>117.0856</v>
       </c>
-      <c r="C4" s="7">
-        <v>30</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="C4" s="8">
+        <v>30</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="6">
         <v>3</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="6">
         <v>26</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="6">
         <v>1.6</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="6">
         <v>20</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -4305,69 +4313,69 @@
       <c r="J4" s="1">
         <v>4</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4">
         <v>8.48</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4">
         <v>9.2799999999999994</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4">
         <v>10.079000000000001</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4">
         <v>10.879</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4">
         <v>11.662000000000001</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4">
         <v>12.445</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4">
         <v>13.228</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4">
         <v>14.010999999999999</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4">
         <v>14.776999999999999</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4">
         <v>15.577</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U4">
         <v>16.36</v>
       </c>
-      <c r="V4" s="1">
+      <c r="V4">
         <v>17.143000000000001</v>
       </c>
-      <c r="W4" s="1">
+      <c r="W4">
         <v>17.908999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="6">
         <v>157.07429999999999</v>
       </c>
-      <c r="C5" s="7">
-        <v>30</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C5" s="8">
+        <v>30</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="6">
         <v>3</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="6">
         <v>26</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="6">
         <v>1.6</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="6">
         <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -4376,69 +4384,69 @@
       <c r="J5" s="1">
         <v>4</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5">
         <v>8.5969999999999995</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5">
         <v>9.3800000000000008</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5">
         <v>10.196</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5">
         <v>10.996</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5">
         <v>11.779</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5">
         <v>12.561999999999999</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5">
         <v>13.345000000000001</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5">
         <v>14.111000000000001</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5">
         <v>14.877000000000001</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5">
         <v>15.66</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5">
         <v>16.427</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5">
         <v>17.193000000000001</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5">
         <v>17.959</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
         <v>173.11179999999999</v>
       </c>
-      <c r="C6" s="7">
-        <v>30</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="C6" s="8">
+        <v>30</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="6">
         <v>3</v>
       </c>
-      <c r="F6" s="1">
-        <v>30</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="F6" s="6">
+        <v>30</v>
+      </c>
+      <c r="G6" s="6">
         <v>1.6</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="6">
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -4447,69 +4455,69 @@
       <c r="J6" s="1">
         <v>4</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6">
         <v>8.98</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6">
         <v>9.7629999999999999</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6">
         <v>10.561999999999999</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6">
         <v>11.345000000000001</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6">
         <v>12.112</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6">
         <v>12.878</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6">
         <v>13.661</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6">
         <v>14.427</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6">
         <v>15.194000000000001</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6">
         <v>15.977</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6">
         <v>16.725999999999999</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V6">
         <v>17.475999999999999</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W6">
         <v>18.225999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="6">
         <v>110.1088</v>
       </c>
-      <c r="C7" s="7">
-        <v>30</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="C7" s="8">
+        <v>30</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="6">
         <v>3</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="6">
         <v>26</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="6">
         <v>1.6</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="6">
         <v>20</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -4518,69 +4526,69 @@
       <c r="J7" s="1">
         <v>4</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7">
         <v>9.5299999999999994</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7">
         <v>10.295999999999999</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7">
         <v>11.061999999999999</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7">
         <v>11.827999999999999</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7">
         <v>12.595000000000001</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7">
         <v>13.361000000000001</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7">
         <v>14.111000000000001</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7">
         <v>14.877000000000001</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7">
         <v>15.644</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7">
         <v>16.41</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7">
         <v>17.16</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7">
         <v>17.925999999999998</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7">
         <v>18.658999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="6">
         <v>165.1318</v>
       </c>
-      <c r="C8" s="7">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="C8" s="8">
+        <v>30</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="6">
         <v>8</v>
       </c>
-      <c r="F8" s="1">
-        <v>30</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="F8" s="6">
+        <v>30</v>
+      </c>
+      <c r="G8" s="6">
         <v>1.6</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="6">
         <v>20</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -4589,69 +4597,69 @@
       <c r="J8" s="1">
         <v>4</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8">
         <v>11.395</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8">
         <v>12.095000000000001</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8">
         <v>12.811</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8">
         <v>13.544</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8">
         <v>14.276999999999999</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8">
         <v>15.01</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8">
         <v>15.727</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8">
         <v>16.46</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8">
         <v>17.175999999999998</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T8">
         <v>17.893000000000001</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U8">
         <v>18.609000000000002</v>
       </c>
-      <c r="V8" s="1">
+      <c r="V8">
         <v>19.324999999999999</v>
       </c>
-      <c r="W8" s="1">
+      <c r="W8">
         <v>20.007999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="6">
         <v>184.07740000000001</v>
       </c>
-      <c r="C9" s="7">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="C9" s="8">
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="6">
         <v>8</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="6">
         <v>40</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="6">
         <v>1.6</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="6">
         <v>20</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -4660,69 +4668,69 @@
       <c r="J9" s="1">
         <v>4</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9">
         <v>16.46</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9">
         <v>17.076000000000001</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9">
         <v>17.693000000000001</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9">
         <v>18.309000000000001</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9">
         <v>18.942</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9">
         <v>19.559000000000001</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9">
         <v>20.158000000000001</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9">
         <v>20.774999999999999</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9">
         <v>21.373999999999999</v>
       </c>
-      <c r="T9" s="1">
+      <c r="T9">
         <v>21.991</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9">
         <v>22.574000000000002</v>
       </c>
-      <c r="V9" s="1">
+      <c r="V9">
         <v>23.173999999999999</v>
       </c>
-      <c r="W9" s="1">
+      <c r="W9">
         <v>23.74</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="6">
         <v>200.07230000000001</v>
       </c>
-      <c r="C10" s="7">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="C10" s="8">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="6">
         <v>8</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="6">
         <v>40</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="6">
         <v>1.6</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="6">
         <v>20</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -4731,69 +4739,69 @@
       <c r="J10" s="1">
         <v>4</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10">
         <v>17.359000000000002</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10">
         <v>17.943000000000001</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10">
         <v>18.542000000000002</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10">
         <v>19.141999999999999</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10">
         <v>19.725000000000001</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10">
         <v>20.324999999999999</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10">
         <v>20.925000000000001</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10">
         <v>21.507999999999999</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10">
         <v>22.091000000000001</v>
       </c>
-      <c r="T10" s="1">
+      <c r="T10">
         <v>22.673999999999999</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10">
         <v>23.24</v>
       </c>
-      <c r="V10" s="1">
+      <c r="V10">
         <v>23.823</v>
       </c>
-      <c r="W10" s="1">
+      <c r="W10">
         <v>24.39</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="6">
         <v>216.0427</v>
       </c>
-      <c r="C11" s="1">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="C11" s="6">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="6">
         <v>8</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="6">
         <v>40</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="6">
         <v>1.6</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="6">
         <v>20</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -4802,43 +4810,43 @@
       <c r="J11" s="1">
         <v>4</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11">
         <v>17.658999999999999</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11">
         <v>18.242000000000001</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11">
         <v>18.841999999999999</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11">
         <v>19.442</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11">
         <v>20.042000000000002</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11">
         <v>20.625</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11">
         <v>21.207999999999998</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11">
         <v>21.774000000000001</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11">
         <v>22.356999999999999</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T11">
         <v>22.923999999999999</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U11">
         <v>23.49</v>
       </c>
-      <c r="V11" s="1">
+      <c r="V11">
         <v>24.056999999999999</v>
       </c>
-      <c r="W11" s="1">
+      <c r="W11">
         <v>24.606000000000002</v>
       </c>
     </row>
@@ -4867,10 +4875,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05892D0-CA56-4D94-BF5E-70073D9BBFCD}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4881,10 +4889,11 @@
     <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>63</v>
       </c>
@@ -4901,13 +4910,16 @@
         <v>68</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>13</v>
       </c>
@@ -4924,23 +4936,17 @@
         <v>1000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+        <v>75</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>